--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB6796E7-E29F-4702-9652-8FCD4CF4F39A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8C7F3D-D93B-42BB-A3F4-C599874A802C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="465" windowWidth="19905" windowHeight="12435" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
+    <workbookView xWindow="1080" yWindow="195" windowWidth="9900" windowHeight="12435" firstSheet="1" activeTab="1" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Provincias_Diaria" sheetId="1" r:id="rId1"/>
+    <sheet name="Casos_Muertes_Nuevos" sheetId="3" r:id="rId2"/>
+    <sheet name="Por_Edad" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="54">
   <si>
     <t>Incidencia Acumulada</t>
   </si>
@@ -182,6 +183,18 @@
   </si>
   <si>
     <t>17/6/2020</t>
+  </si>
+  <si>
+    <t>18/6/2020</t>
+  </si>
+  <si>
+    <t>19/6/2020</t>
+  </si>
+  <si>
+    <t>Casos Nuevos</t>
+  </si>
+  <si>
+    <t>Defunciones Nuevos</t>
   </si>
 </sst>
 </file>
@@ -223,9 +236,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,6 +1478,902 @@
         <v>128</v>
       </c>
     </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>607.95000000000005</v>
+      </c>
+      <c r="D66">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>224.52</v>
+      </c>
+      <c r="D67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>15.84</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>200.87</v>
+      </c>
+      <c r="D69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <v>30.09</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>50</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>277</v>
+      </c>
+      <c r="D71">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>50</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72">
+        <v>37.85</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73">
+        <v>37.43</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>50</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74">
+        <v>271.43</v>
+      </c>
+      <c r="D74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75">
+        <v>78.73</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>50</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76">
+        <v>171.76</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77">
+        <v>236.25</v>
+      </c>
+      <c r="D77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78">
+        <v>270.13</v>
+      </c>
+      <c r="D78">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>50</v>
+      </c>
+      <c r="B79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79">
+        <v>122.61</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>50</v>
+      </c>
+      <c r="B80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80">
+        <v>32.42</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>50</v>
+      </c>
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81">
+        <v>111.44</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>50</v>
+      </c>
+      <c r="B82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82">
+        <v>73.44</v>
+      </c>
+      <c r="D82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>50</v>
+      </c>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83">
+        <v>126.34</v>
+      </c>
+      <c r="D83">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>50</v>
+      </c>
+      <c r="B84" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84">
+        <v>273.47000000000003</v>
+      </c>
+      <c r="D84">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>50</v>
+      </c>
+      <c r="B85" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85">
+        <v>51.71</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>50</v>
+      </c>
+      <c r="B86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86">
+        <v>238.61</v>
+      </c>
+      <c r="D86">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>50</v>
+      </c>
+      <c r="B87" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87">
+        <v>96.06</v>
+      </c>
+      <c r="D87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>50</v>
+      </c>
+      <c r="B88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88">
+        <v>63.94</v>
+      </c>
+      <c r="D88">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>50</v>
+      </c>
+      <c r="B89" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89">
+        <v>177.66</v>
+      </c>
+      <c r="D89">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>50</v>
+      </c>
+      <c r="B90" t="s">
+        <v>29</v>
+      </c>
+      <c r="C90">
+        <v>166.96</v>
+      </c>
+      <c r="D90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>50</v>
+      </c>
+      <c r="B91" t="s">
+        <v>30</v>
+      </c>
+      <c r="C91">
+        <v>108.27</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>50</v>
+      </c>
+      <c r="B92" t="s">
+        <v>31</v>
+      </c>
+      <c r="C92">
+        <v>97.89</v>
+      </c>
+      <c r="D92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>50</v>
+      </c>
+      <c r="B93" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93">
+        <v>212.88</v>
+      </c>
+      <c r="D93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>50</v>
+      </c>
+      <c r="B94" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94">
+        <v>26.7</v>
+      </c>
+      <c r="D94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>50</v>
+      </c>
+      <c r="B95" t="s">
+        <v>34</v>
+      </c>
+      <c r="C95">
+        <v>20.99</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>50</v>
+      </c>
+      <c r="B96" t="s">
+        <v>35</v>
+      </c>
+      <c r="C96">
+        <v>88.23</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>50</v>
+      </c>
+      <c r="B97" t="s">
+        <v>36</v>
+      </c>
+      <c r="C97">
+        <v>252.58</v>
+      </c>
+      <c r="D97">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>51</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>627.21</v>
+      </c>
+      <c r="D98">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>51</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99">
+        <v>234.41</v>
+      </c>
+      <c r="D99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>51</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100">
+        <v>16.829999999999998</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>51</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101">
+        <v>205.1</v>
+      </c>
+      <c r="D101">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>51</v>
+      </c>
+      <c r="B102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102">
+        <v>31.59</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>51</v>
+      </c>
+      <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103">
+        <v>279.01</v>
+      </c>
+      <c r="D103">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>51</v>
+      </c>
+      <c r="B104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104">
+        <v>42.59</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>51</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105">
+        <v>37.43</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>51</v>
+      </c>
+      <c r="B106" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106">
+        <v>273.08999999999997</v>
+      </c>
+      <c r="D106">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>51</v>
+      </c>
+      <c r="B107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107">
+        <v>80.45</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>51</v>
+      </c>
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108">
+        <v>176</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B109" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109">
+        <v>242.48</v>
+      </c>
+      <c r="D109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>51</v>
+      </c>
+      <c r="B110" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110">
+        <v>273.29000000000002</v>
+      </c>
+      <c r="D110">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>51</v>
+      </c>
+      <c r="B111" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111">
+        <v>128.28</v>
+      </c>
+      <c r="D111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>51</v>
+      </c>
+      <c r="B112" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112">
+        <v>32.42</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>51</v>
+      </c>
+      <c r="B113" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113">
+        <v>111.44</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>51</v>
+      </c>
+      <c r="B114" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114">
+        <v>75.97</v>
+      </c>
+      <c r="D114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>51</v>
+      </c>
+      <c r="B115" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115">
+        <v>126.94</v>
+      </c>
+      <c r="D115">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>51</v>
+      </c>
+      <c r="B116" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116">
+        <v>273.47000000000003</v>
+      </c>
+      <c r="D116">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>51</v>
+      </c>
+      <c r="B117" t="s">
+        <v>24</v>
+      </c>
+      <c r="C117">
+        <v>53.5</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>51</v>
+      </c>
+      <c r="B118" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118">
+        <v>247.4</v>
+      </c>
+      <c r="D118">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>51</v>
+      </c>
+      <c r="B119" t="s">
+        <v>26</v>
+      </c>
+      <c r="C119">
+        <v>106.43</v>
+      </c>
+      <c r="D119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>51</v>
+      </c>
+      <c r="B120" t="s">
+        <v>27</v>
+      </c>
+      <c r="C120">
+        <v>66.239999999999995</v>
+      </c>
+      <c r="D120">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>51</v>
+      </c>
+      <c r="B121" t="s">
+        <v>28</v>
+      </c>
+      <c r="C121">
+        <v>178.97</v>
+      </c>
+      <c r="D121">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>51</v>
+      </c>
+      <c r="B122" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122">
+        <v>169.73</v>
+      </c>
+      <c r="D122">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>51</v>
+      </c>
+      <c r="B123" t="s">
+        <v>30</v>
+      </c>
+      <c r="C123">
+        <v>111.76</v>
+      </c>
+      <c r="D123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>51</v>
+      </c>
+      <c r="B124" t="s">
+        <v>31</v>
+      </c>
+      <c r="C124">
+        <v>97.89</v>
+      </c>
+      <c r="D124">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>51</v>
+      </c>
+      <c r="B125" t="s">
+        <v>32</v>
+      </c>
+      <c r="C125">
+        <v>212.88</v>
+      </c>
+      <c r="D125">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>51</v>
+      </c>
+      <c r="B126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C126">
+        <v>26.7</v>
+      </c>
+      <c r="D126">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>51</v>
+      </c>
+      <c r="B127" t="s">
+        <v>34</v>
+      </c>
+      <c r="C127">
+        <v>20.99</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>51</v>
+      </c>
+      <c r="B128" t="s">
+        <v>35</v>
+      </c>
+      <c r="C128">
+        <v>88.23</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>51</v>
+      </c>
+      <c r="B129" t="s">
+        <v>36</v>
+      </c>
+      <c r="C129">
+        <v>260.74</v>
+      </c>
+      <c r="D129">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1472,6 +2382,111 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005521EB-8403-4AB8-9467-2F78CE04D37F}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B2">
+        <v>419</v>
+      </c>
+      <c r="C2">
+        <v>-633</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B3">
+        <v>540</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B4">
+        <v>423</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44001</v>
+      </c>
+      <c r="B5">
+        <v>710</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>44007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F422A3AD-6985-4C77-AE63-323FE7C4AE0C}">
   <dimension ref="A1:D10"/>
   <sheetViews>

--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB6796E7-E29F-4702-9652-8FCD4CF4F39A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009831A2-2377-445F-986B-32708D552EE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="465" windowWidth="19905" windowHeight="12435" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
+    <workbookView xWindow="1080" yWindow="195" windowWidth="9900" windowHeight="12435" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Provincias_Diaria" sheetId="1" r:id="rId1"/>
+    <sheet name="Casos_Muertes_Nuevos" sheetId="3" r:id="rId2"/>
+    <sheet name="Por_Edad" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="56">
   <si>
     <t>Incidencia Acumulada</t>
   </si>
@@ -182,6 +183,24 @@
   </si>
   <si>
     <t>17/6/2020</t>
+  </si>
+  <si>
+    <t>18/6/2020</t>
+  </si>
+  <si>
+    <t>19/6/2020</t>
+  </si>
+  <si>
+    <t>Casos Nuevos</t>
+  </si>
+  <si>
+    <t>Defunciones Nuevos</t>
+  </si>
+  <si>
+    <t>20/6/2020</t>
+  </si>
+  <si>
+    <t>21/6/2020</t>
   </si>
 </sst>
 </file>
@@ -223,9 +242,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="D193" sqref="D193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,6 +1484,1798 @@
         <v>128</v>
       </c>
     </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>607.95000000000005</v>
+      </c>
+      <c r="D66">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>224.52</v>
+      </c>
+      <c r="D67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>15.84</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>200.87</v>
+      </c>
+      <c r="D69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <v>30.09</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>50</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>277</v>
+      </c>
+      <c r="D71">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>50</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72">
+        <v>37.85</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73">
+        <v>37.43</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>50</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74">
+        <v>271.43</v>
+      </c>
+      <c r="D74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75">
+        <v>78.73</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>50</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76">
+        <v>171.76</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77">
+        <v>236.25</v>
+      </c>
+      <c r="D77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78">
+        <v>270.13</v>
+      </c>
+      <c r="D78">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>50</v>
+      </c>
+      <c r="B79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79">
+        <v>122.61</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>50</v>
+      </c>
+      <c r="B80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80">
+        <v>32.42</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>50</v>
+      </c>
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81">
+        <v>111.44</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>50</v>
+      </c>
+      <c r="B82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82">
+        <v>73.44</v>
+      </c>
+      <c r="D82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>50</v>
+      </c>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83">
+        <v>126.34</v>
+      </c>
+      <c r="D83">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>50</v>
+      </c>
+      <c r="B84" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84">
+        <v>273.47000000000003</v>
+      </c>
+      <c r="D84">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>50</v>
+      </c>
+      <c r="B85" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85">
+        <v>51.71</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>50</v>
+      </c>
+      <c r="B86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86">
+        <v>238.61</v>
+      </c>
+      <c r="D86">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>50</v>
+      </c>
+      <c r="B87" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87">
+        <v>96.06</v>
+      </c>
+      <c r="D87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>50</v>
+      </c>
+      <c r="B88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88">
+        <v>63.94</v>
+      </c>
+      <c r="D88">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>50</v>
+      </c>
+      <c r="B89" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89">
+        <v>177.66</v>
+      </c>
+      <c r="D89">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>50</v>
+      </c>
+      <c r="B90" t="s">
+        <v>29</v>
+      </c>
+      <c r="C90">
+        <v>166.96</v>
+      </c>
+      <c r="D90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>50</v>
+      </c>
+      <c r="B91" t="s">
+        <v>30</v>
+      </c>
+      <c r="C91">
+        <v>108.27</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>50</v>
+      </c>
+      <c r="B92" t="s">
+        <v>31</v>
+      </c>
+      <c r="C92">
+        <v>97.89</v>
+      </c>
+      <c r="D92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>50</v>
+      </c>
+      <c r="B93" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93">
+        <v>212.88</v>
+      </c>
+      <c r="D93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>50</v>
+      </c>
+      <c r="B94" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94">
+        <v>26.7</v>
+      </c>
+      <c r="D94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>50</v>
+      </c>
+      <c r="B95" t="s">
+        <v>34</v>
+      </c>
+      <c r="C95">
+        <v>20.99</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>50</v>
+      </c>
+      <c r="B96" t="s">
+        <v>35</v>
+      </c>
+      <c r="C96">
+        <v>88.23</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>50</v>
+      </c>
+      <c r="B97" t="s">
+        <v>36</v>
+      </c>
+      <c r="C97">
+        <v>252.58</v>
+      </c>
+      <c r="D97">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>51</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>627.21</v>
+      </c>
+      <c r="D98">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>51</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99">
+        <v>234.41</v>
+      </c>
+      <c r="D99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>51</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100">
+        <v>16.829999999999998</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>51</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101">
+        <v>205.1</v>
+      </c>
+      <c r="D101">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>51</v>
+      </c>
+      <c r="B102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102">
+        <v>31.59</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>51</v>
+      </c>
+      <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103">
+        <v>279.01</v>
+      </c>
+      <c r="D103">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>51</v>
+      </c>
+      <c r="B104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104">
+        <v>42.59</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>51</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105">
+        <v>37.43</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>51</v>
+      </c>
+      <c r="B106" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106">
+        <v>273.08999999999997</v>
+      </c>
+      <c r="D106">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>51</v>
+      </c>
+      <c r="B107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107">
+        <v>80.45</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>51</v>
+      </c>
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108">
+        <v>176</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B109" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109">
+        <v>242.48</v>
+      </c>
+      <c r="D109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>51</v>
+      </c>
+      <c r="B110" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110">
+        <v>273.29000000000002</v>
+      </c>
+      <c r="D110">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>51</v>
+      </c>
+      <c r="B111" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111">
+        <v>128.28</v>
+      </c>
+      <c r="D111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>51</v>
+      </c>
+      <c r="B112" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112">
+        <v>32.42</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>51</v>
+      </c>
+      <c r="B113" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113">
+        <v>111.44</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>51</v>
+      </c>
+      <c r="B114" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114">
+        <v>75.97</v>
+      </c>
+      <c r="D114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>51</v>
+      </c>
+      <c r="B115" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115">
+        <v>126.94</v>
+      </c>
+      <c r="D115">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>51</v>
+      </c>
+      <c r="B116" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116">
+        <v>273.47000000000003</v>
+      </c>
+      <c r="D116">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>51</v>
+      </c>
+      <c r="B117" t="s">
+        <v>24</v>
+      </c>
+      <c r="C117">
+        <v>53.5</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>51</v>
+      </c>
+      <c r="B118" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118">
+        <v>247.4</v>
+      </c>
+      <c r="D118">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>51</v>
+      </c>
+      <c r="B119" t="s">
+        <v>26</v>
+      </c>
+      <c r="C119">
+        <v>106.43</v>
+      </c>
+      <c r="D119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>51</v>
+      </c>
+      <c r="B120" t="s">
+        <v>27</v>
+      </c>
+      <c r="C120">
+        <v>66.239999999999995</v>
+      </c>
+      <c r="D120">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>51</v>
+      </c>
+      <c r="B121" t="s">
+        <v>28</v>
+      </c>
+      <c r="C121">
+        <v>178.97</v>
+      </c>
+      <c r="D121">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>51</v>
+      </c>
+      <c r="B122" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122">
+        <v>169.73</v>
+      </c>
+      <c r="D122">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>51</v>
+      </c>
+      <c r="B123" t="s">
+        <v>30</v>
+      </c>
+      <c r="C123">
+        <v>111.76</v>
+      </c>
+      <c r="D123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>51</v>
+      </c>
+      <c r="B124" t="s">
+        <v>31</v>
+      </c>
+      <c r="C124">
+        <v>97.89</v>
+      </c>
+      <c r="D124">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>51</v>
+      </c>
+      <c r="B125" t="s">
+        <v>32</v>
+      </c>
+      <c r="C125">
+        <v>212.88</v>
+      </c>
+      <c r="D125">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>51</v>
+      </c>
+      <c r="B126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C126">
+        <v>26.7</v>
+      </c>
+      <c r="D126">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>51</v>
+      </c>
+      <c r="B127" t="s">
+        <v>34</v>
+      </c>
+      <c r="C127">
+        <v>20.99</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>51</v>
+      </c>
+      <c r="B128" t="s">
+        <v>35</v>
+      </c>
+      <c r="C128">
+        <v>88.23</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>51</v>
+      </c>
+      <c r="B129" t="s">
+        <v>36</v>
+      </c>
+      <c r="C129">
+        <v>260.74</v>
+      </c>
+      <c r="D129">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>54</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130">
+        <v>643.03</v>
+      </c>
+      <c r="D130">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>54</v>
+      </c>
+      <c r="B131" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131">
+        <v>241.61</v>
+      </c>
+      <c r="D131">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>54</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132">
+        <v>17.82</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>54</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133">
+        <v>234.17</v>
+      </c>
+      <c r="D133">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>54</v>
+      </c>
+      <c r="B134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134">
+        <v>31.59</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>54</v>
+      </c>
+      <c r="B135" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135">
+        <v>280.68</v>
+      </c>
+      <c r="D135">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>54</v>
+      </c>
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136">
+        <v>61.51</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>54</v>
+      </c>
+      <c r="B137" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137">
+        <v>37.43</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>54</v>
+      </c>
+      <c r="B138" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138">
+        <v>289.35000000000002</v>
+      </c>
+      <c r="D138">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>54</v>
+      </c>
+      <c r="B139" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139">
+        <v>118.1</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>54</v>
+      </c>
+      <c r="B140" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140">
+        <v>181.66</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>54</v>
+      </c>
+      <c r="B141" t="s">
+        <v>16</v>
+      </c>
+      <c r="C141">
+        <v>254.59</v>
+      </c>
+      <c r="D141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>54</v>
+      </c>
+      <c r="B142" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142">
+        <v>276.2</v>
+      </c>
+      <c r="D142">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>54</v>
+      </c>
+      <c r="B143" t="s">
+        <v>18</v>
+      </c>
+      <c r="C143">
+        <v>131.12</v>
+      </c>
+      <c r="D143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>54</v>
+      </c>
+      <c r="B144" t="s">
+        <v>19</v>
+      </c>
+      <c r="C144">
+        <v>39.24</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>54</v>
+      </c>
+      <c r="B145" t="s">
+        <v>20</v>
+      </c>
+      <c r="C145">
+        <v>128.58000000000001</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>54</v>
+      </c>
+      <c r="B146" t="s">
+        <v>21</v>
+      </c>
+      <c r="C146">
+        <v>76.989999999999995</v>
+      </c>
+      <c r="D146">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>54</v>
+      </c>
+      <c r="B147" t="s">
+        <v>22</v>
+      </c>
+      <c r="C147">
+        <v>127.24</v>
+      </c>
+      <c r="D147">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>54</v>
+      </c>
+      <c r="B148" t="s">
+        <v>23</v>
+      </c>
+      <c r="C148">
+        <v>274.56</v>
+      </c>
+      <c r="D148">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>54</v>
+      </c>
+      <c r="B149" t="s">
+        <v>24</v>
+      </c>
+      <c r="C149">
+        <v>55.28</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>54</v>
+      </c>
+      <c r="B150" t="s">
+        <v>25</v>
+      </c>
+      <c r="C150">
+        <v>258.07</v>
+      </c>
+      <c r="D150">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>54</v>
+      </c>
+      <c r="B151" t="s">
+        <v>26</v>
+      </c>
+      <c r="C151">
+        <v>107.33</v>
+      </c>
+      <c r="D151">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>54</v>
+      </c>
+      <c r="B152" t="s">
+        <v>27</v>
+      </c>
+      <c r="C152">
+        <v>71.48</v>
+      </c>
+      <c r="D152">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>54</v>
+      </c>
+      <c r="B153" t="s">
+        <v>28</v>
+      </c>
+      <c r="C153">
+        <v>188.84</v>
+      </c>
+      <c r="D153">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>54</v>
+      </c>
+      <c r="B154" t="s">
+        <v>29</v>
+      </c>
+      <c r="C154">
+        <v>172.7</v>
+      </c>
+      <c r="D154">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>54</v>
+      </c>
+      <c r="B155" t="s">
+        <v>30</v>
+      </c>
+      <c r="C155">
+        <v>120.49</v>
+      </c>
+      <c r="D155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>54</v>
+      </c>
+      <c r="B156" t="s">
+        <v>31</v>
+      </c>
+      <c r="C156">
+        <v>97.89</v>
+      </c>
+      <c r="D156">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>54</v>
+      </c>
+      <c r="B157" t="s">
+        <v>32</v>
+      </c>
+      <c r="C157">
+        <v>212.88</v>
+      </c>
+      <c r="D157">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>54</v>
+      </c>
+      <c r="B158" t="s">
+        <v>33</v>
+      </c>
+      <c r="C158">
+        <v>27.74</v>
+      </c>
+      <c r="D158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>54</v>
+      </c>
+      <c r="B159" t="s">
+        <v>34</v>
+      </c>
+      <c r="C159">
+        <v>20.99</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>54</v>
+      </c>
+      <c r="B160" t="s">
+        <v>35</v>
+      </c>
+      <c r="C160">
+        <v>88.23</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>54</v>
+      </c>
+      <c r="B161" t="s">
+        <v>36</v>
+      </c>
+      <c r="C161">
+        <v>270.72000000000003</v>
+      </c>
+      <c r="D161">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>55</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162">
+        <v>659.9</v>
+      </c>
+      <c r="D162">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>55</v>
+      </c>
+      <c r="B163" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163">
+        <v>250.16</v>
+      </c>
+      <c r="D163">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>55</v>
+      </c>
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164">
+        <v>19.8</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>55</v>
+      </c>
+      <c r="B165" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165">
+        <v>234.7</v>
+      </c>
+      <c r="D165">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>55</v>
+      </c>
+      <c r="B166" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166">
+        <v>31.59</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>55</v>
+      </c>
+      <c r="B167" t="s">
+        <v>10</v>
+      </c>
+      <c r="C167">
+        <v>283.69</v>
+      </c>
+      <c r="D167">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>55</v>
+      </c>
+      <c r="B168" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168">
+        <v>63.09</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>55</v>
+      </c>
+      <c r="B169" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169">
+        <v>37.43</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>55</v>
+      </c>
+      <c r="B170" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170">
+        <v>289.77</v>
+      </c>
+      <c r="D170">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>55</v>
+      </c>
+      <c r="B171" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171">
+        <v>118.1</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>55</v>
+      </c>
+      <c r="B172" t="s">
+        <v>15</v>
+      </c>
+      <c r="C172">
+        <v>185.34</v>
+      </c>
+      <c r="D172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>55</v>
+      </c>
+      <c r="B173" t="s">
+        <v>16</v>
+      </c>
+      <c r="C173">
+        <v>264.13</v>
+      </c>
+      <c r="D173">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>55</v>
+      </c>
+      <c r="B174" t="s">
+        <v>17</v>
+      </c>
+      <c r="C174">
+        <v>282.52999999999997</v>
+      </c>
+      <c r="D174">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>55</v>
+      </c>
+      <c r="B175" t="s">
+        <v>18</v>
+      </c>
+      <c r="C175">
+        <v>133.94999999999999</v>
+      </c>
+      <c r="D175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>55</v>
+      </c>
+      <c r="B176" t="s">
+        <v>19</v>
+      </c>
+      <c r="C176">
+        <v>39.24</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>55</v>
+      </c>
+      <c r="B177" t="s">
+        <v>20</v>
+      </c>
+      <c r="C177">
+        <v>128.58000000000001</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>55</v>
+      </c>
+      <c r="B178" t="s">
+        <v>21</v>
+      </c>
+      <c r="C178">
+        <v>80.53</v>
+      </c>
+      <c r="D178">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>55</v>
+      </c>
+      <c r="B179" t="s">
+        <v>22</v>
+      </c>
+      <c r="C179">
+        <v>128.74</v>
+      </c>
+      <c r="D179">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>55</v>
+      </c>
+      <c r="B180" t="s">
+        <v>23</v>
+      </c>
+      <c r="C180">
+        <v>274.56</v>
+      </c>
+      <c r="D180">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>55</v>
+      </c>
+      <c r="B181" t="s">
+        <v>24</v>
+      </c>
+      <c r="C181">
+        <v>56.17</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>55</v>
+      </c>
+      <c r="B182" t="s">
+        <v>25</v>
+      </c>
+      <c r="C182">
+        <v>265.27999999999997</v>
+      </c>
+      <c r="D182">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>55</v>
+      </c>
+      <c r="B183" t="s">
+        <v>26</v>
+      </c>
+      <c r="C183">
+        <v>110.49</v>
+      </c>
+      <c r="D183">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>55</v>
+      </c>
+      <c r="B184" t="s">
+        <v>27</v>
+      </c>
+      <c r="C184">
+        <v>75.75</v>
+      </c>
+      <c r="D184">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>55</v>
+      </c>
+      <c r="B185" t="s">
+        <v>28</v>
+      </c>
+      <c r="C185">
+        <v>191.48</v>
+      </c>
+      <c r="D185">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>55</v>
+      </c>
+      <c r="B186" t="s">
+        <v>29</v>
+      </c>
+      <c r="C186">
+        <v>180.26</v>
+      </c>
+      <c r="D186">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>55</v>
+      </c>
+      <c r="B187" t="s">
+        <v>30</v>
+      </c>
+      <c r="C187">
+        <v>123.98</v>
+      </c>
+      <c r="D187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>55</v>
+      </c>
+      <c r="B188" t="s">
+        <v>31</v>
+      </c>
+      <c r="C188">
+        <v>98.46</v>
+      </c>
+      <c r="D188">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>55</v>
+      </c>
+      <c r="B189" t="s">
+        <v>32</v>
+      </c>
+      <c r="C189">
+        <v>220.34</v>
+      </c>
+      <c r="D189">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>55</v>
+      </c>
+      <c r="B190" t="s">
+        <v>33</v>
+      </c>
+      <c r="C190">
+        <v>28.27</v>
+      </c>
+      <c r="D190">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>55</v>
+      </c>
+      <c r="B191" t="s">
+        <v>34</v>
+      </c>
+      <c r="C191">
+        <v>20.99</v>
+      </c>
+      <c r="D191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>55</v>
+      </c>
+      <c r="B192" t="s">
+        <v>35</v>
+      </c>
+      <c r="C192">
+        <v>95.58</v>
+      </c>
+      <c r="D192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>55</v>
+      </c>
+      <c r="B193" t="s">
+        <v>36</v>
+      </c>
+      <c r="C193">
+        <v>278.08</v>
+      </c>
+      <c r="D193">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1472,6 +3284,123 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005521EB-8403-4AB8-9467-2F78CE04D37F}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B2">
+        <v>419</v>
+      </c>
+      <c r="C2">
+        <v>-633</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B3">
+        <v>540</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B4">
+        <v>423</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44001</v>
+      </c>
+      <c r="B5">
+        <v>710</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44002</v>
+      </c>
+      <c r="B6">
+        <v>899</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B7">
+        <v>693</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>44007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F422A3AD-6985-4C77-AE63-323FE7C4AE0C}">
   <dimension ref="A1:D10"/>
   <sheetViews>

--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009831A2-2377-445F-986B-32708D552EE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B0C386-B7F2-4D1C-903F-99522A760CCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="195" windowWidth="9900" windowHeight="12435" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="59">
   <si>
     <t>Incidencia Acumulada</t>
   </si>
@@ -201,6 +201,15 @@
   </si>
   <si>
     <t>21/6/2020</t>
+  </si>
+  <si>
+    <t>22/6/2020</t>
+  </si>
+  <si>
+    <t>23/6/2020</t>
+  </si>
+  <si>
+    <t>24/6/2020</t>
   </si>
 </sst>
 </file>
@@ -560,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
-  <dimension ref="A1:D193"/>
+  <dimension ref="A1:D289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="D193" sqref="D193"/>
+    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="D290" sqref="D290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3276,6 +3285,1350 @@
         <v>139</v>
       </c>
     </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>56</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194">
+        <v>672.94</v>
+      </c>
+      <c r="D194">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>56</v>
+      </c>
+      <c r="B195" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195">
+        <v>252.86</v>
+      </c>
+      <c r="D195">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>56</v>
+      </c>
+      <c r="B196" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196">
+        <v>19.8</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>56</v>
+      </c>
+      <c r="B197" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197">
+        <v>234.7</v>
+      </c>
+      <c r="D197">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>56</v>
+      </c>
+      <c r="B198" t="s">
+        <v>9</v>
+      </c>
+      <c r="C198">
+        <v>31.59</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>56</v>
+      </c>
+      <c r="B199" t="s">
+        <v>10</v>
+      </c>
+      <c r="C199">
+        <v>284.02999999999997</v>
+      </c>
+      <c r="D199">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>56</v>
+      </c>
+      <c r="B200" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200">
+        <v>63.09</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>56</v>
+      </c>
+      <c r="B201" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201">
+        <v>37.43</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>56</v>
+      </c>
+      <c r="B202" t="s">
+        <v>13</v>
+      </c>
+      <c r="C202">
+        <v>290.60000000000002</v>
+      </c>
+      <c r="D202">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>56</v>
+      </c>
+      <c r="B203" t="s">
+        <v>14</v>
+      </c>
+      <c r="C203">
+        <v>118.1</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>56</v>
+      </c>
+      <c r="B204" t="s">
+        <v>15</v>
+      </c>
+      <c r="C204">
+        <v>188.73</v>
+      </c>
+      <c r="D204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>56</v>
+      </c>
+      <c r="B205" t="s">
+        <v>16</v>
+      </c>
+      <c r="C205">
+        <v>267.79000000000002</v>
+      </c>
+      <c r="D205">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>56</v>
+      </c>
+      <c r="B206" t="s">
+        <v>17</v>
+      </c>
+      <c r="C206">
+        <v>284.23</v>
+      </c>
+      <c r="D206">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>56</v>
+      </c>
+      <c r="B207" t="s">
+        <v>18</v>
+      </c>
+      <c r="C207">
+        <v>136.08000000000001</v>
+      </c>
+      <c r="D207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>56</v>
+      </c>
+      <c r="B208" t="s">
+        <v>19</v>
+      </c>
+      <c r="C208">
+        <v>39.24</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>56</v>
+      </c>
+      <c r="B209" t="s">
+        <v>20</v>
+      </c>
+      <c r="C209">
+        <v>128.58000000000001</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>56</v>
+      </c>
+      <c r="B210" t="s">
+        <v>21</v>
+      </c>
+      <c r="C210">
+        <v>82.56</v>
+      </c>
+      <c r="D210">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>56</v>
+      </c>
+      <c r="B211" t="s">
+        <v>22</v>
+      </c>
+      <c r="C211">
+        <v>130.24</v>
+      </c>
+      <c r="D211">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>56</v>
+      </c>
+      <c r="B212" t="s">
+        <v>23</v>
+      </c>
+      <c r="C212">
+        <v>281.07</v>
+      </c>
+      <c r="D212">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>56</v>
+      </c>
+      <c r="B213" t="s">
+        <v>24</v>
+      </c>
+      <c r="C213">
+        <v>57.95</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>56</v>
+      </c>
+      <c r="B214" t="s">
+        <v>25</v>
+      </c>
+      <c r="C214">
+        <v>270.3</v>
+      </c>
+      <c r="D214">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>56</v>
+      </c>
+      <c r="B215" t="s">
+        <v>26</v>
+      </c>
+      <c r="C215">
+        <v>113.65</v>
+      </c>
+      <c r="D215">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>56</v>
+      </c>
+      <c r="B216" t="s">
+        <v>27</v>
+      </c>
+      <c r="C216">
+        <v>77.06</v>
+      </c>
+      <c r="D216">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>56</v>
+      </c>
+      <c r="B217" t="s">
+        <v>28</v>
+      </c>
+      <c r="C217">
+        <v>192.79</v>
+      </c>
+      <c r="D217">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>56</v>
+      </c>
+      <c r="B218" t="s">
+        <v>29</v>
+      </c>
+      <c r="C218">
+        <v>185.23</v>
+      </c>
+      <c r="D218">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>56</v>
+      </c>
+      <c r="B219" t="s">
+        <v>30</v>
+      </c>
+      <c r="C219">
+        <v>123.98</v>
+      </c>
+      <c r="D219">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>56</v>
+      </c>
+      <c r="B220" t="s">
+        <v>31</v>
+      </c>
+      <c r="C220">
+        <v>99.59</v>
+      </c>
+      <c r="D220">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>56</v>
+      </c>
+      <c r="B221" t="s">
+        <v>32</v>
+      </c>
+      <c r="C221">
+        <v>226.08</v>
+      </c>
+      <c r="D221">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>56</v>
+      </c>
+      <c r="B222" t="s">
+        <v>33</v>
+      </c>
+      <c r="C222">
+        <v>28.27</v>
+      </c>
+      <c r="D222">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>56</v>
+      </c>
+      <c r="B223" t="s">
+        <v>34</v>
+      </c>
+      <c r="C223">
+        <v>20.99</v>
+      </c>
+      <c r="D223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>56</v>
+      </c>
+      <c r="B224" t="s">
+        <v>35</v>
+      </c>
+      <c r="C224">
+        <v>95.58</v>
+      </c>
+      <c r="D224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>56</v>
+      </c>
+      <c r="B225" t="s">
+        <v>36</v>
+      </c>
+      <c r="C225">
+        <v>285.10000000000002</v>
+      </c>
+      <c r="D225">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>57</v>
+      </c>
+      <c r="B226" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226">
+        <v>687.32</v>
+      </c>
+      <c r="D226">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>57</v>
+      </c>
+      <c r="B227" t="s">
+        <v>6</v>
+      </c>
+      <c r="C227">
+        <v>259.16000000000003</v>
+      </c>
+      <c r="D227">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>57</v>
+      </c>
+      <c r="B228" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228">
+        <v>19.8</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>57</v>
+      </c>
+      <c r="B229" t="s">
+        <v>8</v>
+      </c>
+      <c r="C229">
+        <v>236.82</v>
+      </c>
+      <c r="D229">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>57</v>
+      </c>
+      <c r="B230" t="s">
+        <v>9</v>
+      </c>
+      <c r="C230">
+        <v>31.59</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>57</v>
+      </c>
+      <c r="B231" t="s">
+        <v>10</v>
+      </c>
+      <c r="C231">
+        <v>284.7</v>
+      </c>
+      <c r="D231">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>57</v>
+      </c>
+      <c r="B232" t="s">
+        <v>11</v>
+      </c>
+      <c r="C232">
+        <v>72.55</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>57</v>
+      </c>
+      <c r="B233" t="s">
+        <v>12</v>
+      </c>
+      <c r="C233">
+        <v>38.5</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>57</v>
+      </c>
+      <c r="B234" t="s">
+        <v>13</v>
+      </c>
+      <c r="C234">
+        <v>301.44</v>
+      </c>
+      <c r="D234">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>57</v>
+      </c>
+      <c r="B235" t="s">
+        <v>14</v>
+      </c>
+      <c r="C235">
+        <v>118.1</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>57</v>
+      </c>
+      <c r="B236" t="s">
+        <v>15</v>
+      </c>
+      <c r="C236">
+        <v>193.26</v>
+      </c>
+      <c r="D236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>57</v>
+      </c>
+      <c r="B237" t="s">
+        <v>16</v>
+      </c>
+      <c r="C237">
+        <v>272.93</v>
+      </c>
+      <c r="D237">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>57</v>
+      </c>
+      <c r="B238" t="s">
+        <v>17</v>
+      </c>
+      <c r="C238">
+        <v>288.12</v>
+      </c>
+      <c r="D238">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>57</v>
+      </c>
+      <c r="B239" t="s">
+        <v>18</v>
+      </c>
+      <c r="C239">
+        <v>137.49</v>
+      </c>
+      <c r="D239">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>57</v>
+      </c>
+      <c r="B240" t="s">
+        <v>19</v>
+      </c>
+      <c r="C240">
+        <v>40.1</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>57</v>
+      </c>
+      <c r="B241" t="s">
+        <v>20</v>
+      </c>
+      <c r="C241">
+        <v>128.58000000000001</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>57</v>
+      </c>
+      <c r="B242" t="s">
+        <v>21</v>
+      </c>
+      <c r="C242">
+        <v>85.6</v>
+      </c>
+      <c r="D242">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>57</v>
+      </c>
+      <c r="B243" t="s">
+        <v>22</v>
+      </c>
+      <c r="C243">
+        <v>132.94</v>
+      </c>
+      <c r="D243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>57</v>
+      </c>
+      <c r="B244" t="s">
+        <v>23</v>
+      </c>
+      <c r="C244">
+        <v>281.07</v>
+      </c>
+      <c r="D244">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>57</v>
+      </c>
+      <c r="B245" t="s">
+        <v>24</v>
+      </c>
+      <c r="C245">
+        <v>57.95</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>57</v>
+      </c>
+      <c r="B246" t="s">
+        <v>25</v>
+      </c>
+      <c r="C246">
+        <v>276.42</v>
+      </c>
+      <c r="D246">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>57</v>
+      </c>
+      <c r="B247" t="s">
+        <v>26</v>
+      </c>
+      <c r="C247">
+        <v>126.28</v>
+      </c>
+      <c r="D247">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>57</v>
+      </c>
+      <c r="B248" t="s">
+        <v>27</v>
+      </c>
+      <c r="C248">
+        <v>78.37</v>
+      </c>
+      <c r="D248">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>57</v>
+      </c>
+      <c r="B249" t="s">
+        <v>28</v>
+      </c>
+      <c r="C249">
+        <v>195.42</v>
+      </c>
+      <c r="D249">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>57</v>
+      </c>
+      <c r="B250" t="s">
+        <v>29</v>
+      </c>
+      <c r="C250">
+        <v>192.41</v>
+      </c>
+      <c r="D250">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>57</v>
+      </c>
+      <c r="B251" t="s">
+        <v>30</v>
+      </c>
+      <c r="C251">
+        <v>123.98</v>
+      </c>
+      <c r="D251">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>57</v>
+      </c>
+      <c r="B252" t="s">
+        <v>31</v>
+      </c>
+      <c r="C252">
+        <v>99.59</v>
+      </c>
+      <c r="D252">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>57</v>
+      </c>
+      <c r="B253" t="s">
+        <v>32</v>
+      </c>
+      <c r="C253">
+        <v>226.08</v>
+      </c>
+      <c r="D253">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>57</v>
+      </c>
+      <c r="B254" t="s">
+        <v>33</v>
+      </c>
+      <c r="C254">
+        <v>29.84</v>
+      </c>
+      <c r="D254">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>57</v>
+      </c>
+      <c r="B255" t="s">
+        <v>34</v>
+      </c>
+      <c r="C255">
+        <v>23.32</v>
+      </c>
+      <c r="D255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>57</v>
+      </c>
+      <c r="B256" t="s">
+        <v>35</v>
+      </c>
+      <c r="C256">
+        <v>95.58</v>
+      </c>
+      <c r="D256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>57</v>
+      </c>
+      <c r="B257" t="s">
+        <v>36</v>
+      </c>
+      <c r="C257">
+        <v>293.29000000000002</v>
+      </c>
+      <c r="D257">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>58</v>
+      </c>
+      <c r="B258" t="s">
+        <v>5</v>
+      </c>
+      <c r="C258">
+        <v>702.75</v>
+      </c>
+      <c r="D258">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>58</v>
+      </c>
+      <c r="B259" t="s">
+        <v>6</v>
+      </c>
+      <c r="C259">
+        <v>263.66000000000003</v>
+      </c>
+      <c r="D259">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>58</v>
+      </c>
+      <c r="B260" t="s">
+        <v>7</v>
+      </c>
+      <c r="C260">
+        <v>19.8</v>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>58</v>
+      </c>
+      <c r="B261" t="s">
+        <v>8</v>
+      </c>
+      <c r="C261">
+        <v>236.82</v>
+      </c>
+      <c r="D261">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>58</v>
+      </c>
+      <c r="B262" t="s">
+        <v>9</v>
+      </c>
+      <c r="C262">
+        <v>33.1</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>58</v>
+      </c>
+      <c r="B263" t="s">
+        <v>10</v>
+      </c>
+      <c r="C263">
+        <v>287.37</v>
+      </c>
+      <c r="D263">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>58</v>
+      </c>
+      <c r="B264" t="s">
+        <v>11</v>
+      </c>
+      <c r="C264">
+        <v>74.13</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>58</v>
+      </c>
+      <c r="B265" t="s">
+        <v>12</v>
+      </c>
+      <c r="C265">
+        <v>39.57</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>58</v>
+      </c>
+      <c r="B266" t="s">
+        <v>13</v>
+      </c>
+      <c r="C266">
+        <v>301.86</v>
+      </c>
+      <c r="D266">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>58</v>
+      </c>
+      <c r="B267" t="s">
+        <v>14</v>
+      </c>
+      <c r="C267">
+        <v>118.1</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>58</v>
+      </c>
+      <c r="B268" t="s">
+        <v>15</v>
+      </c>
+      <c r="C268">
+        <v>199.49</v>
+      </c>
+      <c r="D268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>58</v>
+      </c>
+      <c r="B269" t="s">
+        <v>16</v>
+      </c>
+      <c r="C269">
+        <v>279.17</v>
+      </c>
+      <c r="D269">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>58</v>
+      </c>
+      <c r="B270" t="s">
+        <v>17</v>
+      </c>
+      <c r="C270">
+        <v>291.04000000000002</v>
+      </c>
+      <c r="D270">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>58</v>
+      </c>
+      <c r="B271" t="s">
+        <v>18</v>
+      </c>
+      <c r="C271">
+        <v>144.58000000000001</v>
+      </c>
+      <c r="D271">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>58</v>
+      </c>
+      <c r="B272" t="s">
+        <v>19</v>
+      </c>
+      <c r="C272">
+        <v>40.1</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>58</v>
+      </c>
+      <c r="B273" t="s">
+        <v>20</v>
+      </c>
+      <c r="C273">
+        <v>128.58000000000001</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>58</v>
+      </c>
+      <c r="B274" t="s">
+        <v>21</v>
+      </c>
+      <c r="C274">
+        <v>86.61</v>
+      </c>
+      <c r="D274">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>58</v>
+      </c>
+      <c r="B275" t="s">
+        <v>22</v>
+      </c>
+      <c r="C275">
+        <v>133.24</v>
+      </c>
+      <c r="D275">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>58</v>
+      </c>
+      <c r="B276" t="s">
+        <v>23</v>
+      </c>
+      <c r="C276">
+        <v>283.24</v>
+      </c>
+      <c r="D276">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>58</v>
+      </c>
+      <c r="B277" t="s">
+        <v>24</v>
+      </c>
+      <c r="C277">
+        <v>59.74</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>58</v>
+      </c>
+      <c r="B278" t="s">
+        <v>25</v>
+      </c>
+      <c r="C278">
+        <v>278.14999999999998</v>
+      </c>
+      <c r="D278">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>58</v>
+      </c>
+      <c r="B279" t="s">
+        <v>26</v>
+      </c>
+      <c r="C279">
+        <v>126.28</v>
+      </c>
+      <c r="D279">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>58</v>
+      </c>
+      <c r="B280" t="s">
+        <v>27</v>
+      </c>
+      <c r="C280">
+        <v>79.03</v>
+      </c>
+      <c r="D280">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>58</v>
+      </c>
+      <c r="B281" t="s">
+        <v>28</v>
+      </c>
+      <c r="C281">
+        <v>197.4</v>
+      </c>
+      <c r="D281">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>58</v>
+      </c>
+      <c r="B282" t="s">
+        <v>29</v>
+      </c>
+      <c r="C282">
+        <v>195.28</v>
+      </c>
+      <c r="D282">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>58</v>
+      </c>
+      <c r="B283" t="s">
+        <v>30</v>
+      </c>
+      <c r="C283">
+        <v>123.98</v>
+      </c>
+      <c r="D283">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>58</v>
+      </c>
+      <c r="B284" t="s">
+        <v>31</v>
+      </c>
+      <c r="C284">
+        <v>100.16</v>
+      </c>
+      <c r="D284">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>58</v>
+      </c>
+      <c r="B285" t="s">
+        <v>32</v>
+      </c>
+      <c r="C285">
+        <v>226.08</v>
+      </c>
+      <c r="D285">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>58</v>
+      </c>
+      <c r="B286" t="s">
+        <v>33</v>
+      </c>
+      <c r="C286">
+        <v>29.84</v>
+      </c>
+      <c r="D286">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>58</v>
+      </c>
+      <c r="B287" t="s">
+        <v>34</v>
+      </c>
+      <c r="C287">
+        <v>24.49</v>
+      </c>
+      <c r="D287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>58</v>
+      </c>
+      <c r="B288" t="s">
+        <v>35</v>
+      </c>
+      <c r="C288">
+        <v>95.58</v>
+      </c>
+      <c r="D288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>58</v>
+      </c>
+      <c r="B289" t="s">
+        <v>36</v>
+      </c>
+      <c r="C289">
+        <v>299.04000000000002</v>
+      </c>
+      <c r="D289">
+        <v>153</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3288,7 +4641,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3379,15 +4732,33 @@
       <c r="A8" s="2">
         <v>44004</v>
       </c>
+      <c r="B8">
+        <v>1970</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44005</v>
       </c>
+      <c r="B9">
+        <v>2973</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44006</v>
+      </c>
+      <c r="B10">
+        <v>2251</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">

--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149D3548-2DEE-4040-804D-1C02CFF0889E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF05E6B-18F4-469A-BB93-20F252E987BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="195" windowWidth="9900" windowHeight="12435" firstSheet="2" activeTab="2" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
+    <workbookView xWindow="1080" yWindow="195" windowWidth="9900" windowHeight="12435" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Provincias_Diaria" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="55">
   <si>
     <t>Incidencia Acumulada</t>
   </si>
@@ -557,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
-  <dimension ref="A1:D161"/>
+  <dimension ref="A1:D225"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,924 +1386,924 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>4</v>
+      <c r="A66" s="2">
+        <v>43935</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
       </c>
       <c r="C66">
-        <v>581.1</v>
+        <v>96.1</v>
       </c>
       <c r="D66">
-        <v>108</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>4</v>
+      <c r="A67" s="2">
+        <v>43935</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
       <c r="C67">
-        <v>214.62</v>
+        <v>9</v>
       </c>
       <c r="D67">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>4</v>
+      <c r="A68" s="2">
+        <v>43935</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
       </c>
       <c r="C68">
-        <v>15.84</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>4</v>
+      <c r="A69" s="2">
+        <v>43935</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
       </c>
       <c r="C69">
-        <v>200.34</v>
+        <v>7.9</v>
       </c>
       <c r="D69">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>4</v>
+      <c r="A70" s="2">
+        <v>43935</v>
       </c>
       <c r="B70" t="s">
         <v>9</v>
       </c>
       <c r="C70">
-        <v>18.05</v>
+        <v>1.5</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>4</v>
+      <c r="A71" s="2">
+        <v>43935</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
       </c>
       <c r="C71">
-        <v>275</v>
+        <v>117.1</v>
       </c>
       <c r="D71">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>4</v>
+      <c r="A72" s="2">
+        <v>43935</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
       </c>
       <c r="C72">
-        <v>31.54</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>4</v>
+      <c r="A73" s="2">
+        <v>43935</v>
       </c>
       <c r="B73" t="s">
         <v>12</v>
       </c>
       <c r="C73">
-        <v>37.43</v>
+        <v>3.2</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>4</v>
+      <c r="A74" s="2">
+        <v>43935</v>
       </c>
       <c r="B74" t="s">
         <v>13</v>
       </c>
       <c r="C74">
-        <v>270.58999999999997</v>
+        <v>34.6</v>
       </c>
       <c r="D74">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>4</v>
+      <c r="A75" s="2">
+        <v>43935</v>
       </c>
       <c r="B75" t="s">
         <v>14</v>
       </c>
       <c r="C75">
-        <v>78.73</v>
+        <v>1.7</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>4</v>
+      <c r="A76" s="2">
+        <v>43935</v>
       </c>
       <c r="B76" t="s">
         <v>15</v>
       </c>
       <c r="C76">
-        <v>163.83000000000001</v>
+        <v>23.2</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>4</v>
+      <c r="A77" s="2">
+        <v>43935</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
       </c>
       <c r="C77">
-        <v>228.18</v>
+        <v>26.8</v>
       </c>
       <c r="D77">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>4</v>
+      <c r="A78" s="2">
+        <v>43935</v>
       </c>
       <c r="B78" t="s">
         <v>17</v>
       </c>
       <c r="C78">
-        <v>263.32</v>
+        <v>54</v>
       </c>
       <c r="D78">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>4</v>
+      <c r="A79" s="2">
+        <v>43935</v>
       </c>
       <c r="B79" t="s">
         <v>18</v>
       </c>
       <c r="C79">
-        <v>117.65</v>
+        <v>34</v>
       </c>
       <c r="D79">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>4</v>
+      <c r="A80" s="2">
+        <v>43935</v>
       </c>
       <c r="B80" t="s">
         <v>19</v>
       </c>
       <c r="C80">
-        <v>29.86</v>
+        <v>9.4</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>4</v>
+      <c r="A81" s="2">
+        <v>43935</v>
       </c>
       <c r="B81" t="s">
         <v>20</v>
       </c>
       <c r="C81">
-        <v>111.44</v>
+        <v>8.6</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>4</v>
+      <c r="A82" s="2">
+        <v>43935</v>
       </c>
       <c r="B82" t="s">
         <v>21</v>
       </c>
       <c r="C82">
-        <v>68.38</v>
+        <v>13.2</v>
       </c>
       <c r="D82">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>4</v>
+      <c r="A83" s="2">
+        <v>43935</v>
       </c>
       <c r="B83" t="s">
         <v>22</v>
       </c>
       <c r="C83">
-        <v>124.84</v>
+        <v>30.6</v>
       </c>
       <c r="D83">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>4</v>
+      <c r="A84" s="2">
+        <v>43935</v>
       </c>
       <c r="B84" t="s">
         <v>23</v>
       </c>
       <c r="C84">
-        <v>272.39</v>
+        <v>90.1</v>
       </c>
       <c r="D84">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>4</v>
+      <c r="A85" s="2">
+        <v>43935</v>
       </c>
       <c r="B85" t="s">
         <v>24</v>
       </c>
       <c r="C85">
-        <v>51.71</v>
+        <v>13.4</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>4</v>
+      <c r="A86" s="2">
+        <v>43935</v>
       </c>
       <c r="B86" t="s">
         <v>25</v>
       </c>
       <c r="C86">
-        <v>231.24</v>
+        <v>14.1</v>
       </c>
       <c r="D86">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>4</v>
+      <c r="A87" s="2">
+        <v>43935</v>
       </c>
       <c r="B87" t="s">
         <v>26</v>
       </c>
       <c r="C87">
-        <v>85.69</v>
+        <v>9.5</v>
       </c>
       <c r="D87">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>4</v>
+      <c r="A88" s="2">
+        <v>43935</v>
       </c>
       <c r="B88" t="s">
         <v>27</v>
       </c>
       <c r="C88">
-        <v>60.33</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D88">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>4</v>
+      <c r="A89" s="2">
+        <v>43935</v>
       </c>
       <c r="B89" t="s">
         <v>28</v>
       </c>
       <c r="C89">
-        <v>176.34</v>
+        <v>48</v>
       </c>
       <c r="D89">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>4</v>
+      <c r="A90" s="2">
+        <v>43935</v>
       </c>
       <c r="B90" t="s">
         <v>29</v>
       </c>
       <c r="C90">
-        <v>162.65</v>
+        <v>44.3</v>
       </c>
       <c r="D90">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>4</v>
+      <c r="A91" s="2">
+        <v>43935</v>
       </c>
       <c r="B91" t="s">
         <v>30</v>
       </c>
       <c r="C91">
-        <v>104.77</v>
+        <v>24.4</v>
       </c>
       <c r="D91">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>4</v>
+      <c r="A92" s="2">
+        <v>43935</v>
       </c>
       <c r="B92" t="s">
         <v>31</v>
       </c>
       <c r="C92">
-        <v>96.76</v>
+        <v>15.3</v>
       </c>
       <c r="D92">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>4</v>
+      <c r="A93" s="2">
+        <v>43935</v>
       </c>
       <c r="B93" t="s">
         <v>32</v>
       </c>
       <c r="C93">
-        <v>210.01</v>
+        <v>55.7</v>
       </c>
       <c r="D93">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>4</v>
+      <c r="A94" s="2">
+        <v>43935</v>
       </c>
       <c r="B94" t="s">
         <v>33</v>
       </c>
       <c r="C94">
-        <v>26.7</v>
+        <v>3.7</v>
       </c>
       <c r="D94">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>4</v>
+      <c r="A95" s="2">
+        <v>43935</v>
       </c>
       <c r="B95" t="s">
         <v>34</v>
       </c>
       <c r="C95">
-        <v>20.99</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>4</v>
+      <c r="A96" s="2">
+        <v>43935</v>
       </c>
       <c r="B96" t="s">
         <v>35</v>
       </c>
       <c r="C96">
-        <v>88.23</v>
+        <v>3.7</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>4</v>
+      <c r="A97" s="2">
+        <v>43935</v>
       </c>
       <c r="B97" t="s">
         <v>36</v>
       </c>
       <c r="C97">
-        <v>239.68</v>
+        <v>21.4</v>
       </c>
       <c r="D97">
-        <v>127</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>49</v>
+      <c r="A98" s="2">
+        <v>43942</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
       </c>
       <c r="C98">
-        <v>687.32</v>
+        <v>128.19999999999999</v>
       </c>
       <c r="D98">
-        <v>118</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>49</v>
+      <c r="A99" s="2">
+        <v>43942</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
       </c>
       <c r="C99">
-        <v>259.16000000000003</v>
+        <v>10.8</v>
       </c>
       <c r="D99">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>49</v>
+      <c r="A100" s="2">
+        <v>43942</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
       </c>
       <c r="C100">
-        <v>19.8</v>
+        <v>4</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>49</v>
+      <c r="A101" s="2">
+        <v>43942</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
       </c>
       <c r="C101">
-        <v>236.82</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D101">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>49</v>
+      <c r="A102" s="2">
+        <v>43942</v>
       </c>
       <c r="B102" t="s">
         <v>9</v>
       </c>
       <c r="C102">
-        <v>31.59</v>
+        <v>3</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>49</v>
+      <c r="A103" s="2">
+        <v>43942</v>
       </c>
       <c r="B103" t="s">
         <v>10</v>
       </c>
       <c r="C103">
-        <v>284.7</v>
+        <v>173.6</v>
       </c>
       <c r="D103">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>49</v>
+      <c r="A104" s="2">
+        <v>43942</v>
       </c>
       <c r="B104" t="s">
         <v>11</v>
       </c>
       <c r="C104">
-        <v>72.55</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>49</v>
+      <c r="A105" s="2">
+        <v>43942</v>
       </c>
       <c r="B105" t="s">
         <v>12</v>
       </c>
       <c r="C105">
-        <v>38.5</v>
+        <v>4.3</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>49</v>
+      <c r="A106" s="2">
+        <v>43942</v>
       </c>
       <c r="B106" t="s">
         <v>13</v>
       </c>
       <c r="C106">
-        <v>301.44</v>
+        <v>67.5</v>
       </c>
       <c r="D106">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>49</v>
+      <c r="A107" s="2">
+        <v>43942</v>
       </c>
       <c r="B107" t="s">
         <v>14</v>
       </c>
       <c r="C107">
-        <v>118.1</v>
+        <v>1.7</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>49</v>
+      <c r="A108" s="2">
+        <v>43942</v>
       </c>
       <c r="B108" t="s">
         <v>15</v>
       </c>
       <c r="C108">
-        <v>193.26</v>
+        <v>28.3</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>49</v>
+      <c r="A109" s="2">
+        <v>43942</v>
       </c>
       <c r="B109" t="s">
         <v>16</v>
       </c>
       <c r="C109">
-        <v>272.93</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="D109">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>49</v>
+      <c r="A110" s="2">
+        <v>43942</v>
       </c>
       <c r="B110" t="s">
         <v>17</v>
       </c>
       <c r="C110">
-        <v>288.12</v>
+        <v>94.1</v>
       </c>
       <c r="D110">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>49</v>
+      <c r="A111" s="2">
+        <v>43942</v>
       </c>
       <c r="B111" t="s">
         <v>18</v>
       </c>
       <c r="C111">
-        <v>137.49</v>
+        <v>52.4</v>
       </c>
       <c r="D111">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>49</v>
+      <c r="A112" s="2">
+        <v>43942</v>
       </c>
       <c r="B112" t="s">
         <v>19</v>
       </c>
       <c r="C112">
-        <v>40.1</v>
+        <v>12.8</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>49</v>
+      <c r="A113" s="2">
+        <v>43942</v>
       </c>
       <c r="B113" t="s">
         <v>20</v>
       </c>
       <c r="C113">
-        <v>128.58000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="D113">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>49</v>
+      <c r="A114" s="2">
+        <v>43942</v>
       </c>
       <c r="B114" t="s">
         <v>21</v>
       </c>
       <c r="C114">
-        <v>85.6</v>
+        <v>18.2</v>
       </c>
       <c r="D114">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>49</v>
+      <c r="A115" s="2">
+        <v>43942</v>
       </c>
       <c r="B115" t="s">
         <v>22</v>
       </c>
       <c r="C115">
-        <v>132.94</v>
+        <v>52.2</v>
       </c>
       <c r="D115">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>49</v>
+      <c r="A116" s="2">
+        <v>43942</v>
       </c>
       <c r="B116" t="s">
         <v>23</v>
       </c>
       <c r="C116">
-        <v>281.07</v>
+        <v>145.4</v>
       </c>
       <c r="D116">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>49</v>
+      <c r="A117" s="2">
+        <v>43942</v>
       </c>
       <c r="B117" t="s">
         <v>24</v>
       </c>
       <c r="C117">
-        <v>57.95</v>
+        <v>18.7</v>
       </c>
       <c r="D117">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>49</v>
+      <c r="A118" s="2">
+        <v>43942</v>
       </c>
       <c r="B118" t="s">
         <v>25</v>
       </c>
       <c r="C118">
-        <v>276.42</v>
+        <v>19.8</v>
       </c>
       <c r="D118">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>49</v>
+      <c r="A119" s="2">
+        <v>43942</v>
       </c>
       <c r="B119" t="s">
         <v>26</v>
       </c>
       <c r="C119">
-        <v>126.28</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D119">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>49</v>
+      <c r="A120" s="2">
+        <v>43942</v>
       </c>
       <c r="B120" t="s">
         <v>27</v>
       </c>
       <c r="C120">
-        <v>78.37</v>
+        <v>17.7</v>
       </c>
       <c r="D120">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>49</v>
+      <c r="A121" s="2">
+        <v>43942</v>
       </c>
       <c r="B121" t="s">
         <v>28</v>
       </c>
       <c r="C121">
-        <v>195.42</v>
+        <v>87.5</v>
       </c>
       <c r="D121">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>49</v>
+      <c r="A122" s="2">
+        <v>43942</v>
       </c>
       <c r="B122" t="s">
         <v>29</v>
       </c>
       <c r="C122">
-        <v>192.41</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="D122">
-        <v>97</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>49</v>
+      <c r="A123" s="2">
+        <v>43942</v>
       </c>
       <c r="B123" t="s">
         <v>30</v>
       </c>
       <c r="C123">
-        <v>123.98</v>
+        <v>29.7</v>
       </c>
       <c r="D123">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>49</v>
+      <c r="A124" s="2">
+        <v>43942</v>
       </c>
       <c r="B124" t="s">
         <v>31</v>
       </c>
       <c r="C124">
-        <v>99.59</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="D124">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>49</v>
+      <c r="A125" s="2">
+        <v>43942</v>
       </c>
       <c r="B125" t="s">
         <v>32</v>
       </c>
       <c r="C125">
-        <v>226.08</v>
+        <v>91.2</v>
       </c>
       <c r="D125">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>49</v>
+      <c r="A126" s="2">
+        <v>43942</v>
       </c>
       <c r="B126" t="s">
         <v>33</v>
       </c>
       <c r="C126">
-        <v>29.84</v>
+        <v>5.8</v>
       </c>
       <c r="D126">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>49</v>
+      <c r="A127" s="2">
+        <v>43942</v>
       </c>
       <c r="B127" t="s">
         <v>34</v>
       </c>
       <c r="C127">
-        <v>23.32</v>
+        <v>10.5</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>49</v>
+      <c r="A128" s="2">
+        <v>43942</v>
       </c>
       <c r="B128" t="s">
         <v>35</v>
       </c>
       <c r="C128">
-        <v>95.58</v>
+        <v>7.4</v>
       </c>
       <c r="D128">
         <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>49</v>
+      <c r="A129" s="2">
+        <v>43942</v>
       </c>
       <c r="B129" t="s">
         <v>36</v>
       </c>
       <c r="C129">
-        <v>293.29000000000002</v>
+        <v>31.7</v>
       </c>
       <c r="D129">
-        <v>150</v>
+        <v>38</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
       </c>
       <c r="C130">
-        <v>702.75</v>
+        <v>581.1</v>
       </c>
       <c r="D130">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
       </c>
       <c r="C131">
-        <v>263.66000000000003</v>
+        <v>214.62</v>
       </c>
       <c r="D131">
         <v>10</v>
@@ -2311,13 +2311,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
       </c>
       <c r="C132">
-        <v>19.8</v>
+        <v>15.84</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -2325,27 +2325,27 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B133" t="s">
         <v>8</v>
       </c>
       <c r="C133">
-        <v>236.82</v>
+        <v>200.34</v>
       </c>
       <c r="D133">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B134" t="s">
         <v>9</v>
       </c>
       <c r="C134">
-        <v>33.1</v>
+        <v>18.05</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -2353,13 +2353,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B135" t="s">
         <v>10</v>
       </c>
       <c r="C135">
-        <v>287.37</v>
+        <v>275</v>
       </c>
       <c r="D135">
         <v>86</v>
@@ -2367,13 +2367,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B136" t="s">
         <v>11</v>
       </c>
       <c r="C136">
-        <v>74.13</v>
+        <v>31.54</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -2381,13 +2381,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B137" t="s">
         <v>12</v>
       </c>
       <c r="C137">
-        <v>39.57</v>
+        <v>37.43</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -2395,27 +2395,27 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B138" t="s">
         <v>13</v>
       </c>
       <c r="C138">
-        <v>301.86</v>
+        <v>270.58999999999997</v>
       </c>
       <c r="D138">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B139" t="s">
         <v>14</v>
       </c>
       <c r="C139">
-        <v>118.1</v>
+        <v>78.73</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -2423,13 +2423,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B140" t="s">
         <v>15</v>
       </c>
       <c r="C140">
-        <v>199.49</v>
+        <v>163.83000000000001</v>
       </c>
       <c r="D140">
         <v>2</v>
@@ -2437,13 +2437,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B141" t="s">
         <v>16</v>
       </c>
       <c r="C141">
-        <v>279.17</v>
+        <v>228.18</v>
       </c>
       <c r="D141">
         <v>10</v>
@@ -2451,27 +2451,27 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B142" t="s">
         <v>17</v>
       </c>
       <c r="C142">
-        <v>291.04000000000002</v>
+        <v>263.32</v>
       </c>
       <c r="D142">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B143" t="s">
         <v>18</v>
       </c>
       <c r="C143">
-        <v>144.58000000000001</v>
+        <v>117.65</v>
       </c>
       <c r="D143">
         <v>4</v>
@@ -2479,13 +2479,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B144" t="s">
         <v>19</v>
       </c>
       <c r="C144">
-        <v>40.1</v>
+        <v>29.86</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -2493,13 +2493,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B145" t="s">
         <v>20</v>
       </c>
       <c r="C145">
-        <v>128.58000000000001</v>
+        <v>111.44</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -2507,55 +2507,55 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B146" t="s">
         <v>21</v>
       </c>
       <c r="C146">
-        <v>86.61</v>
+        <v>68.38</v>
       </c>
       <c r="D146">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B147" t="s">
         <v>22</v>
       </c>
       <c r="C147">
-        <v>133.24</v>
+        <v>124.84</v>
       </c>
       <c r="D147">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B148" t="s">
         <v>23</v>
       </c>
       <c r="C148">
-        <v>283.24</v>
+        <v>272.39</v>
       </c>
       <c r="D148">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B149" t="s">
         <v>24</v>
       </c>
       <c r="C149">
-        <v>59.74</v>
+        <v>51.71</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -2563,41 +2563,41 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B150" t="s">
         <v>25</v>
       </c>
       <c r="C150">
-        <v>278.14999999999998</v>
+        <v>231.24</v>
       </c>
       <c r="D150">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B151" t="s">
         <v>26</v>
       </c>
       <c r="C151">
-        <v>126.28</v>
+        <v>85.69</v>
       </c>
       <c r="D151">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B152" t="s">
         <v>27</v>
       </c>
       <c r="C152">
-        <v>79.03</v>
+        <v>60.33</v>
       </c>
       <c r="D152">
         <v>14</v>
@@ -2605,13 +2605,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B153" t="s">
         <v>28</v>
       </c>
       <c r="C153">
-        <v>197.4</v>
+        <v>176.34</v>
       </c>
       <c r="D153">
         <v>9</v>
@@ -2619,27 +2619,27 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B154" t="s">
         <v>29</v>
       </c>
       <c r="C154">
-        <v>195.28</v>
+        <v>162.65</v>
       </c>
       <c r="D154">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B155" t="s">
         <v>30</v>
       </c>
       <c r="C155">
-        <v>123.98</v>
+        <v>104.77</v>
       </c>
       <c r="D155">
         <v>4</v>
@@ -2647,41 +2647,41 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B156" t="s">
         <v>31</v>
       </c>
       <c r="C156">
-        <v>100.16</v>
+        <v>96.76</v>
       </c>
       <c r="D156">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B157" t="s">
         <v>32</v>
       </c>
       <c r="C157">
-        <v>226.08</v>
+        <v>210.01</v>
       </c>
       <c r="D157">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B158" t="s">
         <v>33</v>
       </c>
       <c r="C158">
-        <v>29.84</v>
+        <v>26.7</v>
       </c>
       <c r="D158">
         <v>7</v>
@@ -2689,13 +2689,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B159" t="s">
         <v>34</v>
       </c>
       <c r="C159">
-        <v>24.49</v>
+        <v>20.99</v>
       </c>
       <c r="D159">
         <v>2</v>
@@ -2703,13 +2703,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B160" t="s">
         <v>35</v>
       </c>
       <c r="C160">
-        <v>95.58</v>
+        <v>88.23</v>
       </c>
       <c r="D160">
         <v>2</v>
@@ -2717,15 +2717,911 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B161" t="s">
         <v>36</v>
       </c>
       <c r="C161">
+        <v>239.68</v>
+      </c>
+      <c r="D161">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>49</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162">
+        <v>687.32</v>
+      </c>
+      <c r="D162">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>49</v>
+      </c>
+      <c r="B163" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163">
+        <v>259.16000000000003</v>
+      </c>
+      <c r="D163">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>49</v>
+      </c>
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164">
+        <v>19.8</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>49</v>
+      </c>
+      <c r="B165" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165">
+        <v>236.82</v>
+      </c>
+      <c r="D165">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>49</v>
+      </c>
+      <c r="B166" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166">
+        <v>31.59</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>49</v>
+      </c>
+      <c r="B167" t="s">
+        <v>10</v>
+      </c>
+      <c r="C167">
+        <v>284.7</v>
+      </c>
+      <c r="D167">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>49</v>
+      </c>
+      <c r="B168" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168">
+        <v>72.55</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>49</v>
+      </c>
+      <c r="B169" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169">
+        <v>38.5</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>49</v>
+      </c>
+      <c r="B170" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170">
+        <v>301.44</v>
+      </c>
+      <c r="D170">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>49</v>
+      </c>
+      <c r="B171" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171">
+        <v>118.1</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>49</v>
+      </c>
+      <c r="B172" t="s">
+        <v>15</v>
+      </c>
+      <c r="C172">
+        <v>193.26</v>
+      </c>
+      <c r="D172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>49</v>
+      </c>
+      <c r="B173" t="s">
+        <v>16</v>
+      </c>
+      <c r="C173">
+        <v>272.93</v>
+      </c>
+      <c r="D173">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>49</v>
+      </c>
+      <c r="B174" t="s">
+        <v>17</v>
+      </c>
+      <c r="C174">
+        <v>288.12</v>
+      </c>
+      <c r="D174">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>49</v>
+      </c>
+      <c r="B175" t="s">
+        <v>18</v>
+      </c>
+      <c r="C175">
+        <v>137.49</v>
+      </c>
+      <c r="D175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>49</v>
+      </c>
+      <c r="B176" t="s">
+        <v>19</v>
+      </c>
+      <c r="C176">
+        <v>40.1</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>49</v>
+      </c>
+      <c r="B177" t="s">
+        <v>20</v>
+      </c>
+      <c r="C177">
+        <v>128.58000000000001</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>49</v>
+      </c>
+      <c r="B178" t="s">
+        <v>21</v>
+      </c>
+      <c r="C178">
+        <v>85.6</v>
+      </c>
+      <c r="D178">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>49</v>
+      </c>
+      <c r="B179" t="s">
+        <v>22</v>
+      </c>
+      <c r="C179">
+        <v>132.94</v>
+      </c>
+      <c r="D179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>49</v>
+      </c>
+      <c r="B180" t="s">
+        <v>23</v>
+      </c>
+      <c r="C180">
+        <v>281.07</v>
+      </c>
+      <c r="D180">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>49</v>
+      </c>
+      <c r="B181" t="s">
+        <v>24</v>
+      </c>
+      <c r="C181">
+        <v>57.95</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>49</v>
+      </c>
+      <c r="B182" t="s">
+        <v>25</v>
+      </c>
+      <c r="C182">
+        <v>276.42</v>
+      </c>
+      <c r="D182">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>49</v>
+      </c>
+      <c r="B183" t="s">
+        <v>26</v>
+      </c>
+      <c r="C183">
+        <v>126.28</v>
+      </c>
+      <c r="D183">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>49</v>
+      </c>
+      <c r="B184" t="s">
+        <v>27</v>
+      </c>
+      <c r="C184">
+        <v>78.37</v>
+      </c>
+      <c r="D184">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>49</v>
+      </c>
+      <c r="B185" t="s">
+        <v>28</v>
+      </c>
+      <c r="C185">
+        <v>195.42</v>
+      </c>
+      <c r="D185">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>49</v>
+      </c>
+      <c r="B186" t="s">
+        <v>29</v>
+      </c>
+      <c r="C186">
+        <v>192.41</v>
+      </c>
+      <c r="D186">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>49</v>
+      </c>
+      <c r="B187" t="s">
+        <v>30</v>
+      </c>
+      <c r="C187">
+        <v>123.98</v>
+      </c>
+      <c r="D187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>49</v>
+      </c>
+      <c r="B188" t="s">
+        <v>31</v>
+      </c>
+      <c r="C188">
+        <v>99.59</v>
+      </c>
+      <c r="D188">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>49</v>
+      </c>
+      <c r="B189" t="s">
+        <v>32</v>
+      </c>
+      <c r="C189">
+        <v>226.08</v>
+      </c>
+      <c r="D189">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>49</v>
+      </c>
+      <c r="B190" t="s">
+        <v>33</v>
+      </c>
+      <c r="C190">
+        <v>29.84</v>
+      </c>
+      <c r="D190">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>49</v>
+      </c>
+      <c r="B191" t="s">
+        <v>34</v>
+      </c>
+      <c r="C191">
+        <v>23.32</v>
+      </c>
+      <c r="D191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>49</v>
+      </c>
+      <c r="B192" t="s">
+        <v>35</v>
+      </c>
+      <c r="C192">
+        <v>95.58</v>
+      </c>
+      <c r="D192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>49</v>
+      </c>
+      <c r="B193" t="s">
+        <v>36</v>
+      </c>
+      <c r="C193">
+        <v>293.29000000000002</v>
+      </c>
+      <c r="D193">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>50</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194">
+        <v>702.75</v>
+      </c>
+      <c r="D194">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>50</v>
+      </c>
+      <c r="B195" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195">
+        <v>263.66000000000003</v>
+      </c>
+      <c r="D195">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>50</v>
+      </c>
+      <c r="B196" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196">
+        <v>19.8</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>50</v>
+      </c>
+      <c r="B197" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197">
+        <v>236.82</v>
+      </c>
+      <c r="D197">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>50</v>
+      </c>
+      <c r="B198" t="s">
+        <v>9</v>
+      </c>
+      <c r="C198">
+        <v>33.1</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>50</v>
+      </c>
+      <c r="B199" t="s">
+        <v>10</v>
+      </c>
+      <c r="C199">
+        <v>287.37</v>
+      </c>
+      <c r="D199">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>50</v>
+      </c>
+      <c r="B200" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200">
+        <v>74.13</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>50</v>
+      </c>
+      <c r="B201" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201">
+        <v>39.57</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>50</v>
+      </c>
+      <c r="B202" t="s">
+        <v>13</v>
+      </c>
+      <c r="C202">
+        <v>301.86</v>
+      </c>
+      <c r="D202">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>50</v>
+      </c>
+      <c r="B203" t="s">
+        <v>14</v>
+      </c>
+      <c r="C203">
+        <v>118.1</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>50</v>
+      </c>
+      <c r="B204" t="s">
+        <v>15</v>
+      </c>
+      <c r="C204">
+        <v>199.49</v>
+      </c>
+      <c r="D204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>50</v>
+      </c>
+      <c r="B205" t="s">
+        <v>16</v>
+      </c>
+      <c r="C205">
+        <v>279.17</v>
+      </c>
+      <c r="D205">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>50</v>
+      </c>
+      <c r="B206" t="s">
+        <v>17</v>
+      </c>
+      <c r="C206">
+        <v>291.04000000000002</v>
+      </c>
+      <c r="D206">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>50</v>
+      </c>
+      <c r="B207" t="s">
+        <v>18</v>
+      </c>
+      <c r="C207">
+        <v>144.58000000000001</v>
+      </c>
+      <c r="D207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>50</v>
+      </c>
+      <c r="B208" t="s">
+        <v>19</v>
+      </c>
+      <c r="C208">
+        <v>40.1</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>50</v>
+      </c>
+      <c r="B209" t="s">
+        <v>20</v>
+      </c>
+      <c r="C209">
+        <v>128.58000000000001</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>50</v>
+      </c>
+      <c r="B210" t="s">
+        <v>21</v>
+      </c>
+      <c r="C210">
+        <v>86.61</v>
+      </c>
+      <c r="D210">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>50</v>
+      </c>
+      <c r="B211" t="s">
+        <v>22</v>
+      </c>
+      <c r="C211">
+        <v>133.24</v>
+      </c>
+      <c r="D211">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>50</v>
+      </c>
+      <c r="B212" t="s">
+        <v>23</v>
+      </c>
+      <c r="C212">
+        <v>283.24</v>
+      </c>
+      <c r="D212">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>50</v>
+      </c>
+      <c r="B213" t="s">
+        <v>24</v>
+      </c>
+      <c r="C213">
+        <v>59.74</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>50</v>
+      </c>
+      <c r="B214" t="s">
+        <v>25</v>
+      </c>
+      <c r="C214">
+        <v>278.14999999999998</v>
+      </c>
+      <c r="D214">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>50</v>
+      </c>
+      <c r="B215" t="s">
+        <v>26</v>
+      </c>
+      <c r="C215">
+        <v>126.28</v>
+      </c>
+      <c r="D215">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>50</v>
+      </c>
+      <c r="B216" t="s">
+        <v>27</v>
+      </c>
+      <c r="C216">
+        <v>79.03</v>
+      </c>
+      <c r="D216">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>50</v>
+      </c>
+      <c r="B217" t="s">
+        <v>28</v>
+      </c>
+      <c r="C217">
+        <v>197.4</v>
+      </c>
+      <c r="D217">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>50</v>
+      </c>
+      <c r="B218" t="s">
+        <v>29</v>
+      </c>
+      <c r="C218">
+        <v>195.28</v>
+      </c>
+      <c r="D218">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>50</v>
+      </c>
+      <c r="B219" t="s">
+        <v>30</v>
+      </c>
+      <c r="C219">
+        <v>123.98</v>
+      </c>
+      <c r="D219">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>50</v>
+      </c>
+      <c r="B220" t="s">
+        <v>31</v>
+      </c>
+      <c r="C220">
+        <v>100.16</v>
+      </c>
+      <c r="D220">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>50</v>
+      </c>
+      <c r="B221" t="s">
+        <v>32</v>
+      </c>
+      <c r="C221">
+        <v>226.08</v>
+      </c>
+      <c r="D221">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>50</v>
+      </c>
+      <c r="B222" t="s">
+        <v>33</v>
+      </c>
+      <c r="C222">
+        <v>29.84</v>
+      </c>
+      <c r="D222">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>50</v>
+      </c>
+      <c r="B223" t="s">
+        <v>34</v>
+      </c>
+      <c r="C223">
+        <v>24.49</v>
+      </c>
+      <c r="D223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>50</v>
+      </c>
+      <c r="B224" t="s">
+        <v>35</v>
+      </c>
+      <c r="C224">
+        <v>95.58</v>
+      </c>
+      <c r="D224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>50</v>
+      </c>
+      <c r="B225" t="s">
+        <v>36</v>
+      </c>
+      <c r="C225">
         <v>299.04000000000002</v>
       </c>
-      <c r="D161">
+      <c r="D225">
         <v>153</v>
       </c>
     </row>
@@ -2738,10 +3634,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93012AD9-A6D4-48C4-AAAA-A2304D189270}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2794,6 +3690,34 @@
         <v>50</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B4">
+        <v>3614</v>
+      </c>
+      <c r="C4">
+        <v>189</v>
+      </c>
+      <c r="D4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B5">
+        <v>5300</v>
+      </c>
+      <c r="C5">
+        <v>260</v>
+      </c>
+      <c r="D5">
+        <v>581</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2801,10 +3725,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F422A3AD-6985-4C77-AE63-323FE7C4AE0C}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3032,127 +3956,226 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>43998</v>
+        <v>43935</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="C20">
-        <v>0.4</v>
-      </c>
-      <c r="D20">
-        <v>1.4</v>
+      <c r="E20">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>43998</v>
+        <v>43935</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C21">
-        <v>0.9</v>
-      </c>
-      <c r="D21">
-        <v>0.5</v>
+      <c r="E21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>43998</v>
+        <v>43935</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C22">
-        <v>1.9</v>
-      </c>
-      <c r="D22">
+      <c r="E22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>43998</v>
+        <v>43935</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C23">
-        <v>4.7</v>
-      </c>
-      <c r="D23">
-        <v>0.75</v>
+      <c r="E23">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>43998</v>
+        <v>43935</v>
       </c>
       <c r="B24" t="s">
         <v>39</v>
       </c>
-      <c r="C24">
-        <v>18.649999999999999</v>
-      </c>
-      <c r="D24">
-        <v>3.7</v>
+      <c r="E24">
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>43998</v>
+        <v>43935</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
       </c>
-      <c r="C25">
-        <v>21.85</v>
-      </c>
-      <c r="D25">
-        <v>5.6</v>
+      <c r="E25">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>43998</v>
+        <v>43935</v>
       </c>
       <c r="B26" t="s">
         <v>41</v>
       </c>
-      <c r="C26">
-        <v>17.45</v>
-      </c>
-      <c r="D26">
-        <v>8.6</v>
+      <c r="E26">
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>43998</v>
+        <v>43935</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
       </c>
-      <c r="C27">
-        <v>13.8</v>
-      </c>
-      <c r="D27">
-        <v>16.350000000000001</v>
+      <c r="E27">
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>43998</v>
+        <v>43935</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
       </c>
-      <c r="C28">
+      <c r="E28">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29">
+        <v>0.4</v>
+      </c>
+      <c r="D29">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30">
+        <v>0.9</v>
+      </c>
+      <c r="D30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31">
+        <v>1.9</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32">
+        <v>4.7</v>
+      </c>
+      <c r="D32">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="D33">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <v>21.85</v>
+      </c>
+      <c r="D34">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35">
+        <v>17.45</v>
+      </c>
+      <c r="D35">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36">
+        <v>13.8</v>
+      </c>
+      <c r="D36">
+        <v>16.350000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37">
         <v>15.7</v>
       </c>
-      <c r="D28">
+      <c r="D37">
         <v>63.05</v>
       </c>
     </row>

--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF05E6B-18F4-469A-BB93-20F252E987BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D781758-0138-407A-83D8-3080FA429491}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="195" windowWidth="9900" windowHeight="12435" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Provincias_Diaria" sheetId="1" r:id="rId1"/>
+    <sheet name="Provincias_Semanal" sheetId="1" r:id="rId1"/>
     <sheet name="Fallecido_Recuperado" sheetId="3" r:id="rId2"/>
     <sheet name="Por_Edad" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="55">
   <si>
     <t>Incidencia Acumulada</t>
   </si>
@@ -557,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
-  <dimension ref="A1:D225"/>
+  <dimension ref="A1:D289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="D194" sqref="D194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2282,924 +2282,924 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>4</v>
+      <c r="A130" s="2">
+        <v>43949</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
       </c>
       <c r="C130">
-        <v>581.1</v>
+        <v>156.25</v>
       </c>
       <c r="D130">
-        <v>108</v>
+        <v>38</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>4</v>
+      <c r="A131" s="2">
+        <v>43949</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
       </c>
       <c r="C131">
-        <v>214.62</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D131">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>4</v>
+      <c r="A132" s="2">
+        <v>43949</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
       </c>
       <c r="C132">
-        <v>15.84</v>
+        <v>4.95</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>4</v>
+      <c r="A133" s="2">
+        <v>43949</v>
       </c>
       <c r="B133" t="s">
         <v>8</v>
       </c>
       <c r="C133">
-        <v>200.34</v>
+        <v>19.559999999999999</v>
       </c>
       <c r="D133">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>4</v>
+      <c r="A134" s="2">
+        <v>43949</v>
       </c>
       <c r="B134" t="s">
         <v>9</v>
       </c>
       <c r="C134">
-        <v>18.05</v>
+        <v>4.51</v>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>4</v>
+      <c r="A135" s="2">
+        <v>43949</v>
       </c>
       <c r="B135" t="s">
         <v>10</v>
       </c>
       <c r="C135">
-        <v>275</v>
+        <v>206.41</v>
       </c>
       <c r="D135">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>4</v>
+      <c r="A136" s="2">
+        <v>43949</v>
       </c>
       <c r="B136" t="s">
         <v>11</v>
       </c>
       <c r="C136">
-        <v>31.54</v>
+        <v>3.15</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>4</v>
+      <c r="A137" s="2">
+        <v>43949</v>
       </c>
       <c r="B137" t="s">
         <v>12</v>
       </c>
       <c r="C137">
-        <v>37.43</v>
+        <v>5.35</v>
       </c>
       <c r="D137">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>4</v>
+      <c r="A138" s="2">
+        <v>43949</v>
       </c>
       <c r="B138" t="s">
         <v>13</v>
       </c>
       <c r="C138">
-        <v>270.58999999999997</v>
+        <v>85.47</v>
       </c>
       <c r="D138">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>4</v>
+      <c r="A139" s="2">
+        <v>43949</v>
       </c>
       <c r="B139" t="s">
         <v>14</v>
       </c>
       <c r="C139">
-        <v>78.73</v>
+        <v>1.71</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>4</v>
+      <c r="A140" s="2">
+        <v>43949</v>
       </c>
       <c r="B140" t="s">
         <v>15</v>
       </c>
       <c r="C140">
-        <v>163.83000000000001</v>
+        <v>32.82</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>4</v>
+      <c r="A141" s="2">
+        <v>43949</v>
       </c>
       <c r="B141" t="s">
         <v>16</v>
       </c>
       <c r="C141">
-        <v>228.18</v>
+        <v>49.52</v>
       </c>
       <c r="D141">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>4</v>
+      <c r="A142" s="2">
+        <v>43949</v>
       </c>
       <c r="B142" t="s">
         <v>17</v>
       </c>
       <c r="C142">
-        <v>263.32</v>
+        <v>118.65</v>
       </c>
       <c r="D142">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>4</v>
+      <c r="A143" s="2">
+        <v>43949</v>
       </c>
       <c r="B143" t="s">
         <v>18</v>
       </c>
       <c r="C143">
-        <v>117.65</v>
+        <v>60.95</v>
       </c>
       <c r="D143">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>4</v>
+      <c r="A144" s="2">
+        <v>43949</v>
       </c>
       <c r="B144" t="s">
         <v>19</v>
       </c>
       <c r="C144">
-        <v>29.86</v>
+        <v>14.5</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>4</v>
+      <c r="A145" s="2">
+        <v>43949</v>
       </c>
       <c r="B145" t="s">
         <v>20</v>
       </c>
       <c r="C145">
-        <v>111.44</v>
+        <v>8.57</v>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>4</v>
+      <c r="A146" s="2">
+        <v>43949</v>
       </c>
       <c r="B146" t="s">
         <v>21</v>
       </c>
       <c r="C146">
-        <v>68.38</v>
+        <v>24.82</v>
       </c>
       <c r="D146">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>4</v>
+      <c r="A147" s="2">
+        <v>43949</v>
       </c>
       <c r="B147" t="s">
         <v>22</v>
       </c>
       <c r="C147">
-        <v>124.84</v>
+        <v>63.92</v>
       </c>
       <c r="D147">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>4</v>
+      <c r="A148" s="2">
+        <v>43949</v>
       </c>
       <c r="B148" t="s">
         <v>23</v>
       </c>
       <c r="C148">
-        <v>272.39</v>
+        <v>168.21</v>
       </c>
       <c r="D148">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>4</v>
+      <c r="A149" s="2">
+        <v>43949</v>
       </c>
       <c r="B149" t="s">
         <v>24</v>
       </c>
       <c r="C149">
-        <v>51.71</v>
+        <v>20.51</v>
       </c>
       <c r="D149">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>4</v>
+      <c r="A150" s="2">
+        <v>43949</v>
       </c>
       <c r="B150" t="s">
         <v>25</v>
       </c>
       <c r="C150">
-        <v>231.24</v>
+        <v>29.02</v>
       </c>
       <c r="D150">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>4</v>
+      <c r="A151" s="2">
+        <v>43949</v>
       </c>
       <c r="B151" t="s">
         <v>26</v>
       </c>
       <c r="C151">
-        <v>85.69</v>
+        <v>29.77</v>
       </c>
       <c r="D151">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>4</v>
+      <c r="A152" s="2">
+        <v>43949</v>
       </c>
       <c r="B152" t="s">
         <v>27</v>
       </c>
       <c r="C152">
-        <v>60.33</v>
+        <v>20.329999999999998</v>
       </c>
       <c r="D152">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>4</v>
+      <c r="A153" s="2">
+        <v>43949</v>
       </c>
       <c r="B153" t="s">
         <v>28</v>
       </c>
       <c r="C153">
-        <v>176.34</v>
+        <v>109.23</v>
       </c>
       <c r="D153">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>4</v>
+      <c r="A154" s="2">
+        <v>43949</v>
       </c>
       <c r="B154" t="s">
         <v>29</v>
       </c>
       <c r="C154">
-        <v>162.65</v>
+        <v>78.069999999999993</v>
       </c>
       <c r="D154">
-        <v>88</v>
+        <v>47</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>4</v>
+      <c r="A155" s="2">
+        <v>43949</v>
       </c>
       <c r="B155" t="s">
         <v>30</v>
       </c>
       <c r="C155">
-        <v>104.77</v>
+        <v>43.66</v>
       </c>
       <c r="D155">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>4</v>
+      <c r="A156" s="2">
+        <v>43949</v>
       </c>
       <c r="B156" t="s">
         <v>31</v>
       </c>
       <c r="C156">
-        <v>96.76</v>
+        <v>20.94</v>
       </c>
       <c r="D156">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>4</v>
+      <c r="A157" s="2">
+        <v>43949</v>
       </c>
       <c r="B157" t="s">
         <v>32</v>
       </c>
       <c r="C157">
-        <v>210.01</v>
+        <v>104.43</v>
       </c>
       <c r="D157">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>4</v>
+      <c r="A158" s="2">
+        <v>43949</v>
       </c>
       <c r="B158" t="s">
         <v>33</v>
       </c>
       <c r="C158">
-        <v>26.7</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="D158">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>4</v>
+      <c r="A159" s="2">
+        <v>43949</v>
       </c>
       <c r="B159" t="s">
         <v>34</v>
       </c>
       <c r="C159">
-        <v>20.99</v>
+        <v>13.99</v>
       </c>
       <c r="D159">
         <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>4</v>
+      <c r="A160" s="2">
+        <v>43949</v>
       </c>
       <c r="B160" t="s">
         <v>35</v>
       </c>
       <c r="C160">
-        <v>88.23</v>
+        <v>11.03</v>
       </c>
       <c r="D160">
         <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>4</v>
+      <c r="A161" s="2">
+        <v>43949</v>
       </c>
       <c r="B161" t="s">
         <v>36</v>
       </c>
       <c r="C161">
-        <v>239.68</v>
+        <v>43.05</v>
       </c>
       <c r="D161">
-        <v>127</v>
+        <v>44</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>49</v>
+      <c r="A162" s="2">
+        <v>43956</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
       </c>
       <c r="C162">
-        <v>687.32</v>
+        <v>205.04</v>
       </c>
       <c r="D162">
-        <v>118</v>
+        <v>48</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>49</v>
+      <c r="A163" s="2">
+        <v>43956</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
       </c>
       <c r="C163">
-        <v>259.16000000000003</v>
+        <v>39.14</v>
       </c>
       <c r="D163">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>49</v>
+      <c r="A164" s="2">
+        <v>43956</v>
       </c>
       <c r="B164" t="s">
         <v>7</v>
       </c>
       <c r="C164">
-        <v>19.8</v>
+        <v>4.95</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>49</v>
+      <c r="A165" s="2">
+        <v>43956</v>
       </c>
       <c r="B165" t="s">
         <v>8</v>
       </c>
       <c r="C165">
-        <v>236.82</v>
+        <v>23.79</v>
       </c>
       <c r="D165">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>49</v>
+      <c r="A166" s="2">
+        <v>43956</v>
       </c>
       <c r="B166" t="s">
         <v>9</v>
       </c>
       <c r="C166">
-        <v>31.59</v>
+        <v>7.52</v>
       </c>
       <c r="D166">
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>49</v>
+      <c r="A167" s="2">
+        <v>43956</v>
       </c>
       <c r="B167" t="s">
         <v>10</v>
       </c>
       <c r="C167">
-        <v>284.7</v>
+        <v>227.49</v>
       </c>
       <c r="D167">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>49</v>
+      <c r="A168" s="2">
+        <v>43956</v>
       </c>
       <c r="B168" t="s">
         <v>11</v>
       </c>
       <c r="C168">
-        <v>72.55</v>
+        <v>7.89</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>49</v>
+      <c r="A169" s="2">
+        <v>43956</v>
       </c>
       <c r="B169" t="s">
         <v>12</v>
       </c>
       <c r="C169">
-        <v>38.5</v>
+        <v>10.69</v>
       </c>
       <c r="D169">
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>49</v>
+      <c r="A170" s="2">
+        <v>43956</v>
       </c>
       <c r="B170" t="s">
         <v>13</v>
       </c>
       <c r="C170">
-        <v>301.44</v>
+        <v>130.08000000000001</v>
       </c>
       <c r="D170">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>49</v>
+      <c r="A171" s="2">
+        <v>43956</v>
       </c>
       <c r="B171" t="s">
         <v>14</v>
       </c>
       <c r="C171">
-        <v>118.1</v>
+        <v>1.71</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>49</v>
+      <c r="A172" s="2">
+        <v>43956</v>
       </c>
       <c r="B172" t="s">
         <v>15</v>
       </c>
       <c r="C172">
-        <v>193.26</v>
+        <v>40.18</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>49</v>
+      <c r="A173" s="2">
+        <v>43956</v>
       </c>
       <c r="B173" t="s">
         <v>16</v>
       </c>
       <c r="C173">
-        <v>272.93</v>
+        <v>76.3</v>
       </c>
       <c r="D173">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>49</v>
+      <c r="A174" s="2">
+        <v>43956</v>
       </c>
       <c r="B174" t="s">
         <v>17</v>
       </c>
       <c r="C174">
-        <v>288.12</v>
+        <v>147.58000000000001</v>
       </c>
       <c r="D174">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>49</v>
+      <c r="A175" s="2">
+        <v>43956</v>
       </c>
       <c r="B175" t="s">
         <v>18</v>
       </c>
       <c r="C175">
-        <v>137.49</v>
+        <v>74.42</v>
       </c>
       <c r="D175">
         <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>49</v>
+      <c r="A176" s="2">
+        <v>43956</v>
       </c>
       <c r="B176" t="s">
         <v>19</v>
       </c>
       <c r="C176">
-        <v>40.1</v>
+        <v>23.03</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>49</v>
+      <c r="A177" s="2">
+        <v>43956</v>
       </c>
       <c r="B177" t="s">
         <v>20</v>
       </c>
       <c r="C177">
-        <v>128.58000000000001</v>
+        <v>11.43</v>
       </c>
       <c r="D177">
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>49</v>
+      <c r="A178" s="2">
+        <v>43956</v>
       </c>
       <c r="B178" t="s">
         <v>21</v>
       </c>
       <c r="C178">
-        <v>85.6</v>
+        <v>31.91</v>
       </c>
       <c r="D178">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>49</v>
+      <c r="A179" s="2">
+        <v>43956</v>
       </c>
       <c r="B179" t="s">
         <v>22</v>
       </c>
       <c r="C179">
-        <v>132.94</v>
+        <v>78.33</v>
       </c>
       <c r="D179">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>49</v>
+      <c r="A180" s="2">
+        <v>43956</v>
       </c>
       <c r="B180" t="s">
         <v>23</v>
       </c>
       <c r="C180">
-        <v>281.07</v>
+        <v>221.38</v>
       </c>
       <c r="D180">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>49</v>
+      <c r="A181" s="2">
+        <v>43956</v>
       </c>
       <c r="B181" t="s">
         <v>24</v>
       </c>
       <c r="C181">
-        <v>57.95</v>
+        <v>22.29</v>
       </c>
       <c r="D181">
         <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>49</v>
+      <c r="A182" s="2">
+        <v>43956</v>
       </c>
       <c r="B182" t="s">
         <v>25</v>
       </c>
       <c r="C182">
-        <v>276.42</v>
+        <v>51.3</v>
       </c>
       <c r="D182">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>49</v>
+      <c r="A183" s="2">
+        <v>43956</v>
       </c>
       <c r="B183" t="s">
         <v>26</v>
       </c>
       <c r="C183">
-        <v>126.28</v>
+        <v>37.43</v>
       </c>
       <c r="D183">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>49</v>
+      <c r="A184" s="2">
+        <v>43956</v>
       </c>
       <c r="B184" t="s">
         <v>27</v>
       </c>
       <c r="C184">
-        <v>78.37</v>
+        <v>26.56</v>
       </c>
       <c r="D184">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>49</v>
+      <c r="A185" s="2">
+        <v>43956</v>
       </c>
       <c r="B185" t="s">
         <v>28</v>
       </c>
       <c r="C185">
-        <v>195.42</v>
+        <v>135.55000000000001</v>
       </c>
       <c r="D185">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>49</v>
+      <c r="A186" s="2">
+        <v>43956</v>
       </c>
       <c r="B186" t="s">
         <v>29</v>
       </c>
       <c r="C186">
-        <v>192.41</v>
+        <v>95.68</v>
       </c>
       <c r="D186">
-        <v>97</v>
+        <v>58</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>49</v>
+      <c r="A187" s="2">
+        <v>43956</v>
       </c>
       <c r="B187" t="s">
         <v>30</v>
       </c>
       <c r="C187">
-        <v>123.98</v>
+        <v>66.36</v>
       </c>
       <c r="D187">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>49</v>
+      <c r="A188" s="2">
+        <v>43956</v>
       </c>
       <c r="B188" t="s">
         <v>31</v>
       </c>
       <c r="C188">
-        <v>99.59</v>
+        <v>31.12</v>
       </c>
       <c r="D188">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>49</v>
+      <c r="A189" s="2">
+        <v>43956</v>
       </c>
       <c r="B189" t="s">
         <v>32</v>
       </c>
       <c r="C189">
-        <v>226.08</v>
+        <v>127.38</v>
       </c>
       <c r="D189">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>49</v>
+      <c r="A190" s="2">
+        <v>43956</v>
       </c>
       <c r="B190" t="s">
         <v>33</v>
       </c>
       <c r="C190">
-        <v>29.84</v>
+        <v>12.04</v>
       </c>
       <c r="D190">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>49</v>
+      <c r="A191" s="2">
+        <v>43956</v>
       </c>
       <c r="B191" t="s">
         <v>34</v>
       </c>
       <c r="C191">
-        <v>23.32</v>
+        <v>15.16</v>
       </c>
       <c r="D191">
         <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>49</v>
+      <c r="A192" s="2">
+        <v>43956</v>
       </c>
       <c r="B192" t="s">
         <v>35</v>
       </c>
       <c r="C192">
-        <v>95.58</v>
+        <v>25.73</v>
       </c>
       <c r="D192">
         <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>49</v>
+      <c r="A193" s="2">
+        <v>43956</v>
       </c>
       <c r="B193" t="s">
         <v>36</v>
       </c>
       <c r="C193">
-        <v>293.29000000000002</v>
+        <v>62.28</v>
       </c>
       <c r="D193">
-        <v>150</v>
+        <v>57</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
       </c>
       <c r="C194">
-        <v>702.75</v>
+        <v>581.1</v>
       </c>
       <c r="D194">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
       </c>
       <c r="C195">
-        <v>263.66000000000003</v>
+        <v>214.62</v>
       </c>
       <c r="D195">
         <v>10</v>
@@ -3207,13 +3207,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B196" t="s">
         <v>7</v>
       </c>
       <c r="C196">
-        <v>19.8</v>
+        <v>15.84</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -3221,27 +3221,27 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B197" t="s">
         <v>8</v>
       </c>
       <c r="C197">
-        <v>236.82</v>
+        <v>200.34</v>
       </c>
       <c r="D197">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B198" t="s">
         <v>9</v>
       </c>
       <c r="C198">
-        <v>33.1</v>
+        <v>18.05</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -3249,13 +3249,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B199" t="s">
         <v>10</v>
       </c>
       <c r="C199">
-        <v>287.37</v>
+        <v>275</v>
       </c>
       <c r="D199">
         <v>86</v>
@@ -3263,13 +3263,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B200" t="s">
         <v>11</v>
       </c>
       <c r="C200">
-        <v>74.13</v>
+        <v>31.54</v>
       </c>
       <c r="D200">
         <v>1</v>
@@ -3277,13 +3277,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B201" t="s">
         <v>12</v>
       </c>
       <c r="C201">
-        <v>39.57</v>
+        <v>37.43</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -3291,27 +3291,27 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B202" t="s">
         <v>13</v>
       </c>
       <c r="C202">
-        <v>301.86</v>
+        <v>270.58999999999997</v>
       </c>
       <c r="D202">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B203" t="s">
         <v>14</v>
       </c>
       <c r="C203">
-        <v>118.1</v>
+        <v>78.73</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -3319,13 +3319,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B204" t="s">
         <v>15</v>
       </c>
       <c r="C204">
-        <v>199.49</v>
+        <v>163.83000000000001</v>
       </c>
       <c r="D204">
         <v>2</v>
@@ -3333,13 +3333,13 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B205" t="s">
         <v>16</v>
       </c>
       <c r="C205">
-        <v>279.17</v>
+        <v>228.18</v>
       </c>
       <c r="D205">
         <v>10</v>
@@ -3347,27 +3347,27 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B206" t="s">
         <v>17</v>
       </c>
       <c r="C206">
-        <v>291.04000000000002</v>
+        <v>263.32</v>
       </c>
       <c r="D206">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B207" t="s">
         <v>18</v>
       </c>
       <c r="C207">
-        <v>144.58000000000001</v>
+        <v>117.65</v>
       </c>
       <c r="D207">
         <v>4</v>
@@ -3375,13 +3375,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B208" t="s">
         <v>19</v>
       </c>
       <c r="C208">
-        <v>40.1</v>
+        <v>29.86</v>
       </c>
       <c r="D208">
         <v>1</v>
@@ -3389,13 +3389,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B209" t="s">
         <v>20</v>
       </c>
       <c r="C209">
-        <v>128.58000000000001</v>
+        <v>111.44</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -3403,55 +3403,55 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B210" t="s">
         <v>21</v>
       </c>
       <c r="C210">
-        <v>86.61</v>
+        <v>68.38</v>
       </c>
       <c r="D210">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B211" t="s">
         <v>22</v>
       </c>
       <c r="C211">
-        <v>133.24</v>
+        <v>124.84</v>
       </c>
       <c r="D211">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B212" t="s">
         <v>23</v>
       </c>
       <c r="C212">
-        <v>283.24</v>
+        <v>272.39</v>
       </c>
       <c r="D212">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B213" t="s">
         <v>24</v>
       </c>
       <c r="C213">
-        <v>59.74</v>
+        <v>51.71</v>
       </c>
       <c r="D213">
         <v>1</v>
@@ -3459,41 +3459,41 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B214" t="s">
         <v>25</v>
       </c>
       <c r="C214">
-        <v>278.14999999999998</v>
+        <v>231.24</v>
       </c>
       <c r="D214">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B215" t="s">
         <v>26</v>
       </c>
       <c r="C215">
-        <v>126.28</v>
+        <v>85.69</v>
       </c>
       <c r="D215">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B216" t="s">
         <v>27</v>
       </c>
       <c r="C216">
-        <v>79.03</v>
+        <v>60.33</v>
       </c>
       <c r="D216">
         <v>14</v>
@@ -3501,13 +3501,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B217" t="s">
         <v>28</v>
       </c>
       <c r="C217">
-        <v>197.4</v>
+        <v>176.34</v>
       </c>
       <c r="D217">
         <v>9</v>
@@ -3515,27 +3515,27 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B218" t="s">
         <v>29</v>
       </c>
       <c r="C218">
-        <v>195.28</v>
+        <v>162.65</v>
       </c>
       <c r="D218">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B219" t="s">
         <v>30</v>
       </c>
       <c r="C219">
-        <v>123.98</v>
+        <v>104.77</v>
       </c>
       <c r="D219">
         <v>4</v>
@@ -3543,41 +3543,41 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B220" t="s">
         <v>31</v>
       </c>
       <c r="C220">
-        <v>100.16</v>
+        <v>96.76</v>
       </c>
       <c r="D220">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B221" t="s">
         <v>32</v>
       </c>
       <c r="C221">
-        <v>226.08</v>
+        <v>210.01</v>
       </c>
       <c r="D221">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B222" t="s">
         <v>33</v>
       </c>
       <c r="C222">
-        <v>29.84</v>
+        <v>26.7</v>
       </c>
       <c r="D222">
         <v>7</v>
@@ -3585,13 +3585,13 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B223" t="s">
         <v>34</v>
       </c>
       <c r="C223">
-        <v>24.49</v>
+        <v>20.99</v>
       </c>
       <c r="D223">
         <v>2</v>
@@ -3599,13 +3599,13 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B224" t="s">
         <v>35</v>
       </c>
       <c r="C224">
-        <v>95.58</v>
+        <v>88.23</v>
       </c>
       <c r="D224">
         <v>2</v>
@@ -3613,15 +3613,911 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B225" t="s">
         <v>36</v>
       </c>
       <c r="C225">
+        <v>239.68</v>
+      </c>
+      <c r="D225">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>49</v>
+      </c>
+      <c r="B226" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226">
+        <v>687.32</v>
+      </c>
+      <c r="D226">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>49</v>
+      </c>
+      <c r="B227" t="s">
+        <v>6</v>
+      </c>
+      <c r="C227">
+        <v>259.16000000000003</v>
+      </c>
+      <c r="D227">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>49</v>
+      </c>
+      <c r="B228" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228">
+        <v>19.8</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>49</v>
+      </c>
+      <c r="B229" t="s">
+        <v>8</v>
+      </c>
+      <c r="C229">
+        <v>236.82</v>
+      </c>
+      <c r="D229">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>49</v>
+      </c>
+      <c r="B230" t="s">
+        <v>9</v>
+      </c>
+      <c r="C230">
+        <v>31.59</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>49</v>
+      </c>
+      <c r="B231" t="s">
+        <v>10</v>
+      </c>
+      <c r="C231">
+        <v>284.7</v>
+      </c>
+      <c r="D231">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>49</v>
+      </c>
+      <c r="B232" t="s">
+        <v>11</v>
+      </c>
+      <c r="C232">
+        <v>72.55</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>49</v>
+      </c>
+      <c r="B233" t="s">
+        <v>12</v>
+      </c>
+      <c r="C233">
+        <v>38.5</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>49</v>
+      </c>
+      <c r="B234" t="s">
+        <v>13</v>
+      </c>
+      <c r="C234">
+        <v>301.44</v>
+      </c>
+      <c r="D234">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>49</v>
+      </c>
+      <c r="B235" t="s">
+        <v>14</v>
+      </c>
+      <c r="C235">
+        <v>118.1</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>49</v>
+      </c>
+      <c r="B236" t="s">
+        <v>15</v>
+      </c>
+      <c r="C236">
+        <v>193.26</v>
+      </c>
+      <c r="D236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>49</v>
+      </c>
+      <c r="B237" t="s">
+        <v>16</v>
+      </c>
+      <c r="C237">
+        <v>272.93</v>
+      </c>
+      <c r="D237">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>49</v>
+      </c>
+      <c r="B238" t="s">
+        <v>17</v>
+      </c>
+      <c r="C238">
+        <v>288.12</v>
+      </c>
+      <c r="D238">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>49</v>
+      </c>
+      <c r="B239" t="s">
+        <v>18</v>
+      </c>
+      <c r="C239">
+        <v>137.49</v>
+      </c>
+      <c r="D239">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>49</v>
+      </c>
+      <c r="B240" t="s">
+        <v>19</v>
+      </c>
+      <c r="C240">
+        <v>40.1</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>49</v>
+      </c>
+      <c r="B241" t="s">
+        <v>20</v>
+      </c>
+      <c r="C241">
+        <v>128.58000000000001</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>49</v>
+      </c>
+      <c r="B242" t="s">
+        <v>21</v>
+      </c>
+      <c r="C242">
+        <v>85.6</v>
+      </c>
+      <c r="D242">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>49</v>
+      </c>
+      <c r="B243" t="s">
+        <v>22</v>
+      </c>
+      <c r="C243">
+        <v>132.94</v>
+      </c>
+      <c r="D243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>49</v>
+      </c>
+      <c r="B244" t="s">
+        <v>23</v>
+      </c>
+      <c r="C244">
+        <v>281.07</v>
+      </c>
+      <c r="D244">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>49</v>
+      </c>
+      <c r="B245" t="s">
+        <v>24</v>
+      </c>
+      <c r="C245">
+        <v>57.95</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>49</v>
+      </c>
+      <c r="B246" t="s">
+        <v>25</v>
+      </c>
+      <c r="C246">
+        <v>276.42</v>
+      </c>
+      <c r="D246">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>49</v>
+      </c>
+      <c r="B247" t="s">
+        <v>26</v>
+      </c>
+      <c r="C247">
+        <v>126.28</v>
+      </c>
+      <c r="D247">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>49</v>
+      </c>
+      <c r="B248" t="s">
+        <v>27</v>
+      </c>
+      <c r="C248">
+        <v>78.37</v>
+      </c>
+      <c r="D248">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>49</v>
+      </c>
+      <c r="B249" t="s">
+        <v>28</v>
+      </c>
+      <c r="C249">
+        <v>195.42</v>
+      </c>
+      <c r="D249">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>49</v>
+      </c>
+      <c r="B250" t="s">
+        <v>29</v>
+      </c>
+      <c r="C250">
+        <v>192.41</v>
+      </c>
+      <c r="D250">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>49</v>
+      </c>
+      <c r="B251" t="s">
+        <v>30</v>
+      </c>
+      <c r="C251">
+        <v>123.98</v>
+      </c>
+      <c r="D251">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>49</v>
+      </c>
+      <c r="B252" t="s">
+        <v>31</v>
+      </c>
+      <c r="C252">
+        <v>99.59</v>
+      </c>
+      <c r="D252">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>49</v>
+      </c>
+      <c r="B253" t="s">
+        <v>32</v>
+      </c>
+      <c r="C253">
+        <v>226.08</v>
+      </c>
+      <c r="D253">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>49</v>
+      </c>
+      <c r="B254" t="s">
+        <v>33</v>
+      </c>
+      <c r="C254">
+        <v>29.84</v>
+      </c>
+      <c r="D254">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>49</v>
+      </c>
+      <c r="B255" t="s">
+        <v>34</v>
+      </c>
+      <c r="C255">
+        <v>23.32</v>
+      </c>
+      <c r="D255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>49</v>
+      </c>
+      <c r="B256" t="s">
+        <v>35</v>
+      </c>
+      <c r="C256">
+        <v>95.58</v>
+      </c>
+      <c r="D256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>49</v>
+      </c>
+      <c r="B257" t="s">
+        <v>36</v>
+      </c>
+      <c r="C257">
+        <v>293.29000000000002</v>
+      </c>
+      <c r="D257">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>50</v>
+      </c>
+      <c r="B258" t="s">
+        <v>5</v>
+      </c>
+      <c r="C258">
+        <v>702.75</v>
+      </c>
+      <c r="D258">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>50</v>
+      </c>
+      <c r="B259" t="s">
+        <v>6</v>
+      </c>
+      <c r="C259">
+        <v>263.66000000000003</v>
+      </c>
+      <c r="D259">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>50</v>
+      </c>
+      <c r="B260" t="s">
+        <v>7</v>
+      </c>
+      <c r="C260">
+        <v>19.8</v>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>50</v>
+      </c>
+      <c r="B261" t="s">
+        <v>8</v>
+      </c>
+      <c r="C261">
+        <v>236.82</v>
+      </c>
+      <c r="D261">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>50</v>
+      </c>
+      <c r="B262" t="s">
+        <v>9</v>
+      </c>
+      <c r="C262">
+        <v>33.1</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>50</v>
+      </c>
+      <c r="B263" t="s">
+        <v>10</v>
+      </c>
+      <c r="C263">
+        <v>287.37</v>
+      </c>
+      <c r="D263">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>50</v>
+      </c>
+      <c r="B264" t="s">
+        <v>11</v>
+      </c>
+      <c r="C264">
+        <v>74.13</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>50</v>
+      </c>
+      <c r="B265" t="s">
+        <v>12</v>
+      </c>
+      <c r="C265">
+        <v>39.57</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>50</v>
+      </c>
+      <c r="B266" t="s">
+        <v>13</v>
+      </c>
+      <c r="C266">
+        <v>301.86</v>
+      </c>
+      <c r="D266">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>50</v>
+      </c>
+      <c r="B267" t="s">
+        <v>14</v>
+      </c>
+      <c r="C267">
+        <v>118.1</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>50</v>
+      </c>
+      <c r="B268" t="s">
+        <v>15</v>
+      </c>
+      <c r="C268">
+        <v>199.49</v>
+      </c>
+      <c r="D268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>50</v>
+      </c>
+      <c r="B269" t="s">
+        <v>16</v>
+      </c>
+      <c r="C269">
+        <v>279.17</v>
+      </c>
+      <c r="D269">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>50</v>
+      </c>
+      <c r="B270" t="s">
+        <v>17</v>
+      </c>
+      <c r="C270">
+        <v>291.04000000000002</v>
+      </c>
+      <c r="D270">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>50</v>
+      </c>
+      <c r="B271" t="s">
+        <v>18</v>
+      </c>
+      <c r="C271">
+        <v>144.58000000000001</v>
+      </c>
+      <c r="D271">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>50</v>
+      </c>
+      <c r="B272" t="s">
+        <v>19</v>
+      </c>
+      <c r="C272">
+        <v>40.1</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>50</v>
+      </c>
+      <c r="B273" t="s">
+        <v>20</v>
+      </c>
+      <c r="C273">
+        <v>128.58000000000001</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>50</v>
+      </c>
+      <c r="B274" t="s">
+        <v>21</v>
+      </c>
+      <c r="C274">
+        <v>86.61</v>
+      </c>
+      <c r="D274">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>50</v>
+      </c>
+      <c r="B275" t="s">
+        <v>22</v>
+      </c>
+      <c r="C275">
+        <v>133.24</v>
+      </c>
+      <c r="D275">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>50</v>
+      </c>
+      <c r="B276" t="s">
+        <v>23</v>
+      </c>
+      <c r="C276">
+        <v>283.24</v>
+      </c>
+      <c r="D276">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>50</v>
+      </c>
+      <c r="B277" t="s">
+        <v>24</v>
+      </c>
+      <c r="C277">
+        <v>59.74</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>50</v>
+      </c>
+      <c r="B278" t="s">
+        <v>25</v>
+      </c>
+      <c r="C278">
+        <v>278.14999999999998</v>
+      </c>
+      <c r="D278">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>50</v>
+      </c>
+      <c r="B279" t="s">
+        <v>26</v>
+      </c>
+      <c r="C279">
+        <v>126.28</v>
+      </c>
+      <c r="D279">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>50</v>
+      </c>
+      <c r="B280" t="s">
+        <v>27</v>
+      </c>
+      <c r="C280">
+        <v>79.03</v>
+      </c>
+      <c r="D280">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>50</v>
+      </c>
+      <c r="B281" t="s">
+        <v>28</v>
+      </c>
+      <c r="C281">
+        <v>197.4</v>
+      </c>
+      <c r="D281">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>50</v>
+      </c>
+      <c r="B282" t="s">
+        <v>29</v>
+      </c>
+      <c r="C282">
+        <v>195.28</v>
+      </c>
+      <c r="D282">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>50</v>
+      </c>
+      <c r="B283" t="s">
+        <v>30</v>
+      </c>
+      <c r="C283">
+        <v>123.98</v>
+      </c>
+      <c r="D283">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>50</v>
+      </c>
+      <c r="B284" t="s">
+        <v>31</v>
+      </c>
+      <c r="C284">
+        <v>100.16</v>
+      </c>
+      <c r="D284">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>50</v>
+      </c>
+      <c r="B285" t="s">
+        <v>32</v>
+      </c>
+      <c r="C285">
+        <v>226.08</v>
+      </c>
+      <c r="D285">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>50</v>
+      </c>
+      <c r="B286" t="s">
+        <v>33</v>
+      </c>
+      <c r="C286">
+        <v>29.84</v>
+      </c>
+      <c r="D286">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>50</v>
+      </c>
+      <c r="B287" t="s">
+        <v>34</v>
+      </c>
+      <c r="C287">
+        <v>24.49</v>
+      </c>
+      <c r="D287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>50</v>
+      </c>
+      <c r="B288" t="s">
+        <v>35</v>
+      </c>
+      <c r="C288">
+        <v>95.58</v>
+      </c>
+      <c r="D288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>50</v>
+      </c>
+      <c r="B289" t="s">
+        <v>36</v>
+      </c>
+      <c r="C289">
         <v>299.04000000000002</v>
       </c>
-      <c r="D225">
+      <c r="D289">
         <v>153</v>
       </c>
     </row>
@@ -3634,10 +4530,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93012AD9-A6D4-48C4-AAAA-A2304D189270}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3716,6 +4612,34 @@
       </c>
       <c r="D5">
         <v>581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B6">
+        <v>6652</v>
+      </c>
+      <c r="C6">
+        <v>293</v>
+      </c>
+      <c r="D6">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B7">
+        <v>8807</v>
+      </c>
+      <c r="C7">
+        <v>362</v>
+      </c>
+      <c r="D7">
+        <v>1989</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D781758-0138-407A-83D8-3080FA429491}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD86D00B-C9AA-493D-BAC4-9A98D240A880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="195" windowWidth="9900" windowHeight="12435" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
+    <workbookView xWindow="1080" yWindow="195" windowWidth="9900" windowHeight="12435" firstSheet="1" activeTab="2" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Provincias_Semanal" sheetId="1" r:id="rId1"/>
-    <sheet name="Fallecido_Recuperado" sheetId="3" r:id="rId2"/>
+    <sheet name="Fallecido_Recuperado" sheetId="3" r:id="rId1"/>
+    <sheet name="Provincias_Semanal" sheetId="1" r:id="rId2"/>
     <sheet name="Por_Edad" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="55">
   <si>
     <t>Incidencia Acumulada</t>
   </si>
@@ -556,11 +556,186 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93012AD9-A6D4-48C4-AAAA-A2304D189270}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B2">
+        <v>1284</v>
+      </c>
+      <c r="C2">
+        <v>57</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B3">
+        <v>2111</v>
+      </c>
+      <c r="C3">
+        <v>108</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B4">
+        <v>3614</v>
+      </c>
+      <c r="C4">
+        <v>189</v>
+      </c>
+      <c r="D4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B5">
+        <v>5300</v>
+      </c>
+      <c r="C5">
+        <v>260</v>
+      </c>
+      <c r="D5">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B6">
+        <v>6652</v>
+      </c>
+      <c r="C6">
+        <v>293</v>
+      </c>
+      <c r="D6">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B7">
+        <v>8807</v>
+      </c>
+      <c r="C7">
+        <v>362</v>
+      </c>
+      <c r="D7">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B8">
+        <v>11196</v>
+      </c>
+      <c r="C8">
+        <v>409</v>
+      </c>
+      <c r="D8">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B9">
+        <v>13477</v>
+      </c>
+      <c r="C9">
+        <v>446</v>
+      </c>
+      <c r="D9">
+        <v>7142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>43977</v>
+      </c>
+      <c r="B10">
+        <v>15723</v>
+      </c>
+      <c r="C10">
+        <v>474</v>
+      </c>
+      <c r="D10">
+        <v>8790</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B11">
+        <v>18040</v>
+      </c>
+      <c r="C11">
+        <v>516</v>
+      </c>
+      <c r="D11">
+        <v>11224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
-  <dimension ref="A1:D289"/>
+  <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="D194" sqref="D194"/>
+    <sheetView topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="D322" sqref="D322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3178,1346 +3353,3330 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>4</v>
+      <c r="A194" s="2">
+        <v>43963</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
       </c>
       <c r="C194">
-        <v>581.1</v>
+        <v>273.49</v>
       </c>
       <c r="D194">
-        <v>108</v>
+        <v>56</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>4</v>
+      <c r="A195" s="2">
+        <v>43963</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
       </c>
       <c r="C195">
-        <v>214.62</v>
+        <v>54.44</v>
       </c>
       <c r="D195">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>4</v>
+      <c r="A196" s="2">
+        <v>43963</v>
       </c>
       <c r="B196" t="s">
         <v>7</v>
       </c>
       <c r="C196">
-        <v>15.84</v>
+        <v>5.94</v>
       </c>
       <c r="D196">
         <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>4</v>
+      <c r="A197" s="2">
+        <v>43963</v>
       </c>
       <c r="B197" t="s">
         <v>8</v>
       </c>
       <c r="C197">
-        <v>200.34</v>
+        <v>37</v>
       </c>
       <c r="D197">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>4</v>
+      <c r="A198" s="2">
+        <v>43963</v>
       </c>
       <c r="B198" t="s">
         <v>9</v>
       </c>
       <c r="C198">
-        <v>18.05</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="D198">
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>4</v>
+      <c r="A199" s="2">
+        <v>43963</v>
       </c>
       <c r="B199" t="s">
         <v>10</v>
       </c>
       <c r="C199">
-        <v>275</v>
+        <v>247.23</v>
       </c>
       <c r="D199">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>4</v>
+      <c r="A200" s="2">
+        <v>43963</v>
       </c>
       <c r="B200" t="s">
         <v>11</v>
       </c>
       <c r="C200">
-        <v>31.54</v>
+        <v>11.04</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>4</v>
+      <c r="A201" s="2">
+        <v>43963</v>
       </c>
       <c r="B201" t="s">
         <v>12</v>
       </c>
       <c r="C201">
-        <v>37.43</v>
+        <v>14.97</v>
       </c>
       <c r="D201">
         <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>4</v>
+      <c r="A202" s="2">
+        <v>43963</v>
       </c>
       <c r="B202" t="s">
         <v>13</v>
       </c>
       <c r="C202">
-        <v>270.58999999999997</v>
+        <v>179.7</v>
       </c>
       <c r="D202">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>4</v>
+      <c r="A203" s="2">
+        <v>43963</v>
       </c>
       <c r="B203" t="s">
         <v>14</v>
       </c>
       <c r="C203">
-        <v>78.73</v>
+        <v>5.13</v>
       </c>
       <c r="D203">
         <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>4</v>
+      <c r="A204" s="2">
+        <v>43963</v>
       </c>
       <c r="B204" t="s">
         <v>15</v>
       </c>
       <c r="C204">
-        <v>163.83000000000001</v>
+        <v>48.95</v>
       </c>
       <c r="D204">
         <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>4</v>
+      <c r="A205" s="2">
+        <v>43963</v>
       </c>
       <c r="B205" t="s">
         <v>16</v>
       </c>
       <c r="C205">
-        <v>228.18</v>
+        <v>99.41</v>
       </c>
       <c r="D205">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>4</v>
+      <c r="A206" s="2">
+        <v>43963</v>
       </c>
       <c r="B206" t="s">
         <v>17</v>
       </c>
       <c r="C206">
-        <v>263.32</v>
+        <v>182.6</v>
       </c>
       <c r="D206">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>4</v>
+      <c r="A207" s="2">
+        <v>43963</v>
       </c>
       <c r="B207" t="s">
         <v>18</v>
       </c>
       <c r="C207">
-        <v>117.65</v>
+        <v>80.09</v>
       </c>
       <c r="D207">
         <v>4</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>4</v>
+      <c r="A208" s="2">
+        <v>43963</v>
       </c>
       <c r="B208" t="s">
         <v>19</v>
       </c>
       <c r="C208">
-        <v>29.86</v>
+        <v>23.89</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>4</v>
+      <c r="A209" s="2">
+        <v>43963</v>
       </c>
       <c r="B209" t="s">
         <v>20</v>
       </c>
       <c r="C209">
-        <v>111.44</v>
+        <v>14.29</v>
       </c>
       <c r="D209">
         <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>4</v>
+      <c r="A210" s="2">
+        <v>43963</v>
       </c>
       <c r="B210" t="s">
         <v>21</v>
       </c>
       <c r="C210">
-        <v>68.38</v>
+        <v>42.55</v>
       </c>
       <c r="D210">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>4</v>
+      <c r="A211" s="2">
+        <v>43963</v>
       </c>
       <c r="B211" t="s">
         <v>22</v>
       </c>
       <c r="C211">
-        <v>124.84</v>
+        <v>89.13</v>
       </c>
       <c r="D211">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>4</v>
+      <c r="A212" s="2">
+        <v>43963</v>
       </c>
       <c r="B212" t="s">
         <v>23</v>
       </c>
       <c r="C212">
-        <v>272.39</v>
+        <v>247.43</v>
       </c>
       <c r="D212">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>4</v>
+      <c r="A213" s="2">
+        <v>43963</v>
       </c>
       <c r="B213" t="s">
         <v>24</v>
       </c>
       <c r="C213">
-        <v>51.71</v>
+        <v>24.96</v>
       </c>
       <c r="D213">
         <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>4</v>
+      <c r="A214" s="2">
+        <v>43963</v>
       </c>
       <c r="B214" t="s">
         <v>25</v>
       </c>
       <c r="C214">
-        <v>231.24</v>
+        <v>81.73</v>
       </c>
       <c r="D214">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>4</v>
+      <c r="A215" s="2">
+        <v>43963</v>
       </c>
       <c r="B215" t="s">
         <v>26</v>
       </c>
       <c r="C215">
-        <v>85.69</v>
+        <v>40.590000000000003</v>
       </c>
       <c r="D215">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>4</v>
+      <c r="A216" s="2">
+        <v>43963</v>
       </c>
       <c r="B216" t="s">
         <v>27</v>
       </c>
       <c r="C216">
-        <v>60.33</v>
+        <v>31.48</v>
       </c>
       <c r="D216">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>4</v>
+      <c r="A217" s="2">
+        <v>43963</v>
       </c>
       <c r="B217" t="s">
         <v>28</v>
       </c>
       <c r="C217">
-        <v>176.34</v>
+        <v>147.38999999999999</v>
       </c>
       <c r="D217">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>4</v>
+      <c r="A218" s="2">
+        <v>43963</v>
       </c>
       <c r="B218" t="s">
         <v>29</v>
       </c>
       <c r="C218">
-        <v>162.65</v>
+        <v>113.28</v>
       </c>
       <c r="D218">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>4</v>
+      <c r="A219" s="2">
+        <v>43963</v>
       </c>
       <c r="B219" t="s">
         <v>30</v>
       </c>
       <c r="C219">
-        <v>104.77</v>
+        <v>73.34</v>
       </c>
       <c r="D219">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>4</v>
+      <c r="A220" s="2">
+        <v>43963</v>
       </c>
       <c r="B220" t="s">
         <v>31</v>
       </c>
       <c r="C220">
-        <v>96.76</v>
+        <v>37.35</v>
       </c>
       <c r="D220">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>4</v>
+      <c r="A221" s="2">
+        <v>43963</v>
       </c>
       <c r="B221" t="s">
         <v>32</v>
       </c>
       <c r="C221">
-        <v>210.01</v>
+        <v>157.79</v>
       </c>
       <c r="D221">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>4</v>
+      <c r="A222" s="2">
+        <v>43963</v>
       </c>
       <c r="B222" t="s">
         <v>33</v>
       </c>
       <c r="C222">
-        <v>26.7</v>
+        <v>14.66</v>
       </c>
       <c r="D222">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>4</v>
+      <c r="A223" s="2">
+        <v>43963</v>
       </c>
       <c r="B223" t="s">
         <v>34</v>
       </c>
       <c r="C223">
-        <v>20.99</v>
+        <v>15.16</v>
       </c>
       <c r="D223">
         <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>4</v>
+      <c r="A224" s="2">
+        <v>43963</v>
       </c>
       <c r="B224" t="s">
         <v>35</v>
       </c>
       <c r="C224">
-        <v>88.23</v>
+        <v>31.25</v>
       </c>
       <c r="D224">
         <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>4</v>
+      <c r="A225" s="2">
+        <v>43963</v>
       </c>
       <c r="B225" t="s">
         <v>36</v>
       </c>
       <c r="C225">
-        <v>239.68</v>
+        <v>83</v>
       </c>
       <c r="D225">
-        <v>127</v>
+        <v>64</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>49</v>
+      <c r="A226" s="2">
+        <v>43970</v>
       </c>
       <c r="B226" t="s">
         <v>5</v>
       </c>
       <c r="C226">
-        <v>687.32</v>
+        <v>327.55</v>
       </c>
       <c r="D226">
-        <v>118</v>
+        <v>68</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>49</v>
+      <c r="A227" s="2">
+        <v>43970</v>
       </c>
       <c r="B227" t="s">
         <v>6</v>
       </c>
       <c r="C227">
-        <v>259.16000000000003</v>
+        <v>67.94</v>
       </c>
       <c r="D227">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>49</v>
+      <c r="A228" s="2">
+        <v>43970</v>
       </c>
       <c r="B228" t="s">
         <v>7</v>
       </c>
       <c r="C228">
-        <v>19.8</v>
+        <v>7.92</v>
       </c>
       <c r="D228">
         <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>49</v>
+      <c r="A229" s="2">
+        <v>43970</v>
       </c>
       <c r="B229" t="s">
         <v>8</v>
       </c>
       <c r="C229">
-        <v>236.82</v>
+        <v>45.99</v>
       </c>
       <c r="D229">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>49</v>
+      <c r="A230" s="2">
+        <v>43970</v>
       </c>
       <c r="B230" t="s">
         <v>9</v>
       </c>
       <c r="C230">
-        <v>31.59</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="D230">
         <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>49</v>
+      <c r="A231" s="2">
+        <v>43970</v>
       </c>
       <c r="B231" t="s">
         <v>10</v>
       </c>
       <c r="C231">
-        <v>284.7</v>
+        <v>257.93</v>
       </c>
       <c r="D231">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>49</v>
+      <c r="A232" s="2">
+        <v>43970</v>
       </c>
       <c r="B232" t="s">
         <v>11</v>
       </c>
       <c r="C232">
-        <v>72.55</v>
+        <v>11.04</v>
       </c>
       <c r="D232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>49</v>
+      <c r="A233" s="2">
+        <v>43970</v>
       </c>
       <c r="B233" t="s">
         <v>12</v>
       </c>
       <c r="C233">
-        <v>38.5</v>
+        <v>16.04</v>
       </c>
       <c r="D233">
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>49</v>
+      <c r="A234" s="2">
+        <v>43970</v>
       </c>
       <c r="B234" t="s">
         <v>13</v>
       </c>
       <c r="C234">
-        <v>301.44</v>
+        <v>208.88</v>
       </c>
       <c r="D234">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>49</v>
+      <c r="A235" s="2">
+        <v>43970</v>
       </c>
       <c r="B235" t="s">
         <v>14</v>
       </c>
       <c r="C235">
-        <v>118.1</v>
+        <v>5.13</v>
       </c>
       <c r="D235">
         <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>49</v>
+      <c r="A236" s="2">
+        <v>43970</v>
       </c>
       <c r="B236" t="s">
         <v>15</v>
       </c>
       <c r="C236">
-        <v>193.26</v>
+        <v>63.95</v>
       </c>
       <c r="D236">
         <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>49</v>
+      <c r="A237" s="2">
+        <v>43970</v>
       </c>
       <c r="B237" t="s">
         <v>16</v>
       </c>
       <c r="C237">
-        <v>272.93</v>
+        <v>154.44</v>
       </c>
       <c r="D237">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>49</v>
+      <c r="A238" s="2">
+        <v>43970</v>
       </c>
       <c r="B238" t="s">
         <v>17</v>
       </c>
       <c r="C238">
-        <v>288.12</v>
+        <v>201.8</v>
       </c>
       <c r="D238">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>49</v>
+      <c r="A239" s="2">
+        <v>43970</v>
       </c>
       <c r="B239" t="s">
         <v>18</v>
       </c>
       <c r="C239">
-        <v>137.49</v>
+        <v>85.76</v>
       </c>
       <c r="D239">
         <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>49</v>
+      <c r="A240" s="2">
+        <v>43970</v>
       </c>
       <c r="B240" t="s">
         <v>19</v>
       </c>
       <c r="C240">
-        <v>40.1</v>
+        <v>26.45</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>49</v>
+      <c r="A241" s="2">
+        <v>43970</v>
       </c>
       <c r="B241" t="s">
         <v>20</v>
       </c>
       <c r="C241">
-        <v>128.58000000000001</v>
+        <v>14.29</v>
       </c>
       <c r="D241">
         <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>49</v>
+      <c r="A242" s="2">
+        <v>43970</v>
       </c>
       <c r="B242" t="s">
         <v>21</v>
       </c>
       <c r="C242">
-        <v>85.6</v>
+        <v>50.14</v>
       </c>
       <c r="D242">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>49</v>
+      <c r="A243" s="2">
+        <v>43970</v>
       </c>
       <c r="B243" t="s">
         <v>22</v>
       </c>
       <c r="C243">
-        <v>132.94</v>
+        <v>99.63</v>
       </c>
       <c r="D243">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>49</v>
+      <c r="A244" s="2">
+        <v>43970</v>
       </c>
       <c r="B244" t="s">
         <v>23</v>
       </c>
       <c r="C244">
-        <v>281.07</v>
+        <v>255.02</v>
       </c>
       <c r="D244">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>49</v>
+      <c r="A245" s="2">
+        <v>43970</v>
       </c>
       <c r="B245" t="s">
         <v>24</v>
       </c>
       <c r="C245">
-        <v>57.95</v>
+        <v>25.86</v>
       </c>
       <c r="D245">
         <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>49</v>
+      <c r="A246" s="2">
+        <v>43970</v>
       </c>
       <c r="B246" t="s">
         <v>25</v>
       </c>
       <c r="C246">
-        <v>276.42</v>
+        <v>114.99</v>
       </c>
       <c r="D246">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>49</v>
+      <c r="A247" s="2">
+        <v>43970</v>
       </c>
       <c r="B247" t="s">
         <v>26</v>
       </c>
       <c r="C247">
-        <v>126.28</v>
+        <v>47.35</v>
       </c>
       <c r="D247">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>49</v>
+      <c r="A248" s="2">
+        <v>43970</v>
       </c>
       <c r="B248" t="s">
         <v>27</v>
       </c>
       <c r="C248">
-        <v>78.37</v>
+        <v>35.090000000000003</v>
       </c>
       <c r="D248">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>49</v>
+      <c r="A249" s="2">
+        <v>43970</v>
       </c>
       <c r="B249" t="s">
         <v>28</v>
       </c>
       <c r="C249">
-        <v>195.42</v>
+        <v>157.91999999999999</v>
       </c>
       <c r="D249">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>49</v>
+      <c r="A250" s="2">
+        <v>43970</v>
       </c>
       <c r="B250" t="s">
         <v>29</v>
       </c>
       <c r="C250">
-        <v>192.41</v>
+        <v>125.72</v>
       </c>
       <c r="D250">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>49</v>
+      <c r="A251" s="2">
+        <v>43970</v>
       </c>
       <c r="B251" t="s">
         <v>30</v>
       </c>
       <c r="C251">
-        <v>123.98</v>
+        <v>80.33</v>
       </c>
       <c r="D251">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>49</v>
+      <c r="A252" s="2">
+        <v>43970</v>
       </c>
       <c r="B252" t="s">
         <v>31</v>
       </c>
       <c r="C252">
-        <v>99.59</v>
+        <v>44.7</v>
       </c>
       <c r="D252">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>49</v>
+      <c r="A253" s="2">
+        <v>43970</v>
       </c>
       <c r="B253" t="s">
         <v>32</v>
       </c>
       <c r="C253">
-        <v>226.08</v>
+        <v>177.3</v>
       </c>
       <c r="D253">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>49</v>
+      <c r="A254" s="2">
+        <v>43970</v>
       </c>
       <c r="B254" t="s">
         <v>33</v>
       </c>
       <c r="C254">
-        <v>29.84</v>
+        <v>18.32</v>
       </c>
       <c r="D254">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>49</v>
+      <c r="A255" s="2">
+        <v>43970</v>
       </c>
       <c r="B255" t="s">
         <v>34</v>
       </c>
       <c r="C255">
-        <v>23.32</v>
+        <v>15.16</v>
       </c>
       <c r="D255">
         <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>49</v>
+      <c r="A256" s="2">
+        <v>43970</v>
       </c>
       <c r="B256" t="s">
         <v>35</v>
       </c>
       <c r="C256">
-        <v>95.58</v>
+        <v>34.92</v>
       </c>
       <c r="D256">
         <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>49</v>
+      <c r="A257" s="2">
+        <v>43970</v>
       </c>
       <c r="B257" t="s">
         <v>36</v>
       </c>
       <c r="C257">
-        <v>293.29000000000002</v>
+        <v>109.5</v>
       </c>
       <c r="D257">
-        <v>150</v>
+        <v>72</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>50</v>
+      <c r="A258" s="2">
+        <v>43977</v>
       </c>
       <c r="B258" t="s">
         <v>5</v>
       </c>
       <c r="C258">
-        <v>702.75</v>
+        <v>387.95</v>
       </c>
       <c r="D258">
-        <v>122</v>
+        <v>72</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>50</v>
+      <c r="A259" s="2">
+        <v>43977</v>
       </c>
       <c r="B259" t="s">
         <v>6</v>
       </c>
       <c r="C259">
-        <v>263.66000000000003</v>
+        <v>91.34</v>
       </c>
       <c r="D259">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>50</v>
+      <c r="A260" s="2">
+        <v>43977</v>
       </c>
       <c r="B260" t="s">
         <v>7</v>
       </c>
       <c r="C260">
-        <v>19.8</v>
+        <v>7.92</v>
       </c>
       <c r="D260">
         <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>50</v>
+      <c r="A261" s="2">
+        <v>43977</v>
       </c>
       <c r="B261" t="s">
         <v>8</v>
       </c>
       <c r="C261">
-        <v>236.82</v>
+        <v>72.95</v>
       </c>
       <c r="D261">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>50</v>
+      <c r="A262" s="2">
+        <v>43977</v>
       </c>
       <c r="B262" t="s">
         <v>9</v>
       </c>
       <c r="C262">
-        <v>33.1</v>
+        <v>10.53</v>
       </c>
       <c r="D262">
         <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>50</v>
+      <c r="A263" s="2">
+        <v>43977</v>
       </c>
       <c r="B263" t="s">
         <v>10</v>
       </c>
       <c r="C263">
-        <v>287.37</v>
+        <v>260.27999999999997</v>
       </c>
       <c r="D263">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>50</v>
+      <c r="A264" s="2">
+        <v>43977</v>
       </c>
       <c r="B264" t="s">
         <v>11</v>
       </c>
       <c r="C264">
-        <v>74.13</v>
+        <v>12.62</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>50</v>
+      <c r="A265" s="2">
+        <v>43977</v>
       </c>
       <c r="B265" t="s">
         <v>12</v>
       </c>
       <c r="C265">
-        <v>39.57</v>
+        <v>19.25</v>
       </c>
       <c r="D265">
         <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>50</v>
+      <c r="A266" s="2">
+        <v>43977</v>
       </c>
       <c r="B266" t="s">
         <v>13</v>
       </c>
       <c r="C266">
-        <v>301.86</v>
+        <v>222.23</v>
       </c>
       <c r="D266">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>50</v>
+      <c r="A267" s="2">
+        <v>43977</v>
       </c>
       <c r="B267" t="s">
         <v>14</v>
       </c>
       <c r="C267">
-        <v>118.1</v>
+        <v>8.56</v>
       </c>
       <c r="D267">
         <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>50</v>
+      <c r="A268" s="2">
+        <v>43977</v>
       </c>
       <c r="B268" t="s">
         <v>15</v>
       </c>
       <c r="C268">
-        <v>199.49</v>
+        <v>87.43</v>
       </c>
       <c r="D268">
         <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>50</v>
+      <c r="A269" s="2">
+        <v>43977</v>
       </c>
       <c r="B269" t="s">
         <v>16</v>
       </c>
       <c r="C269">
-        <v>279.17</v>
+        <v>167.65</v>
       </c>
       <c r="D269">
         <v>10</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>50</v>
+      <c r="A270" s="2">
+        <v>43977</v>
       </c>
       <c r="B270" t="s">
         <v>17</v>
       </c>
       <c r="C270">
-        <v>291.04000000000002</v>
+        <v>213.72</v>
       </c>
       <c r="D270">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>50</v>
+      <c r="A271" s="2">
+        <v>43977</v>
       </c>
       <c r="B271" t="s">
         <v>18</v>
       </c>
       <c r="C271">
-        <v>144.58000000000001</v>
+        <v>92.14</v>
       </c>
       <c r="D271">
         <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>50</v>
+      <c r="A272" s="2">
+        <v>43977</v>
       </c>
       <c r="B272" t="s">
         <v>19</v>
       </c>
       <c r="C272">
-        <v>40.1</v>
+        <v>27.3</v>
       </c>
       <c r="D272">
         <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>50</v>
+      <c r="A273" s="2">
+        <v>43977</v>
       </c>
       <c r="B273" t="s">
         <v>20</v>
       </c>
       <c r="C273">
-        <v>128.58000000000001</v>
+        <v>17.14</v>
       </c>
       <c r="D273">
         <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>50</v>
+      <c r="A274" s="2">
+        <v>43977</v>
       </c>
       <c r="B274" t="s">
         <v>21</v>
       </c>
       <c r="C274">
-        <v>86.61</v>
+        <v>54.2</v>
       </c>
       <c r="D274">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>50</v>
+      <c r="A275" s="2">
+        <v>43977</v>
       </c>
       <c r="B275" t="s">
         <v>22</v>
       </c>
       <c r="C275">
-        <v>133.24</v>
+        <v>104.14</v>
       </c>
       <c r="D275">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>50</v>
+      <c r="A276" s="2">
+        <v>43977</v>
       </c>
       <c r="B276" t="s">
         <v>23</v>
       </c>
       <c r="C276">
-        <v>283.24</v>
+        <v>258.27999999999997</v>
       </c>
       <c r="D276">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>50</v>
+      <c r="A277" s="2">
+        <v>43977</v>
       </c>
       <c r="B277" t="s">
         <v>24</v>
       </c>
       <c r="C277">
-        <v>59.74</v>
+        <v>29.42</v>
       </c>
       <c r="D277">
         <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>50</v>
+      <c r="A278" s="2">
+        <v>43977</v>
       </c>
       <c r="B278" t="s">
         <v>25</v>
       </c>
       <c r="C278">
-        <v>278.14999999999998</v>
+        <v>134.76</v>
       </c>
       <c r="D278">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>50</v>
+      <c r="A279" s="2">
+        <v>43977</v>
       </c>
       <c r="B279" t="s">
         <v>26</v>
       </c>
       <c r="C279">
-        <v>126.28</v>
+        <v>52.77</v>
       </c>
       <c r="D279">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>50</v>
+      <c r="A280" s="2">
+        <v>43977</v>
       </c>
       <c r="B280" t="s">
         <v>27</v>
       </c>
       <c r="C280">
-        <v>79.03</v>
+        <v>42.3</v>
       </c>
       <c r="D280">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>50</v>
+      <c r="A281" s="2">
+        <v>43977</v>
       </c>
       <c r="B281" t="s">
         <v>28</v>
       </c>
       <c r="C281">
-        <v>197.4</v>
+        <v>164.5</v>
       </c>
       <c r="D281">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>50</v>
+      <c r="A282" s="2">
+        <v>43977</v>
       </c>
       <c r="B282" t="s">
         <v>29</v>
       </c>
       <c r="C282">
-        <v>195.28</v>
+        <v>134.81</v>
       </c>
       <c r="D282">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>50</v>
+      <c r="A283" s="2">
+        <v>43977</v>
       </c>
       <c r="B283" t="s">
         <v>30</v>
       </c>
       <c r="C283">
-        <v>123.98</v>
+        <v>85.57</v>
       </c>
       <c r="D283">
         <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>50</v>
+      <c r="A284" s="2">
+        <v>43977</v>
       </c>
       <c r="B284" t="s">
         <v>31</v>
       </c>
       <c r="C284">
-        <v>100.16</v>
+        <v>49.8</v>
       </c>
       <c r="D284">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>50</v>
+      <c r="A285" s="2">
+        <v>43977</v>
       </c>
       <c r="B285" t="s">
         <v>32</v>
       </c>
       <c r="C285">
-        <v>226.08</v>
+        <v>190.5</v>
       </c>
       <c r="D285">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>50</v>
+      <c r="A286" s="2">
+        <v>43977</v>
       </c>
       <c r="B286" t="s">
         <v>33</v>
       </c>
       <c r="C286">
-        <v>29.84</v>
+        <v>19.37</v>
       </c>
       <c r="D286">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>50</v>
+      <c r="A287" s="2">
+        <v>43977</v>
       </c>
       <c r="B287" t="s">
         <v>34</v>
       </c>
       <c r="C287">
-        <v>24.49</v>
+        <v>16.32</v>
       </c>
       <c r="D287">
         <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>50</v>
+      <c r="A288" s="2">
+        <v>43977</v>
       </c>
       <c r="B288" t="s">
         <v>35</v>
       </c>
       <c r="C288">
-        <v>95.58</v>
+        <v>40.44</v>
       </c>
       <c r="D288">
         <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>50</v>
+      <c r="A289" s="2">
+        <v>43977</v>
       </c>
       <c r="B289" t="s">
         <v>36</v>
       </c>
       <c r="C289">
+        <v>138.82</v>
+      </c>
+      <c r="D289">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B290" t="s">
+        <v>5</v>
+      </c>
+      <c r="C290">
+        <v>442.11</v>
+      </c>
+      <c r="D290">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B291" t="s">
+        <v>6</v>
+      </c>
+      <c r="C291">
+        <v>133.63</v>
+      </c>
+      <c r="D291">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B292" t="s">
+        <v>7</v>
+      </c>
+      <c r="C292">
+        <v>8.91</v>
+      </c>
+      <c r="D292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B293" t="s">
+        <v>8</v>
+      </c>
+      <c r="C293">
+        <v>95.15</v>
+      </c>
+      <c r="D293">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B294" t="s">
+        <v>9</v>
+      </c>
+      <c r="C294">
+        <v>10.53</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B295" t="s">
+        <v>10</v>
+      </c>
+      <c r="C295">
+        <v>267.3</v>
+      </c>
+      <c r="D295">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B296" t="s">
+        <v>11</v>
+      </c>
+      <c r="C296">
+        <v>12.62</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B297" t="s">
+        <v>12</v>
+      </c>
+      <c r="C297">
+        <v>27.81</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B298" t="s">
+        <v>13</v>
+      </c>
+      <c r="C298">
+        <v>235.57</v>
+      </c>
+      <c r="D298">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B299" t="s">
+        <v>14</v>
+      </c>
+      <c r="C299">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="D299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300">
+        <v>115.45</v>
+      </c>
+      <c r="D300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B301" t="s">
+        <v>16</v>
+      </c>
+      <c r="C301">
+        <v>187.46</v>
+      </c>
+      <c r="D301">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B302" t="s">
+        <v>17</v>
+      </c>
+      <c r="C302">
+        <v>224.42</v>
+      </c>
+      <c r="D302">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B303" t="s">
+        <v>18</v>
+      </c>
+      <c r="C303">
+        <v>102.77</v>
+      </c>
+      <c r="D303">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B304" t="s">
+        <v>19</v>
+      </c>
+      <c r="C304">
+        <v>28.15</v>
+      </c>
+      <c r="D304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B305" t="s">
+        <v>20</v>
+      </c>
+      <c r="C305">
+        <v>22.86</v>
+      </c>
+      <c r="D305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B306" t="s">
+        <v>21</v>
+      </c>
+      <c r="C306">
+        <v>56.22</v>
+      </c>
+      <c r="D306">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B307" t="s">
+        <v>22</v>
+      </c>
+      <c r="C307">
+        <v>112.84</v>
+      </c>
+      <c r="D307">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B308" t="s">
+        <v>23</v>
+      </c>
+      <c r="C308">
+        <v>259.37</v>
+      </c>
+      <c r="D308">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B309" t="s">
+        <v>24</v>
+      </c>
+      <c r="C309">
+        <v>33.880000000000003</v>
+      </c>
+      <c r="D309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B310" t="s">
+        <v>25</v>
+      </c>
+      <c r="C310">
+        <v>166.76</v>
+      </c>
+      <c r="D310">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B311" t="s">
+        <v>26</v>
+      </c>
+      <c r="C311">
+        <v>60.43</v>
+      </c>
+      <c r="D311">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B312" t="s">
+        <v>27</v>
+      </c>
+      <c r="C312">
+        <v>46.89</v>
+      </c>
+      <c r="D312">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B313" t="s">
+        <v>28</v>
+      </c>
+      <c r="C313">
+        <v>167.79</v>
+      </c>
+      <c r="D313">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B314" t="s">
+        <v>29</v>
+      </c>
+      <c r="C314">
+        <v>143.52000000000001</v>
+      </c>
+      <c r="D314">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B315" t="s">
+        <v>30</v>
+      </c>
+      <c r="C315">
+        <v>87.31</v>
+      </c>
+      <c r="D315">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B316" t="s">
+        <v>31</v>
+      </c>
+      <c r="C316">
+        <v>61.68</v>
+      </c>
+      <c r="D316">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B317" t="s">
+        <v>32</v>
+      </c>
+      <c r="C317">
+        <v>197.96</v>
+      </c>
+      <c r="D317">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B318" t="s">
+        <v>33</v>
+      </c>
+      <c r="C318">
+        <v>20.94</v>
+      </c>
+      <c r="D318">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B319" t="s">
+        <v>34</v>
+      </c>
+      <c r="C319">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="D319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B320" t="s">
+        <v>35</v>
+      </c>
+      <c r="C320">
+        <v>45.95</v>
+      </c>
+      <c r="D320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B321" t="s">
+        <v>36</v>
+      </c>
+      <c r="C321">
+        <v>165.45</v>
+      </c>
+      <c r="D321">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="2"/>
+      <c r="B322" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="2"/>
+      <c r="B323" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="2"/>
+      <c r="B324" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="2"/>
+      <c r="B325" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="2"/>
+      <c r="B326" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="2"/>
+      <c r="B327" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="2"/>
+      <c r="B328" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="2"/>
+      <c r="B329" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="2"/>
+      <c r="B330" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="2"/>
+      <c r="B331" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="2"/>
+      <c r="B332" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="2"/>
+      <c r="B333" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="2"/>
+      <c r="B334" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" s="2"/>
+      <c r="B335" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" s="2"/>
+      <c r="B336" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="2"/>
+      <c r="B337" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="2"/>
+      <c r="B338" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="2"/>
+      <c r="B339" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="2"/>
+      <c r="B340" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="2"/>
+      <c r="B341" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="2"/>
+      <c r="B342" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="2"/>
+      <c r="B343" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="2"/>
+      <c r="B344" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="2"/>
+      <c r="B345" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="2"/>
+      <c r="B346" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="2"/>
+      <c r="B347" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="2"/>
+      <c r="B348" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="2"/>
+      <c r="B349" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="2"/>
+      <c r="B350" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="2"/>
+      <c r="B351" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="2"/>
+      <c r="B352" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" s="2"/>
+      <c r="B353" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>4</v>
+      </c>
+      <c r="B354" t="s">
+        <v>5</v>
+      </c>
+      <c r="C354">
+        <v>581.1</v>
+      </c>
+      <c r="D354">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>4</v>
+      </c>
+      <c r="B355" t="s">
+        <v>6</v>
+      </c>
+      <c r="C355">
+        <v>214.62</v>
+      </c>
+      <c r="D355">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>4</v>
+      </c>
+      <c r="B356" t="s">
+        <v>7</v>
+      </c>
+      <c r="C356">
+        <v>15.84</v>
+      </c>
+      <c r="D356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>4</v>
+      </c>
+      <c r="B357" t="s">
+        <v>8</v>
+      </c>
+      <c r="C357">
+        <v>200.34</v>
+      </c>
+      <c r="D357">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>4</v>
+      </c>
+      <c r="B358" t="s">
+        <v>9</v>
+      </c>
+      <c r="C358">
+        <v>18.05</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>4</v>
+      </c>
+      <c r="B359" t="s">
+        <v>10</v>
+      </c>
+      <c r="C359">
+        <v>275</v>
+      </c>
+      <c r="D359">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>4</v>
+      </c>
+      <c r="B360" t="s">
+        <v>11</v>
+      </c>
+      <c r="C360">
+        <v>31.54</v>
+      </c>
+      <c r="D360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>4</v>
+      </c>
+      <c r="B361" t="s">
+        <v>12</v>
+      </c>
+      <c r="C361">
+        <v>37.43</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>4</v>
+      </c>
+      <c r="B362" t="s">
+        <v>13</v>
+      </c>
+      <c r="C362">
+        <v>270.58999999999997</v>
+      </c>
+      <c r="D362">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>4</v>
+      </c>
+      <c r="B363" t="s">
+        <v>14</v>
+      </c>
+      <c r="C363">
+        <v>78.73</v>
+      </c>
+      <c r="D363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>4</v>
+      </c>
+      <c r="B364" t="s">
+        <v>15</v>
+      </c>
+      <c r="C364">
+        <v>163.83000000000001</v>
+      </c>
+      <c r="D364">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>4</v>
+      </c>
+      <c r="B365" t="s">
+        <v>16</v>
+      </c>
+      <c r="C365">
+        <v>228.18</v>
+      </c>
+      <c r="D365">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>4</v>
+      </c>
+      <c r="B366" t="s">
+        <v>17</v>
+      </c>
+      <c r="C366">
+        <v>263.32</v>
+      </c>
+      <c r="D366">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>4</v>
+      </c>
+      <c r="B367" t="s">
+        <v>18</v>
+      </c>
+      <c r="C367">
+        <v>117.65</v>
+      </c>
+      <c r="D367">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>4</v>
+      </c>
+      <c r="B368" t="s">
+        <v>19</v>
+      </c>
+      <c r="C368">
+        <v>29.86</v>
+      </c>
+      <c r="D368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>4</v>
+      </c>
+      <c r="B369" t="s">
+        <v>20</v>
+      </c>
+      <c r="C369">
+        <v>111.44</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>4</v>
+      </c>
+      <c r="B370" t="s">
+        <v>21</v>
+      </c>
+      <c r="C370">
+        <v>68.38</v>
+      </c>
+      <c r="D370">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>4</v>
+      </c>
+      <c r="B371" t="s">
+        <v>22</v>
+      </c>
+      <c r="C371">
+        <v>124.84</v>
+      </c>
+      <c r="D371">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>4</v>
+      </c>
+      <c r="B372" t="s">
+        <v>23</v>
+      </c>
+      <c r="C372">
+        <v>272.39</v>
+      </c>
+      <c r="D372">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>4</v>
+      </c>
+      <c r="B373" t="s">
+        <v>24</v>
+      </c>
+      <c r="C373">
+        <v>51.71</v>
+      </c>
+      <c r="D373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>4</v>
+      </c>
+      <c r="B374" t="s">
+        <v>25</v>
+      </c>
+      <c r="C374">
+        <v>231.24</v>
+      </c>
+      <c r="D374">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>4</v>
+      </c>
+      <c r="B375" t="s">
+        <v>26</v>
+      </c>
+      <c r="C375">
+        <v>85.69</v>
+      </c>
+      <c r="D375">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>4</v>
+      </c>
+      <c r="B376" t="s">
+        <v>27</v>
+      </c>
+      <c r="C376">
+        <v>60.33</v>
+      </c>
+      <c r="D376">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>4</v>
+      </c>
+      <c r="B377" t="s">
+        <v>28</v>
+      </c>
+      <c r="C377">
+        <v>176.34</v>
+      </c>
+      <c r="D377">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>4</v>
+      </c>
+      <c r="B378" t="s">
+        <v>29</v>
+      </c>
+      <c r="C378">
+        <v>162.65</v>
+      </c>
+      <c r="D378">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>4</v>
+      </c>
+      <c r="B379" t="s">
+        <v>30</v>
+      </c>
+      <c r="C379">
+        <v>104.77</v>
+      </c>
+      <c r="D379">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>4</v>
+      </c>
+      <c r="B380" t="s">
+        <v>31</v>
+      </c>
+      <c r="C380">
+        <v>96.76</v>
+      </c>
+      <c r="D380">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>4</v>
+      </c>
+      <c r="B381" t="s">
+        <v>32</v>
+      </c>
+      <c r="C381">
+        <v>210.01</v>
+      </c>
+      <c r="D381">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>4</v>
+      </c>
+      <c r="B382" t="s">
+        <v>33</v>
+      </c>
+      <c r="C382">
+        <v>26.7</v>
+      </c>
+      <c r="D382">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>4</v>
+      </c>
+      <c r="B383" t="s">
+        <v>34</v>
+      </c>
+      <c r="C383">
+        <v>20.99</v>
+      </c>
+      <c r="D383">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>4</v>
+      </c>
+      <c r="B384" t="s">
+        <v>35</v>
+      </c>
+      <c r="C384">
+        <v>88.23</v>
+      </c>
+      <c r="D384">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>4</v>
+      </c>
+      <c r="B385" t="s">
+        <v>36</v>
+      </c>
+      <c r="C385">
+        <v>239.68</v>
+      </c>
+      <c r="D385">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>49</v>
+      </c>
+      <c r="B386" t="s">
+        <v>5</v>
+      </c>
+      <c r="C386">
+        <v>687.32</v>
+      </c>
+      <c r="D386">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>49</v>
+      </c>
+      <c r="B387" t="s">
+        <v>6</v>
+      </c>
+      <c r="C387">
+        <v>259.16000000000003</v>
+      </c>
+      <c r="D387">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>49</v>
+      </c>
+      <c r="B388" t="s">
+        <v>7</v>
+      </c>
+      <c r="C388">
+        <v>19.8</v>
+      </c>
+      <c r="D388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>49</v>
+      </c>
+      <c r="B389" t="s">
+        <v>8</v>
+      </c>
+      <c r="C389">
+        <v>236.82</v>
+      </c>
+      <c r="D389">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>49</v>
+      </c>
+      <c r="B390" t="s">
+        <v>9</v>
+      </c>
+      <c r="C390">
+        <v>31.59</v>
+      </c>
+      <c r="D390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>49</v>
+      </c>
+      <c r="B391" t="s">
+        <v>10</v>
+      </c>
+      <c r="C391">
+        <v>284.7</v>
+      </c>
+      <c r="D391">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>49</v>
+      </c>
+      <c r="B392" t="s">
+        <v>11</v>
+      </c>
+      <c r="C392">
+        <v>72.55</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>49</v>
+      </c>
+      <c r="B393" t="s">
+        <v>12</v>
+      </c>
+      <c r="C393">
+        <v>38.5</v>
+      </c>
+      <c r="D393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>49</v>
+      </c>
+      <c r="B394" t="s">
+        <v>13</v>
+      </c>
+      <c r="C394">
+        <v>301.44</v>
+      </c>
+      <c r="D394">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>49</v>
+      </c>
+      <c r="B395" t="s">
+        <v>14</v>
+      </c>
+      <c r="C395">
+        <v>118.1</v>
+      </c>
+      <c r="D395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>49</v>
+      </c>
+      <c r="B396" t="s">
+        <v>15</v>
+      </c>
+      <c r="C396">
+        <v>193.26</v>
+      </c>
+      <c r="D396">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>49</v>
+      </c>
+      <c r="B397" t="s">
+        <v>16</v>
+      </c>
+      <c r="C397">
+        <v>272.93</v>
+      </c>
+      <c r="D397">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>49</v>
+      </c>
+      <c r="B398" t="s">
+        <v>17</v>
+      </c>
+      <c r="C398">
+        <v>288.12</v>
+      </c>
+      <c r="D398">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>49</v>
+      </c>
+      <c r="B399" t="s">
+        <v>18</v>
+      </c>
+      <c r="C399">
+        <v>137.49</v>
+      </c>
+      <c r="D399">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>49</v>
+      </c>
+      <c r="B400" t="s">
+        <v>19</v>
+      </c>
+      <c r="C400">
+        <v>40.1</v>
+      </c>
+      <c r="D400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>49</v>
+      </c>
+      <c r="B401" t="s">
+        <v>20</v>
+      </c>
+      <c r="C401">
+        <v>128.58000000000001</v>
+      </c>
+      <c r="D401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>49</v>
+      </c>
+      <c r="B402" t="s">
+        <v>21</v>
+      </c>
+      <c r="C402">
+        <v>85.6</v>
+      </c>
+      <c r="D402">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>49</v>
+      </c>
+      <c r="B403" t="s">
+        <v>22</v>
+      </c>
+      <c r="C403">
+        <v>132.94</v>
+      </c>
+      <c r="D403">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>49</v>
+      </c>
+      <c r="B404" t="s">
+        <v>23</v>
+      </c>
+      <c r="C404">
+        <v>281.07</v>
+      </c>
+      <c r="D404">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>49</v>
+      </c>
+      <c r="B405" t="s">
+        <v>24</v>
+      </c>
+      <c r="C405">
+        <v>57.95</v>
+      </c>
+      <c r="D405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>49</v>
+      </c>
+      <c r="B406" t="s">
+        <v>25</v>
+      </c>
+      <c r="C406">
+        <v>276.42</v>
+      </c>
+      <c r="D406">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>49</v>
+      </c>
+      <c r="B407" t="s">
+        <v>26</v>
+      </c>
+      <c r="C407">
+        <v>126.28</v>
+      </c>
+      <c r="D407">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>49</v>
+      </c>
+      <c r="B408" t="s">
+        <v>27</v>
+      </c>
+      <c r="C408">
+        <v>78.37</v>
+      </c>
+      <c r="D408">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>49</v>
+      </c>
+      <c r="B409" t="s">
+        <v>28</v>
+      </c>
+      <c r="C409">
+        <v>195.42</v>
+      </c>
+      <c r="D409">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>49</v>
+      </c>
+      <c r="B410" t="s">
+        <v>29</v>
+      </c>
+      <c r="C410">
+        <v>192.41</v>
+      </c>
+      <c r="D410">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>49</v>
+      </c>
+      <c r="B411" t="s">
+        <v>30</v>
+      </c>
+      <c r="C411">
+        <v>123.98</v>
+      </c>
+      <c r="D411">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>49</v>
+      </c>
+      <c r="B412" t="s">
+        <v>31</v>
+      </c>
+      <c r="C412">
+        <v>99.59</v>
+      </c>
+      <c r="D412">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>49</v>
+      </c>
+      <c r="B413" t="s">
+        <v>32</v>
+      </c>
+      <c r="C413">
+        <v>226.08</v>
+      </c>
+      <c r="D413">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>49</v>
+      </c>
+      <c r="B414" t="s">
+        <v>33</v>
+      </c>
+      <c r="C414">
+        <v>29.84</v>
+      </c>
+      <c r="D414">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>49</v>
+      </c>
+      <c r="B415" t="s">
+        <v>34</v>
+      </c>
+      <c r="C415">
+        <v>23.32</v>
+      </c>
+      <c r="D415">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>49</v>
+      </c>
+      <c r="B416" t="s">
+        <v>35</v>
+      </c>
+      <c r="C416">
+        <v>95.58</v>
+      </c>
+      <c r="D416">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>49</v>
+      </c>
+      <c r="B417" t="s">
+        <v>36</v>
+      </c>
+      <c r="C417">
+        <v>293.29000000000002</v>
+      </c>
+      <c r="D417">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>50</v>
+      </c>
+      <c r="B418" t="s">
+        <v>5</v>
+      </c>
+      <c r="C418">
+        <v>702.75</v>
+      </c>
+      <c r="D418">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>50</v>
+      </c>
+      <c r="B419" t="s">
+        <v>6</v>
+      </c>
+      <c r="C419">
+        <v>263.66000000000003</v>
+      </c>
+      <c r="D419">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>50</v>
+      </c>
+      <c r="B420" t="s">
+        <v>7</v>
+      </c>
+      <c r="C420">
+        <v>19.8</v>
+      </c>
+      <c r="D420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>50</v>
+      </c>
+      <c r="B421" t="s">
+        <v>8</v>
+      </c>
+      <c r="C421">
+        <v>236.82</v>
+      </c>
+      <c r="D421">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>50</v>
+      </c>
+      <c r="B422" t="s">
+        <v>9</v>
+      </c>
+      <c r="C422">
+        <v>33.1</v>
+      </c>
+      <c r="D422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>50</v>
+      </c>
+      <c r="B423" t="s">
+        <v>10</v>
+      </c>
+      <c r="C423">
+        <v>287.37</v>
+      </c>
+      <c r="D423">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>50</v>
+      </c>
+      <c r="B424" t="s">
+        <v>11</v>
+      </c>
+      <c r="C424">
+        <v>74.13</v>
+      </c>
+      <c r="D424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>50</v>
+      </c>
+      <c r="B425" t="s">
+        <v>12</v>
+      </c>
+      <c r="C425">
+        <v>39.57</v>
+      </c>
+      <c r="D425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>50</v>
+      </c>
+      <c r="B426" t="s">
+        <v>13</v>
+      </c>
+      <c r="C426">
+        <v>301.86</v>
+      </c>
+      <c r="D426">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>50</v>
+      </c>
+      <c r="B427" t="s">
+        <v>14</v>
+      </c>
+      <c r="C427">
+        <v>118.1</v>
+      </c>
+      <c r="D427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>50</v>
+      </c>
+      <c r="B428" t="s">
+        <v>15</v>
+      </c>
+      <c r="C428">
+        <v>199.49</v>
+      </c>
+      <c r="D428">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>50</v>
+      </c>
+      <c r="B429" t="s">
+        <v>16</v>
+      </c>
+      <c r="C429">
+        <v>279.17</v>
+      </c>
+      <c r="D429">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>50</v>
+      </c>
+      <c r="B430" t="s">
+        <v>17</v>
+      </c>
+      <c r="C430">
+        <v>291.04000000000002</v>
+      </c>
+      <c r="D430">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>50</v>
+      </c>
+      <c r="B431" t="s">
+        <v>18</v>
+      </c>
+      <c r="C431">
+        <v>144.58000000000001</v>
+      </c>
+      <c r="D431">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>50</v>
+      </c>
+      <c r="B432" t="s">
+        <v>19</v>
+      </c>
+      <c r="C432">
+        <v>40.1</v>
+      </c>
+      <c r="D432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>50</v>
+      </c>
+      <c r="B433" t="s">
+        <v>20</v>
+      </c>
+      <c r="C433">
+        <v>128.58000000000001</v>
+      </c>
+      <c r="D433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>50</v>
+      </c>
+      <c r="B434" t="s">
+        <v>21</v>
+      </c>
+      <c r="C434">
+        <v>86.61</v>
+      </c>
+      <c r="D434">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>50</v>
+      </c>
+      <c r="B435" t="s">
+        <v>22</v>
+      </c>
+      <c r="C435">
+        <v>133.24</v>
+      </c>
+      <c r="D435">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>50</v>
+      </c>
+      <c r="B436" t="s">
+        <v>23</v>
+      </c>
+      <c r="C436">
+        <v>283.24</v>
+      </c>
+      <c r="D436">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>50</v>
+      </c>
+      <c r="B437" t="s">
+        <v>24</v>
+      </c>
+      <c r="C437">
+        <v>59.74</v>
+      </c>
+      <c r="D437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>50</v>
+      </c>
+      <c r="B438" t="s">
+        <v>25</v>
+      </c>
+      <c r="C438">
+        <v>278.14999999999998</v>
+      </c>
+      <c r="D438">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>50</v>
+      </c>
+      <c r="B439" t="s">
+        <v>26</v>
+      </c>
+      <c r="C439">
+        <v>126.28</v>
+      </c>
+      <c r="D439">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>50</v>
+      </c>
+      <c r="B440" t="s">
+        <v>27</v>
+      </c>
+      <c r="C440">
+        <v>79.03</v>
+      </c>
+      <c r="D440">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>50</v>
+      </c>
+      <c r="B441" t="s">
+        <v>28</v>
+      </c>
+      <c r="C441">
+        <v>197.4</v>
+      </c>
+      <c r="D441">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>50</v>
+      </c>
+      <c r="B442" t="s">
+        <v>29</v>
+      </c>
+      <c r="C442">
+        <v>195.28</v>
+      </c>
+      <c r="D442">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>50</v>
+      </c>
+      <c r="B443" t="s">
+        <v>30</v>
+      </c>
+      <c r="C443">
+        <v>123.98</v>
+      </c>
+      <c r="D443">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>50</v>
+      </c>
+      <c r="B444" t="s">
+        <v>31</v>
+      </c>
+      <c r="C444">
+        <v>100.16</v>
+      </c>
+      <c r="D444">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>50</v>
+      </c>
+      <c r="B445" t="s">
+        <v>32</v>
+      </c>
+      <c r="C445">
+        <v>226.08</v>
+      </c>
+      <c r="D445">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>50</v>
+      </c>
+      <c r="B446" t="s">
+        <v>33</v>
+      </c>
+      <c r="C446">
+        <v>29.84</v>
+      </c>
+      <c r="D446">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>50</v>
+      </c>
+      <c r="B447" t="s">
+        <v>34</v>
+      </c>
+      <c r="C447">
+        <v>24.49</v>
+      </c>
+      <c r="D447">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>50</v>
+      </c>
+      <c r="B448" t="s">
+        <v>35</v>
+      </c>
+      <c r="C448">
+        <v>95.58</v>
+      </c>
+      <c r="D448">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>50</v>
+      </c>
+      <c r="B449" t="s">
+        <v>36</v>
+      </c>
+      <c r="C449">
         <v>299.04000000000002</v>
       </c>
-      <c r="D289">
+      <c r="D449">
         <v>153</v>
       </c>
     </row>
@@ -4528,131 +6687,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93012AD9-A6D4-48C4-AAAA-A2304D189270}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>43921</v>
-      </c>
-      <c r="B2">
-        <v>1284</v>
-      </c>
-      <c r="C2">
-        <v>57</v>
-      </c>
-      <c r="D2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>43928</v>
-      </c>
-      <c r="B3">
-        <v>2111</v>
-      </c>
-      <c r="C3">
-        <v>108</v>
-      </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>43935</v>
-      </c>
-      <c r="B4">
-        <v>3614</v>
-      </c>
-      <c r="C4">
-        <v>189</v>
-      </c>
-      <c r="D4">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>43942</v>
-      </c>
-      <c r="B5">
-        <v>5300</v>
-      </c>
-      <c r="C5">
-        <v>260</v>
-      </c>
-      <c r="D5">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>43949</v>
-      </c>
-      <c r="B6">
-        <v>6652</v>
-      </c>
-      <c r="C6">
-        <v>293</v>
-      </c>
-      <c r="D6">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>43956</v>
-      </c>
-      <c r="B7">
-        <v>8807</v>
-      </c>
-      <c r="C7">
-        <v>362</v>
-      </c>
-      <c r="D7">
-        <v>1989</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F422A3AD-6985-4C77-AE63-323FE7C4AE0C}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4979,41 +7019,41 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>43998</v>
+        <v>43977</v>
       </c>
       <c r="B29" t="s">
         <v>38</v>
       </c>
       <c r="C29">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D29">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>43998</v>
+        <v>43977</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C30">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="D30">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>43998</v>
+        <v>43977</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C31">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -5021,85 +7061,337 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>43998</v>
+        <v>43977</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C32">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="D32">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>43998</v>
+        <v>43977</v>
       </c>
       <c r="B33" t="s">
         <v>39</v>
       </c>
       <c r="C33">
-        <v>18.649999999999999</v>
+        <v>17.7</v>
       </c>
       <c r="D33">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>43998</v>
+        <v>43977</v>
       </c>
       <c r="B34" t="s">
         <v>40</v>
       </c>
       <c r="C34">
-        <v>21.85</v>
+        <v>21.25</v>
       </c>
       <c r="D34">
-        <v>5.6</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>43998</v>
+        <v>43977</v>
       </c>
       <c r="B35" t="s">
         <v>41</v>
       </c>
       <c r="C35">
-        <v>17.45</v>
+        <v>17.5</v>
       </c>
       <c r="D35">
-        <v>8.6</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>43998</v>
+        <v>43977</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
       </c>
       <c r="C36">
-        <v>13.8</v>
+        <v>14.15</v>
       </c>
       <c r="D36">
-        <v>16.350000000000001</v>
+        <v>18.55</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>43998</v>
+        <v>43977</v>
       </c>
       <c r="B37" t="s">
         <v>43</v>
       </c>
       <c r="C37">
+        <v>16.7</v>
+      </c>
+      <c r="D37">
+        <v>63.05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38">
+        <v>0.35</v>
+      </c>
+      <c r="D38">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39">
+        <v>1.3</v>
+      </c>
+      <c r="D39">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40">
+        <v>1.8</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41">
+        <v>4.45</v>
+      </c>
+      <c r="D41">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42">
+        <v>18</v>
+      </c>
+      <c r="D42">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43">
+        <v>21.6</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="D44">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="D46">
+        <v>63.05</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47">
+        <v>0.4</v>
+      </c>
+      <c r="D47">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48">
+        <v>0.9</v>
+      </c>
+      <c r="D48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49">
+        <v>1.9</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50">
+        <v>4.7</v>
+      </c>
+      <c r="D50">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="D51">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52">
+        <v>21.85</v>
+      </c>
+      <c r="D52">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53">
+        <v>17.45</v>
+      </c>
+      <c r="D53">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54">
+        <v>13.8</v>
+      </c>
+      <c r="D54">
+        <v>16.350000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55">
         <v>15.7</v>
       </c>
-      <c r="D37">
+      <c r="D55">
         <v>63.05</v>
       </c>
     </row>

--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD86D00B-C9AA-493D-BAC4-9A98D240A880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5C09A2-FB16-4EB2-923B-32F713FFF880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="195" windowWidth="9900" windowHeight="12435" firstSheet="1" activeTab="2" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
+    <workbookView xWindow="1080" yWindow="195" windowWidth="9900" windowHeight="12435" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecido_Recuperado" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="53">
   <si>
     <t>Incidencia Acumulada</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Defunciones Acumuladas</t>
-  </si>
-  <si>
-    <t>16/6/2020</t>
   </si>
   <si>
     <t>Distrito Nacional</t>
@@ -180,9 +177,6 @@
   </si>
   <si>
     <t>Fallecidos %</t>
-  </si>
-  <si>
-    <t>23/6/2020</t>
   </si>
   <si>
     <t>24/6/2020</t>
@@ -557,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93012AD9-A6D4-48C4-AAAA-A2304D189270}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,13 +570,13 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
         <v>51</v>
-      </c>
-      <c r="C1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -723,6 +717,34 @@
       </c>
       <c r="D11">
         <v>11224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B12">
+        <v>20808</v>
+      </c>
+      <c r="C12">
+        <v>550</v>
+      </c>
+      <c r="D12">
+        <v>12318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B13">
+        <v>24105</v>
+      </c>
+      <c r="C13">
+        <v>633</v>
+      </c>
+      <c r="D13">
+        <v>14216</v>
       </c>
     </row>
   </sheetData>
@@ -734,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="D322" sqref="D322"/>
+    <sheetView topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="A387" sqref="A386:A417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,7 +787,7 @@
         <v>43921</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -776,7 +798,7 @@
         <v>43921</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -787,7 +809,7 @@
         <v>43921</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -798,7 +820,7 @@
         <v>43921</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -809,7 +831,7 @@
         <v>43921</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -820,7 +842,7 @@
         <v>43921</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>23</v>
@@ -831,7 +853,7 @@
         <v>43921</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -842,7 +864,7 @@
         <v>43921</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -853,7 +875,7 @@
         <v>43921</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -864,7 +886,7 @@
         <v>43921</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -875,7 +897,7 @@
         <v>43921</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -886,7 +908,7 @@
         <v>43921</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -897,7 +919,7 @@
         <v>43921</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -908,7 +930,7 @@
         <v>43921</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -919,7 +941,7 @@
         <v>43921</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -930,7 +952,7 @@
         <v>43921</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -941,7 +963,7 @@
         <v>43921</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -952,7 +974,7 @@
         <v>43921</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -963,7 +985,7 @@
         <v>43921</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -974,7 +996,7 @@
         <v>43921</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -985,7 +1007,7 @@
         <v>43921</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -996,7 +1018,7 @@
         <v>43921</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1007,7 +1029,7 @@
         <v>43921</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -1018,7 +1040,7 @@
         <v>43921</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1029,7 +1051,7 @@
         <v>43921</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1040,7 +1062,7 @@
         <v>43921</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1051,7 +1073,7 @@
         <v>43921</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1062,7 +1084,7 @@
         <v>43921</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1073,7 +1095,7 @@
         <v>43921</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1084,7 +1106,7 @@
         <v>43921</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1095,7 +1117,7 @@
         <v>43921</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1106,7 +1128,7 @@
         <v>43921</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33">
         <v>6</v>
@@ -1117,7 +1139,7 @@
         <v>43928</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34">
         <v>73</v>
@@ -1131,7 +1153,7 @@
         <v>43928</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1145,7 +1167,7 @@
         <v>43928</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1159,7 +1181,7 @@
         <v>43928</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37">
         <v>6.3</v>
@@ -1173,7 +1195,7 @@
         <v>43928</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38">
         <v>1.5</v>
@@ -1187,7 +1209,7 @@
         <v>43928</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39">
         <v>51.5</v>
@@ -1201,7 +1223,7 @@
         <v>43928</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1215,7 +1237,7 @@
         <v>43928</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41">
         <v>2.1</v>
@@ -1229,7 +1251,7 @@
         <v>43928</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C42">
         <v>22.9</v>
@@ -1243,7 +1265,7 @@
         <v>43928</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C43">
         <v>1.7</v>
@@ -1257,7 +1279,7 @@
         <v>43928</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C44">
         <v>12.5</v>
@@ -1271,7 +1293,7 @@
         <v>43928</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C45">
         <v>12.8</v>
@@ -1285,7 +1307,7 @@
         <v>43928</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46">
         <v>26.5</v>
@@ -1299,7 +1321,7 @@
         <v>43928</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C47">
         <v>14.2</v>
@@ -1313,7 +1335,7 @@
         <v>43928</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C48">
         <v>2.6</v>
@@ -1327,7 +1349,7 @@
         <v>43928</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C49">
         <v>2.9</v>
@@ -1341,7 +1363,7 @@
         <v>43928</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C50">
         <v>6.1</v>
@@ -1355,7 +1377,7 @@
         <v>43928</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C51">
         <v>12.6</v>
@@ -1369,7 +1391,7 @@
         <v>43928</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C52">
         <v>30.4</v>
@@ -1383,7 +1405,7 @@
         <v>43928</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C53">
         <v>13.4</v>
@@ -1397,7 +1419,7 @@
         <v>43928</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C54">
         <v>6.3</v>
@@ -1411,7 +1433,7 @@
         <v>43928</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C55">
         <v>5.9</v>
@@ -1425,7 +1447,7 @@
         <v>43928</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C56">
         <v>8.5</v>
@@ -1439,7 +1461,7 @@
         <v>43928</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C57">
         <v>22.4</v>
@@ -1453,7 +1475,7 @@
         <v>43928</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C58">
         <v>26.2</v>
@@ -1467,7 +1489,7 @@
         <v>43928</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C59">
         <v>8.6999999999999993</v>
@@ -1481,7 +1503,7 @@
         <v>43928</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C60">
         <v>6.2</v>
@@ -1495,7 +1517,7 @@
         <v>43928</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C61">
         <v>25.8</v>
@@ -1509,7 +1531,7 @@
         <v>43928</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C62">
         <v>2.1</v>
@@ -1523,7 +1545,7 @@
         <v>43928</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C63">
         <v>5.8</v>
@@ -1537,7 +1559,7 @@
         <v>43928</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1551,7 +1573,7 @@
         <v>43928</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>12</v>
@@ -1565,7 +1587,7 @@
         <v>43935</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C66">
         <v>96.1</v>
@@ -1579,7 +1601,7 @@
         <v>43935</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67">
         <v>9</v>
@@ -1593,7 +1615,7 @@
         <v>43935</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -1607,7 +1629,7 @@
         <v>43935</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C69">
         <v>7.9</v>
@@ -1621,7 +1643,7 @@
         <v>43935</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C70">
         <v>1.5</v>
@@ -1635,7 +1657,7 @@
         <v>43935</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C71">
         <v>117.1</v>
@@ -1649,7 +1671,7 @@
         <v>43935</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1663,7 +1685,7 @@
         <v>43935</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73">
         <v>3.2</v>
@@ -1677,7 +1699,7 @@
         <v>43935</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C74">
         <v>34.6</v>
@@ -1691,7 +1713,7 @@
         <v>43935</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C75">
         <v>1.7</v>
@@ -1705,7 +1727,7 @@
         <v>43935</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C76">
         <v>23.2</v>
@@ -1719,7 +1741,7 @@
         <v>43935</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77">
         <v>26.8</v>
@@ -1733,7 +1755,7 @@
         <v>43935</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C78">
         <v>54</v>
@@ -1747,7 +1769,7 @@
         <v>43935</v>
       </c>
       <c r="B79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C79">
         <v>34</v>
@@ -1761,7 +1783,7 @@
         <v>43935</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C80">
         <v>9.4</v>
@@ -1775,7 +1797,7 @@
         <v>43935</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C81">
         <v>8.6</v>
@@ -1789,7 +1811,7 @@
         <v>43935</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C82">
         <v>13.2</v>
@@ -1803,7 +1825,7 @@
         <v>43935</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C83">
         <v>30.6</v>
@@ -1817,7 +1839,7 @@
         <v>43935</v>
       </c>
       <c r="B84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C84">
         <v>90.1</v>
@@ -1831,7 +1853,7 @@
         <v>43935</v>
       </c>
       <c r="B85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C85">
         <v>13.4</v>
@@ -1845,7 +1867,7 @@
         <v>43935</v>
       </c>
       <c r="B86" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C86">
         <v>14.1</v>
@@ -1859,7 +1881,7 @@
         <v>43935</v>
       </c>
       <c r="B87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C87">
         <v>9.5</v>
@@ -1873,7 +1895,7 @@
         <v>43935</v>
       </c>
       <c r="B88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C88">
         <v>16.100000000000001</v>
@@ -1887,7 +1909,7 @@
         <v>43935</v>
       </c>
       <c r="B89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C89">
         <v>48</v>
@@ -1901,7 +1923,7 @@
         <v>43935</v>
       </c>
       <c r="B90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C90">
         <v>44.3</v>
@@ -1915,7 +1937,7 @@
         <v>43935</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C91">
         <v>24.4</v>
@@ -1929,7 +1951,7 @@
         <v>43935</v>
       </c>
       <c r="B92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C92">
         <v>15.3</v>
@@ -1943,7 +1965,7 @@
         <v>43935</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C93">
         <v>55.7</v>
@@ -1957,7 +1979,7 @@
         <v>43935</v>
       </c>
       <c r="B94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C94">
         <v>3.7</v>
@@ -1971,7 +1993,7 @@
         <v>43935</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C95">
         <v>9.3000000000000007</v>
@@ -1985,7 +2007,7 @@
         <v>43935</v>
       </c>
       <c r="B96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C96">
         <v>3.7</v>
@@ -1999,7 +2021,7 @@
         <v>43935</v>
       </c>
       <c r="B97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C97">
         <v>21.4</v>
@@ -2013,7 +2035,7 @@
         <v>43942</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C98">
         <v>128.19999999999999</v>
@@ -2027,7 +2049,7 @@
         <v>43942</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99">
         <v>10.8</v>
@@ -2041,7 +2063,7 @@
         <v>43942</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -2055,7 +2077,7 @@
         <v>43942</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C101">
         <v>17.399999999999999</v>
@@ -2069,7 +2091,7 @@
         <v>43942</v>
       </c>
       <c r="B102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C102">
         <v>3</v>
@@ -2083,7 +2105,7 @@
         <v>43942</v>
       </c>
       <c r="B103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C103">
         <v>173.6</v>
@@ -2097,7 +2119,7 @@
         <v>43942</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2111,7 +2133,7 @@
         <v>43942</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C105">
         <v>4.3</v>
@@ -2125,7 +2147,7 @@
         <v>43942</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C106">
         <v>67.5</v>
@@ -2139,7 +2161,7 @@
         <v>43942</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C107">
         <v>1.7</v>
@@ -2153,7 +2175,7 @@
         <v>43942</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C108">
         <v>28.3</v>
@@ -2167,7 +2189,7 @@
         <v>43942</v>
       </c>
       <c r="B109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C109">
         <v>34.799999999999997</v>
@@ -2181,7 +2203,7 @@
         <v>43942</v>
       </c>
       <c r="B110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C110">
         <v>94.1</v>
@@ -2195,7 +2217,7 @@
         <v>43942</v>
       </c>
       <c r="B111" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C111">
         <v>52.4</v>
@@ -2209,7 +2231,7 @@
         <v>43942</v>
       </c>
       <c r="B112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C112">
         <v>12.8</v>
@@ -2223,7 +2245,7 @@
         <v>43942</v>
       </c>
       <c r="B113" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C113">
         <v>8.6</v>
@@ -2237,7 +2259,7 @@
         <v>43942</v>
       </c>
       <c r="B114" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C114">
         <v>18.2</v>
@@ -2251,7 +2273,7 @@
         <v>43942</v>
       </c>
       <c r="B115" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C115">
         <v>52.2</v>
@@ -2265,7 +2287,7 @@
         <v>43942</v>
       </c>
       <c r="B116" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C116">
         <v>145.4</v>
@@ -2279,7 +2301,7 @@
         <v>43942</v>
       </c>
       <c r="B117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C117">
         <v>18.7</v>
@@ -2293,7 +2315,7 @@
         <v>43942</v>
       </c>
       <c r="B118" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C118">
         <v>19.8</v>
@@ -2307,7 +2329,7 @@
         <v>43942</v>
       </c>
       <c r="B119" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C119">
         <v>17.100000000000001</v>
@@ -2321,7 +2343,7 @@
         <v>43942</v>
       </c>
       <c r="B120" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C120">
         <v>17.7</v>
@@ -2335,7 +2357,7 @@
         <v>43942</v>
       </c>
       <c r="B121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C121">
         <v>87.5</v>
@@ -2349,7 +2371,7 @@
         <v>43942</v>
       </c>
       <c r="B122" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C122">
         <v>64.099999999999994</v>
@@ -2363,7 +2385,7 @@
         <v>43942</v>
       </c>
       <c r="B123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C123">
         <v>29.7</v>
@@ -2377,7 +2399,7 @@
         <v>43942</v>
       </c>
       <c r="B124" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C124">
         <v>18.100000000000001</v>
@@ -2391,7 +2413,7 @@
         <v>43942</v>
       </c>
       <c r="B125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C125">
         <v>91.2</v>
@@ -2405,7 +2427,7 @@
         <v>43942</v>
       </c>
       <c r="B126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C126">
         <v>5.8</v>
@@ -2419,7 +2441,7 @@
         <v>43942</v>
       </c>
       <c r="B127" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C127">
         <v>10.5</v>
@@ -2433,7 +2455,7 @@
         <v>43942</v>
       </c>
       <c r="B128" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C128">
         <v>7.4</v>
@@ -2447,7 +2469,7 @@
         <v>43942</v>
       </c>
       <c r="B129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C129">
         <v>31.7</v>
@@ -2461,7 +2483,7 @@
         <v>43949</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C130">
         <v>156.25</v>
@@ -2475,7 +2497,7 @@
         <v>43949</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C131">
         <v>17.100000000000001</v>
@@ -2489,7 +2511,7 @@
         <v>43949</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C132">
         <v>4.95</v>
@@ -2503,7 +2525,7 @@
         <v>43949</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C133">
         <v>19.559999999999999</v>
@@ -2517,7 +2539,7 @@
         <v>43949</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C134">
         <v>4.51</v>
@@ -2531,7 +2553,7 @@
         <v>43949</v>
       </c>
       <c r="B135" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C135">
         <v>206.41</v>
@@ -2545,7 +2567,7 @@
         <v>43949</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C136">
         <v>3.15</v>
@@ -2559,7 +2581,7 @@
         <v>43949</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C137">
         <v>5.35</v>
@@ -2573,7 +2595,7 @@
         <v>43949</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C138">
         <v>85.47</v>
@@ -2587,7 +2609,7 @@
         <v>43949</v>
       </c>
       <c r="B139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C139">
         <v>1.71</v>
@@ -2601,7 +2623,7 @@
         <v>43949</v>
       </c>
       <c r="B140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C140">
         <v>32.82</v>
@@ -2615,7 +2637,7 @@
         <v>43949</v>
       </c>
       <c r="B141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C141">
         <v>49.52</v>
@@ -2629,7 +2651,7 @@
         <v>43949</v>
       </c>
       <c r="B142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C142">
         <v>118.65</v>
@@ -2643,7 +2665,7 @@
         <v>43949</v>
       </c>
       <c r="B143" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C143">
         <v>60.95</v>
@@ -2657,7 +2679,7 @@
         <v>43949</v>
       </c>
       <c r="B144" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C144">
         <v>14.5</v>
@@ -2671,7 +2693,7 @@
         <v>43949</v>
       </c>
       <c r="B145" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C145">
         <v>8.57</v>
@@ -2685,7 +2707,7 @@
         <v>43949</v>
       </c>
       <c r="B146" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C146">
         <v>24.82</v>
@@ -2699,7 +2721,7 @@
         <v>43949</v>
       </c>
       <c r="B147" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C147">
         <v>63.92</v>
@@ -2713,7 +2735,7 @@
         <v>43949</v>
       </c>
       <c r="B148" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C148">
         <v>168.21</v>
@@ -2727,7 +2749,7 @@
         <v>43949</v>
       </c>
       <c r="B149" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C149">
         <v>20.51</v>
@@ -2741,7 +2763,7 @@
         <v>43949</v>
       </c>
       <c r="B150" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C150">
         <v>29.02</v>
@@ -2755,7 +2777,7 @@
         <v>43949</v>
       </c>
       <c r="B151" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C151">
         <v>29.77</v>
@@ -2769,7 +2791,7 @@
         <v>43949</v>
       </c>
       <c r="B152" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C152">
         <v>20.329999999999998</v>
@@ -2783,7 +2805,7 @@
         <v>43949</v>
       </c>
       <c r="B153" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C153">
         <v>109.23</v>
@@ -2797,7 +2819,7 @@
         <v>43949</v>
       </c>
       <c r="B154" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C154">
         <v>78.069999999999993</v>
@@ -2811,7 +2833,7 @@
         <v>43949</v>
       </c>
       <c r="B155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C155">
         <v>43.66</v>
@@ -2825,7 +2847,7 @@
         <v>43949</v>
       </c>
       <c r="B156" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C156">
         <v>20.94</v>
@@ -2839,7 +2861,7 @@
         <v>43949</v>
       </c>
       <c r="B157" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C157">
         <v>104.43</v>
@@ -2853,7 +2875,7 @@
         <v>43949</v>
       </c>
       <c r="B158" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C158">
         <v>8.3800000000000008</v>
@@ -2867,7 +2889,7 @@
         <v>43949</v>
       </c>
       <c r="B159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C159">
         <v>13.99</v>
@@ -2881,7 +2903,7 @@
         <v>43949</v>
       </c>
       <c r="B160" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C160">
         <v>11.03</v>
@@ -2895,7 +2917,7 @@
         <v>43949</v>
       </c>
       <c r="B161" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C161">
         <v>43.05</v>
@@ -2909,7 +2931,7 @@
         <v>43956</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C162">
         <v>205.04</v>
@@ -2923,7 +2945,7 @@
         <v>43956</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C163">
         <v>39.14</v>
@@ -2937,7 +2959,7 @@
         <v>43956</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C164">
         <v>4.95</v>
@@ -2951,7 +2973,7 @@
         <v>43956</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C165">
         <v>23.79</v>
@@ -2965,7 +2987,7 @@
         <v>43956</v>
       </c>
       <c r="B166" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C166">
         <v>7.52</v>
@@ -2979,7 +3001,7 @@
         <v>43956</v>
       </c>
       <c r="B167" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C167">
         <v>227.49</v>
@@ -2993,7 +3015,7 @@
         <v>43956</v>
       </c>
       <c r="B168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C168">
         <v>7.89</v>
@@ -3007,7 +3029,7 @@
         <v>43956</v>
       </c>
       <c r="B169" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C169">
         <v>10.69</v>
@@ -3021,7 +3043,7 @@
         <v>43956</v>
       </c>
       <c r="B170" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C170">
         <v>130.08000000000001</v>
@@ -3035,7 +3057,7 @@
         <v>43956</v>
       </c>
       <c r="B171" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C171">
         <v>1.71</v>
@@ -3049,7 +3071,7 @@
         <v>43956</v>
       </c>
       <c r="B172" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C172">
         <v>40.18</v>
@@ -3063,7 +3085,7 @@
         <v>43956</v>
       </c>
       <c r="B173" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C173">
         <v>76.3</v>
@@ -3077,7 +3099,7 @@
         <v>43956</v>
       </c>
       <c r="B174" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C174">
         <v>147.58000000000001</v>
@@ -3091,7 +3113,7 @@
         <v>43956</v>
       </c>
       <c r="B175" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C175">
         <v>74.42</v>
@@ -3105,7 +3127,7 @@
         <v>43956</v>
       </c>
       <c r="B176" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C176">
         <v>23.03</v>
@@ -3119,7 +3141,7 @@
         <v>43956</v>
       </c>
       <c r="B177" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C177">
         <v>11.43</v>
@@ -3133,7 +3155,7 @@
         <v>43956</v>
       </c>
       <c r="B178" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C178">
         <v>31.91</v>
@@ -3147,7 +3169,7 @@
         <v>43956</v>
       </c>
       <c r="B179" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C179">
         <v>78.33</v>
@@ -3161,7 +3183,7 @@
         <v>43956</v>
       </c>
       <c r="B180" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C180">
         <v>221.38</v>
@@ -3175,7 +3197,7 @@
         <v>43956</v>
       </c>
       <c r="B181" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C181">
         <v>22.29</v>
@@ -3189,7 +3211,7 @@
         <v>43956</v>
       </c>
       <c r="B182" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C182">
         <v>51.3</v>
@@ -3203,7 +3225,7 @@
         <v>43956</v>
       </c>
       <c r="B183" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C183">
         <v>37.43</v>
@@ -3217,7 +3239,7 @@
         <v>43956</v>
       </c>
       <c r="B184" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C184">
         <v>26.56</v>
@@ -3231,7 +3253,7 @@
         <v>43956</v>
       </c>
       <c r="B185" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C185">
         <v>135.55000000000001</v>
@@ -3245,7 +3267,7 @@
         <v>43956</v>
       </c>
       <c r="B186" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C186">
         <v>95.68</v>
@@ -3259,7 +3281,7 @@
         <v>43956</v>
       </c>
       <c r="B187" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C187">
         <v>66.36</v>
@@ -3273,7 +3295,7 @@
         <v>43956</v>
       </c>
       <c r="B188" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C188">
         <v>31.12</v>
@@ -3287,7 +3309,7 @@
         <v>43956</v>
       </c>
       <c r="B189" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C189">
         <v>127.38</v>
@@ -3301,7 +3323,7 @@
         <v>43956</v>
       </c>
       <c r="B190" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C190">
         <v>12.04</v>
@@ -3315,7 +3337,7 @@
         <v>43956</v>
       </c>
       <c r="B191" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C191">
         <v>15.16</v>
@@ -3329,7 +3351,7 @@
         <v>43956</v>
       </c>
       <c r="B192" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C192">
         <v>25.73</v>
@@ -3343,7 +3365,7 @@
         <v>43956</v>
       </c>
       <c r="B193" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C193">
         <v>62.28</v>
@@ -3357,7 +3379,7 @@
         <v>43963</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C194">
         <v>273.49</v>
@@ -3371,7 +3393,7 @@
         <v>43963</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C195">
         <v>54.44</v>
@@ -3385,7 +3407,7 @@
         <v>43963</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C196">
         <v>5.94</v>
@@ -3399,7 +3421,7 @@
         <v>43963</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C197">
         <v>37</v>
@@ -3413,7 +3435,7 @@
         <v>43963</v>
       </c>
       <c r="B198" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C198">
         <v>9.0299999999999994</v>
@@ -3427,7 +3449,7 @@
         <v>43963</v>
       </c>
       <c r="B199" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C199">
         <v>247.23</v>
@@ -3441,7 +3463,7 @@
         <v>43963</v>
       </c>
       <c r="B200" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C200">
         <v>11.04</v>
@@ -3455,7 +3477,7 @@
         <v>43963</v>
       </c>
       <c r="B201" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C201">
         <v>14.97</v>
@@ -3469,7 +3491,7 @@
         <v>43963</v>
       </c>
       <c r="B202" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C202">
         <v>179.7</v>
@@ -3483,7 +3505,7 @@
         <v>43963</v>
       </c>
       <c r="B203" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C203">
         <v>5.13</v>
@@ -3497,7 +3519,7 @@
         <v>43963</v>
       </c>
       <c r="B204" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C204">
         <v>48.95</v>
@@ -3511,7 +3533,7 @@
         <v>43963</v>
       </c>
       <c r="B205" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C205">
         <v>99.41</v>
@@ -3525,7 +3547,7 @@
         <v>43963</v>
       </c>
       <c r="B206" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C206">
         <v>182.6</v>
@@ -3539,7 +3561,7 @@
         <v>43963</v>
       </c>
       <c r="B207" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C207">
         <v>80.09</v>
@@ -3553,7 +3575,7 @@
         <v>43963</v>
       </c>
       <c r="B208" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C208">
         <v>23.89</v>
@@ -3567,7 +3589,7 @@
         <v>43963</v>
       </c>
       <c r="B209" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C209">
         <v>14.29</v>
@@ -3581,7 +3603,7 @@
         <v>43963</v>
       </c>
       <c r="B210" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C210">
         <v>42.55</v>
@@ -3595,7 +3617,7 @@
         <v>43963</v>
       </c>
       <c r="B211" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C211">
         <v>89.13</v>
@@ -3609,7 +3631,7 @@
         <v>43963</v>
       </c>
       <c r="B212" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C212">
         <v>247.43</v>
@@ -3623,7 +3645,7 @@
         <v>43963</v>
       </c>
       <c r="B213" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C213">
         <v>24.96</v>
@@ -3637,7 +3659,7 @@
         <v>43963</v>
       </c>
       <c r="B214" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C214">
         <v>81.73</v>
@@ -3651,7 +3673,7 @@
         <v>43963</v>
       </c>
       <c r="B215" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C215">
         <v>40.590000000000003</v>
@@ -3665,7 +3687,7 @@
         <v>43963</v>
       </c>
       <c r="B216" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C216">
         <v>31.48</v>
@@ -3679,7 +3701,7 @@
         <v>43963</v>
       </c>
       <c r="B217" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C217">
         <v>147.38999999999999</v>
@@ -3693,7 +3715,7 @@
         <v>43963</v>
       </c>
       <c r="B218" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C218">
         <v>113.28</v>
@@ -3707,7 +3729,7 @@
         <v>43963</v>
       </c>
       <c r="B219" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C219">
         <v>73.34</v>
@@ -3721,7 +3743,7 @@
         <v>43963</v>
       </c>
       <c r="B220" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C220">
         <v>37.35</v>
@@ -3735,7 +3757,7 @@
         <v>43963</v>
       </c>
       <c r="B221" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C221">
         <v>157.79</v>
@@ -3749,7 +3771,7 @@
         <v>43963</v>
       </c>
       <c r="B222" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C222">
         <v>14.66</v>
@@ -3763,7 +3785,7 @@
         <v>43963</v>
       </c>
       <c r="B223" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C223">
         <v>15.16</v>
@@ -3777,7 +3799,7 @@
         <v>43963</v>
       </c>
       <c r="B224" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C224">
         <v>31.25</v>
@@ -3791,7 +3813,7 @@
         <v>43963</v>
       </c>
       <c r="B225" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C225">
         <v>83</v>
@@ -3805,7 +3827,7 @@
         <v>43970</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C226">
         <v>327.55</v>
@@ -3819,7 +3841,7 @@
         <v>43970</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C227">
         <v>67.94</v>
@@ -3833,7 +3855,7 @@
         <v>43970</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C228">
         <v>7.92</v>
@@ -3847,7 +3869,7 @@
         <v>43970</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C229">
         <v>45.99</v>
@@ -3861,7 +3883,7 @@
         <v>43970</v>
       </c>
       <c r="B230" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C230">
         <v>9.0299999999999994</v>
@@ -3875,7 +3897,7 @@
         <v>43970</v>
       </c>
       <c r="B231" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C231">
         <v>257.93</v>
@@ -3889,7 +3911,7 @@
         <v>43970</v>
       </c>
       <c r="B232" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C232">
         <v>11.04</v>
@@ -3903,7 +3925,7 @@
         <v>43970</v>
       </c>
       <c r="B233" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C233">
         <v>16.04</v>
@@ -3917,7 +3939,7 @@
         <v>43970</v>
       </c>
       <c r="B234" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C234">
         <v>208.88</v>
@@ -3931,7 +3953,7 @@
         <v>43970</v>
       </c>
       <c r="B235" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C235">
         <v>5.13</v>
@@ -3945,7 +3967,7 @@
         <v>43970</v>
       </c>
       <c r="B236" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C236">
         <v>63.95</v>
@@ -3959,7 +3981,7 @@
         <v>43970</v>
       </c>
       <c r="B237" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C237">
         <v>154.44</v>
@@ -3973,7 +3995,7 @@
         <v>43970</v>
       </c>
       <c r="B238" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C238">
         <v>201.8</v>
@@ -3987,7 +4009,7 @@
         <v>43970</v>
       </c>
       <c r="B239" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C239">
         <v>85.76</v>
@@ -4001,7 +4023,7 @@
         <v>43970</v>
       </c>
       <c r="B240" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C240">
         <v>26.45</v>
@@ -4015,7 +4037,7 @@
         <v>43970</v>
       </c>
       <c r="B241" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C241">
         <v>14.29</v>
@@ -4029,7 +4051,7 @@
         <v>43970</v>
       </c>
       <c r="B242" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C242">
         <v>50.14</v>
@@ -4043,7 +4065,7 @@
         <v>43970</v>
       </c>
       <c r="B243" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C243">
         <v>99.63</v>
@@ -4057,7 +4079,7 @@
         <v>43970</v>
       </c>
       <c r="B244" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C244">
         <v>255.02</v>
@@ -4071,7 +4093,7 @@
         <v>43970</v>
       </c>
       <c r="B245" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C245">
         <v>25.86</v>
@@ -4085,7 +4107,7 @@
         <v>43970</v>
       </c>
       <c r="B246" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C246">
         <v>114.99</v>
@@ -4099,7 +4121,7 @@
         <v>43970</v>
       </c>
       <c r="B247" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C247">
         <v>47.35</v>
@@ -4113,7 +4135,7 @@
         <v>43970</v>
       </c>
       <c r="B248" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C248">
         <v>35.090000000000003</v>
@@ -4127,7 +4149,7 @@
         <v>43970</v>
       </c>
       <c r="B249" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C249">
         <v>157.91999999999999</v>
@@ -4141,7 +4163,7 @@
         <v>43970</v>
       </c>
       <c r="B250" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C250">
         <v>125.72</v>
@@ -4155,7 +4177,7 @@
         <v>43970</v>
       </c>
       <c r="B251" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C251">
         <v>80.33</v>
@@ -4169,7 +4191,7 @@
         <v>43970</v>
       </c>
       <c r="B252" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C252">
         <v>44.7</v>
@@ -4183,7 +4205,7 @@
         <v>43970</v>
       </c>
       <c r="B253" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C253">
         <v>177.3</v>
@@ -4197,7 +4219,7 @@
         <v>43970</v>
       </c>
       <c r="B254" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C254">
         <v>18.32</v>
@@ -4211,7 +4233,7 @@
         <v>43970</v>
       </c>
       <c r="B255" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C255">
         <v>15.16</v>
@@ -4225,7 +4247,7 @@
         <v>43970</v>
       </c>
       <c r="B256" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C256">
         <v>34.92</v>
@@ -4239,7 +4261,7 @@
         <v>43970</v>
       </c>
       <c r="B257" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C257">
         <v>109.5</v>
@@ -4253,7 +4275,7 @@
         <v>43977</v>
       </c>
       <c r="B258" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C258">
         <v>387.95</v>
@@ -4267,7 +4289,7 @@
         <v>43977</v>
       </c>
       <c r="B259" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C259">
         <v>91.34</v>
@@ -4281,7 +4303,7 @@
         <v>43977</v>
       </c>
       <c r="B260" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C260">
         <v>7.92</v>
@@ -4295,7 +4317,7 @@
         <v>43977</v>
       </c>
       <c r="B261" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C261">
         <v>72.95</v>
@@ -4309,7 +4331,7 @@
         <v>43977</v>
       </c>
       <c r="B262" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C262">
         <v>10.53</v>
@@ -4323,7 +4345,7 @@
         <v>43977</v>
       </c>
       <c r="B263" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C263">
         <v>260.27999999999997</v>
@@ -4337,7 +4359,7 @@
         <v>43977</v>
       </c>
       <c r="B264" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C264">
         <v>12.62</v>
@@ -4351,7 +4373,7 @@
         <v>43977</v>
       </c>
       <c r="B265" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C265">
         <v>19.25</v>
@@ -4365,7 +4387,7 @@
         <v>43977</v>
       </c>
       <c r="B266" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C266">
         <v>222.23</v>
@@ -4379,7 +4401,7 @@
         <v>43977</v>
       </c>
       <c r="B267" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C267">
         <v>8.56</v>
@@ -4393,7 +4415,7 @@
         <v>43977</v>
       </c>
       <c r="B268" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C268">
         <v>87.43</v>
@@ -4407,7 +4429,7 @@
         <v>43977</v>
       </c>
       <c r="B269" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C269">
         <v>167.65</v>
@@ -4421,7 +4443,7 @@
         <v>43977</v>
       </c>
       <c r="B270" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C270">
         <v>213.72</v>
@@ -4435,7 +4457,7 @@
         <v>43977</v>
       </c>
       <c r="B271" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C271">
         <v>92.14</v>
@@ -4449,7 +4471,7 @@
         <v>43977</v>
       </c>
       <c r="B272" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C272">
         <v>27.3</v>
@@ -4463,7 +4485,7 @@
         <v>43977</v>
       </c>
       <c r="B273" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C273">
         <v>17.14</v>
@@ -4477,7 +4499,7 @@
         <v>43977</v>
       </c>
       <c r="B274" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C274">
         <v>54.2</v>
@@ -4491,7 +4513,7 @@
         <v>43977</v>
       </c>
       <c r="B275" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C275">
         <v>104.14</v>
@@ -4505,7 +4527,7 @@
         <v>43977</v>
       </c>
       <c r="B276" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C276">
         <v>258.27999999999997</v>
@@ -4519,7 +4541,7 @@
         <v>43977</v>
       </c>
       <c r="B277" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C277">
         <v>29.42</v>
@@ -4533,7 +4555,7 @@
         <v>43977</v>
       </c>
       <c r="B278" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C278">
         <v>134.76</v>
@@ -4547,7 +4569,7 @@
         <v>43977</v>
       </c>
       <c r="B279" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C279">
         <v>52.77</v>
@@ -4561,7 +4583,7 @@
         <v>43977</v>
       </c>
       <c r="B280" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C280">
         <v>42.3</v>
@@ -4575,7 +4597,7 @@
         <v>43977</v>
       </c>
       <c r="B281" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C281">
         <v>164.5</v>
@@ -4589,7 +4611,7 @@
         <v>43977</v>
       </c>
       <c r="B282" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C282">
         <v>134.81</v>
@@ -4603,7 +4625,7 @@
         <v>43977</v>
       </c>
       <c r="B283" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C283">
         <v>85.57</v>
@@ -4617,7 +4639,7 @@
         <v>43977</v>
       </c>
       <c r="B284" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C284">
         <v>49.8</v>
@@ -4631,7 +4653,7 @@
         <v>43977</v>
       </c>
       <c r="B285" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C285">
         <v>190.5</v>
@@ -4645,7 +4667,7 @@
         <v>43977</v>
       </c>
       <c r="B286" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C286">
         <v>19.37</v>
@@ -4659,7 +4681,7 @@
         <v>43977</v>
       </c>
       <c r="B287" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C287">
         <v>16.32</v>
@@ -4673,7 +4695,7 @@
         <v>43977</v>
       </c>
       <c r="B288" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C288">
         <v>40.44</v>
@@ -4687,7 +4709,7 @@
         <v>43977</v>
       </c>
       <c r="B289" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C289">
         <v>138.82</v>
@@ -4701,7 +4723,7 @@
         <v>43984</v>
       </c>
       <c r="B290" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C290">
         <v>442.11</v>
@@ -4715,7 +4737,7 @@
         <v>43984</v>
       </c>
       <c r="B291" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C291">
         <v>133.63</v>
@@ -4729,7 +4751,7 @@
         <v>43984</v>
       </c>
       <c r="B292" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C292">
         <v>8.91</v>
@@ -4743,7 +4765,7 @@
         <v>43984</v>
       </c>
       <c r="B293" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C293">
         <v>95.15</v>
@@ -4757,7 +4779,7 @@
         <v>43984</v>
       </c>
       <c r="B294" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C294">
         <v>10.53</v>
@@ -4771,7 +4793,7 @@
         <v>43984</v>
       </c>
       <c r="B295" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C295">
         <v>267.3</v>
@@ -4785,7 +4807,7 @@
         <v>43984</v>
       </c>
       <c r="B296" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C296">
         <v>12.62</v>
@@ -4799,7 +4821,7 @@
         <v>43984</v>
       </c>
       <c r="B297" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C297">
         <v>27.81</v>
@@ -4813,7 +4835,7 @@
         <v>43984</v>
       </c>
       <c r="B298" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C298">
         <v>235.57</v>
@@ -4827,7 +4849,7 @@
         <v>43984</v>
       </c>
       <c r="B299" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C299">
         <v>18.829999999999998</v>
@@ -4841,7 +4863,7 @@
         <v>43984</v>
       </c>
       <c r="B300" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C300">
         <v>115.45</v>
@@ -4855,7 +4877,7 @@
         <v>43984</v>
       </c>
       <c r="B301" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C301">
         <v>187.46</v>
@@ -4869,7 +4891,7 @@
         <v>43984</v>
       </c>
       <c r="B302" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C302">
         <v>224.42</v>
@@ -4883,7 +4905,7 @@
         <v>43984</v>
       </c>
       <c r="B303" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C303">
         <v>102.77</v>
@@ -4897,7 +4919,7 @@
         <v>43984</v>
       </c>
       <c r="B304" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C304">
         <v>28.15</v>
@@ -4911,7 +4933,7 @@
         <v>43984</v>
       </c>
       <c r="B305" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C305">
         <v>22.86</v>
@@ -4925,7 +4947,7 @@
         <v>43984</v>
       </c>
       <c r="B306" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C306">
         <v>56.22</v>
@@ -4939,7 +4961,7 @@
         <v>43984</v>
       </c>
       <c r="B307" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C307">
         <v>112.84</v>
@@ -4953,7 +4975,7 @@
         <v>43984</v>
       </c>
       <c r="B308" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C308">
         <v>259.37</v>
@@ -4967,7 +4989,7 @@
         <v>43984</v>
       </c>
       <c r="B309" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C309">
         <v>33.880000000000003</v>
@@ -4981,7 +5003,7 @@
         <v>43984</v>
       </c>
       <c r="B310" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C310">
         <v>166.76</v>
@@ -4995,7 +5017,7 @@
         <v>43984</v>
       </c>
       <c r="B311" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C311">
         <v>60.43</v>
@@ -5009,7 +5031,7 @@
         <v>43984</v>
       </c>
       <c r="B312" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C312">
         <v>46.89</v>
@@ -5023,7 +5045,7 @@
         <v>43984</v>
       </c>
       <c r="B313" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C313">
         <v>167.79</v>
@@ -5037,7 +5059,7 @@
         <v>43984</v>
       </c>
       <c r="B314" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C314">
         <v>143.52000000000001</v>
@@ -5051,7 +5073,7 @@
         <v>43984</v>
       </c>
       <c r="B315" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C315">
         <v>87.31</v>
@@ -5065,7 +5087,7 @@
         <v>43984</v>
       </c>
       <c r="B316" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C316">
         <v>61.68</v>
@@ -5079,7 +5101,7 @@
         <v>43984</v>
       </c>
       <c r="B317" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C317">
         <v>197.96</v>
@@ -5093,7 +5115,7 @@
         <v>43984</v>
       </c>
       <c r="B318" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C318">
         <v>20.94</v>
@@ -5107,7 +5129,7 @@
         <v>43984</v>
       </c>
       <c r="B319" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C319">
         <v>17.489999999999998</v>
@@ -5121,7 +5143,7 @@
         <v>43984</v>
       </c>
       <c r="B320" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C320">
         <v>45.95</v>
@@ -5135,7 +5157,7 @@
         <v>43984</v>
       </c>
       <c r="B321" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C321">
         <v>165.45</v>
@@ -5145,203 +5167,459 @@
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A322" s="2"/>
+      <c r="A322" s="2">
+        <v>43991</v>
+      </c>
       <c r="B322" t="s">
+        <v>4</v>
+      </c>
+      <c r="C322">
+        <v>498.19</v>
+      </c>
+      <c r="D322">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B323" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323" s="2"/>
-      <c r="B323" t="s">
+      <c r="C323">
+        <v>175.47</v>
+      </c>
+      <c r="D323">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B324" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A324" s="2"/>
-      <c r="B324" t="s">
+      <c r="C324">
+        <v>13.86</v>
+      </c>
+      <c r="D324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B325" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A325" s="2"/>
-      <c r="B325" t="s">
+      <c r="C325">
+        <v>145.37</v>
+      </c>
+      <c r="D325">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B326" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A326" s="2"/>
-      <c r="B326" t="s">
+      <c r="C326">
+        <v>13.54</v>
+      </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B327" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A327" s="2"/>
-      <c r="B327" t="s">
+      <c r="C327">
+        <v>271.32</v>
+      </c>
+      <c r="D327">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B328" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A328" s="2"/>
-      <c r="B328" t="s">
+      <c r="C328">
+        <v>20.5</v>
+      </c>
+      <c r="D328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B329" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A329" s="2"/>
-      <c r="B329" t="s">
+      <c r="C329">
+        <v>37.43</v>
+      </c>
+      <c r="D329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B330" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A330" s="2"/>
-      <c r="B330" t="s">
+      <c r="C330">
+        <v>255.16</v>
+      </c>
+      <c r="D330">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B331" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A331" s="2"/>
-      <c r="B331" t="s">
+      <c r="C331">
+        <v>32.520000000000003</v>
+      </c>
+      <c r="D331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B332" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A332" s="2"/>
-      <c r="B332" t="s">
+      <c r="C332">
+        <v>144.88</v>
+      </c>
+      <c r="D332">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B333" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A333" s="2"/>
-      <c r="B333" t="s">
+      <c r="C333">
+        <v>205.06</v>
+      </c>
+      <c r="D333">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B334" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A334" s="2"/>
-      <c r="B334" t="s">
+      <c r="C334">
+        <v>236.57</v>
+      </c>
+      <c r="D334">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B335" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A335" s="2"/>
-      <c r="B335" t="s">
+      <c r="C335">
+        <v>108.44</v>
+      </c>
+      <c r="D335">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B336" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A336" s="2"/>
-      <c r="B336" t="s">
+      <c r="C336">
+        <v>29.01</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B337" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="2"/>
-      <c r="B337" t="s">
+      <c r="C337">
+        <v>65.72</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B338" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="2"/>
-      <c r="B338" t="s">
+      <c r="C338">
+        <v>61.79</v>
+      </c>
+      <c r="D338">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B339" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="2"/>
-      <c r="B339" t="s">
+      <c r="C339">
+        <v>119.44</v>
+      </c>
+      <c r="D339">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B340" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="2"/>
-      <c r="B340" t="s">
+      <c r="C340">
+        <v>265.88</v>
+      </c>
+      <c r="D340">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B341" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="2"/>
-      <c r="B341" t="s">
+      <c r="C341">
+        <v>44.58</v>
+      </c>
+      <c r="D341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B342" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="2"/>
-      <c r="B342" t="s">
+      <c r="C342">
+        <v>197.51</v>
+      </c>
+      <c r="D342">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B343" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="2"/>
-      <c r="B343" t="s">
+      <c r="C343">
+        <v>75.31</v>
+      </c>
+      <c r="D343">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B344" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="2"/>
-      <c r="B344" t="s">
+      <c r="C344">
+        <v>50.5</v>
+      </c>
+      <c r="D344">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B345" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="2"/>
-      <c r="B345" t="s">
+      <c r="C345">
+        <v>171.08</v>
+      </c>
+      <c r="D345">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B346" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" s="2"/>
-      <c r="B346" t="s">
+      <c r="C346">
+        <v>151.16999999999999</v>
+      </c>
+      <c r="D346">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B347" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="2"/>
-      <c r="B347" t="s">
+      <c r="C347">
+        <v>96.04</v>
+      </c>
+      <c r="D347">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B348" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" s="2"/>
-      <c r="B348" t="s">
+      <c r="C348">
+        <v>79.22</v>
+      </c>
+      <c r="D348">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B349" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" s="2"/>
-      <c r="B349" t="s">
+      <c r="C349">
+        <v>200.25</v>
+      </c>
+      <c r="D349">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B350" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" s="2"/>
-      <c r="B350" t="s">
+      <c r="C350">
+        <v>23.56</v>
+      </c>
+      <c r="D350">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B351" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" s="2"/>
-      <c r="B351" t="s">
+      <c r="C351">
+        <v>19.82</v>
+      </c>
+      <c r="D351">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B352" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" s="2"/>
-      <c r="B352" t="s">
+      <c r="C352">
+        <v>69.849999999999994</v>
+      </c>
+      <c r="D352">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B353" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A353" s="2"/>
-      <c r="B353" t="s">
-        <v>36</v>
+      <c r="C353">
+        <v>199.11</v>
+      </c>
+      <c r="D353">
+        <v>102</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
+      <c r="A354" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B354" t="s">
         <v>4</v>
-      </c>
-      <c r="B354" t="s">
-        <v>5</v>
       </c>
       <c r="C354">
         <v>581.1</v>
@@ -5351,11 +5629,11 @@
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>4</v>
+      <c r="A355" s="2">
+        <v>43998</v>
       </c>
       <c r="B355" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C355">
         <v>214.62</v>
@@ -5365,11 +5643,11 @@
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>4</v>
+      <c r="A356" s="2">
+        <v>43998</v>
       </c>
       <c r="B356" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C356">
         <v>15.84</v>
@@ -5379,11 +5657,11 @@
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>4</v>
+      <c r="A357" s="2">
+        <v>43998</v>
       </c>
       <c r="B357" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C357">
         <v>200.34</v>
@@ -5393,11 +5671,11 @@
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
-        <v>4</v>
+      <c r="A358" s="2">
+        <v>43998</v>
       </c>
       <c r="B358" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C358">
         <v>18.05</v>
@@ -5407,11 +5685,11 @@
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>4</v>
+      <c r="A359" s="2">
+        <v>43998</v>
       </c>
       <c r="B359" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C359">
         <v>275</v>
@@ -5421,11 +5699,11 @@
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>4</v>
+      <c r="A360" s="2">
+        <v>43998</v>
       </c>
       <c r="B360" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C360">
         <v>31.54</v>
@@ -5435,11 +5713,11 @@
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>4</v>
+      <c r="A361" s="2">
+        <v>43998</v>
       </c>
       <c r="B361" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C361">
         <v>37.43</v>
@@ -5449,11 +5727,11 @@
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>4</v>
+      <c r="A362" s="2">
+        <v>43998</v>
       </c>
       <c r="B362" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C362">
         <v>270.58999999999997</v>
@@ -5463,11 +5741,11 @@
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
-        <v>4</v>
+      <c r="A363" s="2">
+        <v>43998</v>
       </c>
       <c r="B363" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C363">
         <v>78.73</v>
@@ -5477,11 +5755,11 @@
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>4</v>
+      <c r="A364" s="2">
+        <v>43998</v>
       </c>
       <c r="B364" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C364">
         <v>163.83000000000001</v>
@@ -5491,11 +5769,11 @@
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>4</v>
+      <c r="A365" s="2">
+        <v>43998</v>
       </c>
       <c r="B365" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C365">
         <v>228.18</v>
@@ -5505,11 +5783,11 @@
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
-        <v>4</v>
+      <c r="A366" s="2">
+        <v>43998</v>
       </c>
       <c r="B366" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C366">
         <v>263.32</v>
@@ -5519,11 +5797,11 @@
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
-        <v>4</v>
+      <c r="A367" s="2">
+        <v>43998</v>
       </c>
       <c r="B367" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C367">
         <v>117.65</v>
@@ -5533,11 +5811,11 @@
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
-        <v>4</v>
+      <c r="A368" s="2">
+        <v>43998</v>
       </c>
       <c r="B368" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C368">
         <v>29.86</v>
@@ -5547,11 +5825,11 @@
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
-        <v>4</v>
+      <c r="A369" s="2">
+        <v>43998</v>
       </c>
       <c r="B369" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C369">
         <v>111.44</v>
@@ -5561,11 +5839,11 @@
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
-        <v>4</v>
+      <c r="A370" s="2">
+        <v>43998</v>
       </c>
       <c r="B370" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C370">
         <v>68.38</v>
@@ -5575,11 +5853,11 @@
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
-        <v>4</v>
+      <c r="A371" s="2">
+        <v>43998</v>
       </c>
       <c r="B371" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C371">
         <v>124.84</v>
@@ -5589,11 +5867,11 @@
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
-        <v>4</v>
+      <c r="A372" s="2">
+        <v>43998</v>
       </c>
       <c r="B372" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C372">
         <v>272.39</v>
@@ -5603,11 +5881,11 @@
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
-        <v>4</v>
+      <c r="A373" s="2">
+        <v>43998</v>
       </c>
       <c r="B373" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C373">
         <v>51.71</v>
@@ -5617,11 +5895,11 @@
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
-        <v>4</v>
+      <c r="A374" s="2">
+        <v>43998</v>
       </c>
       <c r="B374" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C374">
         <v>231.24</v>
@@ -5631,11 +5909,11 @@
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
-        <v>4</v>
+      <c r="A375" s="2">
+        <v>43998</v>
       </c>
       <c r="B375" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C375">
         <v>85.69</v>
@@ -5645,11 +5923,11 @@
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
-        <v>4</v>
+      <c r="A376" s="2">
+        <v>43998</v>
       </c>
       <c r="B376" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C376">
         <v>60.33</v>
@@ -5659,11 +5937,11 @@
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
-        <v>4</v>
+      <c r="A377" s="2">
+        <v>43998</v>
       </c>
       <c r="B377" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C377">
         <v>176.34</v>
@@ -5673,11 +5951,11 @@
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
-        <v>4</v>
+      <c r="A378" s="2">
+        <v>43998</v>
       </c>
       <c r="B378" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C378">
         <v>162.65</v>
@@ -5687,11 +5965,11 @@
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
-        <v>4</v>
+      <c r="A379" s="2">
+        <v>43998</v>
       </c>
       <c r="B379" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C379">
         <v>104.77</v>
@@ -5701,11 +5979,11 @@
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
-        <v>4</v>
+      <c r="A380" s="2">
+        <v>43998</v>
       </c>
       <c r="B380" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C380">
         <v>96.76</v>
@@ -5715,11 +5993,11 @@
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
-        <v>4</v>
+      <c r="A381" s="2">
+        <v>43998</v>
       </c>
       <c r="B381" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C381">
         <v>210.01</v>
@@ -5729,11 +6007,11 @@
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
-        <v>4</v>
+      <c r="A382" s="2">
+        <v>43998</v>
       </c>
       <c r="B382" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C382">
         <v>26.7</v>
@@ -5743,11 +6021,11 @@
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
-        <v>4</v>
+      <c r="A383" s="2">
+        <v>43998</v>
       </c>
       <c r="B383" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C383">
         <v>20.99</v>
@@ -5757,11 +6035,11 @@
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
-        <v>4</v>
+      <c r="A384" s="2">
+        <v>43998</v>
       </c>
       <c r="B384" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C384">
         <v>88.23</v>
@@ -5771,11 +6049,11 @@
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
-        <v>4</v>
+      <c r="A385" s="2">
+        <v>43998</v>
       </c>
       <c r="B385" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C385">
         <v>239.68</v>
@@ -5785,11 +6063,11 @@
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
-        <v>49</v>
+      <c r="A386" s="2">
+        <v>44005</v>
       </c>
       <c r="B386" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C386">
         <v>687.32</v>
@@ -5799,11 +6077,11 @@
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
-        <v>49</v>
+      <c r="A387" s="2">
+        <v>44005</v>
       </c>
       <c r="B387" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C387">
         <v>259.16000000000003</v>
@@ -5813,11 +6091,11 @@
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
-        <v>49</v>
+      <c r="A388" s="2">
+        <v>44005</v>
       </c>
       <c r="B388" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C388">
         <v>19.8</v>
@@ -5827,11 +6105,11 @@
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
-        <v>49</v>
+      <c r="A389" s="2">
+        <v>44005</v>
       </c>
       <c r="B389" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C389">
         <v>236.82</v>
@@ -5841,11 +6119,11 @@
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
-        <v>49</v>
+      <c r="A390" s="2">
+        <v>44005</v>
       </c>
       <c r="B390" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C390">
         <v>31.59</v>
@@ -5855,11 +6133,11 @@
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
-        <v>49</v>
+      <c r="A391" s="2">
+        <v>44005</v>
       </c>
       <c r="B391" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C391">
         <v>284.7</v>
@@ -5869,11 +6147,11 @@
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
-        <v>49</v>
+      <c r="A392" s="2">
+        <v>44005</v>
       </c>
       <c r="B392" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C392">
         <v>72.55</v>
@@ -5883,11 +6161,11 @@
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
-        <v>49</v>
+      <c r="A393" s="2">
+        <v>44005</v>
       </c>
       <c r="B393" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C393">
         <v>38.5</v>
@@ -5897,11 +6175,11 @@
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
-        <v>49</v>
+      <c r="A394" s="2">
+        <v>44005</v>
       </c>
       <c r="B394" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C394">
         <v>301.44</v>
@@ -5911,11 +6189,11 @@
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
-        <v>49</v>
+      <c r="A395" s="2">
+        <v>44005</v>
       </c>
       <c r="B395" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C395">
         <v>118.1</v>
@@ -5925,11 +6203,11 @@
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
-        <v>49</v>
+      <c r="A396" s="2">
+        <v>44005</v>
       </c>
       <c r="B396" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C396">
         <v>193.26</v>
@@ -5939,11 +6217,11 @@
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
-        <v>49</v>
+      <c r="A397" s="2">
+        <v>44005</v>
       </c>
       <c r="B397" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C397">
         <v>272.93</v>
@@ -5953,11 +6231,11 @@
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
-        <v>49</v>
+      <c r="A398" s="2">
+        <v>44005</v>
       </c>
       <c r="B398" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C398">
         <v>288.12</v>
@@ -5967,11 +6245,11 @@
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
-        <v>49</v>
+      <c r="A399" s="2">
+        <v>44005</v>
       </c>
       <c r="B399" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C399">
         <v>137.49</v>
@@ -5981,11 +6259,11 @@
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
-        <v>49</v>
+      <c r="A400" s="2">
+        <v>44005</v>
       </c>
       <c r="B400" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C400">
         <v>40.1</v>
@@ -5995,11 +6273,11 @@
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
-        <v>49</v>
+      <c r="A401" s="2">
+        <v>44005</v>
       </c>
       <c r="B401" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C401">
         <v>128.58000000000001</v>
@@ -6009,11 +6287,11 @@
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
-        <v>49</v>
+      <c r="A402" s="2">
+        <v>44005</v>
       </c>
       <c r="B402" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C402">
         <v>85.6</v>
@@ -6023,11 +6301,11 @@
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
-        <v>49</v>
+      <c r="A403" s="2">
+        <v>44005</v>
       </c>
       <c r="B403" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C403">
         <v>132.94</v>
@@ -6037,11 +6315,11 @@
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
-        <v>49</v>
+      <c r="A404" s="2">
+        <v>44005</v>
       </c>
       <c r="B404" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C404">
         <v>281.07</v>
@@ -6051,11 +6329,11 @@
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
-        <v>49</v>
+      <c r="A405" s="2">
+        <v>44005</v>
       </c>
       <c r="B405" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C405">
         <v>57.95</v>
@@ -6065,11 +6343,11 @@
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
-        <v>49</v>
+      <c r="A406" s="2">
+        <v>44005</v>
       </c>
       <c r="B406" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C406">
         <v>276.42</v>
@@ -6079,11 +6357,11 @@
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
-        <v>49</v>
+      <c r="A407" s="2">
+        <v>44005</v>
       </c>
       <c r="B407" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C407">
         <v>126.28</v>
@@ -6093,11 +6371,11 @@
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
-        <v>49</v>
+      <c r="A408" s="2">
+        <v>44005</v>
       </c>
       <c r="B408" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C408">
         <v>78.37</v>
@@ -6107,11 +6385,11 @@
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
-        <v>49</v>
+      <c r="A409" s="2">
+        <v>44005</v>
       </c>
       <c r="B409" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C409">
         <v>195.42</v>
@@ -6121,11 +6399,11 @@
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
-        <v>49</v>
+      <c r="A410" s="2">
+        <v>44005</v>
       </c>
       <c r="B410" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C410">
         <v>192.41</v>
@@ -6135,11 +6413,11 @@
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
-        <v>49</v>
+      <c r="A411" s="2">
+        <v>44005</v>
       </c>
       <c r="B411" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C411">
         <v>123.98</v>
@@ -6149,11 +6427,11 @@
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
-        <v>49</v>
+      <c r="A412" s="2">
+        <v>44005</v>
       </c>
       <c r="B412" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C412">
         <v>99.59</v>
@@ -6163,11 +6441,11 @@
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
-        <v>49</v>
+      <c r="A413" s="2">
+        <v>44005</v>
       </c>
       <c r="B413" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C413">
         <v>226.08</v>
@@ -6177,11 +6455,11 @@
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
-        <v>49</v>
+      <c r="A414" s="2">
+        <v>44005</v>
       </c>
       <c r="B414" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C414">
         <v>29.84</v>
@@ -6191,11 +6469,11 @@
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
-        <v>49</v>
+      <c r="A415" s="2">
+        <v>44005</v>
       </c>
       <c r="B415" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C415">
         <v>23.32</v>
@@ -6205,11 +6483,11 @@
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
-        <v>49</v>
+      <c r="A416" s="2">
+        <v>44005</v>
       </c>
       <c r="B416" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C416">
         <v>95.58</v>
@@ -6219,11 +6497,11 @@
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
-        <v>49</v>
+      <c r="A417" s="2">
+        <v>44005</v>
       </c>
       <c r="B417" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C417">
         <v>293.29000000000002</v>
@@ -6234,10 +6512,10 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B418" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C418">
         <v>702.75</v>
@@ -6248,10 +6526,10 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B419" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C419">
         <v>263.66000000000003</v>
@@ -6262,10 +6540,10 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B420" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C420">
         <v>19.8</v>
@@ -6276,10 +6554,10 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B421" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C421">
         <v>236.82</v>
@@ -6290,10 +6568,10 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B422" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C422">
         <v>33.1</v>
@@ -6304,10 +6582,10 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B423" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C423">
         <v>287.37</v>
@@ -6318,10 +6596,10 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B424" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C424">
         <v>74.13</v>
@@ -6332,10 +6610,10 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B425" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C425">
         <v>39.57</v>
@@ -6346,10 +6624,10 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B426" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C426">
         <v>301.86</v>
@@ -6360,10 +6638,10 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B427" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C427">
         <v>118.1</v>
@@ -6374,10 +6652,10 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B428" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C428">
         <v>199.49</v>
@@ -6388,10 +6666,10 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B429" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C429">
         <v>279.17</v>
@@ -6402,10 +6680,10 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B430" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C430">
         <v>291.04000000000002</v>
@@ -6416,10 +6694,10 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B431" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C431">
         <v>144.58000000000001</v>
@@ -6430,10 +6708,10 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B432" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C432">
         <v>40.1</v>
@@ -6444,10 +6722,10 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B433" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C433">
         <v>128.58000000000001</v>
@@ -6458,10 +6736,10 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B434" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C434">
         <v>86.61</v>
@@ -6472,10 +6750,10 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B435" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C435">
         <v>133.24</v>
@@ -6486,10 +6764,10 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B436" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C436">
         <v>283.24</v>
@@ -6500,10 +6778,10 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B437" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C437">
         <v>59.74</v>
@@ -6514,10 +6792,10 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B438" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C438">
         <v>278.14999999999998</v>
@@ -6528,10 +6806,10 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B439" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C439">
         <v>126.28</v>
@@ -6542,10 +6820,10 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B440" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C440">
         <v>79.03</v>
@@ -6556,10 +6834,10 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B441" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C441">
         <v>197.4</v>
@@ -6570,10 +6848,10 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B442" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C442">
         <v>195.28</v>
@@ -6584,10 +6862,10 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B443" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C443">
         <v>123.98</v>
@@ -6598,10 +6876,10 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B444" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C444">
         <v>100.16</v>
@@ -6612,10 +6890,10 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B445" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C445">
         <v>226.08</v>
@@ -6626,10 +6904,10 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B446" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C446">
         <v>29.84</v>
@@ -6640,10 +6918,10 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B447" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C447">
         <v>24.49</v>
@@ -6654,10 +6932,10 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B448" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C448">
         <v>95.58</v>
@@ -6668,10 +6946,10 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B449" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C449">
         <v>299.04000000000002</v>
@@ -6689,10 +6967,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F422A3AD-6985-4C77-AE63-323FE7C4AE0C}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6708,16 +6986,16 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
-        <v>48</v>
-      </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6725,7 +7003,7 @@
         <v>43921</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -6736,7 +7014,7 @@
         <v>43921</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6747,7 +7025,7 @@
         <v>43921</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6758,7 +7036,7 @@
         <v>43921</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6769,7 +7047,7 @@
         <v>43921</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -6780,7 +7058,7 @@
         <v>43921</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -6791,7 +7069,7 @@
         <v>43921</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -6802,7 +7080,7 @@
         <v>43921</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>11</v>
@@ -6813,7 +7091,7 @@
         <v>43921</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10">
         <v>34</v>
@@ -6824,7 +7102,7 @@
         <v>43928</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -6835,7 +7113,7 @@
         <v>43928</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -6846,7 +7124,7 @@
         <v>43928</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -6857,7 +7135,7 @@
         <v>43928</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -6868,7 +7146,7 @@
         <v>43928</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -6879,7 +7157,7 @@
         <v>43928</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16">
         <v>5</v>
@@ -6890,7 +7168,7 @@
         <v>43928</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17">
         <v>14</v>
@@ -6901,7 +7179,7 @@
         <v>43928</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <v>25</v>
@@ -6912,7 +7190,7 @@
         <v>43928</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19">
         <v>61</v>
@@ -6923,7 +7201,7 @@
         <v>43935</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -6934,7 +7212,7 @@
         <v>43935</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -6945,7 +7223,7 @@
         <v>43935</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -6956,7 +7234,7 @@
         <v>43935</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -6967,7 +7245,7 @@
         <v>43935</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24">
         <v>5</v>
@@ -6978,7 +7256,7 @@
         <v>43935</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25">
         <v>12</v>
@@ -6989,7 +7267,7 @@
         <v>43935</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26">
         <v>22</v>
@@ -7000,7 +7278,7 @@
         <v>43935</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27">
         <v>40</v>
@@ -7011,7 +7289,7 @@
         <v>43935</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28">
         <v>116</v>
@@ -7022,7 +7300,7 @@
         <v>43977</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29">
         <v>0.3</v>
@@ -7036,7 +7314,7 @@
         <v>43977</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30">
         <v>1.2</v>
@@ -7050,7 +7328,7 @@
         <v>43977</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31">
         <v>1.75</v>
@@ -7064,7 +7342,7 @@
         <v>43977</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32">
         <v>4.3</v>
@@ -7078,7 +7356,7 @@
         <v>43977</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33">
         <v>17.7</v>
@@ -7092,7 +7370,7 @@
         <v>43977</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34">
         <v>21.25</v>
@@ -7106,7 +7384,7 @@
         <v>43977</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35">
         <v>17.5</v>
@@ -7120,7 +7398,7 @@
         <v>43977</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36">
         <v>14.15</v>
@@ -7134,7 +7412,7 @@
         <v>43977</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37">
         <v>16.7</v>
@@ -7148,7 +7426,7 @@
         <v>43984</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38">
         <v>0.35</v>
@@ -7162,7 +7440,7 @@
         <v>43984</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39">
         <v>1.3</v>
@@ -7176,7 +7454,7 @@
         <v>43984</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40">
         <v>1.8</v>
@@ -7190,7 +7468,7 @@
         <v>43984</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41">
         <v>4.45</v>
@@ -7204,7 +7482,7 @@
         <v>43984</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42">
         <v>18</v>
@@ -7218,7 +7496,7 @@
         <v>43984</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43">
         <v>21.6</v>
@@ -7232,7 +7510,7 @@
         <v>43984</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44">
         <v>17.350000000000001</v>
@@ -7246,7 +7524,7 @@
         <v>43984</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45">
         <v>14</v>
@@ -7260,7 +7538,7 @@
         <v>43984</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46">
         <v>16.350000000000001</v>
@@ -7271,38 +7549,38 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>43998</v>
+        <v>43991</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C47">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="D47">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>43998</v>
+        <v>43991</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C48">
-        <v>0.9</v>
+        <v>1.35</v>
       </c>
       <c r="D48">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>43998</v>
+        <v>43991</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49">
         <v>1.9</v>
@@ -7313,85 +7591,211 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>43998</v>
+        <v>43991</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C50">
-        <v>4.7</v>
+        <v>4.55</v>
       </c>
       <c r="D50">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>43998</v>
+        <v>43991</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51">
-        <v>18.649999999999999</v>
+        <v>18.3</v>
       </c>
       <c r="D51">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>43998</v>
+        <v>43991</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52">
-        <v>21.85</v>
+        <v>21.7</v>
       </c>
       <c r="D52">
-        <v>5.6</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>43998</v>
+        <v>43991</v>
       </c>
       <c r="B53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C53">
-        <v>17.45</v>
+        <v>17.350000000000001</v>
       </c>
       <c r="D53">
-        <v>8.6</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>43998</v>
+        <v>43991</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C54">
-        <v>13.8</v>
+        <v>13.85</v>
       </c>
       <c r="D54">
-        <v>16.350000000000001</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B55" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55">
+        <v>15.95</v>
+      </c>
+      <c r="D55">
+        <v>63.45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
         <v>43998</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56">
+        <v>0.4</v>
+      </c>
+      <c r="D56">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C55">
+      <c r="C57">
+        <v>0.9</v>
+      </c>
+      <c r="D57">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58">
+        <v>1.9</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59">
+        <v>4.7</v>
+      </c>
+      <c r="D59">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="D60">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B61" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61">
+        <v>21.85</v>
+      </c>
+      <c r="D61">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B62" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62">
+        <v>17.45</v>
+      </c>
+      <c r="D62">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63">
+        <v>13.8</v>
+      </c>
+      <c r="D63">
+        <v>16.350000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B64" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64">
         <v>15.7</v>
       </c>
-      <c r="D55">
+      <c r="D64">
         <v>63.05</v>
       </c>
     </row>

--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5C09A2-FB16-4EB2-923B-32F713FFF880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F6F285-0A71-453D-B25C-7922199C2DC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="195" windowWidth="9900" windowHeight="12435" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
+    <workbookView xWindow="765" yWindow="285" windowWidth="9900" windowHeight="12435" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecido_Recuperado" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="52">
   <si>
     <t>Incidencia Acumulada</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>Fallecidos %</t>
-  </si>
-  <si>
-    <t>24/6/2020</t>
   </si>
   <si>
     <t>Casos Confirmados</t>
@@ -551,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93012AD9-A6D4-48C4-AAAA-A2304D189270}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,13 +567,13 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -745,6 +742,62 @@
       </c>
       <c r="D13">
         <v>14216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44005</v>
+      </c>
+      <c r="B14">
+        <v>28631</v>
+      </c>
+      <c r="C14">
+        <v>691</v>
+      </c>
+      <c r="D14">
+        <v>16006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B15">
+        <v>33387</v>
+      </c>
+      <c r="C15">
+        <v>754</v>
+      </c>
+      <c r="D15">
+        <v>17904</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B16">
+        <v>39588</v>
+      </c>
+      <c r="C16">
+        <v>829</v>
+      </c>
+      <c r="D16">
+        <v>20056</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B17">
+        <v>47671</v>
+      </c>
+      <c r="C17">
+        <v>929</v>
+      </c>
+      <c r="D17">
+        <v>23459</v>
       </c>
     </row>
   </sheetData>
@@ -754,10 +807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
-  <dimension ref="A1:D449"/>
+  <dimension ref="A1:D513"/>
   <sheetViews>
-    <sheetView topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="A387" sqref="A386:A417"/>
+    <sheetView topLeftCell="A486" workbookViewId="0">
+      <selection activeCell="D514" sqref="D514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6511,451 +6564,1347 @@
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
-        <v>48</v>
+      <c r="A418" s="2">
+        <v>44012</v>
       </c>
       <c r="B418" t="s">
         <v>4</v>
       </c>
       <c r="C418">
-        <v>702.75</v>
+        <v>831.11</v>
       </c>
       <c r="D418">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
-        <v>48</v>
+      <c r="A419" s="2">
+        <v>44012</v>
       </c>
       <c r="B419" t="s">
         <v>5</v>
       </c>
       <c r="C419">
-        <v>263.66000000000003</v>
+        <v>289.31</v>
       </c>
       <c r="D419">
         <v>10</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
-        <v>48</v>
+      <c r="A420" s="2">
+        <v>44012</v>
       </c>
       <c r="B420" t="s">
         <v>6</v>
       </c>
       <c r="C420">
-        <v>19.8</v>
+        <v>27.72</v>
       </c>
       <c r="D420">
         <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
-        <v>48</v>
+      <c r="A421" s="2">
+        <v>44012</v>
       </c>
       <c r="B421" t="s">
         <v>7</v>
       </c>
       <c r="C421">
-        <v>236.82</v>
+        <v>305.52999999999997</v>
       </c>
       <c r="D421">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
-        <v>48</v>
+      <c r="A422" s="2">
+        <v>44012</v>
       </c>
       <c r="B422" t="s">
         <v>8</v>
       </c>
       <c r="C422">
-        <v>33.1</v>
+        <v>49.65</v>
       </c>
       <c r="D422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
-        <v>48</v>
+      <c r="A423" s="2">
+        <v>44012</v>
       </c>
       <c r="B423" t="s">
         <v>9</v>
       </c>
       <c r="C423">
-        <v>287.37</v>
+        <v>300.42</v>
       </c>
       <c r="D423">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
-        <v>48</v>
+      <c r="A424" s="2">
+        <v>44012</v>
       </c>
       <c r="B424" t="s">
         <v>10</v>
       </c>
       <c r="C424">
-        <v>74.13</v>
+        <v>130.91</v>
       </c>
       <c r="D424">
         <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
-        <v>48</v>
+      <c r="A425" s="2">
+        <v>44012</v>
       </c>
       <c r="B425" t="s">
         <v>11</v>
       </c>
       <c r="C425">
-        <v>39.57</v>
+        <v>49.19</v>
       </c>
       <c r="D425">
         <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
-        <v>48</v>
+      <c r="A426" s="2">
+        <v>44012</v>
       </c>
       <c r="B426" t="s">
         <v>12</v>
       </c>
       <c r="C426">
-        <v>301.86</v>
+        <v>313.95</v>
       </c>
       <c r="D426">
         <v>14</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
-        <v>48</v>
+      <c r="A427" s="2">
+        <v>44012</v>
       </c>
       <c r="B427" t="s">
         <v>13</v>
       </c>
       <c r="C427">
-        <v>118.1</v>
+        <v>147.19999999999999</v>
       </c>
       <c r="D427">
         <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
-        <v>48</v>
+      <c r="A428" s="2">
+        <v>44012</v>
       </c>
       <c r="B428" t="s">
         <v>14</v>
       </c>
       <c r="C428">
-        <v>199.49</v>
+        <v>230.61</v>
       </c>
       <c r="D428">
         <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
-        <v>48</v>
+      <c r="A429" s="2">
+        <v>44012</v>
       </c>
       <c r="B429" t="s">
         <v>15</v>
       </c>
       <c r="C429">
-        <v>279.17</v>
+        <v>317.32</v>
       </c>
       <c r="D429">
         <v>10</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
-        <v>48</v>
+      <c r="A430" s="2">
+        <v>44012</v>
       </c>
       <c r="B430" t="s">
         <v>16</v>
       </c>
       <c r="C430">
-        <v>291.04000000000002</v>
+        <v>319.24</v>
       </c>
       <c r="D430">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
-        <v>48</v>
+      <c r="A431" s="2">
+        <v>44012</v>
       </c>
       <c r="B431" t="s">
         <v>17</v>
       </c>
       <c r="C431">
-        <v>144.58000000000001</v>
+        <v>159.46</v>
       </c>
       <c r="D431">
         <v>4</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
-        <v>48</v>
+      <c r="A432" s="2">
+        <v>44012</v>
       </c>
       <c r="B432" t="s">
         <v>18</v>
       </c>
       <c r="C432">
-        <v>40.1</v>
+        <v>51.19</v>
       </c>
       <c r="D432">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
-        <v>48</v>
+      <c r="A433" s="2">
+        <v>44012</v>
       </c>
       <c r="B433" t="s">
         <v>19</v>
       </c>
       <c r="C433">
-        <v>128.58000000000001</v>
+        <v>162.87</v>
       </c>
       <c r="D433">
         <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A434" t="s">
-        <v>48</v>
+      <c r="A434" s="2">
+        <v>44012</v>
       </c>
       <c r="B434" t="s">
         <v>20</v>
       </c>
       <c r="C434">
-        <v>86.61</v>
+        <v>104.85</v>
       </c>
       <c r="D434">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A435" t="s">
-        <v>48</v>
+      <c r="A435" s="2">
+        <v>44012</v>
       </c>
       <c r="B435" t="s">
         <v>21</v>
       </c>
       <c r="C435">
-        <v>133.24</v>
+        <v>157.25</v>
       </c>
       <c r="D435">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A436" t="s">
-        <v>48</v>
+      <c r="A436" s="2">
+        <v>44012</v>
       </c>
       <c r="B436" t="s">
         <v>22</v>
       </c>
       <c r="C436">
-        <v>283.24</v>
+        <v>293.01</v>
       </c>
       <c r="D436">
         <v>18</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A437" t="s">
-        <v>48</v>
+      <c r="A437" s="2">
+        <v>44012</v>
       </c>
       <c r="B437" t="s">
         <v>23</v>
       </c>
       <c r="C437">
-        <v>59.74</v>
+        <v>62.41</v>
       </c>
       <c r="D437">
         <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
-        <v>48</v>
+      <c r="A438" s="2">
+        <v>44012</v>
       </c>
       <c r="B438" t="s">
         <v>24</v>
       </c>
       <c r="C438">
-        <v>278.14999999999998</v>
+        <v>301.83999999999997</v>
       </c>
       <c r="D438">
         <v>31</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A439" t="s">
-        <v>48</v>
+      <c r="A439" s="2">
+        <v>44012</v>
       </c>
       <c r="B439" t="s">
         <v>25</v>
       </c>
       <c r="C439">
-        <v>126.28</v>
+        <v>158.75</v>
       </c>
       <c r="D439">
         <v>8</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A440" t="s">
-        <v>48</v>
+      <c r="A440" s="2">
+        <v>44012</v>
       </c>
       <c r="B440" t="s">
         <v>26</v>
       </c>
       <c r="C440">
-        <v>79.03</v>
+        <v>97.72</v>
       </c>
       <c r="D440">
         <v>14</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A441" t="s">
-        <v>48</v>
+      <c r="A441" s="2">
+        <v>44012</v>
       </c>
       <c r="B441" t="s">
         <v>27</v>
       </c>
       <c r="C441">
-        <v>197.4</v>
+        <v>219.11</v>
       </c>
       <c r="D441">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A442" t="s">
-        <v>48</v>
+      <c r="A442" s="2">
+        <v>44012</v>
       </c>
       <c r="B442" t="s">
         <v>28</v>
       </c>
       <c r="C442">
-        <v>195.28</v>
+        <v>229.15</v>
       </c>
       <c r="D442">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A443" t="s">
-        <v>48</v>
+      <c r="A443" s="2">
+        <v>44012</v>
       </c>
       <c r="B443" t="s">
         <v>29</v>
       </c>
       <c r="C443">
-        <v>123.98</v>
+        <v>144.94</v>
       </c>
       <c r="D443">
         <v>4</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A444" t="s">
-        <v>48</v>
+      <c r="A444" s="2">
+        <v>44012</v>
       </c>
       <c r="B444" t="s">
         <v>30</v>
       </c>
       <c r="C444">
-        <v>100.16</v>
+        <v>132.97999999999999</v>
       </c>
       <c r="D444">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A445" t="s">
-        <v>48</v>
+      <c r="A445" s="2">
+        <v>44012</v>
       </c>
       <c r="B445" t="s">
         <v>31</v>
       </c>
       <c r="C445">
-        <v>226.08</v>
+        <v>245.01</v>
       </c>
       <c r="D445">
         <v>7</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A446" t="s">
-        <v>48</v>
+      <c r="A446" s="2">
+        <v>44012</v>
       </c>
       <c r="B446" t="s">
         <v>32</v>
       </c>
       <c r="C446">
-        <v>29.84</v>
+        <v>34.03</v>
       </c>
       <c r="D446">
         <v>7</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
-        <v>48</v>
+      <c r="A447" s="2">
+        <v>44012</v>
       </c>
       <c r="B447" t="s">
         <v>33</v>
       </c>
       <c r="C447">
-        <v>24.49</v>
+        <v>38.479999999999997</v>
       </c>
       <c r="D447">
         <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A448" t="s">
-        <v>48</v>
+      <c r="A448" s="2">
+        <v>44012</v>
       </c>
       <c r="B448" t="s">
         <v>34</v>
       </c>
       <c r="C448">
-        <v>95.58</v>
+        <v>136.02000000000001</v>
       </c>
       <c r="D448">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A449" t="s">
-        <v>48</v>
+      <c r="A449" s="2">
+        <v>44012</v>
       </c>
       <c r="B449" t="s">
         <v>35</v>
       </c>
       <c r="C449">
-        <v>299.04000000000002</v>
+        <v>339.23</v>
       </c>
       <c r="D449">
-        <v>153</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B450" t="s">
+        <v>4</v>
+      </c>
+      <c r="C450">
+        <v>1035.96</v>
+      </c>
+      <c r="D450">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B451" t="s">
+        <v>5</v>
+      </c>
+      <c r="C451">
+        <v>340.15</v>
+      </c>
+      <c r="D451">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B452" t="s">
+        <v>6</v>
+      </c>
+      <c r="C452">
+        <v>43.56</v>
+      </c>
+      <c r="D452">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B453" t="s">
+        <v>7</v>
+      </c>
+      <c r="C453">
+        <v>342.01</v>
+      </c>
+      <c r="D453">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B454" t="s">
+        <v>8</v>
+      </c>
+      <c r="C454">
+        <v>75.23</v>
+      </c>
+      <c r="D454">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B455" t="s">
+        <v>9</v>
+      </c>
+      <c r="C455">
+        <v>320.49</v>
+      </c>
+      <c r="D455">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B456" t="s">
+        <v>10</v>
+      </c>
+      <c r="C456">
+        <v>171.92</v>
+      </c>
+      <c r="D456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B457" t="s">
+        <v>11</v>
+      </c>
+      <c r="C457">
+        <v>66.3</v>
+      </c>
+      <c r="D457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B458" t="s">
+        <v>12</v>
+      </c>
+      <c r="C458">
+        <v>349.39</v>
+      </c>
+      <c r="D458">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B459" t="s">
+        <v>13</v>
+      </c>
+      <c r="C459">
+        <v>219.09</v>
+      </c>
+      <c r="D459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B460" t="s">
+        <v>14</v>
+      </c>
+      <c r="C460">
+        <v>288.62</v>
+      </c>
+      <c r="D460">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B461" t="s">
+        <v>15</v>
+      </c>
+      <c r="C461">
+        <v>362.81</v>
+      </c>
+      <c r="D461">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B462" t="s">
+        <v>16</v>
+      </c>
+      <c r="C462">
+        <v>362.52</v>
+      </c>
+      <c r="D462">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B463" t="s">
+        <v>17</v>
+      </c>
+      <c r="C463">
+        <v>186.4</v>
+      </c>
+      <c r="D463">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B464" t="s">
+        <v>18</v>
+      </c>
+      <c r="C464">
+        <v>59.72</v>
+      </c>
+      <c r="D464">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B465" t="s">
+        <v>19</v>
+      </c>
+      <c r="C465">
+        <v>274.31</v>
+      </c>
+      <c r="D465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B466" t="s">
+        <v>20</v>
+      </c>
+      <c r="C466">
+        <v>127.13</v>
+      </c>
+      <c r="D466">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B467" t="s">
+        <v>21</v>
+      </c>
+      <c r="C467">
+        <v>184.86</v>
+      </c>
+      <c r="D467">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B468" t="s">
+        <v>22</v>
+      </c>
+      <c r="C468">
+        <v>312.54000000000002</v>
+      </c>
+      <c r="D468">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B469" t="s">
+        <v>23</v>
+      </c>
+      <c r="C469">
+        <v>77.569999999999993</v>
+      </c>
+      <c r="D469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B470" t="s">
+        <v>24</v>
+      </c>
+      <c r="C470">
+        <v>339.8</v>
+      </c>
+      <c r="D470">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B471" t="s">
+        <v>25</v>
+      </c>
+      <c r="C471">
+        <v>211.51</v>
+      </c>
+      <c r="D471">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B472" t="s">
+        <v>26</v>
+      </c>
+      <c r="C472">
+        <v>124.6</v>
+      </c>
+      <c r="D472">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B473" t="s">
+        <v>27</v>
+      </c>
+      <c r="C473">
+        <v>255.96</v>
+      </c>
+      <c r="D473">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B474" t="s">
+        <v>28</v>
+      </c>
+      <c r="C474">
+        <v>293.35000000000002</v>
+      </c>
+      <c r="D474">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B475" t="s">
+        <v>29</v>
+      </c>
+      <c r="C475">
+        <v>151.91999999999999</v>
+      </c>
+      <c r="D475">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B476" t="s">
+        <v>30</v>
+      </c>
+      <c r="C476">
+        <v>139.77000000000001</v>
+      </c>
+      <c r="D476">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B477" t="s">
+        <v>31</v>
+      </c>
+      <c r="C477">
+        <v>270.83</v>
+      </c>
+      <c r="D477">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B478" t="s">
+        <v>32</v>
+      </c>
+      <c r="C478">
+        <v>39.78</v>
+      </c>
+      <c r="D478">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B479" t="s">
+        <v>33</v>
+      </c>
+      <c r="C479">
+        <v>51.3</v>
+      </c>
+      <c r="D479">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B480" t="s">
+        <v>34</v>
+      </c>
+      <c r="C480">
+        <v>185.64</v>
+      </c>
+      <c r="D480">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B481" t="s">
+        <v>35</v>
+      </c>
+      <c r="C481">
+        <v>390.43</v>
+      </c>
+      <c r="D481">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B482" t="s">
+        <v>4</v>
+      </c>
+      <c r="C482">
+        <v>1257.3</v>
+      </c>
+      <c r="D482">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B483" t="s">
+        <v>5</v>
+      </c>
+      <c r="C483">
+        <v>404.04</v>
+      </c>
+      <c r="D483">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B484" t="s">
+        <v>6</v>
+      </c>
+      <c r="C484">
+        <v>45.54</v>
+      </c>
+      <c r="D484">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B485" t="s">
+        <v>7</v>
+      </c>
+      <c r="C485">
+        <v>357.34</v>
+      </c>
+      <c r="D485">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B486" t="s">
+        <v>8</v>
+      </c>
+      <c r="C486">
+        <v>102.31</v>
+      </c>
+      <c r="D486">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B487" t="s">
+        <v>9</v>
+      </c>
+      <c r="C487">
+        <v>361.64</v>
+      </c>
+      <c r="D487">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B488" t="s">
+        <v>10</v>
+      </c>
+      <c r="C488">
+        <v>209.77</v>
+      </c>
+      <c r="D488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B489" t="s">
+        <v>11</v>
+      </c>
+      <c r="C489">
+        <v>112.29</v>
+      </c>
+      <c r="D489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B490" t="s">
+        <v>12</v>
+      </c>
+      <c r="C490">
+        <v>411.93</v>
+      </c>
+      <c r="D490">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B491" t="s">
+        <v>13</v>
+      </c>
+      <c r="C491">
+        <v>220.8</v>
+      </c>
+      <c r="D491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B492" t="s">
+        <v>14</v>
+      </c>
+      <c r="C492">
+        <v>398.13</v>
+      </c>
+      <c r="D492">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B493" t="s">
+        <v>15</v>
+      </c>
+      <c r="C493">
+        <v>420.77</v>
+      </c>
+      <c r="D493">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A494" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B494" t="s">
+        <v>16</v>
+      </c>
+      <c r="C494">
+        <v>414.79</v>
+      </c>
+      <c r="D494">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A495" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B495" t="s">
+        <v>17</v>
+      </c>
+      <c r="C495">
+        <v>236.01</v>
+      </c>
+      <c r="D495">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A496" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B496" t="s">
+        <v>18</v>
+      </c>
+      <c r="C496">
+        <v>73.37</v>
+      </c>
+      <c r="D496">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A497" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B497" t="s">
+        <v>19</v>
+      </c>
+      <c r="C497">
+        <v>320.02999999999997</v>
+      </c>
+      <c r="D497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A498" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B498" t="s">
+        <v>20</v>
+      </c>
+      <c r="C498">
+        <v>166.13</v>
+      </c>
+      <c r="D498">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A499" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B499" t="s">
+        <v>21</v>
+      </c>
+      <c r="C499">
+        <v>217.87</v>
+      </c>
+      <c r="D499">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A500" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B500" t="s">
+        <v>22</v>
+      </c>
+      <c r="C500">
+        <v>333.16</v>
+      </c>
+      <c r="D500">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A501" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B501" t="s">
+        <v>23</v>
+      </c>
+      <c r="C501">
+        <v>171.18</v>
+      </c>
+      <c r="D501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A502" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B502" t="s">
+        <v>24</v>
+      </c>
+      <c r="C502">
+        <v>366.47</v>
+      </c>
+      <c r="D502">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A503" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B503" t="s">
+        <v>25</v>
+      </c>
+      <c r="C503">
+        <v>289.98</v>
+      </c>
+      <c r="D503">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A504" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B504" t="s">
+        <v>26</v>
+      </c>
+      <c r="C504">
+        <v>169.86</v>
+      </c>
+      <c r="D504">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A505" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B505" t="s">
+        <v>27</v>
+      </c>
+      <c r="C505">
+        <v>353.54</v>
+      </c>
+      <c r="D505">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A506" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B506" t="s">
+        <v>28</v>
+      </c>
+      <c r="C506">
+        <v>379.27</v>
+      </c>
+      <c r="D506">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A507" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B507" t="s">
+        <v>29</v>
+      </c>
+      <c r="C507">
+        <v>195.58</v>
+      </c>
+      <c r="D507">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A508" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B508" t="s">
+        <v>30</v>
+      </c>
+      <c r="C508">
+        <v>142.6</v>
+      </c>
+      <c r="D508">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A509" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B509" t="s">
+        <v>31</v>
+      </c>
+      <c r="C509">
+        <v>298.77</v>
+      </c>
+      <c r="D509">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A510" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B510" t="s">
+        <v>32</v>
+      </c>
+      <c r="C510">
+        <v>52.87</v>
+      </c>
+      <c r="D510">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A511" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B511" t="s">
+        <v>33</v>
+      </c>
+      <c r="C511">
+        <v>66.459999999999994</v>
+      </c>
+      <c r="D511">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A512" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B512" t="s">
+        <v>34</v>
+      </c>
+      <c r="C512">
+        <v>191.16</v>
+      </c>
+      <c r="D512">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A513" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B513" t="s">
+        <v>35</v>
+      </c>
+      <c r="C513">
+        <v>444.25</v>
+      </c>
+      <c r="D513">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -6967,10 +7916,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F422A3AD-6985-4C77-AE63-323FE7C4AE0C}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6995,7 +7944,7 @@
         <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7797,6 +8746,384 @@
       </c>
       <c r="D64">
         <v>63.05</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65">
+        <v>0.4</v>
+      </c>
+      <c r="D65">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66">
+        <v>1.5</v>
+      </c>
+      <c r="D66">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67">
+        <v>1.9</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68">
+        <v>4.8</v>
+      </c>
+      <c r="D68">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B69" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69">
+        <v>19.149999999999999</v>
+      </c>
+      <c r="D69">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B70" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70">
+        <v>22.45</v>
+      </c>
+      <c r="D70">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B71" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71">
+        <v>17.5</v>
+      </c>
+      <c r="D71">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72">
+        <v>13.85</v>
+      </c>
+      <c r="D72">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B73" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73">
+        <v>15.05</v>
+      </c>
+      <c r="D73">
+        <v>63.55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B74" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74">
+        <v>0.45</v>
+      </c>
+      <c r="D74">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75">
+        <v>1.55</v>
+      </c>
+      <c r="D75">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76">
+        <v>1.9</v>
+      </c>
+      <c r="D76">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77">
+        <v>4.75</v>
+      </c>
+      <c r="D77">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B78" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D78">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B79" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79">
+        <v>22.6</v>
+      </c>
+      <c r="D79">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B80" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80">
+        <v>17.45</v>
+      </c>
+      <c r="D80">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B81" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81">
+        <v>13.7</v>
+      </c>
+      <c r="D81">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82">
+        <v>14.8</v>
+      </c>
+      <c r="D82">
+        <v>63.8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C83">
+        <v>0.45</v>
+      </c>
+      <c r="D83">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84">
+        <v>1.65</v>
+      </c>
+      <c r="D84">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85">
+        <v>1.9</v>
+      </c>
+      <c r="D85">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86">
+        <v>4.7</v>
+      </c>
+      <c r="D86">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B87" t="s">
+        <v>38</v>
+      </c>
+      <c r="C87">
+        <v>19.45</v>
+      </c>
+      <c r="D87">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B88" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88">
+        <v>22.8</v>
+      </c>
+      <c r="D88">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B89" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89">
+        <v>17.5</v>
+      </c>
+      <c r="D89">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B90" t="s">
+        <v>41</v>
+      </c>
+      <c r="C90">
+        <v>13.55</v>
+      </c>
+      <c r="D90">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B91" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91">
+        <v>14.7</v>
+      </c>
+      <c r="D91">
+        <v>64.75</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F6F285-0A71-453D-B25C-7922199C2DC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10CF9FE-C81E-4F65-B738-03312E5B7644}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="285" windowWidth="9900" windowHeight="12435" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
+    <workbookView xWindow="1545" yWindow="240" windowWidth="9900" windowHeight="12435" firstSheet="1" activeTab="2" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecido_Recuperado" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="52">
   <si>
     <t>Incidencia Acumulada</t>
   </si>
@@ -548,16 +548,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93012AD9-A6D4-48C4-AAAA-A2304D189270}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
   </cols>
@@ -800,6 +800,20 @@
         <v>23459</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B18">
+        <v>56043</v>
+      </c>
+      <c r="C18">
+        <v>1005</v>
+      </c>
+      <c r="D18">
+        <v>26466</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -807,10 +821,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
-  <dimension ref="A1:D513"/>
+  <dimension ref="A1:D545"/>
   <sheetViews>
-    <sheetView topLeftCell="A486" workbookViewId="0">
-      <selection activeCell="D514" sqref="D514"/>
+    <sheetView topLeftCell="A519" workbookViewId="0">
+      <selection activeCell="D545" sqref="D545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7907,6 +7921,454 @@
         <v>243</v>
       </c>
     </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A514" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B514" t="s">
+        <v>4</v>
+      </c>
+      <c r="C514">
+        <v>1495.42</v>
+      </c>
+      <c r="D514">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A515" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B515" t="s">
+        <v>5</v>
+      </c>
+      <c r="C515">
+        <v>456.68</v>
+      </c>
+      <c r="D515">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A516" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B516" t="s">
+        <v>6</v>
+      </c>
+      <c r="C516">
+        <v>45.54</v>
+      </c>
+      <c r="D516">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A517" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B517" t="s">
+        <v>7</v>
+      </c>
+      <c r="C517">
+        <v>446.14</v>
+      </c>
+      <c r="D517">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A518" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B518" t="s">
+        <v>8</v>
+      </c>
+      <c r="C518">
+        <v>103.81</v>
+      </c>
+      <c r="D518">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A519" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B519" t="s">
+        <v>9</v>
+      </c>
+      <c r="C519">
+        <v>411.16</v>
+      </c>
+      <c r="D519">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A520" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B520" t="s">
+        <v>10</v>
+      </c>
+      <c r="C520">
+        <v>250.78</v>
+      </c>
+      <c r="D520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A521" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B521" t="s">
+        <v>11</v>
+      </c>
+      <c r="C521">
+        <v>117.64</v>
+      </c>
+      <c r="D521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A522" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B522" t="s">
+        <v>12</v>
+      </c>
+      <c r="C522">
+        <v>445.29</v>
+      </c>
+      <c r="D522">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A523" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B523" t="s">
+        <v>13</v>
+      </c>
+      <c r="C523">
+        <v>237.92</v>
+      </c>
+      <c r="D523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A524" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B524" t="s">
+        <v>14</v>
+      </c>
+      <c r="C524">
+        <v>494.62</v>
+      </c>
+      <c r="D524">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A525" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B525" t="s">
+        <v>15</v>
+      </c>
+      <c r="C525">
+        <v>491.2</v>
+      </c>
+      <c r="D525">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A526" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B526" t="s">
+        <v>16</v>
+      </c>
+      <c r="C526">
+        <v>473.39</v>
+      </c>
+      <c r="D526">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A527" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B527" t="s">
+        <v>17</v>
+      </c>
+      <c r="C527">
+        <v>316.8</v>
+      </c>
+      <c r="D527">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A528" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B528" t="s">
+        <v>18</v>
+      </c>
+      <c r="C528">
+        <v>111.75</v>
+      </c>
+      <c r="D528">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A529" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B529" t="s">
+        <v>19</v>
+      </c>
+      <c r="C529">
+        <v>491.47</v>
+      </c>
+      <c r="D529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A530" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B530" t="s">
+        <v>20</v>
+      </c>
+      <c r="C530">
+        <v>222.86</v>
+      </c>
+      <c r="D530">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A531" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B531" t="s">
+        <v>21</v>
+      </c>
+      <c r="C531">
+        <v>250.58</v>
+      </c>
+      <c r="D531">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A532" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B532" t="s">
+        <v>22</v>
+      </c>
+      <c r="C532">
+        <v>359.2</v>
+      </c>
+      <c r="D532">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A533" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B533" t="s">
+        <v>23</v>
+      </c>
+      <c r="C533">
+        <v>187.23</v>
+      </c>
+      <c r="D533">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A534" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B534" t="s">
+        <v>24</v>
+      </c>
+      <c r="C534">
+        <v>400.83</v>
+      </c>
+      <c r="D534">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A535" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B535" t="s">
+        <v>25</v>
+      </c>
+      <c r="C535">
+        <v>340.5</v>
+      </c>
+      <c r="D535">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A536" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B536" t="s">
+        <v>26</v>
+      </c>
+      <c r="C536">
+        <v>233.47</v>
+      </c>
+      <c r="D536">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A537" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B537" t="s">
+        <v>27</v>
+      </c>
+      <c r="C537">
+        <v>481.65</v>
+      </c>
+      <c r="D537">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A538" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B538" t="s">
+        <v>28</v>
+      </c>
+      <c r="C538">
+        <v>467.87</v>
+      </c>
+      <c r="D538">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A539" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B539" t="s">
+        <v>29</v>
+      </c>
+      <c r="C539">
+        <v>258.44</v>
+      </c>
+      <c r="D539">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A540" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B540" t="s">
+        <v>30</v>
+      </c>
+      <c r="C540">
+        <v>146.56</v>
+      </c>
+      <c r="D540">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A541" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B541" t="s">
+        <v>31</v>
+      </c>
+      <c r="C541">
+        <v>329.36</v>
+      </c>
+      <c r="D541">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A542" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B542" t="s">
+        <v>32</v>
+      </c>
+      <c r="C542">
+        <v>71.19</v>
+      </c>
+      <c r="D542">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A543" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B543" t="s">
+        <v>33</v>
+      </c>
+      <c r="C543">
+        <v>75.790000000000006</v>
+      </c>
+      <c r="D543">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A544" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B544" t="s">
+        <v>34</v>
+      </c>
+      <c r="C544">
+        <v>299.60000000000002</v>
+      </c>
+      <c r="D544">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A545" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B545" t="s">
+        <v>35</v>
+      </c>
+      <c r="C545">
+        <v>500.07</v>
+      </c>
+      <c r="D545">
+        <v>266</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7916,10 +8378,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F422A3AD-6985-4C77-AE63-323FE7C4AE0C}">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9126,6 +9588,132 @@
         <v>64.75</v>
       </c>
     </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B92" t="s">
+        <v>37</v>
+      </c>
+      <c r="C92">
+        <v>0.4</v>
+      </c>
+      <c r="D92">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93">
+        <v>1.7</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C94">
+        <v>1.9</v>
+      </c>
+      <c r="D94">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="D95">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B96" t="s">
+        <v>38</v>
+      </c>
+      <c r="C96">
+        <v>19.45</v>
+      </c>
+      <c r="D96">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B97" t="s">
+        <v>39</v>
+      </c>
+      <c r="C97">
+        <v>23</v>
+      </c>
+      <c r="D97">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B98" t="s">
+        <v>40</v>
+      </c>
+      <c r="C98">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="D98">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B99" t="s">
+        <v>41</v>
+      </c>
+      <c r="C99">
+        <v>13.55</v>
+      </c>
+      <c r="D99">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B100" t="s">
+        <v>42</v>
+      </c>
+      <c r="C100">
+        <v>14.6</v>
+      </c>
+      <c r="D100">
+        <v>63.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10CF9FE-C81E-4F65-B738-03312E5B7644}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380BA53F-A153-4A82-8DD6-802BA7E11872}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="240" windowWidth="9900" windowHeight="12435" firstSheet="1" activeTab="2" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
+    <workbookView xWindow="885" yWindow="345" windowWidth="9900" windowHeight="12435" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecido_Recuperado" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="52">
   <si>
     <t>Incidencia Acumulada</t>
   </si>
@@ -548,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93012AD9-A6D4-48C4-AAAA-A2304D189270}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,6 +814,20 @@
         <v>26466</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B19">
+        <v>66182</v>
+      </c>
+      <c r="C19">
+        <v>1123</v>
+      </c>
+      <c r="D19">
+        <v>33947</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -821,10 +835,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
-  <dimension ref="A1:D545"/>
+  <dimension ref="A1:D577"/>
   <sheetViews>
-    <sheetView topLeftCell="A519" workbookViewId="0">
-      <selection activeCell="D545" sqref="D545"/>
+    <sheetView topLeftCell="A552" workbookViewId="0">
+      <selection activeCell="D578" sqref="D578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8369,6 +8383,454 @@
         <v>266</v>
       </c>
     </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A546" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B546" t="s">
+        <v>4</v>
+      </c>
+      <c r="C546">
+        <v>1861.22</v>
+      </c>
+      <c r="D546">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A547" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B547" t="s">
+        <v>5</v>
+      </c>
+      <c r="C547">
+        <v>552.07000000000005</v>
+      </c>
+      <c r="D547">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A548" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B548" t="s">
+        <v>6</v>
+      </c>
+      <c r="C548">
+        <v>93.06</v>
+      </c>
+      <c r="D548">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A549" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B549" t="s">
+        <v>7</v>
+      </c>
+      <c r="C549">
+        <v>544.99</v>
+      </c>
+      <c r="D549">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A550" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B550" t="s">
+        <v>8</v>
+      </c>
+      <c r="C550">
+        <v>150.44999999999999</v>
+      </c>
+      <c r="D550">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A551" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B551" t="s">
+        <v>9</v>
+      </c>
+      <c r="C551">
+        <v>480.41</v>
+      </c>
+      <c r="D551">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A552" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B552" t="s">
+        <v>10</v>
+      </c>
+      <c r="C552">
+        <v>260.24</v>
+      </c>
+      <c r="D552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A553" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B553" t="s">
+        <v>11</v>
+      </c>
+      <c r="C553">
+        <v>170.04</v>
+      </c>
+      <c r="D553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A554" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B554" t="s">
+        <v>12</v>
+      </c>
+      <c r="C554">
+        <v>527.41999999999996</v>
+      </c>
+      <c r="D554">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A555" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B555" t="s">
+        <v>13</v>
+      </c>
+      <c r="C555">
+        <v>261.88</v>
+      </c>
+      <c r="D555">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A556" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B556" t="s">
+        <v>14</v>
+      </c>
+      <c r="C556">
+        <v>684.48</v>
+      </c>
+      <c r="D556">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A557" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B557" t="s">
+        <v>15</v>
+      </c>
+      <c r="C557">
+        <v>579.61</v>
+      </c>
+      <c r="D557">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A558" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B558" t="s">
+        <v>16</v>
+      </c>
+      <c r="C558">
+        <v>554.35</v>
+      </c>
+      <c r="D558">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A559" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B559" t="s">
+        <v>17</v>
+      </c>
+      <c r="C559">
+        <v>411.06</v>
+      </c>
+      <c r="D559">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A560" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B560" t="s">
+        <v>18</v>
+      </c>
+      <c r="C560">
+        <v>116.02</v>
+      </c>
+      <c r="D560">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A561" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B561" t="s">
+        <v>19</v>
+      </c>
+      <c r="C561">
+        <v>497.19</v>
+      </c>
+      <c r="D561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A562" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B562" t="s">
+        <v>20</v>
+      </c>
+      <c r="C562">
+        <v>309.47000000000003</v>
+      </c>
+      <c r="D562">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A563" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B563" t="s">
+        <v>21</v>
+      </c>
+      <c r="C563">
+        <v>299.5</v>
+      </c>
+      <c r="D563">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A564" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B564" t="s">
+        <v>22</v>
+      </c>
+      <c r="C564">
+        <v>366.8</v>
+      </c>
+      <c r="D564">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A565" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B565" t="s">
+        <v>23</v>
+      </c>
+      <c r="C565">
+        <v>149.79</v>
+      </c>
+      <c r="D565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A566" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B566" t="s">
+        <v>24</v>
+      </c>
+      <c r="C566">
+        <v>456.52</v>
+      </c>
+      <c r="D566">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A567" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B567" t="s">
+        <v>25</v>
+      </c>
+      <c r="C567">
+        <v>433.85</v>
+      </c>
+      <c r="D567">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A568" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B568" t="s">
+        <v>26</v>
+      </c>
+      <c r="C568">
+        <v>281.67</v>
+      </c>
+      <c r="D568">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A569" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B569" t="s">
+        <v>27</v>
+      </c>
+      <c r="C569">
+        <v>613.25</v>
+      </c>
+      <c r="D569">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A570" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B570" t="s">
+        <v>28</v>
+      </c>
+      <c r="C570">
+        <v>557.71</v>
+      </c>
+      <c r="D570">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A571" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B571" t="s">
+        <v>29</v>
+      </c>
+      <c r="C571">
+        <v>331.79</v>
+      </c>
+      <c r="D571">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A572" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B572" t="s">
+        <v>30</v>
+      </c>
+      <c r="C572">
+        <v>217.29</v>
+      </c>
+      <c r="D572">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A573" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B573" t="s">
+        <v>31</v>
+      </c>
+      <c r="C573">
+        <v>409.12</v>
+      </c>
+      <c r="D573">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A574" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B574" t="s">
+        <v>32</v>
+      </c>
+      <c r="C574">
+        <v>81.14</v>
+      </c>
+      <c r="D574">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A575" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B575" t="s">
+        <v>33</v>
+      </c>
+      <c r="C575">
+        <v>116.6</v>
+      </c>
+      <c r="D575">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A576" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B576" t="s">
+        <v>34</v>
+      </c>
+      <c r="C576">
+        <v>352.91</v>
+      </c>
+      <c r="D576">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A577" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B577" t="s">
+        <v>35</v>
+      </c>
+      <c r="C577">
+        <v>552.65</v>
+      </c>
+      <c r="D577">
+        <v>291</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8378,10 +8840,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F422A3AD-6985-4C77-AE63-323FE7C4AE0C}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9714,6 +10176,132 @@
         <v>63.95</v>
       </c>
     </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B101" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101">
+        <v>0.4</v>
+      </c>
+      <c r="D101">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C102">
+        <v>0.1</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C103">
+        <v>3.6</v>
+      </c>
+      <c r="D103">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C104">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="D104">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B105" t="s">
+        <v>38</v>
+      </c>
+      <c r="C105">
+        <v>19.45</v>
+      </c>
+      <c r="D105">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B106" t="s">
+        <v>39</v>
+      </c>
+      <c r="C106">
+        <v>23.1</v>
+      </c>
+      <c r="D106">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B107" t="s">
+        <v>40</v>
+      </c>
+      <c r="C107">
+        <v>17.7</v>
+      </c>
+      <c r="D107">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B108" t="s">
+        <v>41</v>
+      </c>
+      <c r="C108">
+        <v>13.7</v>
+      </c>
+      <c r="D108">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B109" t="s">
+        <v>42</v>
+      </c>
+      <c r="C109">
+        <v>14.6</v>
+      </c>
+      <c r="D109">
+        <v>63.4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380BA53F-A153-4A82-8DD6-802BA7E11872}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD4E651-7FE4-48A6-8469-BC9D2EBA370D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="345" windowWidth="9900" windowHeight="12435" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
+    <workbookView xWindow="645" yWindow="150" windowWidth="9540" windowHeight="12435" firstSheet="2" activeTab="2" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecido_Recuperado" sheetId="3" r:id="rId1"/>
@@ -22,18 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="52">
   <si>
     <t>Incidencia Acumulada</t>
   </si>
@@ -548,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93012AD9-A6D4-48C4-AAAA-A2304D189270}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,6 +822,34 @@
         <v>33947</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B20">
+        <v>75660</v>
+      </c>
+      <c r="C20">
+        <v>1222</v>
+      </c>
+      <c r="D20">
+        <v>40122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B21">
+        <v>82224</v>
+      </c>
+      <c r="C21">
+        <v>1371</v>
+      </c>
+      <c r="D21">
+        <v>47095</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -835,10 +857,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
-  <dimension ref="A1:D577"/>
+  <dimension ref="A1:D641"/>
   <sheetViews>
-    <sheetView topLeftCell="A552" workbookViewId="0">
-      <selection activeCell="D578" sqref="D578"/>
+    <sheetView topLeftCell="A615" workbookViewId="0">
+      <selection activeCell="B642" sqref="B642"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8831,6 +8853,902 @@
         <v>291</v>
       </c>
     </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A578" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B578" t="s">
+        <v>4</v>
+      </c>
+      <c r="C578">
+        <v>2071.63</v>
+      </c>
+      <c r="D578">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A579" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B579" t="s">
+        <v>5</v>
+      </c>
+      <c r="C579">
+        <v>647</v>
+      </c>
+      <c r="D579">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A580" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B580" t="s">
+        <v>6</v>
+      </c>
+      <c r="C580">
+        <v>232.66</v>
+      </c>
+      <c r="D580">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A581" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B581" t="s">
+        <v>7</v>
+      </c>
+      <c r="C581">
+        <v>596.27</v>
+      </c>
+      <c r="D581">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A582" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B582" t="s">
+        <v>8</v>
+      </c>
+      <c r="C582">
+        <v>167</v>
+      </c>
+      <c r="D582">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A583" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B583" t="s">
+        <v>9</v>
+      </c>
+      <c r="C583">
+        <v>543.64</v>
+      </c>
+      <c r="D583">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A584" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B584" t="s">
+        <v>10</v>
+      </c>
+      <c r="C584">
+        <v>268.13</v>
+      </c>
+      <c r="D584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A585" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B585" t="s">
+        <v>11</v>
+      </c>
+      <c r="C585">
+        <v>281.26</v>
+      </c>
+      <c r="D585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A586" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B586" t="s">
+        <v>12</v>
+      </c>
+      <c r="C586">
+        <v>559.11</v>
+      </c>
+      <c r="D586">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A587" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B587" t="s">
+        <v>13</v>
+      </c>
+      <c r="C587">
+        <v>265.3</v>
+      </c>
+      <c r="D587">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A588" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B588" t="s">
+        <v>14</v>
+      </c>
+      <c r="C588">
+        <v>751.26</v>
+      </c>
+      <c r="D588">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A589" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B589" t="s">
+        <v>15</v>
+      </c>
+      <c r="C589">
+        <v>626.57000000000005</v>
+      </c>
+      <c r="D589">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A590" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B590" t="s">
+        <v>16</v>
+      </c>
+      <c r="C590">
+        <v>624.86</v>
+      </c>
+      <c r="D590">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A591" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B591" t="s">
+        <v>17</v>
+      </c>
+      <c r="C591">
+        <v>625.80999999999995</v>
+      </c>
+      <c r="D591">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A592" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B592" t="s">
+        <v>18</v>
+      </c>
+      <c r="C592">
+        <v>138.19999999999999</v>
+      </c>
+      <c r="D592">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A593" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B593" t="s">
+        <v>19</v>
+      </c>
+      <c r="C593">
+        <v>937.22</v>
+      </c>
+      <c r="D593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A594" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B594" t="s">
+        <v>20</v>
+      </c>
+      <c r="C594">
+        <v>381.9</v>
+      </c>
+      <c r="D594">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A595" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B595" t="s">
+        <v>21</v>
+      </c>
+      <c r="C595">
+        <v>370.02</v>
+      </c>
+      <c r="D595">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A596" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B596" t="s">
+        <v>22</v>
+      </c>
+      <c r="C596">
+        <v>388.51</v>
+      </c>
+      <c r="D596">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A597" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B597" t="s">
+        <v>23</v>
+      </c>
+      <c r="C597">
+        <v>194.37</v>
+      </c>
+      <c r="D597">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A598" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B598" t="s">
+        <v>24</v>
+      </c>
+      <c r="C598">
+        <v>480.52</v>
+      </c>
+      <c r="D598">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A599" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B599" t="s">
+        <v>25</v>
+      </c>
+      <c r="C599">
+        <v>484.36</v>
+      </c>
+      <c r="D599">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A600" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B600" t="s">
+        <v>26</v>
+      </c>
+      <c r="C600">
+        <v>336.76</v>
+      </c>
+      <c r="D600">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A601" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B601" t="s">
+        <v>27</v>
+      </c>
+      <c r="C601">
+        <v>688.92</v>
+      </c>
+      <c r="D601">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A602" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B602" t="s">
+        <v>28</v>
+      </c>
+      <c r="C602">
+        <v>691.56</v>
+      </c>
+      <c r="D602">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A603" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B603" t="s">
+        <v>29</v>
+      </c>
+      <c r="C603">
+        <v>461.01</v>
+      </c>
+      <c r="D603">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A604" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B604" t="s">
+        <v>30</v>
+      </c>
+      <c r="C604">
+        <v>221.25</v>
+      </c>
+      <c r="D604">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A605" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B605" t="s">
+        <v>31</v>
+      </c>
+      <c r="C605">
+        <v>461.33</v>
+      </c>
+      <c r="D605">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A606" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B606" t="s">
+        <v>32</v>
+      </c>
+      <c r="C606">
+        <v>94.75</v>
+      </c>
+      <c r="D606">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A607" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B607" t="s">
+        <v>33</v>
+      </c>
+      <c r="C607">
+        <v>145.75</v>
+      </c>
+      <c r="D607">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A608" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B608" t="s">
+        <v>34</v>
+      </c>
+      <c r="C608">
+        <v>461.35</v>
+      </c>
+      <c r="D608">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A609" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B609" t="s">
+        <v>35</v>
+      </c>
+      <c r="C609">
+        <v>592.26</v>
+      </c>
+      <c r="D609">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A610" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B610" t="s">
+        <v>4</v>
+      </c>
+      <c r="C610">
+        <v>2242.17</v>
+      </c>
+      <c r="D610">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A611" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B611" t="s">
+        <v>5</v>
+      </c>
+      <c r="C611">
+        <v>675.8</v>
+      </c>
+      <c r="D611">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A612" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B612" t="s">
+        <v>6</v>
+      </c>
+      <c r="C612">
+        <v>291.07</v>
+      </c>
+      <c r="D612">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A613" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B613" t="s">
+        <v>7</v>
+      </c>
+      <c r="C613">
+        <v>696.7</v>
+      </c>
+      <c r="D613">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A614" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B614" t="s">
+        <v>8</v>
+      </c>
+      <c r="C614">
+        <v>195.59</v>
+      </c>
+      <c r="D614">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A615" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B615" t="s">
+        <v>9</v>
+      </c>
+      <c r="C615">
+        <v>619.24</v>
+      </c>
+      <c r="D615">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A616" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B616" t="s">
+        <v>10</v>
+      </c>
+      <c r="C616">
+        <v>313.87</v>
+      </c>
+      <c r="D616">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A617" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B617" t="s">
+        <v>11</v>
+      </c>
+      <c r="C617">
+        <v>317.62</v>
+      </c>
+      <c r="D617">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A618" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B618" t="s">
+        <v>12</v>
+      </c>
+      <c r="C618">
+        <v>583.71</v>
+      </c>
+      <c r="D618">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A619" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B619" t="s">
+        <v>13</v>
+      </c>
+      <c r="C619">
+        <v>272.14999999999998</v>
+      </c>
+      <c r="D619">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A620" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B620" t="s">
+        <v>14</v>
+      </c>
+      <c r="C620">
+        <v>836.43</v>
+      </c>
+      <c r="D620">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A621" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B621" t="s">
+        <v>15</v>
+      </c>
+      <c r="C621">
+        <v>659.21</v>
+      </c>
+      <c r="D621">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A622" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B622" t="s">
+        <v>16</v>
+      </c>
+      <c r="C622">
+        <v>693.91</v>
+      </c>
+      <c r="D622">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A623" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B623" t="s">
+        <v>17</v>
+      </c>
+      <c r="C623">
+        <v>673.3</v>
+      </c>
+      <c r="D623">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A624" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B624" t="s">
+        <v>18</v>
+      </c>
+      <c r="C624">
+        <v>186.83</v>
+      </c>
+      <c r="D624">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A625" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B625" t="s">
+        <v>19</v>
+      </c>
+      <c r="C625">
+        <v>1228.68</v>
+      </c>
+      <c r="D625">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A626" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B626" t="s">
+        <v>20</v>
+      </c>
+      <c r="C626">
+        <v>416.85</v>
+      </c>
+      <c r="D626">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A627" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B627" t="s">
+        <v>21</v>
+      </c>
+      <c r="C627">
+        <v>414.14</v>
+      </c>
+      <c r="D627">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A628" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B628" t="s">
+        <v>22</v>
+      </c>
+      <c r="C628">
+        <v>408.04</v>
+      </c>
+      <c r="D628">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A629" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B629" t="s">
+        <v>23</v>
+      </c>
+      <c r="C629">
+        <v>211.31</v>
+      </c>
+      <c r="D629">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A630" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B630" t="s">
+        <v>24</v>
+      </c>
+      <c r="C630">
+        <v>503.11</v>
+      </c>
+      <c r="D630">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A631" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B631" t="s">
+        <v>25</v>
+      </c>
+      <c r="C631">
+        <v>518.63</v>
+      </c>
+      <c r="D631">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A632" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B632" t="s">
+        <v>26</v>
+      </c>
+      <c r="C632">
+        <v>375.12</v>
+      </c>
+      <c r="D632">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A633" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B633" t="s">
+        <v>27</v>
+      </c>
+      <c r="C633">
+        <v>749.45</v>
+      </c>
+      <c r="D633">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A634" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B634" t="s">
+        <v>28</v>
+      </c>
+      <c r="C634">
+        <v>798.63</v>
+      </c>
+      <c r="D634">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A635" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B635" t="s">
+        <v>29</v>
+      </c>
+      <c r="C635">
+        <v>527.36</v>
+      </c>
+      <c r="D635">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A636" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B636" t="s">
+        <v>30</v>
+      </c>
+      <c r="C636">
+        <v>228.04</v>
+      </c>
+      <c r="D636">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A637" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B637" t="s">
+        <v>31</v>
+      </c>
+      <c r="C637">
+        <v>500.92</v>
+      </c>
+      <c r="D637">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A638" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B638" t="s">
+        <v>32</v>
+      </c>
+      <c r="C638">
+        <v>102.6</v>
+      </c>
+      <c r="D638">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A639" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B639" t="s">
+        <v>33</v>
+      </c>
+      <c r="C639">
+        <v>151.58000000000001</v>
+      </c>
+      <c r="D639">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A640" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B640" t="s">
+        <v>34</v>
+      </c>
+      <c r="C640">
+        <v>477.9</v>
+      </c>
+      <c r="D640">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A641" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B641" t="s">
+        <v>35</v>
+      </c>
+      <c r="C641">
+        <v>630.63</v>
+      </c>
+      <c r="D641">
+        <v>336</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8840,10 +9758,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F422A3AD-6985-4C77-AE63-323FE7C4AE0C}">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10302,6 +11220,258 @@
         <v>63.4</v>
       </c>
     </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B110" t="s">
+        <v>37</v>
+      </c>
+      <c r="C110">
+        <v>0.35</v>
+      </c>
+      <c r="D110">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C111">
+        <v>0.2</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C112">
+        <v>3.35</v>
+      </c>
+      <c r="D112">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C113">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D113">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B114" t="s">
+        <v>38</v>
+      </c>
+      <c r="C114">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D114">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B115" t="s">
+        <v>39</v>
+      </c>
+      <c r="C115">
+        <v>23.2</v>
+      </c>
+      <c r="D115">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B116" t="s">
+        <v>40</v>
+      </c>
+      <c r="C116">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="D116">
+        <v>9.5500000000000007</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B117" t="s">
+        <v>41</v>
+      </c>
+      <c r="C117">
+        <v>13.7</v>
+      </c>
+      <c r="D117">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B118" t="s">
+        <v>42</v>
+      </c>
+      <c r="C118">
+        <v>14.7</v>
+      </c>
+      <c r="D118">
+        <v>64.3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B119" t="s">
+        <v>37</v>
+      </c>
+      <c r="C119">
+        <v>0.3</v>
+      </c>
+      <c r="D119">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C120">
+        <v>0.4</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C121">
+        <v>3.3</v>
+      </c>
+      <c r="D121">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C122">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D122">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B123" t="s">
+        <v>38</v>
+      </c>
+      <c r="C123">
+        <v>19.5</v>
+      </c>
+      <c r="D123">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B124" t="s">
+        <v>39</v>
+      </c>
+      <c r="C124">
+        <v>23.3</v>
+      </c>
+      <c r="D124">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B125" t="s">
+        <v>40</v>
+      </c>
+      <c r="C125">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D125">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B126" t="s">
+        <v>41</v>
+      </c>
+      <c r="C126">
+        <v>13.7</v>
+      </c>
+      <c r="D126">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B127" t="s">
+        <v>42</v>
+      </c>
+      <c r="C127">
+        <v>14.65</v>
+      </c>
+      <c r="D127">
+        <v>65.55</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD4E651-7FE4-48A6-8469-BC9D2EBA370D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C3CA8C-C451-4EFA-8A99-4AA1E85CEAED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="150" windowWidth="9540" windowHeight="12435" firstSheet="2" activeTab="2" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
+    <workbookView xWindow="765" yWindow="210" windowWidth="9540" windowHeight="12435" firstSheet="1" activeTab="1" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecido_Recuperado" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="52">
   <si>
     <t>Incidencia Acumulada</t>
   </si>
@@ -542,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93012AD9-A6D4-48C4-AAAA-A2304D189270}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,6 +850,62 @@
         <v>47095</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B22">
+        <v>88127</v>
+      </c>
+      <c r="C22">
+        <v>1501</v>
+      </c>
+      <c r="D22">
+        <v>56760</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B23">
+        <v>92557</v>
+      </c>
+      <c r="C23">
+        <v>1613</v>
+      </c>
+      <c r="D23">
+        <v>63478</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B24">
+        <v>95627</v>
+      </c>
+      <c r="C24">
+        <v>1765</v>
+      </c>
+      <c r="D24">
+        <v>69519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B25">
+        <v>100131</v>
+      </c>
+      <c r="C25">
+        <v>1889</v>
+      </c>
+      <c r="D25">
+        <v>73795</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -857,10 +913,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
-  <dimension ref="A1:D641"/>
+  <dimension ref="A1:D769"/>
   <sheetViews>
-    <sheetView topLeftCell="A615" workbookViewId="0">
-      <selection activeCell="B642" sqref="B642"/>
+    <sheetView tabSelected="1" topLeftCell="A744" workbookViewId="0">
+      <selection activeCell="D770" sqref="D770"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9749,6 +9805,1798 @@
         <v>336</v>
       </c>
     </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A642" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B642" t="s">
+        <v>4</v>
+      </c>
+      <c r="C642">
+        <v>2406.09</v>
+      </c>
+      <c r="D642">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A643" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B643" t="s">
+        <v>5</v>
+      </c>
+      <c r="C643">
+        <v>709.99</v>
+      </c>
+      <c r="D643">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A644" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B644" t="s">
+        <v>6</v>
+      </c>
+      <c r="C644">
+        <v>327.71</v>
+      </c>
+      <c r="D644">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A645" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B645" t="s">
+        <v>7</v>
+      </c>
+      <c r="C645">
+        <v>706.75</v>
+      </c>
+      <c r="D645">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A646" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B646" t="s">
+        <v>8</v>
+      </c>
+      <c r="C646">
+        <v>246.74</v>
+      </c>
+      <c r="D646">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A647" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B647" t="s">
+        <v>9</v>
+      </c>
+      <c r="C647">
+        <v>679.8</v>
+      </c>
+      <c r="D647">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A648" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B648" t="s">
+        <v>10</v>
+      </c>
+      <c r="C648">
+        <v>328.07</v>
+      </c>
+      <c r="D648">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A649" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B649" t="s">
+        <v>11</v>
+      </c>
+      <c r="C649">
+        <v>343.29</v>
+      </c>
+      <c r="D649">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A650" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B650" t="s">
+        <v>12</v>
+      </c>
+      <c r="C650">
+        <v>611.65</v>
+      </c>
+      <c r="D650">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A651" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B651" t="s">
+        <v>13</v>
+      </c>
+      <c r="C651">
+        <v>332.06</v>
+      </c>
+      <c r="D651">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A652" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B652" t="s">
+        <v>14</v>
+      </c>
+      <c r="C652">
+        <v>883.12</v>
+      </c>
+      <c r="D652">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A653" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B653" t="s">
+        <v>15</v>
+      </c>
+      <c r="C653">
+        <v>692.96</v>
+      </c>
+      <c r="D653">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A654" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B654" t="s">
+        <v>16</v>
+      </c>
+      <c r="C654">
+        <v>753.48</v>
+      </c>
+      <c r="D654">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A655" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B655" t="s">
+        <v>17</v>
+      </c>
+      <c r="C655">
+        <v>712.28</v>
+      </c>
+      <c r="D655">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A656" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B656" t="s">
+        <v>18</v>
+      </c>
+      <c r="C656">
+        <v>187.68</v>
+      </c>
+      <c r="D656">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A657" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B657" t="s">
+        <v>19</v>
+      </c>
+      <c r="C657">
+        <v>1231.53</v>
+      </c>
+      <c r="D657">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A658" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B658" t="s">
+        <v>20</v>
+      </c>
+      <c r="C658">
+        <v>445.72</v>
+      </c>
+      <c r="D658">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A659" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B659" t="s">
+        <v>21</v>
+      </c>
+      <c r="C659">
+        <v>469.06</v>
+      </c>
+      <c r="D659">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A660" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B660" t="s">
+        <v>22</v>
+      </c>
+      <c r="C660">
+        <v>417.81</v>
+      </c>
+      <c r="D660">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A661" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B661" t="s">
+        <v>23</v>
+      </c>
+      <c r="C661">
+        <v>214.87</v>
+      </c>
+      <c r="D661">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A662" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B662" t="s">
+        <v>24</v>
+      </c>
+      <c r="C662">
+        <v>527.9</v>
+      </c>
+      <c r="D662">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A663" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B663" t="s">
+        <v>25</v>
+      </c>
+      <c r="C663">
+        <v>555.16</v>
+      </c>
+      <c r="D663">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A664" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B664" t="s">
+        <v>26</v>
+      </c>
+      <c r="C664">
+        <v>410.87</v>
+      </c>
+      <c r="D664">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A665" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B665" t="s">
+        <v>27</v>
+      </c>
+      <c r="C665">
+        <v>800.12</v>
+      </c>
+      <c r="D665">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A666" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B666" t="s">
+        <v>28</v>
+      </c>
+      <c r="C666">
+        <v>886.36</v>
+      </c>
+      <c r="D666">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A667" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B667" t="s">
+        <v>29</v>
+      </c>
+      <c r="C667">
+        <v>640.87</v>
+      </c>
+      <c r="D667">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A668" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B668" t="s">
+        <v>30</v>
+      </c>
+      <c r="C668">
+        <v>232.57</v>
+      </c>
+      <c r="D668">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A669" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B669" t="s">
+        <v>31</v>
+      </c>
+      <c r="C669">
+        <v>530.76</v>
+      </c>
+      <c r="D669">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A670" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B670" t="s">
+        <v>32</v>
+      </c>
+      <c r="C670">
+        <v>104.17</v>
+      </c>
+      <c r="D670">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A671" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B671" t="s">
+        <v>33</v>
+      </c>
+      <c r="C671">
+        <v>171.4</v>
+      </c>
+      <c r="D671">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A672" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B672" t="s">
+        <v>34</v>
+      </c>
+      <c r="C672">
+        <v>595.53</v>
+      </c>
+      <c r="D672">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A673" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B673" t="s">
+        <v>35</v>
+      </c>
+      <c r="C673">
+        <v>661.53</v>
+      </c>
+      <c r="D673">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A674" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B674" t="s">
+        <v>4</v>
+      </c>
+      <c r="C674">
+        <v>2531.67</v>
+      </c>
+      <c r="D674">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A675" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B675" t="s">
+        <v>5</v>
+      </c>
+      <c r="C675">
+        <v>732.49</v>
+      </c>
+      <c r="D675">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A676" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B676" t="s">
+        <v>6</v>
+      </c>
+      <c r="C676">
+        <v>392.06</v>
+      </c>
+      <c r="D676">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A677" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B677" t="s">
+        <v>7</v>
+      </c>
+      <c r="C677">
+        <v>723.13</v>
+      </c>
+      <c r="D677">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A678" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B678" t="s">
+        <v>8</v>
+      </c>
+      <c r="C678">
+        <v>246.74</v>
+      </c>
+      <c r="D678">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A679" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B679" t="s">
+        <v>9</v>
+      </c>
+      <c r="C679">
+        <v>732.65</v>
+      </c>
+      <c r="D679">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A680" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B680" t="s">
+        <v>10</v>
+      </c>
+      <c r="C680">
+        <v>329.64</v>
+      </c>
+      <c r="D680">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A681" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B681" t="s">
+        <v>11</v>
+      </c>
+      <c r="C681">
+        <v>347.65</v>
+      </c>
+      <c r="D681">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A682" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B682" t="s">
+        <v>12</v>
+      </c>
+      <c r="C682">
+        <v>620.4</v>
+      </c>
+      <c r="D682">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A683" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B683" t="s">
+        <v>13</v>
+      </c>
+      <c r="C683">
+        <v>333.77</v>
+      </c>
+      <c r="D683">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A684" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B684" t="s">
+        <v>14</v>
+      </c>
+      <c r="C684">
+        <v>931.51</v>
+      </c>
+      <c r="D684">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A685" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B685" t="s">
+        <v>15</v>
+      </c>
+      <c r="C685">
+        <v>736.99</v>
+      </c>
+      <c r="D685">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A686" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B686" t="s">
+        <v>16</v>
+      </c>
+      <c r="C686">
+        <v>794.82</v>
+      </c>
+      <c r="D686">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A687" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B687" t="s">
+        <v>17</v>
+      </c>
+      <c r="C687">
+        <v>747</v>
+      </c>
+      <c r="D687">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A688" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B688" t="s">
+        <v>18</v>
+      </c>
+      <c r="C688">
+        <v>223.51</v>
+      </c>
+      <c r="D688">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A689" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B689" t="s">
+        <v>19</v>
+      </c>
+      <c r="C689">
+        <v>1231.53</v>
+      </c>
+      <c r="D689">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A690" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B690" t="s">
+        <v>20</v>
+      </c>
+      <c r="C690">
+        <v>489.78</v>
+      </c>
+      <c r="D690">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A691" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B691" t="s">
+        <v>21</v>
+      </c>
+      <c r="C691">
+        <v>496.97</v>
+      </c>
+      <c r="D691">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A692" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B692" t="s">
+        <v>22</v>
+      </c>
+      <c r="C692">
+        <v>453.62</v>
+      </c>
+      <c r="D692">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A693" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B693" t="s">
+        <v>23</v>
+      </c>
+      <c r="C693">
+        <v>232.7</v>
+      </c>
+      <c r="D693">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A694" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B694" t="s">
+        <v>24</v>
+      </c>
+      <c r="C694">
+        <v>552.38</v>
+      </c>
+      <c r="D694">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A695" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B695" t="s">
+        <v>25</v>
+      </c>
+      <c r="C695">
+        <v>608.83000000000004</v>
+      </c>
+      <c r="D695">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A696" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B696" t="s">
+        <v>26</v>
+      </c>
+      <c r="C696">
+        <v>432.18</v>
+      </c>
+      <c r="D696">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A697" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B697" t="s">
+        <v>27</v>
+      </c>
+      <c r="C697">
+        <v>866.57</v>
+      </c>
+      <c r="D697">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A698" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B698" t="s">
+        <v>28</v>
+      </c>
+      <c r="C698">
+        <v>946.35</v>
+      </c>
+      <c r="D698">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A699" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B699" t="s">
+        <v>29</v>
+      </c>
+      <c r="C699">
+        <v>658.33</v>
+      </c>
+      <c r="D699">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A700" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B700" t="s">
+        <v>30</v>
+      </c>
+      <c r="C700">
+        <v>238.23</v>
+      </c>
+      <c r="D700">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A701" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B701" t="s">
+        <v>31</v>
+      </c>
+      <c r="C701">
+        <v>556.01</v>
+      </c>
+      <c r="D701">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A702" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B702" t="s">
+        <v>32</v>
+      </c>
+      <c r="C702">
+        <v>108.88</v>
+      </c>
+      <c r="D702">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A703" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B703" t="s">
+        <v>33</v>
+      </c>
+      <c r="C703">
+        <v>185.4</v>
+      </c>
+      <c r="D703">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A704" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B704" t="s">
+        <v>34</v>
+      </c>
+      <c r="C704">
+        <v>663.54</v>
+      </c>
+      <c r="D704">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A705" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B705" t="s">
+        <v>35</v>
+      </c>
+      <c r="C705">
+        <v>685.2</v>
+      </c>
+      <c r="D705">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A706" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B706" t="s">
+        <v>4</v>
+      </c>
+      <c r="C706">
+        <v>2609.41</v>
+      </c>
+      <c r="D706">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A707" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B707" t="s">
+        <v>5</v>
+      </c>
+      <c r="C707">
+        <v>754.54</v>
+      </c>
+      <c r="D707">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A708" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B708" t="s">
+        <v>6</v>
+      </c>
+      <c r="C708">
+        <v>395.03</v>
+      </c>
+      <c r="D708">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A709" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B709" t="s">
+        <v>7</v>
+      </c>
+      <c r="C709">
+        <v>725.25</v>
+      </c>
+      <c r="D709">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A710" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B710" t="s">
+        <v>8</v>
+      </c>
+      <c r="C710">
+        <v>249.75</v>
+      </c>
+      <c r="D710">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A711" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B711" t="s">
+        <v>9</v>
+      </c>
+      <c r="C711">
+        <v>781.83</v>
+      </c>
+      <c r="D711">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A712" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B712" t="s">
+        <v>10</v>
+      </c>
+      <c r="C712">
+        <v>332.8</v>
+      </c>
+      <c r="D712">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A713" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B713" t="s">
+        <v>11</v>
+      </c>
+      <c r="C713">
+        <v>348.63</v>
+      </c>
+      <c r="D713">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A714" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B714" t="s">
+        <v>12</v>
+      </c>
+      <c r="C714">
+        <v>632.91</v>
+      </c>
+      <c r="D714">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A715" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B715" t="s">
+        <v>13</v>
+      </c>
+      <c r="C715">
+        <v>333.77</v>
+      </c>
+      <c r="D715">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A716" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B716" t="s">
+        <v>14</v>
+      </c>
+      <c r="C716">
+        <v>960.09</v>
+      </c>
+      <c r="D716">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A717" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B717" t="s">
+        <v>15</v>
+      </c>
+      <c r="C717">
+        <v>750.56</v>
+      </c>
+      <c r="D717">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A718" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B718" t="s">
+        <v>16</v>
+      </c>
+      <c r="C718">
+        <v>839.55</v>
+      </c>
+      <c r="D718">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A719" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B719" t="s">
+        <v>17</v>
+      </c>
+      <c r="C719">
+        <v>759.05</v>
+      </c>
+      <c r="D719">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A720" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B720" t="s">
+        <v>18</v>
+      </c>
+      <c r="C720">
+        <v>225.22</v>
+      </c>
+      <c r="D720">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A721" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B721" t="s">
+        <v>19</v>
+      </c>
+      <c r="C721">
+        <v>1234.3900000000001</v>
+      </c>
+      <c r="D721">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A722" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B722" t="s">
+        <v>20</v>
+      </c>
+      <c r="C722">
+        <v>507</v>
+      </c>
+      <c r="D722">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A723" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B723" t="s">
+        <v>21</v>
+      </c>
+      <c r="C723">
+        <v>523.08000000000004</v>
+      </c>
+      <c r="D723">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A724" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B724" t="s">
+        <v>22</v>
+      </c>
+      <c r="C724">
+        <v>472.07</v>
+      </c>
+      <c r="D724">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A725" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B725" t="s">
+        <v>23</v>
+      </c>
+      <c r="C725">
+        <v>236.27</v>
+      </c>
+      <c r="D725">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A726" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B726" t="s">
+        <v>24</v>
+      </c>
+      <c r="C726">
+        <v>564.14</v>
+      </c>
+      <c r="D726">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A727" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B727" t="s">
+        <v>25</v>
+      </c>
+      <c r="C727">
+        <v>641.75</v>
+      </c>
+      <c r="D727">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A728" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B728" t="s">
+        <v>26</v>
+      </c>
+      <c r="C728">
+        <v>456.77</v>
+      </c>
+      <c r="D728">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A729" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B729" t="s">
+        <v>27</v>
+      </c>
+      <c r="C729">
+        <v>910.66</v>
+      </c>
+      <c r="D729">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A730" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B730" t="s">
+        <v>28</v>
+      </c>
+      <c r="C730">
+        <v>1003.47</v>
+      </c>
+      <c r="D730">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A731" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B731" t="s">
+        <v>29</v>
+      </c>
+      <c r="C731">
+        <v>660.76</v>
+      </c>
+      <c r="D731">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A732" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B732" t="s">
+        <v>30</v>
+      </c>
+      <c r="C732">
+        <v>238.8</v>
+      </c>
+      <c r="D732">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A733" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B733" t="s">
+        <v>31</v>
+      </c>
+      <c r="C733">
+        <v>600.76</v>
+      </c>
+      <c r="D733">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A734" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B734" t="s">
+        <v>32</v>
+      </c>
+      <c r="C734">
+        <v>113.07</v>
+      </c>
+      <c r="D734">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A735" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B735" t="s">
+        <v>33</v>
+      </c>
+      <c r="C735">
+        <v>188.89</v>
+      </c>
+      <c r="D735">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A736" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B736" t="s">
+        <v>34</v>
+      </c>
+      <c r="C736">
+        <v>667.22</v>
+      </c>
+      <c r="D736">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A737" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B737" t="s">
+        <v>35</v>
+      </c>
+      <c r="C737">
+        <v>703.13</v>
+      </c>
+      <c r="D737">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A738" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B738" t="s">
+        <v>4</v>
+      </c>
+      <c r="C738">
+        <v>2684.95</v>
+      </c>
+      <c r="D738">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A739" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B739" t="s">
+        <v>5</v>
+      </c>
+      <c r="C739">
+        <v>773.43</v>
+      </c>
+      <c r="D739">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A740" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B740" t="s">
+        <v>6</v>
+      </c>
+      <c r="C740">
+        <v>398</v>
+      </c>
+      <c r="D740">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A741" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B741" t="s">
+        <v>7</v>
+      </c>
+      <c r="C741">
+        <v>751.15</v>
+      </c>
+      <c r="D741">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A742" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B742" t="s">
+        <v>8</v>
+      </c>
+      <c r="C742">
+        <v>249.75</v>
+      </c>
+      <c r="D742">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A743" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B743" t="s">
+        <v>9</v>
+      </c>
+      <c r="C743">
+        <v>830.01</v>
+      </c>
+      <c r="D743">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A744" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B744" t="s">
+        <v>10</v>
+      </c>
+      <c r="C744">
+        <v>334.37</v>
+      </c>
+      <c r="D744">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A745" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B745" t="s">
+        <v>11</v>
+      </c>
+      <c r="C745">
+        <v>368.95</v>
+      </c>
+      <c r="D745">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A746" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B746" t="s">
+        <v>12</v>
+      </c>
+      <c r="C746">
+        <v>683.77</v>
+      </c>
+      <c r="D746">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A747" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B747" t="s">
+        <v>13</v>
+      </c>
+      <c r="C747">
+        <v>383.4</v>
+      </c>
+      <c r="D747">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A748" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B748" t="s">
+        <v>14</v>
+      </c>
+      <c r="C748">
+        <v>1015.55</v>
+      </c>
+      <c r="D748">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A749" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B749" t="s">
+        <v>15</v>
+      </c>
+      <c r="C749">
+        <v>780.27</v>
+      </c>
+      <c r="D749">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A750" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B750" t="s">
+        <v>16</v>
+      </c>
+      <c r="C750">
+        <v>888.42</v>
+      </c>
+      <c r="D750">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A751" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B751" t="s">
+        <v>17</v>
+      </c>
+      <c r="C751">
+        <v>771.1</v>
+      </c>
+      <c r="D751">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A752" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B752" t="s">
+        <v>18</v>
+      </c>
+      <c r="C752">
+        <v>276.39999999999998</v>
+      </c>
+      <c r="D752">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A753" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B753" t="s">
+        <v>19</v>
+      </c>
+      <c r="C753">
+        <v>1240.1099999999999</v>
+      </c>
+      <c r="D753">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A754" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B754" t="s">
+        <v>20</v>
+      </c>
+      <c r="C754">
+        <v>534.36</v>
+      </c>
+      <c r="D754">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A755" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B755" t="s">
+        <v>21</v>
+      </c>
+      <c r="C755">
+        <v>554.59</v>
+      </c>
+      <c r="D755">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A756" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B756" t="s">
+        <v>22</v>
+      </c>
+      <c r="C756">
+        <v>490.52</v>
+      </c>
+      <c r="D756">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A757" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B757" t="s">
+        <v>23</v>
+      </c>
+      <c r="C757">
+        <v>254.99</v>
+      </c>
+      <c r="D757">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A758" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B758" t="s">
+        <v>24</v>
+      </c>
+      <c r="C758">
+        <v>587.20000000000005</v>
+      </c>
+      <c r="D758">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A759" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B759" t="s">
+        <v>25</v>
+      </c>
+      <c r="C759">
+        <v>699.03</v>
+      </c>
+      <c r="D759">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A760" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B760" t="s">
+        <v>26</v>
+      </c>
+      <c r="C760">
+        <v>485.96</v>
+      </c>
+      <c r="D760">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A761" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B761" t="s">
+        <v>27</v>
+      </c>
+      <c r="C761">
+        <v>948.82</v>
+      </c>
+      <c r="D761">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A762" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B762" t="s">
+        <v>28</v>
+      </c>
+      <c r="C762">
+        <v>1081.26</v>
+      </c>
+      <c r="D762">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A763" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B763" t="s">
+        <v>29</v>
+      </c>
+      <c r="C763">
+        <v>665.32</v>
+      </c>
+      <c r="D763">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A764" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B764" t="s">
+        <v>30</v>
+      </c>
+      <c r="C764">
+        <v>279.54000000000002</v>
+      </c>
+      <c r="D764">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A765" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B765" t="s">
+        <v>31</v>
+      </c>
+      <c r="C765">
+        <v>639.78</v>
+      </c>
+      <c r="D765">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A766" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B766" t="s">
+        <v>32</v>
+      </c>
+      <c r="C766">
+        <v>121.97</v>
+      </c>
+      <c r="D766">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A767" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B767" t="s">
+        <v>33</v>
+      </c>
+      <c r="C767">
+        <v>204.05</v>
+      </c>
+      <c r="D767">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A768" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B768" t="s">
+        <v>34</v>
+      </c>
+      <c r="C768">
+        <v>707.66</v>
+      </c>
+      <c r="D768">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A769" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B769" t="s">
+        <v>35</v>
+      </c>
+      <c r="C769">
+        <v>723.43</v>
+      </c>
+      <c r="D769">
+        <v>423</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9760,7 +11608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F422A3AD-6985-4C77-AE63-323FE7C4AE0C}">
   <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+    <sheetView topLeftCell="A102" workbookViewId="0">
       <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>

--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C3CA8C-C451-4EFA-8A99-4AA1E85CEAED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B988D7C-C798-4EEE-8222-4A75F850F3A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="765" yWindow="210" windowWidth="9540" windowHeight="12435" firstSheet="1" activeTab="1" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
@@ -545,7 +545,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,16 +894,16 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B25">
-        <v>100131</v>
+        <v>100937</v>
       </c>
       <c r="C25">
-        <v>1889</v>
+        <v>1914</v>
       </c>
       <c r="D25">
-        <v>73795</v>
+        <v>74305</v>
       </c>
     </row>
   </sheetData>
@@ -915,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
   <dimension ref="A1:D769"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A744" workbookViewId="0">
-      <selection activeCell="D770" sqref="D770"/>
+    <sheetView tabSelected="1" topLeftCell="A743" workbookViewId="0">
+      <selection activeCell="D769" sqref="D769"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11151,27 +11151,27 @@
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A738" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B738" t="s">
         <v>4</v>
       </c>
       <c r="C738">
-        <v>2684.95</v>
+        <v>2697.98</v>
       </c>
       <c r="D738">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A739" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B739" t="s">
         <v>5</v>
       </c>
       <c r="C739">
-        <v>773.43</v>
+        <v>773.88</v>
       </c>
       <c r="D739">
         <v>22</v>
@@ -11179,27 +11179,27 @@
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B740" t="s">
         <v>6</v>
       </c>
       <c r="C740">
-        <v>398</v>
+        <v>443.54</v>
       </c>
       <c r="D740">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A741" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B741" t="s">
         <v>7</v>
       </c>
       <c r="C741">
-        <v>751.15</v>
+        <v>760.66</v>
       </c>
       <c r="D741">
         <v>17</v>
@@ -11207,13 +11207,13 @@
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A742" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B742" t="s">
         <v>8</v>
       </c>
       <c r="C742">
-        <v>249.75</v>
+        <v>251.25</v>
       </c>
       <c r="D742">
         <v>5</v>
@@ -11221,21 +11221,21 @@
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A743" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B743" t="s">
         <v>9</v>
       </c>
       <c r="C743">
-        <v>830.01</v>
+        <v>835.36</v>
       </c>
       <c r="D743">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A744" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B744" t="s">
         <v>10</v>
@@ -11249,13 +11249,13 @@
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B745" t="s">
         <v>11</v>
       </c>
       <c r="C745">
-        <v>368.95</v>
+        <v>377.51</v>
       </c>
       <c r="D745">
         <v>4</v>
@@ -11263,41 +11263,41 @@
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B746" t="s">
         <v>12</v>
       </c>
       <c r="C746">
-        <v>683.77</v>
+        <v>684.61</v>
       </c>
       <c r="D746">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A747" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B747" t="s">
         <v>13</v>
       </c>
       <c r="C747">
-        <v>383.4</v>
+        <v>414.21</v>
       </c>
       <c r="D747">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A748" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B748" t="s">
         <v>14</v>
       </c>
       <c r="C748">
-        <v>1015.55</v>
+        <v>1022.9</v>
       </c>
       <c r="D748">
         <v>32</v>
@@ -11305,13 +11305,13 @@
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A749" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B749" t="s">
         <v>15</v>
       </c>
       <c r="C749">
-        <v>780.27</v>
+        <v>781.01</v>
       </c>
       <c r="D749">
         <v>36</v>
@@ -11319,27 +11319,27 @@
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B750" t="s">
         <v>16</v>
       </c>
       <c r="C750">
-        <v>888.42</v>
+        <v>897.66</v>
       </c>
       <c r="D750">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B751" t="s">
         <v>17</v>
       </c>
       <c r="C751">
-        <v>771.1</v>
+        <v>782.44</v>
       </c>
       <c r="D751">
         <v>9</v>
@@ -11347,13 +11347,13 @@
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B752" t="s">
         <v>18</v>
       </c>
       <c r="C752">
-        <v>276.39999999999998</v>
+        <v>280.67</v>
       </c>
       <c r="D752">
         <v>9</v>
@@ -11361,13 +11361,13 @@
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A753" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B753" t="s">
         <v>19</v>
       </c>
       <c r="C753">
-        <v>1240.1099999999999</v>
+        <v>1311.54</v>
       </c>
       <c r="D753">
         <v>3</v>
@@ -11375,13 +11375,13 @@
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A754" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B754" t="s">
         <v>20</v>
       </c>
       <c r="C754">
-        <v>534.36</v>
+        <v>536.89</v>
       </c>
       <c r="D754">
         <v>39</v>
@@ -11389,27 +11389,27 @@
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B755" t="s">
         <v>21</v>
       </c>
       <c r="C755">
-        <v>554.59</v>
+        <v>557.59</v>
       </c>
       <c r="D755">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A756" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B756" t="s">
         <v>22</v>
       </c>
       <c r="C756">
-        <v>490.52</v>
+        <v>492.69</v>
       </c>
       <c r="D756">
         <v>23</v>
@@ -11417,7 +11417,7 @@
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A757" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B757" t="s">
         <v>23</v>
@@ -11431,13 +11431,13 @@
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A758" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B758" t="s">
         <v>24</v>
       </c>
       <c r="C758">
-        <v>587.20000000000005</v>
+        <v>588.61</v>
       </c>
       <c r="D758">
         <v>105</v>
@@ -11445,21 +11445,21 @@
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A759" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B759" t="s">
         <v>25</v>
       </c>
       <c r="C759">
-        <v>699.03</v>
+        <v>740.97</v>
       </c>
       <c r="D759">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A760" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B760" t="s">
         <v>26</v>
@@ -11473,13 +11473,13 @@
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A761" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B761" t="s">
         <v>27</v>
       </c>
       <c r="C761">
-        <v>948.82</v>
+        <v>957.38</v>
       </c>
       <c r="D761">
         <v>16</v>
@@ -11487,27 +11487,27 @@
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A762" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B762" t="s">
         <v>28</v>
       </c>
       <c r="C762">
-        <v>1081.26</v>
+        <v>1085.96</v>
       </c>
       <c r="D762">
-        <v>273</v>
+        <v>284</v>
       </c>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A763" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B763" t="s">
         <v>29</v>
       </c>
       <c r="C763">
-        <v>665.32</v>
+        <v>693.26</v>
       </c>
       <c r="D763">
         <v>8</v>
@@ -11515,13 +11515,13 @@
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A764" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B764" t="s">
         <v>30</v>
       </c>
       <c r="C764">
-        <v>279.54000000000002</v>
+        <v>280.67</v>
       </c>
       <c r="D764">
         <v>26</v>
@@ -11529,13 +11529,13 @@
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A765" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B765" t="s">
         <v>31</v>
       </c>
       <c r="C765">
-        <v>639.78</v>
+        <v>650.67999999999995</v>
       </c>
       <c r="D765">
         <v>19</v>
@@ -11543,13 +11543,13 @@
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A766" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B766" t="s">
         <v>32</v>
       </c>
       <c r="C766">
-        <v>121.97</v>
+        <v>122.49</v>
       </c>
       <c r="D766">
         <v>17</v>
@@ -11557,7 +11557,7 @@
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A767" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B767" t="s">
         <v>33</v>
@@ -11571,7 +11571,7 @@
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A768" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B768" t="s">
         <v>34</v>
@@ -11585,13 +11585,13 @@
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A769" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B769" t="s">
         <v>35</v>
       </c>
       <c r="C769">
-        <v>723.43</v>
+        <v>725.67</v>
       </c>
       <c r="D769">
         <v>423</v>

--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B988D7C-C798-4EEE-8222-4A75F850F3A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D7A3F6-D1A3-442B-86A5-DC82EE81EEE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="210" windowWidth="9540" windowHeight="12435" firstSheet="1" activeTab="1" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
+    <workbookView xWindow="465" yWindow="90" windowWidth="9540" windowHeight="12435" firstSheet="1" activeTab="1" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecido_Recuperado" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="52">
   <si>
     <t>Incidencia Acumulada</t>
   </si>
@@ -542,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93012AD9-A6D4-48C4-AAAA-A2304D189270}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,6 +906,34 @@
         <v>74305</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B26">
+        <v>105521</v>
+      </c>
+      <c r="C26">
+        <v>2009</v>
+      </c>
+      <c r="D26">
+        <v>78891</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B27">
+        <v>109737</v>
+      </c>
+      <c r="C27">
+        <v>2074</v>
+      </c>
+      <c r="D27">
+        <v>83434</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -913,10 +941,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
-  <dimension ref="A1:D769"/>
+  <dimension ref="A1:D833"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A743" workbookViewId="0">
-      <selection activeCell="D769" sqref="D769"/>
+    <sheetView tabSelected="1" topLeftCell="A808" workbookViewId="0">
+      <selection activeCell="D834" sqref="D834"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11595,6 +11623,902 @@
       </c>
       <c r="D769">
         <v>423</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A770" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B770" t="s">
+        <v>4</v>
+      </c>
+      <c r="C770">
+        <v>2791.83</v>
+      </c>
+      <c r="D770">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A771" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B771" t="s">
+        <v>5</v>
+      </c>
+      <c r="C771">
+        <v>789.18</v>
+      </c>
+      <c r="D771">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A772" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B772" t="s">
+        <v>6</v>
+      </c>
+      <c r="C772">
+        <v>471.26</v>
+      </c>
+      <c r="D772">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A773" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B773" t="s">
+        <v>7</v>
+      </c>
+      <c r="C773">
+        <v>843.13</v>
+      </c>
+      <c r="D773">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A774" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B774" t="s">
+        <v>8</v>
+      </c>
+      <c r="C774">
+        <v>308.42</v>
+      </c>
+      <c r="D774">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A775" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B775" t="s">
+        <v>9</v>
+      </c>
+      <c r="C775">
+        <v>865.8</v>
+      </c>
+      <c r="D775">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A776" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B776" t="s">
+        <v>10</v>
+      </c>
+      <c r="C776">
+        <v>337.53</v>
+      </c>
+      <c r="D776">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A777" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B777" t="s">
+        <v>11</v>
+      </c>
+      <c r="C777">
+        <v>421.35</v>
+      </c>
+      <c r="D777">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A778" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B778" t="s">
+        <v>12</v>
+      </c>
+      <c r="C778">
+        <v>744.65</v>
+      </c>
+      <c r="D778">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A779" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B779" t="s">
+        <v>13</v>
+      </c>
+      <c r="C779">
+        <v>451.87</v>
+      </c>
+      <c r="D779">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A780" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B780" t="s">
+        <v>14</v>
+      </c>
+      <c r="C780">
+        <v>1049.78</v>
+      </c>
+      <c r="D780">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A781" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B781" t="s">
+        <v>15</v>
+      </c>
+      <c r="C781">
+        <v>800.82</v>
+      </c>
+      <c r="D781">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A782" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B782" t="s">
+        <v>16</v>
+      </c>
+      <c r="C782">
+        <v>957.48</v>
+      </c>
+      <c r="D782">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A783" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B783" t="s">
+        <v>17</v>
+      </c>
+      <c r="C783">
+        <v>810.79</v>
+      </c>
+      <c r="D783">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A784" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B784" t="s">
+        <v>18</v>
+      </c>
+      <c r="C784">
+        <v>322.47000000000003</v>
+      </c>
+      <c r="D784">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A785" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B785" t="s">
+        <v>19</v>
+      </c>
+      <c r="C785">
+        <v>1374.4</v>
+      </c>
+      <c r="D785">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A786" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B786" t="s">
+        <v>20</v>
+      </c>
+      <c r="C786">
+        <v>558.66999999999996</v>
+      </c>
+      <c r="D786">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A787" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B787" t="s">
+        <v>21</v>
+      </c>
+      <c r="C787">
+        <v>606.20000000000005</v>
+      </c>
+      <c r="D787">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A788" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B788" t="s">
+        <v>22</v>
+      </c>
+      <c r="C788">
+        <v>523.07000000000005</v>
+      </c>
+      <c r="D788">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A789" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B789" t="s">
+        <v>23</v>
+      </c>
+      <c r="C789">
+        <v>294.22000000000003</v>
+      </c>
+      <c r="D789">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A790" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B790" t="s">
+        <v>24</v>
+      </c>
+      <c r="C790">
+        <v>613.24</v>
+      </c>
+      <c r="D790">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A791" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B791" t="s">
+        <v>25</v>
+      </c>
+      <c r="C791">
+        <v>800.5</v>
+      </c>
+      <c r="D791">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A792" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B792" t="s">
+        <v>26</v>
+      </c>
+      <c r="C792">
+        <v>499.4</v>
+      </c>
+      <c r="D792">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A793" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B793" t="s">
+        <v>27</v>
+      </c>
+      <c r="C793">
+        <v>1055.42</v>
+      </c>
+      <c r="D793">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A794" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B794" t="s">
+        <v>28</v>
+      </c>
+      <c r="C794">
+        <v>1140.58</v>
+      </c>
+      <c r="D794">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A795" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B795" t="s">
+        <v>29</v>
+      </c>
+      <c r="C795">
+        <v>721.2</v>
+      </c>
+      <c r="D795">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A796" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B796" t="s">
+        <v>30</v>
+      </c>
+      <c r="C796">
+        <v>324.24</v>
+      </c>
+      <c r="D796">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A797" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B797" t="s">
+        <v>31</v>
+      </c>
+      <c r="C797">
+        <v>716.67</v>
+      </c>
+      <c r="D797">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A798" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B798" t="s">
+        <v>32</v>
+      </c>
+      <c r="C798">
+        <v>147.1</v>
+      </c>
+      <c r="D798">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A799" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B799" t="s">
+        <v>33</v>
+      </c>
+      <c r="C799">
+        <v>244.82</v>
+      </c>
+      <c r="D799">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A800" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B800" t="s">
+        <v>34</v>
+      </c>
+      <c r="C800">
+        <v>786.69</v>
+      </c>
+      <c r="D800">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A801" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B801" t="s">
+        <v>35</v>
+      </c>
+      <c r="C801">
+        <v>754.09</v>
+      </c>
+      <c r="D801">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A802" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B802" t="s">
+        <v>4</v>
+      </c>
+      <c r="C802">
+        <v>2883.76</v>
+      </c>
+      <c r="D802">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A803" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B803" t="s">
+        <v>5</v>
+      </c>
+      <c r="C803">
+        <v>818.88</v>
+      </c>
+      <c r="D803">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A804" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B804" t="s">
+        <v>6</v>
+      </c>
+      <c r="C804">
+        <v>586.11</v>
+      </c>
+      <c r="D804">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A805" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B805" t="s">
+        <v>7</v>
+      </c>
+      <c r="C805">
+        <v>911.32</v>
+      </c>
+      <c r="D805">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A806" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B806" t="s">
+        <v>8</v>
+      </c>
+      <c r="C806">
+        <v>341.52</v>
+      </c>
+      <c r="D806">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A807" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B807" t="s">
+        <v>9</v>
+      </c>
+      <c r="C807">
+        <v>894.57</v>
+      </c>
+      <c r="D807">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A808" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B808" t="s">
+        <v>10</v>
+      </c>
+      <c r="C808">
+        <v>342.26</v>
+      </c>
+      <c r="D808">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A809" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B809" t="s">
+        <v>11</v>
+      </c>
+      <c r="C809">
+        <v>439.53</v>
+      </c>
+      <c r="D809">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A810" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B810" t="s">
+        <v>12</v>
+      </c>
+      <c r="C810">
+        <v>801.77</v>
+      </c>
+      <c r="D810">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A811" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B811" t="s">
+        <v>13</v>
+      </c>
+      <c r="C811">
+        <v>544.29999999999995</v>
+      </c>
+      <c r="D811">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A812" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B812" t="s">
+        <v>14</v>
+      </c>
+      <c r="C812">
+        <v>1096.47</v>
+      </c>
+      <c r="D812">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A813" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B813" t="s">
+        <v>15</v>
+      </c>
+      <c r="C813">
+        <v>832.36</v>
+      </c>
+      <c r="D813">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="814" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A814" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B814" t="s">
+        <v>16</v>
+      </c>
+      <c r="C814">
+        <v>1008.05</v>
+      </c>
+      <c r="D814">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="815" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A815" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B815" t="s">
+        <v>17</v>
+      </c>
+      <c r="C815">
+        <v>823.55</v>
+      </c>
+      <c r="D815">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="816" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A816" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B816" t="s">
+        <v>18</v>
+      </c>
+      <c r="C816">
+        <v>353.18</v>
+      </c>
+      <c r="D816">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A817" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B817" t="s">
+        <v>19</v>
+      </c>
+      <c r="C817">
+        <v>1414.41</v>
+      </c>
+      <c r="D817">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A818" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B818" t="s">
+        <v>20</v>
+      </c>
+      <c r="C818">
+        <v>588.04</v>
+      </c>
+      <c r="D818">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A819" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B819" t="s">
+        <v>21</v>
+      </c>
+      <c r="C819">
+        <v>662.32</v>
+      </c>
+      <c r="D819">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A820" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B820" t="s">
+        <v>22</v>
+      </c>
+      <c r="C820">
+        <v>593.61</v>
+      </c>
+      <c r="D820">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A821" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B821" t="s">
+        <v>23</v>
+      </c>
+      <c r="C821">
+        <v>313.83999999999997</v>
+      </c>
+      <c r="D821">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A822" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B822" t="s">
+        <v>24</v>
+      </c>
+      <c r="C822">
+        <v>633.64</v>
+      </c>
+      <c r="D822">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A823" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B823" t="s">
+        <v>25</v>
+      </c>
+      <c r="C823">
+        <v>834.78</v>
+      </c>
+      <c r="D823">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A824" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B824" t="s">
+        <v>26</v>
+      </c>
+      <c r="C824">
+        <v>507.6</v>
+      </c>
+      <c r="D824">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A825" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B825" t="s">
+        <v>27</v>
+      </c>
+      <c r="C825">
+        <v>1097.53</v>
+      </c>
+      <c r="D825">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A826" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B826" t="s">
+        <v>28</v>
+      </c>
+      <c r="C826">
+        <v>1184.02</v>
+      </c>
+      <c r="D826">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="827" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A827" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B827" t="s">
+        <v>29</v>
+      </c>
+      <c r="C827">
+        <v>766.6</v>
+      </c>
+      <c r="D827">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A828" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B828" t="s">
+        <v>30</v>
+      </c>
+      <c r="C828">
+        <v>364.98</v>
+      </c>
+      <c r="D828">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A829" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B829" t="s">
+        <v>31</v>
+      </c>
+      <c r="C829">
+        <v>737.9</v>
+      </c>
+      <c r="D829">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A830" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B830" t="s">
+        <v>32</v>
+      </c>
+      <c r="C830">
+        <v>177.46</v>
+      </c>
+      <c r="D830">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A831" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B831" t="s">
+        <v>33</v>
+      </c>
+      <c r="C831">
+        <v>274.01</v>
+      </c>
+      <c r="D831">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A832" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B832" t="s">
+        <v>34</v>
+      </c>
+      <c r="C832">
+        <v>814.26</v>
+      </c>
+      <c r="D832">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A833" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B833" t="s">
+        <v>35</v>
+      </c>
+      <c r="C833">
+        <v>779.83</v>
+      </c>
+      <c r="D833">
+        <v>453</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D7A3F6-D1A3-442B-86A5-DC82EE81EEE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31D7F1B-32BF-4BB7-BE63-FFAD98333759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="90" windowWidth="9540" windowHeight="12435" firstSheet="1" activeTab="1" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
+    <workbookView xWindow="360" yWindow="240" windowWidth="9540" windowHeight="12435" firstSheet="1" activeTab="1" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecido_Recuperado" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="52">
   <si>
     <t>Incidencia Acumulada</t>
   </si>
@@ -542,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93012AD9-A6D4-48C4-AAAA-A2304D189270}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,6 +934,34 @@
         <v>83434</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B28">
+        <v>112209</v>
+      </c>
+      <c r="C28">
+        <v>2105</v>
+      </c>
+      <c r="D28">
+        <v>87629</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B29">
+        <v>116148</v>
+      </c>
+      <c r="C29">
+        <v>2159</v>
+      </c>
+      <c r="D29">
+        <v>92157</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -941,10 +969,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
-  <dimension ref="A1:D833"/>
+  <dimension ref="A1:D897"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A808" workbookViewId="0">
-      <selection activeCell="D834" sqref="D834"/>
+    <sheetView tabSelected="1" topLeftCell="A872" workbookViewId="0">
+      <selection activeCell="D898" sqref="D898"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12519,6 +12547,902 @@
       </c>
       <c r="D833">
         <v>453</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A834" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B834" t="s">
+        <v>4</v>
+      </c>
+      <c r="C834">
+        <v>2928.53</v>
+      </c>
+      <c r="D834">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A835" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B835" t="s">
+        <v>5</v>
+      </c>
+      <c r="C835">
+        <v>826.07</v>
+      </c>
+      <c r="D835">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A836" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B836" t="s">
+        <v>6</v>
+      </c>
+      <c r="C836">
+        <v>623.73</v>
+      </c>
+      <c r="D836">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A837" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B837" t="s">
+        <v>7</v>
+      </c>
+      <c r="C837">
+        <v>951.49</v>
+      </c>
+      <c r="D837">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A838" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B838" t="s">
+        <v>8</v>
+      </c>
+      <c r="C838">
+        <v>347.54</v>
+      </c>
+      <c r="D838">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A839" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B839" t="s">
+        <v>9</v>
+      </c>
+      <c r="C839">
+        <v>914.31</v>
+      </c>
+      <c r="D839">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A840" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B840" t="s">
+        <v>10</v>
+      </c>
+      <c r="C840">
+        <v>343.84</v>
+      </c>
+      <c r="D840">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A841" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B841" t="s">
+        <v>11</v>
+      </c>
+      <c r="C841">
+        <v>459.85</v>
+      </c>
+      <c r="D841">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A842" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B842" t="s">
+        <v>12</v>
+      </c>
+      <c r="C842">
+        <v>845.55</v>
+      </c>
+      <c r="D842">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A843" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B843" t="s">
+        <v>13</v>
+      </c>
+      <c r="C843">
+        <v>705.19</v>
+      </c>
+      <c r="D843">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A844" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B844" t="s">
+        <v>14</v>
+      </c>
+      <c r="C844">
+        <v>1120.81</v>
+      </c>
+      <c r="D844">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A845" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B845" t="s">
+        <v>15</v>
+      </c>
+      <c r="C845">
+        <v>861.71</v>
+      </c>
+      <c r="D845">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A846" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B846" t="s">
+        <v>16</v>
+      </c>
+      <c r="C846">
+        <v>1026.04</v>
+      </c>
+      <c r="D846">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A847" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B847" t="s">
+        <v>17</v>
+      </c>
+      <c r="C847">
+        <v>827.09</v>
+      </c>
+      <c r="D847">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A848" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B848" t="s">
+        <v>18</v>
+      </c>
+      <c r="C848">
+        <v>369.39</v>
+      </c>
+      <c r="D848">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A849" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B849" t="s">
+        <v>19</v>
+      </c>
+      <c r="C849">
+        <v>1448.7</v>
+      </c>
+      <c r="D849">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A850" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B850" t="s">
+        <v>20</v>
+      </c>
+      <c r="C850">
+        <v>603.24</v>
+      </c>
+      <c r="D850">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="851" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A851" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B851" t="s">
+        <v>21</v>
+      </c>
+      <c r="C851">
+        <v>698.94</v>
+      </c>
+      <c r="D851">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A852" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B852" t="s">
+        <v>22</v>
+      </c>
+      <c r="C852">
+        <v>631.59</v>
+      </c>
+      <c r="D852">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="853" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A853" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B853" t="s">
+        <v>23</v>
+      </c>
+      <c r="C853">
+        <v>320.97000000000003</v>
+      </c>
+      <c r="D853">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="854" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A854" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B854" t="s">
+        <v>24</v>
+      </c>
+      <c r="C854">
+        <v>651.04999999999995</v>
+      </c>
+      <c r="D854">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A855" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B855" t="s">
+        <v>25</v>
+      </c>
+      <c r="C855">
+        <v>860.48</v>
+      </c>
+      <c r="D855">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A856" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B856" t="s">
+        <v>26</v>
+      </c>
+      <c r="C856">
+        <v>515.79999999999995</v>
+      </c>
+      <c r="D856">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A857" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B857" t="s">
+        <v>27</v>
+      </c>
+      <c r="C857">
+        <v>1126.48</v>
+      </c>
+      <c r="D857">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A858" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B858" t="s">
+        <v>28</v>
+      </c>
+      <c r="C858">
+        <v>1200.48</v>
+      </c>
+      <c r="D858">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A859" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B859" t="s">
+        <v>29</v>
+      </c>
+      <c r="C859">
+        <v>829.46</v>
+      </c>
+      <c r="D859">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A860" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B860" t="s">
+        <v>30</v>
+      </c>
+      <c r="C860">
+        <v>425.53</v>
+      </c>
+      <c r="D860">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A861" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B861" t="s">
+        <v>31</v>
+      </c>
+      <c r="C861">
+        <v>774.62</v>
+      </c>
+      <c r="D861">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A862" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B862" t="s">
+        <v>32</v>
+      </c>
+      <c r="C862">
+        <v>207.82</v>
+      </c>
+      <c r="D862">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A863" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B863" t="s">
+        <v>33</v>
+      </c>
+      <c r="C863">
+        <v>331.15</v>
+      </c>
+      <c r="D863">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A864" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B864" t="s">
+        <v>34</v>
+      </c>
+      <c r="C864">
+        <v>819.78</v>
+      </c>
+      <c r="D864">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A865" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B865" t="s">
+        <v>35</v>
+      </c>
+      <c r="C865">
+        <v>794.49</v>
+      </c>
+      <c r="D865">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A866" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B866" t="s">
+        <v>4</v>
+      </c>
+      <c r="C866">
+        <v>2982.59</v>
+      </c>
+      <c r="D866">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A867" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B867" t="s">
+        <v>5</v>
+      </c>
+      <c r="C867">
+        <v>853.07</v>
+      </c>
+      <c r="D867">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A868" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B868" t="s">
+        <v>6</v>
+      </c>
+      <c r="C868">
+        <v>724.72</v>
+      </c>
+      <c r="D868">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A869" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B869" t="s">
+        <v>7</v>
+      </c>
+      <c r="C869">
+        <v>1015.45</v>
+      </c>
+      <c r="D869">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A870" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B870" t="s">
+        <v>8</v>
+      </c>
+      <c r="C870">
+        <v>383.65</v>
+      </c>
+      <c r="D870">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A871" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B871" t="s">
+        <v>9</v>
+      </c>
+      <c r="C871">
+        <v>942.08</v>
+      </c>
+      <c r="D871">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A872" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B872" t="s">
+        <v>10</v>
+      </c>
+      <c r="C872">
+        <v>351.72</v>
+      </c>
+      <c r="D872">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A873" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B873" t="s">
+        <v>11</v>
+      </c>
+      <c r="C873">
+        <v>537.91999999999996</v>
+      </c>
+      <c r="D873">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A874" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B874" t="s">
+        <v>12</v>
+      </c>
+      <c r="C874">
+        <v>961.04</v>
+      </c>
+      <c r="D874">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A875" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B875" t="s">
+        <v>13</v>
+      </c>
+      <c r="C875">
+        <v>912.3</v>
+      </c>
+      <c r="D875">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A876" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B876" t="s">
+        <v>14</v>
+      </c>
+      <c r="C876">
+        <v>1218.43</v>
+      </c>
+      <c r="D876">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="877" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A877" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B877" t="s">
+        <v>15</v>
+      </c>
+      <c r="C877">
+        <v>906.47</v>
+      </c>
+      <c r="D877">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A878" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B878" t="s">
+        <v>16</v>
+      </c>
+      <c r="C878">
+        <v>1050.8399999999999</v>
+      </c>
+      <c r="D878">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A879" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B879" t="s">
+        <v>17</v>
+      </c>
+      <c r="C879">
+        <v>838.43</v>
+      </c>
+      <c r="D879">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A880" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B880" t="s">
+        <v>18</v>
+      </c>
+      <c r="C880">
+        <v>406.92</v>
+      </c>
+      <c r="D880">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A881" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B881" t="s">
+        <v>19</v>
+      </c>
+      <c r="C881">
+        <v>1491.56</v>
+      </c>
+      <c r="D881">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="882" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A882" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B882" t="s">
+        <v>20</v>
+      </c>
+      <c r="C882">
+        <v>628.55999999999995</v>
+      </c>
+      <c r="D882">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A883" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B883" t="s">
+        <v>21</v>
+      </c>
+      <c r="C883">
+        <v>759.86</v>
+      </c>
+      <c r="D883">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="884" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A884" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B884" t="s">
+        <v>22</v>
+      </c>
+      <c r="C884">
+        <v>752.05</v>
+      </c>
+      <c r="D884">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A885" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B885" t="s">
+        <v>23</v>
+      </c>
+      <c r="C885">
+        <v>367.33</v>
+      </c>
+      <c r="D885">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A886" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B886" t="s">
+        <v>24</v>
+      </c>
+      <c r="C886">
+        <v>674.11</v>
+      </c>
+      <c r="D886">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="887" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A887" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B887" t="s">
+        <v>25</v>
+      </c>
+      <c r="C887">
+        <v>930.39</v>
+      </c>
+      <c r="D887">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="888" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A888" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B888" t="s">
+        <v>26</v>
+      </c>
+      <c r="C888">
+        <v>533.5</v>
+      </c>
+      <c r="D888">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="889" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A889" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B889" t="s">
+        <v>27</v>
+      </c>
+      <c r="C889">
+        <v>1156.0899999999999</v>
+      </c>
+      <c r="D889">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="890" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A890" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B890" t="s">
+        <v>28</v>
+      </c>
+      <c r="C890">
+        <v>1232.43</v>
+      </c>
+      <c r="D890">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="891" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A891" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B891" t="s">
+        <v>29</v>
+      </c>
+      <c r="C891">
+        <v>935.98</v>
+      </c>
+      <c r="D891">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="892" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A892" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B892" t="s">
+        <v>30</v>
+      </c>
+      <c r="C892">
+        <v>456.65</v>
+      </c>
+      <c r="D892">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="893" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A893" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B893" t="s">
+        <v>31</v>
+      </c>
+      <c r="C893">
+        <v>807.9</v>
+      </c>
+      <c r="D893">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="894" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A894" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B894" t="s">
+        <v>32</v>
+      </c>
+      <c r="C894">
+        <v>243.41</v>
+      </c>
+      <c r="D894">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="895" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A895" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B895" t="s">
+        <v>33</v>
+      </c>
+      <c r="C895">
+        <v>404.61</v>
+      </c>
+      <c r="D895">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="896" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A896" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B896" t="s">
+        <v>34</v>
+      </c>
+      <c r="C896">
+        <v>878.6</v>
+      </c>
+      <c r="D896">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="897" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A897" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B897" t="s">
+        <v>35</v>
+      </c>
+      <c r="C897">
+        <v>808.36</v>
+      </c>
+      <c r="D897">
+        <v>472</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31D7F1B-32BF-4BB7-BE63-FFAD98333759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6200A9-03CD-4A84-BB99-B56A5C62212A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="240" windowWidth="9540" windowHeight="12435" firstSheet="1" activeTab="1" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
+    <workbookView xWindow="360" yWindow="240" windowWidth="9360" windowHeight="12435" firstSheet="1" activeTab="1" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecido_Recuperado" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="52">
   <si>
     <t>Incidencia Acumulada</t>
   </si>
@@ -542,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93012AD9-A6D4-48C4-AAAA-A2304D189270}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,6 +962,20 @@
         <v>92157</v>
       </c>
     </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B30">
+        <v>119662</v>
+      </c>
+      <c r="C30">
+        <v>2186</v>
+      </c>
+      <c r="D30">
+        <v>95460</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -969,10 +983,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
-  <dimension ref="A1:D897"/>
+  <dimension ref="A1:D929"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A872" workbookViewId="0">
-      <selection activeCell="D898" sqref="D898"/>
+    <sheetView tabSelected="1" topLeftCell="A904" workbookViewId="0">
+      <selection activeCell="D930" sqref="D930"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13442,6 +13456,454 @@
         <v>808.36</v>
       </c>
       <c r="D897">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="898" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A898" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B898" t="s">
+        <v>4</v>
+      </c>
+      <c r="C898">
+        <v>3018.16</v>
+      </c>
+      <c r="D898">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="899" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A899" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B899" t="s">
+        <v>5</v>
+      </c>
+      <c r="C899">
+        <v>889.06</v>
+      </c>
+      <c r="D899">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A900" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B900" t="s">
+        <v>6</v>
+      </c>
+      <c r="C900">
+        <v>757.39</v>
+      </c>
+      <c r="D900">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="901" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A901" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B901" t="s">
+        <v>7</v>
+      </c>
+      <c r="C901">
+        <v>1036.07</v>
+      </c>
+      <c r="D901">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A902" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B902" t="s">
+        <v>8</v>
+      </c>
+      <c r="C902">
+        <v>410.73</v>
+      </c>
+      <c r="D902">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A903" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B903" t="s">
+        <v>9</v>
+      </c>
+      <c r="C903">
+        <v>982.89</v>
+      </c>
+      <c r="D903">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A904" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B904" t="s">
+        <v>10</v>
+      </c>
+      <c r="C904">
+        <v>361.19</v>
+      </c>
+      <c r="D904">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A905" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B905" t="s">
+        <v>11</v>
+      </c>
+      <c r="C905">
+        <v>559.30999999999995</v>
+      </c>
+      <c r="D905">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="906" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A906" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B906" t="s">
+        <v>12</v>
+      </c>
+      <c r="C906">
+        <v>1037.3399999999999</v>
+      </c>
+      <c r="D906">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A907" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B907" t="s">
+        <v>13</v>
+      </c>
+      <c r="C907">
+        <v>1026.98</v>
+      </c>
+      <c r="D907">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A908" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B908" t="s">
+        <v>14</v>
+      </c>
+      <c r="C908">
+        <v>1261.1600000000001</v>
+      </c>
+      <c r="D908">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A909" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B909" t="s">
+        <v>15</v>
+      </c>
+      <c r="C909">
+        <v>1087.32</v>
+      </c>
+      <c r="D909">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A910" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B910" t="s">
+        <v>16</v>
+      </c>
+      <c r="C910">
+        <v>1071.99</v>
+      </c>
+      <c r="D910">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A911" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B911" t="s">
+        <v>17</v>
+      </c>
+      <c r="C911">
+        <v>817.88</v>
+      </c>
+      <c r="D911">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A912" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B912" t="s">
+        <v>18</v>
+      </c>
+      <c r="C912">
+        <v>411.19</v>
+      </c>
+      <c r="D912">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="913" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A913" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B913" t="s">
+        <v>19</v>
+      </c>
+      <c r="C913">
+        <v>1557.28</v>
+      </c>
+      <c r="D913">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="914" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A914" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B914" t="s">
+        <v>20</v>
+      </c>
+      <c r="C914">
+        <v>627.54999999999995</v>
+      </c>
+      <c r="D914">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="915" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A915" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B915" t="s">
+        <v>21</v>
+      </c>
+      <c r="C915">
+        <v>842.98</v>
+      </c>
+      <c r="D915">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="916" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A916" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B916" t="s">
+        <v>22</v>
+      </c>
+      <c r="C916">
+        <v>866</v>
+      </c>
+      <c r="D916">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="917" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A917" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B917" t="s">
+        <v>23</v>
+      </c>
+      <c r="C917">
+        <v>383.38</v>
+      </c>
+      <c r="D917">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="918" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A918" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B918" t="s">
+        <v>24</v>
+      </c>
+      <c r="C918">
+        <v>691.68</v>
+      </c>
+      <c r="D918">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="919" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A919" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B919" t="s">
+        <v>25</v>
+      </c>
+      <c r="C919">
+        <v>944.37</v>
+      </c>
+      <c r="D919">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="920" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A920" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B920" t="s">
+        <v>26</v>
+      </c>
+      <c r="C920">
+        <v>534.49</v>
+      </c>
+      <c r="D920">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="921" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A921" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B921" t="s">
+        <v>27</v>
+      </c>
+      <c r="C921">
+        <v>1165.3</v>
+      </c>
+      <c r="D921">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="922" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A922" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B922" t="s">
+        <v>28</v>
+      </c>
+      <c r="C922">
+        <v>1271.28</v>
+      </c>
+      <c r="D922">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="923" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A923" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B923" t="s">
+        <v>29</v>
+      </c>
+      <c r="C923">
+        <v>997.1</v>
+      </c>
+      <c r="D923">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="924" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A924" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B924" t="s">
+        <v>30</v>
+      </c>
+      <c r="C924">
+        <v>478.72</v>
+      </c>
+      <c r="D924">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="925" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A925" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B925" t="s">
+        <v>31</v>
+      </c>
+      <c r="C925">
+        <v>847.5</v>
+      </c>
+      <c r="D925">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="926" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A926" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B926" t="s">
+        <v>32</v>
+      </c>
+      <c r="C926">
+        <v>249.17</v>
+      </c>
+      <c r="D926">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="927" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A927" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B927" t="s">
+        <v>33</v>
+      </c>
+      <c r="C927">
+        <v>481.57</v>
+      </c>
+      <c r="D927">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="928" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A928" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B928" t="s">
+        <v>34</v>
+      </c>
+      <c r="C928">
+        <v>933.74</v>
+      </c>
+      <c r="D928">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A929" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B929" t="s">
+        <v>35</v>
+      </c>
+      <c r="C929">
+        <v>833.03</v>
+      </c>
+      <c r="D929">
         <v>472</v>
       </c>
     </row>

--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6200A9-03CD-4A84-BB99-B56A5C62212A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F92856-6AD3-4DCA-9F98-68F19456C2EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="240" windowWidth="9360" windowHeight="12435" firstSheet="1" activeTab="1" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="52">
   <si>
     <t>Incidencia Acumulada</t>
   </si>
@@ -542,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93012AD9-A6D4-48C4-AAAA-A2304D189270}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,6 +976,20 @@
         <v>95460</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B31">
+        <v>122398</v>
+      </c>
+      <c r="C31">
+        <v>2206</v>
+      </c>
+      <c r="D31">
+        <v>100051</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -983,10 +997,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
-  <dimension ref="A1:D929"/>
+  <dimension ref="A1:D961"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A904" workbookViewId="0">
-      <selection activeCell="D930" sqref="D930"/>
+    <sheetView tabSelected="1" topLeftCell="A936" workbookViewId="0">
+      <selection activeCell="D962" sqref="D962"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13905,6 +13919,454 @@
       </c>
       <c r="D929">
         <v>472</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A930" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B930" t="s">
+        <v>4</v>
+      </c>
+      <c r="C930">
+        <v>3079.6</v>
+      </c>
+      <c r="D930">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A931" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B931" t="s">
+        <v>5</v>
+      </c>
+      <c r="C931">
+        <v>899.86</v>
+      </c>
+      <c r="D931">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A932" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B932" t="s">
+        <v>6</v>
+      </c>
+      <c r="C932">
+        <v>808.87</v>
+      </c>
+      <c r="D932">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="933" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A933" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B933" t="s">
+        <v>7</v>
+      </c>
+      <c r="C933">
+        <v>1042.94</v>
+      </c>
+      <c r="D933">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A934" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B934" t="s">
+        <v>8</v>
+      </c>
+      <c r="C934">
+        <v>433.3</v>
+      </c>
+      <c r="D934">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="935" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A935" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B935" t="s">
+        <v>9</v>
+      </c>
+      <c r="C935">
+        <v>1008.32</v>
+      </c>
+      <c r="D935">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A936" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B936" t="s">
+        <v>10</v>
+      </c>
+      <c r="C936">
+        <v>361.19</v>
+      </c>
+      <c r="D936">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="937" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A937" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B937" t="s">
+        <v>11</v>
+      </c>
+      <c r="C937">
+        <v>573.21</v>
+      </c>
+      <c r="D937">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="938" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A938" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B938" t="s">
+        <v>12</v>
+      </c>
+      <c r="C938">
+        <v>1057.3499999999999</v>
+      </c>
+      <c r="D938">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="939" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A939" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B939" t="s">
+        <v>13</v>
+      </c>
+      <c r="C939">
+        <v>1045.8</v>
+      </c>
+      <c r="D939">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="940" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A940" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B940" t="s">
+        <v>14</v>
+      </c>
+      <c r="C940">
+        <v>1307.56</v>
+      </c>
+      <c r="D940">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="941" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A941" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B941" t="s">
+        <v>15</v>
+      </c>
+      <c r="C941">
+        <v>1122.17</v>
+      </c>
+      <c r="D941">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="942" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A942" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B942" t="s">
+        <v>16</v>
+      </c>
+      <c r="C942">
+        <v>1098.98</v>
+      </c>
+      <c r="D942">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="943" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A943" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B943" t="s">
+        <v>17</v>
+      </c>
+      <c r="C943">
+        <v>831.34</v>
+      </c>
+      <c r="D943">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="944" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A944" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B944" t="s">
+        <v>18</v>
+      </c>
+      <c r="C944">
+        <v>418.87</v>
+      </c>
+      <c r="D944">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="945" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A945" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B945" t="s">
+        <v>19</v>
+      </c>
+      <c r="C945">
+        <v>1557.28</v>
+      </c>
+      <c r="D945">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="946" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A946" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B946" t="s">
+        <v>20</v>
+      </c>
+      <c r="C946">
+        <v>649.33000000000004</v>
+      </c>
+      <c r="D946">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="947" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A947" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B947" t="s">
+        <v>21</v>
+      </c>
+      <c r="C947">
+        <v>907.21</v>
+      </c>
+      <c r="D947">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="948" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A948" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B948" t="s">
+        <v>22</v>
+      </c>
+      <c r="C948">
+        <v>922.43</v>
+      </c>
+      <c r="D948">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="949" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A949" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B949" t="s">
+        <v>23</v>
+      </c>
+      <c r="C949">
+        <v>395.86</v>
+      </c>
+      <c r="D949">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="950" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A950" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B950" t="s">
+        <v>24</v>
+      </c>
+      <c r="C950">
+        <v>709.1</v>
+      </c>
+      <c r="D950">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="951" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A951" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B951" t="s">
+        <v>25</v>
+      </c>
+      <c r="C951">
+        <v>970.97</v>
+      </c>
+      <c r="D951">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="952" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A952" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B952" t="s">
+        <v>26</v>
+      </c>
+      <c r="C952">
+        <v>548.26</v>
+      </c>
+      <c r="D952">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="953" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A953" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B953" t="s">
+        <v>27</v>
+      </c>
+      <c r="C953">
+        <v>1181.0899999999999</v>
+      </c>
+      <c r="D953">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="954" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A954" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B954" t="s">
+        <v>28</v>
+      </c>
+      <c r="C954">
+        <v>1294.9100000000001</v>
+      </c>
+      <c r="D954">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="955" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A955" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B955" t="s">
+        <v>29</v>
+      </c>
+      <c r="C955">
+        <v>1030.28</v>
+      </c>
+      <c r="D955">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="956" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A956" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B956" t="s">
+        <v>30</v>
+      </c>
+      <c r="C956">
+        <v>495.7</v>
+      </c>
+      <c r="D956">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="957" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A957" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B957" t="s">
+        <v>31</v>
+      </c>
+      <c r="C957">
+        <v>863.56</v>
+      </c>
+      <c r="D957">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="958" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A958" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B958" t="s">
+        <v>32</v>
+      </c>
+      <c r="C958">
+        <v>261.20999999999998</v>
+      </c>
+      <c r="D958">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="959" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A959" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B959" t="s">
+        <v>33</v>
+      </c>
+      <c r="C959">
+        <v>513.04999999999995</v>
+      </c>
+      <c r="D959">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="960" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A960" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B960" t="s">
+        <v>34</v>
+      </c>
+      <c r="C960">
+        <v>948.44</v>
+      </c>
+      <c r="D960">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="961" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A961" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B961" t="s">
+        <v>35</v>
+      </c>
+      <c r="C961">
+        <v>850.79</v>
+      </c>
+      <c r="D961">
+        <v>477</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F92856-6AD3-4DCA-9F98-68F19456C2EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4235A80-B4F4-4924-BD3A-37C1B7FC0648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="240" windowWidth="9360" windowHeight="12435" firstSheet="1" activeTab="1" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
+    <workbookView xWindow="360" yWindow="240" windowWidth="9360" windowHeight="12435" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecido_Recuperado" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="52">
   <si>
     <t>Incidencia Acumulada</t>
   </si>
@@ -542,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93012AD9-A6D4-48C4-AAAA-A2304D189270}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,6 +990,20 @@
         <v>100051</v>
       </c>
     </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B32">
+        <v>125570</v>
+      </c>
+      <c r="C32">
+        <v>2232</v>
+      </c>
+      <c r="D32">
+        <v>103412</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -997,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
-  <dimension ref="A1:D961"/>
+  <dimension ref="A1:D993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A936" workbookViewId="0">
-      <selection activeCell="D962" sqref="D962"/>
+    <sheetView topLeftCell="A968" workbookViewId="0">
+      <selection activeCell="D994" sqref="D994"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14367,6 +14381,454 @@
       </c>
       <c r="D961">
         <v>477</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A962" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B962" t="s">
+        <v>4</v>
+      </c>
+      <c r="C962">
+        <v>3148.82</v>
+      </c>
+      <c r="D962">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A963" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C963">
+        <v>908.41</v>
+      </c>
+      <c r="D963">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A964" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B964" t="s">
+        <v>6</v>
+      </c>
+      <c r="C964">
+        <v>883.12</v>
+      </c>
+      <c r="D964">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A965" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B965" t="s">
+        <v>7</v>
+      </c>
+      <c r="C965">
+        <v>1052.98</v>
+      </c>
+      <c r="D965">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A966" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B966" t="s">
+        <v>8</v>
+      </c>
+      <c r="C966">
+        <v>546.14</v>
+      </c>
+      <c r="D966">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A967" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B967" t="s">
+        <v>9</v>
+      </c>
+      <c r="C967">
+        <v>1046.79</v>
+      </c>
+      <c r="D967">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A968" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B968" t="s">
+        <v>10</v>
+      </c>
+      <c r="C968">
+        <v>362.76</v>
+      </c>
+      <c r="D968">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A969" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B969" t="s">
+        <v>11</v>
+      </c>
+      <c r="C969">
+        <v>576.41999999999996</v>
+      </c>
+      <c r="D969">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A970" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B970" t="s">
+        <v>12</v>
+      </c>
+      <c r="C970">
+        <v>1095.29</v>
+      </c>
+      <c r="D970">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="971" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A971" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B971" t="s">
+        <v>13</v>
+      </c>
+      <c r="C971">
+        <v>1134.81</v>
+      </c>
+      <c r="D971">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A972" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B972" t="s">
+        <v>14</v>
+      </c>
+      <c r="C972">
+        <v>1335.57</v>
+      </c>
+      <c r="D972">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="973" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A973" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B973" t="s">
+        <v>15</v>
+      </c>
+      <c r="C973">
+        <v>1160.69</v>
+      </c>
+      <c r="D973">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="974" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A974" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B974" t="s">
+        <v>16</v>
+      </c>
+      <c r="C974">
+        <v>1132.78</v>
+      </c>
+      <c r="D974">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="975" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A975" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B975" t="s">
+        <v>17</v>
+      </c>
+      <c r="C975">
+        <v>837.01</v>
+      </c>
+      <c r="D975">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="976" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A976" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B976" t="s">
+        <v>18</v>
+      </c>
+      <c r="C976">
+        <v>497.35</v>
+      </c>
+      <c r="D976">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A977" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B977" t="s">
+        <v>19</v>
+      </c>
+      <c r="C977">
+        <v>1571.56</v>
+      </c>
+      <c r="D977">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="978" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A978" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B978" t="s">
+        <v>20</v>
+      </c>
+      <c r="C978">
+        <v>657.94</v>
+      </c>
+      <c r="D978">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A979" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B979" t="s">
+        <v>21</v>
+      </c>
+      <c r="C979">
+        <v>938.72</v>
+      </c>
+      <c r="D979">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="980" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A980" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B980" t="s">
+        <v>22</v>
+      </c>
+      <c r="C980">
+        <v>987.54</v>
+      </c>
+      <c r="D980">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="981" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A981" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B981" t="s">
+        <v>23</v>
+      </c>
+      <c r="C981">
+        <v>435.98</v>
+      </c>
+      <c r="D981">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="982" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A982" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B982" t="s">
+        <v>24</v>
+      </c>
+      <c r="C982">
+        <v>724.47</v>
+      </c>
+      <c r="D982">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="983" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A983" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B983" t="s">
+        <v>25</v>
+      </c>
+      <c r="C983">
+        <v>998.94</v>
+      </c>
+      <c r="D983">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="984" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A984" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B984" t="s">
+        <v>26</v>
+      </c>
+      <c r="C984">
+        <v>557.11</v>
+      </c>
+      <c r="D984">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="985" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A985" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B985" t="s">
+        <v>27</v>
+      </c>
+      <c r="C985">
+        <v>1233.07</v>
+      </c>
+      <c r="D985">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="986" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A986" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B986" t="s">
+        <v>28</v>
+      </c>
+      <c r="C986">
+        <v>1332.89</v>
+      </c>
+      <c r="D986">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="987" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A987" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B987" t="s">
+        <v>29</v>
+      </c>
+      <c r="C987">
+        <v>1066.95</v>
+      </c>
+      <c r="D987">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="988" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A988" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B988" t="s">
+        <v>30</v>
+      </c>
+      <c r="C988">
+        <v>511.54</v>
+      </c>
+      <c r="D988">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="989" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A989" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B989" t="s">
+        <v>31</v>
+      </c>
+      <c r="C989">
+        <v>896.27</v>
+      </c>
+      <c r="D989">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="990" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A990" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B990" t="s">
+        <v>32</v>
+      </c>
+      <c r="C990">
+        <v>285.29000000000002</v>
+      </c>
+      <c r="D990">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="991" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A991" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B991" t="s">
+        <v>33</v>
+      </c>
+      <c r="C991">
+        <v>525.87</v>
+      </c>
+      <c r="D991">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="992" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A992" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B992" t="s">
+        <v>34</v>
+      </c>
+      <c r="C992">
+        <v>961.31</v>
+      </c>
+      <c r="D992">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="993" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A993" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B993" t="s">
+        <v>35</v>
+      </c>
+      <c r="C993">
+        <v>867.82</v>
+      </c>
+      <c r="D993">
+        <v>478</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4235A80-B4F4-4924-BD3A-37C1B7FC0648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F63B36-F262-4729-8CAC-A466B12976CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="240" windowWidth="9360" windowHeight="12435" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
+    <workbookView xWindow="360" yWindow="240" windowWidth="9360" windowHeight="12435" firstSheet="1" activeTab="1" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecido_Recuperado" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="52">
   <si>
     <t>Incidencia Acumulada</t>
   </si>
@@ -542,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93012AD9-A6D4-48C4-AAAA-A2304D189270}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,6 +1004,20 @@
         <v>103412</v>
       </c>
     </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B33">
+        <v>128278</v>
+      </c>
+      <c r="C33">
+        <v>2257</v>
+      </c>
+      <c r="D33">
+        <v>106304</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1011,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
-  <dimension ref="A1:D993"/>
+  <dimension ref="A1:D1025"/>
   <sheetViews>
-    <sheetView topLeftCell="A968" workbookViewId="0">
-      <selection activeCell="D994" sqref="D994"/>
+    <sheetView tabSelected="1" topLeftCell="A1000" workbookViewId="0">
+      <selection activeCell="D1026" sqref="D1026"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14829,6 +14843,454 @@
       </c>
       <c r="D993">
         <v>478</v>
+      </c>
+    </row>
+    <row r="994" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A994" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B994" t="s">
+        <v>4</v>
+      </c>
+      <c r="C994">
+        <v>3210.26</v>
+      </c>
+      <c r="D994">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="995" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A995" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C995">
+        <v>916.96</v>
+      </c>
+      <c r="D995">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="996" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A996" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B996" t="s">
+        <v>6</v>
+      </c>
+      <c r="C996">
+        <v>932.63</v>
+      </c>
+      <c r="D996">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="997" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A997" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B997" t="s">
+        <v>7</v>
+      </c>
+      <c r="C997">
+        <v>1070.95</v>
+      </c>
+      <c r="D997">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="998" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A998" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B998" t="s">
+        <v>8</v>
+      </c>
+      <c r="C998">
+        <v>547.64</v>
+      </c>
+      <c r="D998">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="999" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A999" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B999" t="s">
+        <v>9</v>
+      </c>
+      <c r="C999">
+        <v>1082.92</v>
+      </c>
+      <c r="D999">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1000" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1000">
+        <v>367.5</v>
+      </c>
+      <c r="D1000">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1001" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1001">
+        <v>581.77</v>
+      </c>
+      <c r="D1001">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1002" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1002">
+        <v>1112.3900000000001</v>
+      </c>
+      <c r="D1002">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1003" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1003">
+        <v>1136.52</v>
+      </c>
+      <c r="D1003">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1004" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1004">
+        <v>1352.55</v>
+      </c>
+      <c r="D1004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1005" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1005">
+        <v>1177.93</v>
+      </c>
+      <c r="D1005">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1006" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1006">
+        <v>1165.5999999999999</v>
+      </c>
+      <c r="D1006">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1007" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1007">
+        <v>868.91</v>
+      </c>
+      <c r="D1007">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1008" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1008">
+        <v>516.12</v>
+      </c>
+      <c r="D1008">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1009" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1009">
+        <v>1577.28</v>
+      </c>
+      <c r="D1009">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1010" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1010">
+        <v>663.51</v>
+      </c>
+      <c r="D1010">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1011" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1011">
+        <v>987.63</v>
+      </c>
+      <c r="D1011">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1012" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1012">
+        <v>1014.67</v>
+      </c>
+      <c r="D1012">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1013" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1013">
+        <v>445.79</v>
+      </c>
+      <c r="D1013">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1014" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1014">
+        <v>740.16</v>
+      </c>
+      <c r="D1014">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1015" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1015">
+        <v>1013.82</v>
+      </c>
+      <c r="D1015">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1016" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1016">
+        <v>568.59</v>
+      </c>
+      <c r="D1016">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1017" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1017">
+        <v>1269.26</v>
+      </c>
+      <c r="D1017">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1018" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1018">
+        <v>1354.8</v>
+      </c>
+      <c r="D1018">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1019" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1019">
+        <v>1105.3699999999999</v>
+      </c>
+      <c r="D1019">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1020" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1020">
+        <v>534.74</v>
+      </c>
+      <c r="D1020">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1021" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1021">
+        <v>945.04</v>
+      </c>
+      <c r="D1021">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1022" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1022">
+        <v>301</v>
+      </c>
+      <c r="D1022">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1023" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1023">
+        <v>544.53</v>
+      </c>
+      <c r="D1023">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1024" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1024">
+        <v>985.2</v>
+      </c>
+      <c r="D1024">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1025" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1025">
+        <v>889.3</v>
+      </c>
+      <c r="D1025">
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F63B36-F262-4729-8CAC-A466B12976CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00BDA64-B805-45F8-8860-8E6CEE783827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="240" windowWidth="9360" windowHeight="12435" firstSheet="1" activeTab="1" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="52">
   <si>
     <t>Incidencia Acumulada</t>
   </si>
@@ -542,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93012AD9-A6D4-48C4-AAAA-A2304D189270}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,6 +1018,20 @@
         <v>106304</v>
       </c>
     </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B34">
+        <v>131265</v>
+      </c>
+      <c r="C34">
+        <v>2272</v>
+      </c>
+      <c r="D34">
+        <v>109057</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1025,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
-  <dimension ref="A1:D1025"/>
+  <dimension ref="A1:D1057"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1000" workbookViewId="0">
-      <selection activeCell="D1026" sqref="D1026"/>
+    <sheetView tabSelected="1" topLeftCell="A1032" workbookViewId="0">
+      <selection activeCell="D1058" sqref="D1058"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15291,6 +15305,454 @@
       </c>
       <c r="D1025">
         <v>484</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1026" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1026">
+        <v>3274.97</v>
+      </c>
+      <c r="D1026">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1027" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1027">
+        <v>920.56</v>
+      </c>
+      <c r="D1027">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1028" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1028">
+        <v>970.25</v>
+      </c>
+      <c r="D1028">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1029" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1029">
+        <v>1093.68</v>
+      </c>
+      <c r="D1029">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1030" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1030">
+        <v>604.80999999999995</v>
+      </c>
+      <c r="D1030">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1031" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1031">
+        <v>1133.44</v>
+      </c>
+      <c r="D1031">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1032" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1032">
+        <v>372.23</v>
+      </c>
+      <c r="D1032">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1033" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1033">
+        <v>583.91</v>
+      </c>
+      <c r="D1033">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1034" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1034">
+        <v>1140.32</v>
+      </c>
+      <c r="D1034">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1035" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1035">
+        <v>1170.75</v>
+      </c>
+      <c r="D1035">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1036" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1036">
+        <v>1377.45</v>
+      </c>
+      <c r="D1036">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1037" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1037">
+        <v>1204.3399999999999</v>
+      </c>
+      <c r="D1037">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1038" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1038">
+        <v>1191.3699999999999</v>
+      </c>
+      <c r="D1038">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1039" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1039">
+        <v>875.28</v>
+      </c>
+      <c r="D1039">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1040" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1040">
+        <v>519.53</v>
+      </c>
+      <c r="D1040">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1041" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1041">
+        <v>1588.71</v>
+      </c>
+      <c r="D1041">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1042" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1042">
+        <v>680.23</v>
+      </c>
+      <c r="D1042">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1043" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1043">
+        <v>1019.44</v>
+      </c>
+      <c r="D1043">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1044" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1044">
+        <v>1047.23</v>
+      </c>
+      <c r="D1044">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1045" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1045">
+        <v>482.35</v>
+      </c>
+      <c r="D1045">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1046" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1046">
+        <v>753.5</v>
+      </c>
+      <c r="D1046">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1047" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1047">
+        <v>1025.99</v>
+      </c>
+      <c r="D1047">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1048" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1048">
+        <v>574.82000000000005</v>
+      </c>
+      <c r="D1048">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1049" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1049">
+        <v>1298.21</v>
+      </c>
+      <c r="D1049">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1050" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1050">
+        <v>1375.66</v>
+      </c>
+      <c r="D1050">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1051" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1051">
+        <v>1121.08</v>
+      </c>
+      <c r="D1051">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1052" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1052">
+        <v>542.66999999999996</v>
+      </c>
+      <c r="D1052">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1053" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1053">
+        <v>1010.45</v>
+      </c>
+      <c r="D1053">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1054" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1054">
+        <v>301.52</v>
+      </c>
+      <c r="D1054">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1055" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1055">
+        <v>556.19000000000005</v>
+      </c>
+      <c r="D1055">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1056" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1056">
+        <v>1007.26</v>
+      </c>
+      <c r="D1056">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1057" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1057">
+        <v>910.63</v>
+      </c>
+      <c r="D1057">
+        <v>487</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00BDA64-B805-45F8-8860-8E6CEE783827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E776E7-371C-4399-A2CF-E565089197AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="240" windowWidth="9360" windowHeight="12435" firstSheet="1" activeTab="1" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="52">
   <si>
     <t>Incidencia Acumulada</t>
   </si>
@@ -542,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93012AD9-A6D4-48C4-AAAA-A2304D189270}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,6 +1032,34 @@
         <v>109057</v>
       </c>
     </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B35">
+        <v>135157</v>
+      </c>
+      <c r="C35">
+        <v>2293</v>
+      </c>
+      <c r="D35">
+        <v>110871</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B36">
+        <v>138410</v>
+      </c>
+      <c r="C36">
+        <v>2310</v>
+      </c>
+      <c r="D36">
+        <v>112552</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1039,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
-  <dimension ref="A1:D1057"/>
+  <dimension ref="A1:D1121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1032" workbookViewId="0">
-      <selection activeCell="D1058" sqref="D1058"/>
+    <sheetView tabSelected="1" topLeftCell="A1096" workbookViewId="0">
+      <selection activeCell="D1122" sqref="D1122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15753,6 +15781,902 @@
       </c>
       <c r="D1057">
         <v>487</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1058" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1058">
+        <v>3383.86</v>
+      </c>
+      <c r="D1058">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1059" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1059">
+        <v>927.31</v>
+      </c>
+      <c r="D1059">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1060" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1060">
+        <v>977.31</v>
+      </c>
+      <c r="D1060">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1061" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1061">
+        <v>1096.33</v>
+      </c>
+      <c r="D1061">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1062" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1062">
+        <v>606.32000000000005</v>
+      </c>
+      <c r="D1062">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1063" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1063">
+        <v>1192.6500000000001</v>
+      </c>
+      <c r="D1063">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1064" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1064">
+        <v>372.23</v>
+      </c>
+      <c r="D1064">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1065" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1065">
+        <v>584.98</v>
+      </c>
+      <c r="D1065">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1066" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1066">
+        <v>1162.42</v>
+      </c>
+      <c r="D1066">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1067" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1067">
+        <v>1177.5999999999999</v>
+      </c>
+      <c r="D1067">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1068" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1068">
+        <v>1401.79</v>
+      </c>
+      <c r="D1068">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1069" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1069">
+        <v>1230.75</v>
+      </c>
+      <c r="D1069">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1070" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1070">
+        <v>1258.97</v>
+      </c>
+      <c r="D1070">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1071" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1071">
+        <v>901.51</v>
+      </c>
+      <c r="D1071">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1072" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1072">
+        <v>560.48</v>
+      </c>
+      <c r="D1072">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1073" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1073">
+        <v>1611.57</v>
+      </c>
+      <c r="D1073">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1074" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1074">
+        <v>686.81</v>
+      </c>
+      <c r="D1074">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1075" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1075">
+        <v>1084.57</v>
+      </c>
+      <c r="D1075">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1076" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1076">
+        <v>1071.0999999999999</v>
+      </c>
+      <c r="D1076">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1077" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1077">
+        <v>487.7</v>
+      </c>
+      <c r="D1077">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1078" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1078">
+        <v>767.14</v>
+      </c>
+      <c r="D1078">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1079" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1079">
+        <v>1041.33</v>
+      </c>
+      <c r="D1079">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1080" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1080">
+        <v>584.33000000000004</v>
+      </c>
+      <c r="D1080">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1081" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1081">
+        <v>1342.3</v>
+      </c>
+      <c r="D1081">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1082" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1082">
+        <v>1408.67</v>
+      </c>
+      <c r="D1082">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1083" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1083">
+        <v>1169.98</v>
+      </c>
+      <c r="D1083">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1084" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1084">
+        <v>550.02</v>
+      </c>
+      <c r="D1084">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1085" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1085">
+        <v>1086.2</v>
+      </c>
+      <c r="D1085">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1086" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1086">
+        <v>312.51</v>
+      </c>
+      <c r="D1086">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1087" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1087">
+        <v>569.02</v>
+      </c>
+      <c r="D1087">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1088" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1088">
+        <v>1060.56</v>
+      </c>
+      <c r="D1088">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1089" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1089">
+        <v>941.88</v>
+      </c>
+      <c r="D1089">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1090" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1090">
+        <v>3485.67</v>
+      </c>
+      <c r="D1090">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1091" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1091">
+        <v>929.11</v>
+      </c>
+      <c r="D1091">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1092" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1092">
+        <v>979.16</v>
+      </c>
+      <c r="D1092">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1093" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1093">
+        <v>1097.3800000000001</v>
+      </c>
+      <c r="D1093">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1094" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1094">
+        <v>655.96</v>
+      </c>
+      <c r="D1094">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1095" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1095">
+        <v>1257.22</v>
+      </c>
+      <c r="D1095">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1096" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1096">
+        <v>375.38</v>
+      </c>
+      <c r="D1096">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1097" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1097">
+        <v>586.04999999999995</v>
+      </c>
+      <c r="D1097">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1098" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1098">
+        <v>1183.26</v>
+      </c>
+      <c r="D1098">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1099" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1099">
+        <v>1223.81</v>
+      </c>
+      <c r="D1099">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1100" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1100">
+        <v>1429.8</v>
+      </c>
+      <c r="D1100">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1101" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1101">
+        <v>1245.06</v>
+      </c>
+      <c r="D1101">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1102" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1102">
+        <v>1307.1099999999999</v>
+      </c>
+      <c r="D1102">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1103" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1103">
+        <v>930.57</v>
+      </c>
+      <c r="D1103">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1104" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1104">
+        <v>561.33000000000004</v>
+      </c>
+      <c r="D1104">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1105" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1105">
+        <v>1611.57</v>
+      </c>
+      <c r="D1105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1106" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1106">
+        <v>689.85</v>
+      </c>
+      <c r="D1106">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1107" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1107">
+        <v>1139.18</v>
+      </c>
+      <c r="D1107">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1108" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1108">
+        <v>1078.7</v>
+      </c>
+      <c r="D1108">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1109" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1109">
+        <v>499.29</v>
+      </c>
+      <c r="D1109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1110" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1110">
+        <v>778.28</v>
+      </c>
+      <c r="D1110">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1111" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1111">
+        <v>1049.9000000000001</v>
+      </c>
+      <c r="D1111">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1112" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1112">
+        <v>604.99</v>
+      </c>
+      <c r="D1112">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1113" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1113">
+        <v>1396.91</v>
+      </c>
+      <c r="D1113">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1114" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1114">
+        <v>1430.68</v>
+      </c>
+      <c r="D1114">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1115" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1115">
+        <v>1185.69</v>
+      </c>
+      <c r="D1115">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1116" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1116">
+        <v>552.85</v>
+      </c>
+      <c r="D1116">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1117" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1117">
+        <v>1152.18</v>
+      </c>
+      <c r="D1117">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1118" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1118">
+        <v>316.18</v>
+      </c>
+      <c r="D1118">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1119" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1119">
+        <v>571.35</v>
+      </c>
+      <c r="D1119">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1120" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1120">
+        <v>1062.4000000000001</v>
+      </c>
+      <c r="D1120">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1121" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1121">
+        <v>964.62</v>
+      </c>
+      <c r="D1121">
+        <v>495</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E776E7-371C-4399-A2CF-E565089197AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E22EC3-FB70-469A-82A0-B6F3748CCB2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="240" windowWidth="9360" windowHeight="12435" firstSheet="1" activeTab="1" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
+    <workbookView xWindow="360" yWindow="345" windowWidth="9360" windowHeight="12435" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecido_Recuperado" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="52">
   <si>
     <t>Incidencia Acumulada</t>
   </si>
@@ -542,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93012AD9-A6D4-48C4-AAAA-A2304D189270}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,6 +1060,48 @@
         <v>112552</v>
       </c>
     </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B37">
+        <v>143473</v>
+      </c>
+      <c r="C37">
+        <v>2330</v>
+      </c>
+      <c r="D37">
+        <v>114818</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B38">
+        <v>147655</v>
+      </c>
+      <c r="C38">
+        <v>2345</v>
+      </c>
+      <c r="D38">
+        <v>116329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B39">
+        <v>153585</v>
+      </c>
+      <c r="C39">
+        <v>2360</v>
+      </c>
+      <c r="D39">
+        <v>119616</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1067,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
-  <dimension ref="A1:D1121"/>
+  <dimension ref="A1:D1217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1096" workbookViewId="0">
-      <selection activeCell="D1122" sqref="D1122"/>
+    <sheetView topLeftCell="A1192" workbookViewId="0">
+      <selection activeCell="D1218" sqref="D1218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16677,6 +16719,1350 @@
       </c>
       <c r="D1121">
         <v>495</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1122" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1122">
+        <v>3646.81</v>
+      </c>
+      <c r="D1122">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1123" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1123">
+        <v>937.21</v>
+      </c>
+      <c r="D1123">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1124" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1124">
+        <v>985.1</v>
+      </c>
+      <c r="D1124">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1125" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1125">
+        <v>1121.7</v>
+      </c>
+      <c r="D1125">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1126" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1126">
+        <v>702.6</v>
+      </c>
+      <c r="D1126">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1127" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1127">
+        <v>1324.47</v>
+      </c>
+      <c r="D1127">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1128" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1128">
+        <v>375.38</v>
+      </c>
+      <c r="D1128">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1129" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1129">
+        <v>588.17999999999995</v>
+      </c>
+      <c r="D1129">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1130" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1130">
+        <v>1222.8699999999999</v>
+      </c>
+      <c r="D1130">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1131" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1131">
+        <v>1223.81</v>
+      </c>
+      <c r="D1131">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1132" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1132">
+        <v>1466.02</v>
+      </c>
+      <c r="D1132">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1133" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1133">
+        <v>1277.71</v>
+      </c>
+      <c r="D1133">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1134" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1134">
+        <v>1351.11</v>
+      </c>
+      <c r="D1134">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1135" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1135">
+        <v>968.13</v>
+      </c>
+      <c r="D1135">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1136" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1136">
+        <v>566.45000000000005</v>
+      </c>
+      <c r="D1136">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1137" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1137">
+        <v>1617.28</v>
+      </c>
+      <c r="D1137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1138" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1138">
+        <v>704.54</v>
+      </c>
+      <c r="D1138">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1139" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1139">
+        <v>1188.7</v>
+      </c>
+      <c r="D1139">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1140" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1140">
+        <v>1096.06</v>
+      </c>
+      <c r="D1140">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1141" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1141">
+        <v>504.64</v>
+      </c>
+      <c r="D1141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1142" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1142">
+        <v>807.93</v>
+      </c>
+      <c r="D1142">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1143" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1143">
+        <v>1064.78</v>
+      </c>
+      <c r="D1143">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1144" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1144">
+        <v>632.20000000000005</v>
+      </c>
+      <c r="D1144">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1145" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1145">
+        <v>1432.44</v>
+      </c>
+      <c r="D1145">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1146" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1146">
+        <v>1466.56</v>
+      </c>
+      <c r="D1146">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1147" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1147">
+        <v>1239.83</v>
+      </c>
+      <c r="D1147">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1148" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1148">
+        <v>589.63</v>
+      </c>
+      <c r="D1148">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1149" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1149">
+        <v>1263.5</v>
+      </c>
+      <c r="D1149">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1150" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1150">
+        <v>336.07</v>
+      </c>
+      <c r="D1150">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1151" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1151">
+        <v>574.85</v>
+      </c>
+      <c r="D1151">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1152" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1152">
+        <v>1112.03</v>
+      </c>
+      <c r="D1152">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1153" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1153">
+        <v>1003.96</v>
+      </c>
+      <c r="D1153">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1154" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1154">
+        <v>3680.84</v>
+      </c>
+      <c r="D1154">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1155" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1155">
+        <v>942.16</v>
+      </c>
+      <c r="D1155">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1156" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1156">
+        <v>979.16</v>
+      </c>
+      <c r="D1156">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1157" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1157">
+        <v>1133.8599999999999</v>
+      </c>
+      <c r="D1157">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1158" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1158">
+        <v>735.7</v>
+      </c>
+      <c r="D1158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1159" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1159">
+        <v>1473</v>
+      </c>
+      <c r="D1159">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1160" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1160">
+        <v>378.54</v>
+      </c>
+      <c r="D1160">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1161" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1161">
+        <v>598.88</v>
+      </c>
+      <c r="D1161">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1162" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1162">
+        <v>1263.32</v>
+      </c>
+      <c r="D1162">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1163" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1163">
+        <v>1268.31</v>
+      </c>
+      <c r="D1163">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1164" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1164">
+        <v>1497.14</v>
+      </c>
+      <c r="D1164">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1165" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1165">
+        <v>1825.77</v>
+      </c>
+      <c r="D1165">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1166" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1166">
+        <v>1383.21</v>
+      </c>
+      <c r="D1166">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1167" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1167">
+        <v>968.84</v>
+      </c>
+      <c r="D1167">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1168" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1168">
+        <v>570.72</v>
+      </c>
+      <c r="D1168">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1169" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1169">
+        <v>1600.14</v>
+      </c>
+      <c r="D1169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1170" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1170">
+        <v>702.01</v>
+      </c>
+      <c r="D1170">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1171" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1171">
+        <v>1226.51</v>
+      </c>
+      <c r="D1171">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1172" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1172">
+        <v>1159.01</v>
+      </c>
+      <c r="D1172">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1173" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1173">
+        <v>510.88</v>
+      </c>
+      <c r="D1173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1174" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1174">
+        <v>814.21</v>
+      </c>
+      <c r="D1174">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1175" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1175">
+        <v>1055.76</v>
+      </c>
+      <c r="D1175">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1176" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1176">
+        <v>627.94000000000005</v>
+      </c>
+      <c r="D1176">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1177" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1177">
+        <v>1429.15</v>
+      </c>
+      <c r="D1177">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1178" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1178">
+        <v>1468.66</v>
+      </c>
+      <c r="D1178">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1179" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1179">
+        <v>1278.25</v>
+      </c>
+      <c r="D1179">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1180" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1180">
+        <v>599.82000000000005</v>
+      </c>
+      <c r="D1180">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1181" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1181">
+        <v>1294.48</v>
+      </c>
+      <c r="D1181">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1182" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1182">
+        <v>331.36</v>
+      </c>
+      <c r="D1182">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1183" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1183">
+        <v>573.67999999999995</v>
+      </c>
+      <c r="D1183">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1184" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1184">
+        <v>1135.93</v>
+      </c>
+      <c r="D1184">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1185" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1185">
+        <v>1044.94</v>
+      </c>
+      <c r="D1185">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1186" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1186">
+        <v>3875.72</v>
+      </c>
+      <c r="D1186">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1187" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1187">
+        <v>959.25</v>
+      </c>
+      <c r="D1187">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1188" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1188">
+        <v>1015.79</v>
+      </c>
+      <c r="D1188">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1189" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1189">
+        <v>1159.76</v>
+      </c>
+      <c r="D1189">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1190" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1190">
+        <v>741.72</v>
+      </c>
+      <c r="D1190">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1191" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1191">
+        <v>1545.6</v>
+      </c>
+      <c r="D1191">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1192" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1192">
+        <v>383.27</v>
+      </c>
+      <c r="D1192">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1193" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1193">
+        <v>630.96</v>
+      </c>
+      <c r="D1193">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1194" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1194">
+        <v>1278.74</v>
+      </c>
+      <c r="D1194">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1195" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1195">
+        <v>1309.3900000000001</v>
+      </c>
+      <c r="D1195">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1196" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1196">
+        <v>1568.73</v>
+      </c>
+      <c r="D1196">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1197" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1197">
+        <v>1864.66</v>
+      </c>
+      <c r="D1197">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1198" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1198">
+        <v>1468.55</v>
+      </c>
+      <c r="D1198">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1199" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1199">
+        <v>1038.29</v>
+      </c>
+      <c r="D1199">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1200" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1200">
+        <v>581.80999999999995</v>
+      </c>
+      <c r="D1200">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1201" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1201">
+        <v>1611.57</v>
+      </c>
+      <c r="D1201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1202" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1202">
+        <v>725.31</v>
+      </c>
+      <c r="D1202">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1203" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1203">
+        <v>1279.03</v>
+      </c>
+      <c r="D1203">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1204" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1204">
+        <v>1243.6500000000001</v>
+      </c>
+      <c r="D1204">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1205" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1205">
+        <v>515.34</v>
+      </c>
+      <c r="D1205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1206" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1206">
+        <v>838.52</v>
+      </c>
+      <c r="D1206">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1207" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1207">
+        <v>1093.19</v>
+      </c>
+      <c r="D1207">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1208" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1208">
+        <v>642.69000000000005</v>
+      </c>
+      <c r="D1208">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1209" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1209">
+        <v>1488.37</v>
+      </c>
+      <c r="D1209">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1210" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1210">
+        <v>1512.48</v>
+      </c>
+      <c r="D1210">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1211" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1211">
+        <v>1314.92</v>
+      </c>
+      <c r="D1211">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1212" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1212">
+        <v>619.05999999999995</v>
+      </c>
+      <c r="D1212">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1213" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1213">
+        <v>1383.42</v>
+      </c>
+      <c r="D1213">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1214" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1214">
+        <v>343.92</v>
+      </c>
+      <c r="D1214">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1215" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1215">
+        <v>604</v>
+      </c>
+      <c r="D1215">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1216" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1216">
+        <v>1172.69</v>
+      </c>
+      <c r="D1216">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1217" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1217">
+        <v>1084.44</v>
+      </c>
+      <c r="D1217">
+        <v>481</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E22EC3-FB70-469A-82A0-B6F3748CCB2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4AD816-54F3-471D-97BC-4D28AC582B59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="345" windowWidth="9360" windowHeight="12435" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
+    <workbookView xWindow="390" yWindow="105" windowWidth="11700" windowHeight="12435" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecido_Recuperado" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="52">
   <si>
     <t>Incidencia Acumulada</t>
   </si>
@@ -542,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93012AD9-A6D4-48C4-AAAA-A2304D189270}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,6 +1102,39 @@
         <v>119616</v>
       </c>
     </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B40">
+        <v>159064</v>
+      </c>
+      <c r="C40">
+        <v>2382</v>
+      </c>
+      <c r="D40">
+        <v>123284</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B41">
+        <v>165940</v>
+      </c>
+      <c r="C41">
+        <v>2404</v>
+      </c>
+      <c r="D41">
+        <v>127866</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>44197</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1109,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
-  <dimension ref="A1:D1217"/>
+  <dimension ref="A1:D1282"/>
   <sheetViews>
-    <sheetView topLeftCell="A1192" workbookViewId="0">
-      <selection activeCell="D1218" sqref="D1218"/>
+    <sheetView topLeftCell="A1256" workbookViewId="0">
+      <selection activeCell="D1282" sqref="D1282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18063,6 +18096,907 @@
       </c>
       <c r="D1217">
         <v>481</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1218" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1218">
+        <v>4077.22</v>
+      </c>
+      <c r="D1218">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1219" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1219">
+        <v>970.95</v>
+      </c>
+      <c r="D1219">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1220" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1220">
+        <v>1018.76</v>
+      </c>
+      <c r="D1220">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1221" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1221">
+        <v>1162.4000000000001</v>
+      </c>
+      <c r="D1221">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1222" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1222">
+        <v>761.28</v>
+      </c>
+      <c r="D1222">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1223" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1223">
+        <v>1604.48</v>
+      </c>
+      <c r="D1223">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1224" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1224">
+        <v>410.08</v>
+      </c>
+      <c r="D1224">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1225" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1225">
+        <v>632.03</v>
+      </c>
+      <c r="D1225">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1226" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1226">
+        <v>1294.17</v>
+      </c>
+      <c r="D1226">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1227" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1227">
+        <v>1314.53</v>
+      </c>
+      <c r="D1227">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1228" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1228">
+        <v>1615.14</v>
+      </c>
+      <c r="D1228">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1229" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1229">
+        <v>1896.57</v>
+      </c>
+      <c r="D1229">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1230" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1230">
+        <v>1549.76</v>
+      </c>
+      <c r="D1230">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1231" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1231">
+        <v>1081.53</v>
+      </c>
+      <c r="D1231">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1232" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1232">
+        <v>584.37</v>
+      </c>
+      <c r="D1232">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1233" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1233">
+        <v>1620.14</v>
+      </c>
+      <c r="D1233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1234" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1234">
+        <v>746.07</v>
+      </c>
+      <c r="D1234">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1235" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1235">
+        <v>1375.96</v>
+      </c>
+      <c r="D1235">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1236" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1236">
+        <v>1276.21</v>
+      </c>
+      <c r="D1236">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1237" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1237">
+        <v>530.49</v>
+      </c>
+      <c r="D1237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1238" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1238">
+        <v>849.66</v>
+      </c>
+      <c r="D1238">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1239" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1239">
+        <v>1114.3900000000001</v>
+      </c>
+      <c r="D1239">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1240" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1240">
+        <v>660.4</v>
+      </c>
+      <c r="D1240">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1241" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1241">
+        <v>1527.19</v>
+      </c>
+      <c r="D1241">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1242" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1242">
+        <v>1571.8</v>
+      </c>
+      <c r="D1242">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1243" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1243">
+        <v>1327.14</v>
+      </c>
+      <c r="D1243">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1244" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1244">
+        <v>649.62</v>
+      </c>
+      <c r="D1244">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1245" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1245">
+        <v>1473.51</v>
+      </c>
+      <c r="D1245">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1246" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1246">
+        <v>352.3</v>
+      </c>
+      <c r="D1246">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1247" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1247">
+        <v>609.83000000000004</v>
+      </c>
+      <c r="D1247">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1248" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1248">
+        <v>1185.55</v>
+      </c>
+      <c r="D1248">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1249" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1249">
+        <v>1116</v>
+      </c>
+      <c r="D1249">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1250" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1250">
+        <v>4329.72</v>
+      </c>
+      <c r="D1250">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1251" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1251">
+        <v>986.7</v>
+      </c>
+      <c r="D1251">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1252" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1252">
+        <v>1037.57</v>
+      </c>
+      <c r="D1252">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1253" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1253">
+        <v>1176.68</v>
+      </c>
+      <c r="D1253">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1254" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1254">
+        <v>807.92</v>
+      </c>
+      <c r="D1254">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1255" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1255">
+        <v>1666.04</v>
+      </c>
+      <c r="D1255">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1256" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1256">
+        <v>414.81</v>
+      </c>
+      <c r="D1256">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1257" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1257">
+        <v>634.16999999999996</v>
+      </c>
+      <c r="D1257">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1258" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1258">
+        <v>1330.44</v>
+      </c>
+      <c r="D1258">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1259" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1259">
+        <v>1355.61</v>
+      </c>
+      <c r="D1259">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1260" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1260">
+        <v>1696.92</v>
+      </c>
+      <c r="D1260">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1261" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1261">
+        <v>1922.25</v>
+      </c>
+      <c r="D1261">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1262" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1262">
+        <v>1619.3</v>
+      </c>
+      <c r="D1262">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1263" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1263">
+        <v>1165.1600000000001</v>
+      </c>
+      <c r="D1263">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1264" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1264">
+        <v>603.99</v>
+      </c>
+      <c r="D1264">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1265" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1265">
+        <v>1637.28</v>
+      </c>
+      <c r="D1265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1266" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1266">
+        <v>768.36</v>
+      </c>
+      <c r="D1266">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1267" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1267">
+        <v>1451.59</v>
+      </c>
+      <c r="D1267">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1268" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1268">
+        <v>1319.62</v>
+      </c>
+      <c r="D1268">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1269" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1269">
+        <v>548.32000000000005</v>
+      </c>
+      <c r="D1269">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1270" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1270">
+        <v>863.78</v>
+      </c>
+      <c r="D1270">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1271" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1271">
+        <v>1145.96</v>
+      </c>
+      <c r="D1271">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1272" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1272">
+        <v>682.37</v>
+      </c>
+      <c r="D1272">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1273" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1273">
+        <v>1560.75</v>
+      </c>
+      <c r="D1273">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1274" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1274">
+        <v>1656.96</v>
+      </c>
+      <c r="D1274">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1275" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1275">
+        <v>1348.09</v>
+      </c>
+      <c r="D1275">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1276" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1276">
+        <v>677.34</v>
+      </c>
+      <c r="D1276">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1277" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1277">
+        <v>1535.48</v>
+      </c>
+      <c r="D1277">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1278" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1278">
+        <v>362.24</v>
+      </c>
+      <c r="D1278">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1279" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1279">
+        <v>617.99</v>
+      </c>
+      <c r="D1279">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1280" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1280">
+        <v>1205.77</v>
+      </c>
+      <c r="D1280">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1281" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1281">
+        <v>1156.19</v>
+      </c>
+      <c r="D1281">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1282" s="2">
+        <v>44197</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4AD816-54F3-471D-97BC-4D28AC582B59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA2B084-9D47-4643-B82B-60726EE86E83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="105" windowWidth="11700" windowHeight="12435" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="52">
   <si>
     <t>Incidencia Acumulada</t>
   </si>
@@ -542,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93012AD9-A6D4-48C4-AAAA-A2304D189270}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,6 +1134,20 @@
       <c r="A42" s="2">
         <v>44197</v>
       </c>
+      <c r="B42">
+        <v>172965</v>
+      </c>
+      <c r="C42">
+        <v>2416</v>
+      </c>
+      <c r="D42">
+        <v>132282</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>44204</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1142,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
-  <dimension ref="A1:D1282"/>
+  <dimension ref="A1:D1314"/>
   <sheetViews>
-    <sheetView topLeftCell="A1256" workbookViewId="0">
-      <selection activeCell="D1282" sqref="D1282"/>
+    <sheetView topLeftCell="A1288" workbookViewId="0">
+      <selection activeCell="B1314" sqref="B1314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18997,6 +19011,454 @@
     <row r="1282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1282" s="2">
         <v>44197</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1282">
+        <v>4592.57</v>
+      </c>
+      <c r="D1282">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1283" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1283">
+        <v>996.6</v>
+      </c>
+      <c r="D1283">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1284" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1284">
+        <v>1053.4100000000001</v>
+      </c>
+      <c r="D1284">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1285" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1285">
+        <v>1188.31</v>
+      </c>
+      <c r="D1285">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1286" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1286">
+        <v>842.52</v>
+      </c>
+      <c r="D1286">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1287" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1287">
+        <v>1720.9</v>
+      </c>
+      <c r="D1287">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1288" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1288">
+        <v>425.85</v>
+      </c>
+      <c r="D1288">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1289" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1289">
+        <v>638.45000000000005</v>
+      </c>
+      <c r="D1289">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1290" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1290">
+        <v>1362.55</v>
+      </c>
+      <c r="D1290">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1291" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1291">
+        <v>1371.01</v>
+      </c>
+      <c r="D1291">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1292" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1292">
+        <v>1778.12</v>
+      </c>
+      <c r="D1292">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1293" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1293">
+        <v>1950.5</v>
+      </c>
+      <c r="D1293">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1294" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1294">
+        <v>1699.29</v>
+      </c>
+      <c r="D1294">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1295" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1295">
+        <v>1265.8</v>
+      </c>
+      <c r="D1295">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1296" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1296">
+        <v>607.4</v>
+      </c>
+      <c r="D1296">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1297" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1297">
+        <v>1637.28</v>
+      </c>
+      <c r="D1297">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1298" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1298">
+        <v>793.18</v>
+      </c>
+      <c r="D1298">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1299" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1299">
+        <v>1532.02</v>
+      </c>
+      <c r="D1299">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1300" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1300">
+        <v>1379.3</v>
+      </c>
+      <c r="D1300">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1301" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1301">
+        <v>556.35</v>
+      </c>
+      <c r="D1301">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1302" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1302">
+        <v>878.84</v>
+      </c>
+      <c r="D1302">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1303" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1303">
+        <v>1177.53</v>
+      </c>
+      <c r="D1303">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1304" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1304">
+        <v>702.05</v>
+      </c>
+      <c r="D1304">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1305" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1305">
+        <v>1606.81</v>
+      </c>
+      <c r="D1305">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1306" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1306">
+        <v>1723.74</v>
+      </c>
+      <c r="D1306">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1307" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1307">
+        <v>1381.27</v>
+      </c>
+      <c r="D1307">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1308" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1308">
+        <v>718.09</v>
+      </c>
+      <c r="D1308">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1309" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1309">
+        <v>1583.68</v>
+      </c>
+      <c r="D1309">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1310" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1310">
+        <v>386.32</v>
+      </c>
+      <c r="D1310">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1311" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1311">
+        <v>642.48</v>
+      </c>
+      <c r="D1311">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1312" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1312">
+        <v>1231.5</v>
+      </c>
+      <c r="D1312">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1313" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1313">
+        <v>1199.3399999999999</v>
+      </c>
+      <c r="D1313">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1314" s="2">
+        <v>44204</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA2B084-9D47-4643-B82B-60726EE86E83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADAA5C1-3FFE-4BA8-9C45-0FECF6B6931F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="105" windowWidth="11700" windowHeight="12435" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="52">
   <si>
     <t>Incidencia Acumulada</t>
   </si>
@@ -542,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93012AD9-A6D4-48C4-AAAA-A2304D189270}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,6 +1148,20 @@
       <c r="A43" s="2">
         <v>44204</v>
       </c>
+      <c r="B43">
+        <v>180644</v>
+      </c>
+      <c r="C43">
+        <v>2424</v>
+      </c>
+      <c r="D43">
+        <v>137098</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>44211</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1156,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
-  <dimension ref="A1:D1314"/>
+  <dimension ref="A1:D1346"/>
   <sheetViews>
-    <sheetView topLeftCell="A1288" workbookViewId="0">
-      <selection activeCell="B1314" sqref="B1314"/>
+    <sheetView topLeftCell="A1320" workbookViewId="0">
+      <selection activeCell="B1346" sqref="B1346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19459,6 +19473,454 @@
     <row r="1314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1314" s="2">
         <v>44204</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1314">
+        <v>4877.5600000000004</v>
+      </c>
+      <c r="D1314">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1315" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1315">
+        <v>1002.9</v>
+      </c>
+      <c r="D1315">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1316" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1316">
+        <v>1066.28</v>
+      </c>
+      <c r="D1316">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1317" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1317">
+        <v>1197.82</v>
+      </c>
+      <c r="D1317">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1318" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1318">
+        <v>865.09</v>
+      </c>
+      <c r="D1318">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1319" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1319">
+        <v>1764.39</v>
+      </c>
+      <c r="D1319">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1320" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1320">
+        <v>430.59</v>
+      </c>
+      <c r="D1320">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1321" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1321">
+        <v>654.49</v>
+      </c>
+      <c r="D1321">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1322" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1322">
+        <v>1414.66</v>
+      </c>
+      <c r="D1322">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1323" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1323">
+        <v>1382.99</v>
+      </c>
+      <c r="D1323">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1324" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1324">
+        <v>1856.22</v>
+      </c>
+      <c r="D1324">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1325" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1325">
+        <v>1986.08</v>
+      </c>
+      <c r="D1325">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1326" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1326">
+        <v>1805.54</v>
+      </c>
+      <c r="D1326">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1327" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1327">
+        <v>1381.32</v>
+      </c>
+      <c r="D1327">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1328" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1328">
+        <v>626.16999999999996</v>
+      </c>
+      <c r="D1328">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1329" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1329">
+        <v>1645.86</v>
+      </c>
+      <c r="D1329">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1330" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1330">
+        <v>819.01</v>
+      </c>
+      <c r="D1330">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1331" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1331">
+        <v>1635.55</v>
+      </c>
+      <c r="D1331">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1332" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1332">
+        <v>1466.12</v>
+      </c>
+      <c r="D1332">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1333" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1333">
+        <v>568.83000000000004</v>
+      </c>
+      <c r="D1333">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1334" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1334">
+        <v>903.16</v>
+      </c>
+      <c r="D1334">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1335" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1335">
+        <v>1211.8</v>
+      </c>
+      <c r="D1335">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1336" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1336">
+        <v>723.36</v>
+      </c>
+      <c r="D1336">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1337" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1337">
+        <v>1641.03</v>
+      </c>
+      <c r="D1337">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1338" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1338">
+        <v>1811.86</v>
+      </c>
+      <c r="D1338">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1339" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1339">
+        <v>1407.47</v>
+      </c>
+      <c r="D1339">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1340" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1340">
+        <v>767.88</v>
+      </c>
+      <c r="D1340">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1341" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1341">
+        <v>1629.01</v>
+      </c>
+      <c r="D1341">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1342" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1342">
+        <v>394.7</v>
+      </c>
+      <c r="D1342">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1343" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1343">
+        <v>647.14</v>
+      </c>
+      <c r="D1343">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1344" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1344">
+        <v>1240.69</v>
+      </c>
+      <c r="D1344">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1345" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1345">
+        <v>1247.6600000000001</v>
+      </c>
+      <c r="D1345">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1346" s="2">
+        <v>44211</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADAA5C1-3FFE-4BA8-9C45-0FECF6B6931F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB62A8AB-240F-4591-BCB2-25C4D36B9054}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="105" windowWidth="11700" windowHeight="12435" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
+    <workbookView xWindow="390" yWindow="105" windowWidth="11700" windowHeight="12435" firstSheet="1" activeTab="1" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecido_Recuperado" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="52">
   <si>
     <t>Incidencia Acumulada</t>
   </si>
@@ -542,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93012AD9-A6D4-48C4-AAAA-A2304D189270}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,6 +1162,20 @@
       <c r="A44" s="2">
         <v>44211</v>
       </c>
+      <c r="B44">
+        <v>191339</v>
+      </c>
+      <c r="C44">
+        <v>2432</v>
+      </c>
+      <c r="D44">
+        <v>142030</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44218</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1170,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
-  <dimension ref="A1:D1346"/>
+  <dimension ref="A1:D1378"/>
   <sheetViews>
-    <sheetView topLeftCell="A1320" workbookViewId="0">
-      <selection activeCell="B1346" sqref="B1346"/>
+    <sheetView tabSelected="1" topLeftCell="A1352" workbookViewId="0">
+      <selection activeCell="B1378" sqref="B1378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19921,6 +19935,454 @@
     <row r="1346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1346" s="2">
         <v>44211</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1346">
+        <v>5208.37</v>
+      </c>
+      <c r="D1346">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1347" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1347">
+        <v>1027.6400000000001</v>
+      </c>
+      <c r="D1347">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1348" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1348">
+        <v>1096.98</v>
+      </c>
+      <c r="D1348">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1349" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1349">
+        <v>1214.21</v>
+      </c>
+      <c r="D1349">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1350" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1350">
+        <v>880.14</v>
+      </c>
+      <c r="D1350">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1351" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1351">
+        <v>1825.95</v>
+      </c>
+      <c r="D1351">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1352" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1352">
+        <v>487.37</v>
+      </c>
+      <c r="D1352">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1353" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1353">
+        <v>678.02</v>
+      </c>
+      <c r="D1353">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1354" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1354">
+        <v>1543.08</v>
+      </c>
+      <c r="D1354">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1355" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1355">
+        <v>1410.38</v>
+      </c>
+      <c r="D1355">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1356" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1356">
+        <v>2003.93</v>
+      </c>
+      <c r="D1356">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1357" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1357">
+        <v>2092.83</v>
+      </c>
+      <c r="D1357">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1358" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1358">
+        <v>1905.47</v>
+      </c>
+      <c r="D1358">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1359" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1359">
+        <v>1549.29</v>
+      </c>
+      <c r="D1359">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1360" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1360">
+        <v>656.03</v>
+      </c>
+      <c r="D1360">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1361" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1361">
+        <v>1648.71</v>
+      </c>
+      <c r="D1361">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1362" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1362">
+        <v>838.25</v>
+      </c>
+      <c r="D1362">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1363" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1363">
+        <v>1774.8</v>
+      </c>
+      <c r="D1363">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1364" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1364">
+        <v>1592</v>
+      </c>
+      <c r="D1364">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1365" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1365">
+        <v>579.53</v>
+      </c>
+      <c r="D1365">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1366" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1366">
+        <v>935.95</v>
+      </c>
+      <c r="D1366">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1367" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1367">
+        <v>1273.1400000000001</v>
+      </c>
+      <c r="D1367">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1368" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1368">
+        <v>758.12</v>
+      </c>
+      <c r="D1368">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1369" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1369" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1369">
+        <v>1716.04</v>
+      </c>
+      <c r="D1369">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1370" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1370" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1370">
+        <v>1954.8</v>
+      </c>
+      <c r="D1370">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1371" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1371">
+        <v>1419.69</v>
+      </c>
+      <c r="D1371">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1372" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1372">
+        <v>879.92</v>
+      </c>
+      <c r="D1372">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1373" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1373">
+        <v>1711.63</v>
+      </c>
+      <c r="D1373">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1374" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1374">
+        <v>442.33</v>
+      </c>
+      <c r="D1374">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1375" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1375">
+        <v>650.64</v>
+      </c>
+      <c r="D1375">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1376" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1376">
+        <v>1260.9100000000001</v>
+      </c>
+      <c r="D1376">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1377" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1377">
+        <v>1308.95</v>
+      </c>
+      <c r="D1377">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1378" s="2">
+        <v>44218</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB62A8AB-240F-4591-BCB2-25C4D36B9054}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7E8C10-C746-404E-8865-3BD0E1D97CF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="105" windowWidth="11700" windowHeight="12435" firstSheet="1" activeTab="1" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="52">
   <si>
     <t>Incidencia Acumulada</t>
   </si>
@@ -542,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93012AD9-A6D4-48C4-AAAA-A2304D189270}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,6 +1176,20 @@
       <c r="A45" s="2">
         <v>44218</v>
       </c>
+      <c r="B45">
+        <v>202507</v>
+      </c>
+      <c r="C45">
+        <v>2513</v>
+      </c>
+      <c r="D45">
+        <v>147147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>44225</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1184,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
-  <dimension ref="A1:D1378"/>
+  <dimension ref="A1:D1410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1352" workbookViewId="0">
-      <selection activeCell="B1378" sqref="B1378"/>
+    <sheetView tabSelected="1" topLeftCell="A1384" workbookViewId="0">
+      <selection activeCell="B1410" sqref="B1410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20383,6 +20397,454 @@
     <row r="1378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1378" s="2">
         <v>44218</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1378">
+        <v>5476.11</v>
+      </c>
+      <c r="D1378">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1379" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1379">
+        <v>1061.8399999999999</v>
+      </c>
+      <c r="D1379">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1380" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1380">
+        <v>1166.28</v>
+      </c>
+      <c r="D1380">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1381" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1381">
+        <v>1252.8</v>
+      </c>
+      <c r="D1381">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1382" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1382">
+        <v>983.95</v>
+      </c>
+      <c r="D1382">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1383" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1383">
+        <v>1897.21</v>
+      </c>
+      <c r="D1383">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1384" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1384">
+        <v>514.17999999999995</v>
+      </c>
+      <c r="D1384">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1385" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1385">
+        <v>726.14</v>
+      </c>
+      <c r="D1385">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1386" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1386">
+        <v>1701.93</v>
+      </c>
+      <c r="D1386">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1387" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1387">
+        <v>1468.57</v>
+      </c>
+      <c r="D1387">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1388" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1388">
+        <v>2144.84</v>
+      </c>
+      <c r="D1388">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1389" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1389">
+        <v>2175.37</v>
+      </c>
+      <c r="D1389">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1390" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1390">
+        <v>2039.68</v>
+      </c>
+      <c r="D1390">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1391" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1391">
+        <v>1775.37</v>
+      </c>
+      <c r="D1391">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1392" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1392">
+        <v>686.74</v>
+      </c>
+      <c r="D1392">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1393" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1393">
+        <v>1680.14</v>
+      </c>
+      <c r="D1393">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1394" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1394">
+        <v>867.13</v>
+      </c>
+      <c r="D1394">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1395" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1395">
+        <v>1972.26</v>
+      </c>
+      <c r="D1395">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1396" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1396">
+        <v>1794.94</v>
+      </c>
+      <c r="D1396">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1397" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1397">
+        <v>638.37</v>
+      </c>
+      <c r="D1397">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1398" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1398">
+        <v>970.3</v>
+      </c>
+      <c r="D1398">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1399" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1399">
+        <v>1325</v>
+      </c>
+      <c r="D1399">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1400" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1400">
+        <v>834.19</v>
+      </c>
+      <c r="D1400">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1401" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1401">
+        <v>1764.07</v>
+      </c>
+      <c r="D1401">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1402" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1402">
+        <v>2132.86</v>
+      </c>
+      <c r="D1402">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1403" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1403">
+        <v>1548.91</v>
+      </c>
+      <c r="D1403">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1404" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1404">
+        <v>961.41</v>
+      </c>
+      <c r="D1404">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1405" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1405">
+        <v>1794.83</v>
+      </c>
+      <c r="D1405">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1406" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1406">
+        <v>493.63</v>
+      </c>
+      <c r="D1406">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1407" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1407">
+        <v>656.47</v>
+      </c>
+      <c r="D1407">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1408" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1408">
+        <v>1314.22</v>
+      </c>
+      <c r="D1408">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1409" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1409">
+        <v>1370.65</v>
+      </c>
+      <c r="D1409">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1410" s="2">
+        <v>44225</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7E8C10-C746-404E-8865-3BD0E1D97CF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A09CEFD-28E5-4F0E-9D47-6DCF51845B56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="105" windowWidth="11700" windowHeight="12435" firstSheet="1" activeTab="1" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
+    <workbookView xWindow="735" yWindow="450" windowWidth="10170" windowHeight="12435" firstSheet="1" activeTab="1" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecido_Recuperado" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="52">
   <si>
     <t>Incidencia Acumulada</t>
   </si>
@@ -542,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93012AD9-A6D4-48C4-AAAA-A2304D189270}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,6 +1190,34 @@
       <c r="A46" s="2">
         <v>44225</v>
       </c>
+      <c r="B46">
+        <v>212553</v>
+      </c>
+      <c r="C46">
+        <v>2646</v>
+      </c>
+      <c r="D46">
+        <v>155867</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B47">
+        <v>222148</v>
+      </c>
+      <c r="C47">
+        <v>2801</v>
+      </c>
+      <c r="D47">
+        <v>165659</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>44239</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1198,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
-  <dimension ref="A1:D1410"/>
+  <dimension ref="A1:D1473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1384" workbookViewId="0">
-      <selection activeCell="B1410" sqref="B1410"/>
+    <sheetView tabSelected="1" topLeftCell="A1448" workbookViewId="0">
+      <selection activeCell="A1474" sqref="A1474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20845,6 +20873,897 @@
     <row r="1410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1410" s="2">
         <v>44225</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1410">
+        <v>5727.07</v>
+      </c>
+      <c r="D1410">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1411" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1411">
+        <v>1113.1300000000001</v>
+      </c>
+      <c r="D1411">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1412" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1412">
+        <v>1228.6500000000001</v>
+      </c>
+      <c r="D1412">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1413" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1413">
+        <v>1282.4000000000001</v>
+      </c>
+      <c r="D1413">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1414" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1414">
+        <v>1223.1600000000001</v>
+      </c>
+      <c r="D1414">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1415" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1415">
+        <v>1958.76</v>
+      </c>
+      <c r="D1415">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1416" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1416">
+        <v>567.80999999999995</v>
+      </c>
+      <c r="D1416">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1417" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1417">
+        <v>811.7</v>
+      </c>
+      <c r="D1417">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1418" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1418">
+        <v>1870.37</v>
+      </c>
+      <c r="D1418">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1419" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1419">
+        <v>1489.11</v>
+      </c>
+      <c r="D1419">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1420" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1420">
+        <v>2255.7600000000002</v>
+      </c>
+      <c r="D1420">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1421" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1421">
+        <v>2263.0500000000002</v>
+      </c>
+      <c r="D1421">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1422" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1422">
+        <v>2156.87</v>
+      </c>
+      <c r="D1422">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1423" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1423">
+        <v>1924.92</v>
+      </c>
+      <c r="D1423">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1424" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1424">
+        <v>789.11</v>
+      </c>
+      <c r="D1424">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1425" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1425">
+        <v>1723</v>
+      </c>
+      <c r="D1425">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1426" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1426">
+        <v>892.45</v>
+      </c>
+      <c r="D1426">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1427" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1427">
+        <v>2084.1999999999998</v>
+      </c>
+      <c r="D1427">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1428" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1428">
+        <v>2039.11</v>
+      </c>
+      <c r="D1428">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1429" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1429">
+        <v>678.5</v>
+      </c>
+      <c r="D1429">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1430" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1430">
+        <v>1005.45</v>
+      </c>
+      <c r="D1430">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1431" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1431">
+        <v>1407.98</v>
+      </c>
+      <c r="D1431">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1432" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1432">
+        <v>879.77</v>
+      </c>
+      <c r="D1432">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1433" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1433">
+        <v>1855.56</v>
+      </c>
+      <c r="D1433">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1434" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1434">
+        <v>2255.52</v>
+      </c>
+      <c r="D1434">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1435" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1435">
+        <v>1650.19</v>
+      </c>
+      <c r="D1435">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1436" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1436">
+        <v>1126.08</v>
+      </c>
+      <c r="D1436">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1437" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1437">
+        <v>1829.26</v>
+      </c>
+      <c r="D1437">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1438" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1438">
+        <v>533.94000000000005</v>
+      </c>
+      <c r="D1438">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1439" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1439">
+        <v>678.62</v>
+      </c>
+      <c r="D1439">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1440" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1440">
+        <v>1373.04</v>
+      </c>
+      <c r="D1440">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1441" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1441">
+        <v>1426.05</v>
+      </c>
+      <c r="D1441">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1442" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1442">
+        <v>6006.22</v>
+      </c>
+      <c r="D1442">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1443" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1443">
+        <v>1146.8800000000001</v>
+      </c>
+      <c r="D1443">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1444" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1444">
+        <v>1262.31</v>
+      </c>
+      <c r="D1444">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1445" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1445">
+        <v>1318.34</v>
+      </c>
+      <c r="D1445">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1446" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1446">
+        <v>1314.94</v>
+      </c>
+      <c r="D1446">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1447" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1447">
+        <v>2009.61</v>
+      </c>
+      <c r="D1447">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1448" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1448">
+        <v>607.24</v>
+      </c>
+      <c r="D1448">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1449" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1449">
+        <v>853.4</v>
+      </c>
+      <c r="D1449">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1450" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1450">
+        <v>1962.1</v>
+      </c>
+      <c r="D1450">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1451" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1451">
+        <v>1533.62</v>
+      </c>
+      <c r="D1451">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1452" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1452">
+        <v>2355.9299999999998</v>
+      </c>
+      <c r="D1452">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1453" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1453">
+        <v>2365.0300000000002</v>
+      </c>
+      <c r="D1453">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1454" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1454">
+        <v>2245.13</v>
+      </c>
+      <c r="D1454">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1455" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1455">
+        <v>2012.8</v>
+      </c>
+      <c r="D1455">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1456" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1456">
+        <v>830.91</v>
+      </c>
+      <c r="D1456">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1457" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1457">
+        <v>1725.86</v>
+      </c>
+      <c r="D1457">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1458" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1458">
+        <v>913.72</v>
+      </c>
+      <c r="D1458">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1459" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1459">
+        <v>2154.13</v>
+      </c>
+      <c r="D1459">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1460" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1460">
+        <v>2199.7199999999998</v>
+      </c>
+      <c r="D1460">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1461" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1461">
+        <v>718.62</v>
+      </c>
+      <c r="D1461">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1462" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1462">
+        <v>1035.4100000000001</v>
+      </c>
+      <c r="D1462">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1463" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1463">
+        <v>1463.45</v>
+      </c>
+      <c r="D1463">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1464" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1464">
+        <v>930.6</v>
+      </c>
+      <c r="D1464">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1465" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1465">
+        <v>1906.85</v>
+      </c>
+      <c r="D1465">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1466" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1466">
+        <v>2406.88</v>
+      </c>
+      <c r="D1466">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1467" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1467">
+        <v>1772.43</v>
+      </c>
+      <c r="D1467">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1468" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1468">
+        <v>1197.94</v>
+      </c>
+      <c r="D1468">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1469" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1469">
+        <v>1879.76</v>
+      </c>
+      <c r="D1469">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1470" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1470">
+        <v>554.88</v>
+      </c>
+      <c r="D1470">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1471" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1471">
+        <v>705.44</v>
+      </c>
+      <c r="D1471">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1472" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1472">
+        <v>1404.28</v>
+      </c>
+      <c r="D1472">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1473" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1473">
+        <v>1489.88</v>
+      </c>
+      <c r="D1473">
+        <v>549</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A09CEFD-28E5-4F0E-9D47-6DCF51845B56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3759724E-039A-4C3C-A0A0-763F4B493A38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="450" windowWidth="10170" windowHeight="12435" firstSheet="1" activeTab="1" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
+    <workbookView xWindow="735" yWindow="450" windowWidth="10170" windowHeight="12435" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecido_Recuperado" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="52">
   <si>
     <t>Incidencia Acumulada</t>
   </si>
@@ -542,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93012AD9-A6D4-48C4-AAAA-A2304D189270}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,6 +1218,34 @@
       <c r="A48" s="2">
         <v>44239</v>
       </c>
+      <c r="B48">
+        <v>228895</v>
+      </c>
+      <c r="C48">
+        <v>2932</v>
+      </c>
+      <c r="D48">
+        <v>175329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B49">
+        <v>234502</v>
+      </c>
+      <c r="C49">
+        <v>3028</v>
+      </c>
+      <c r="D49">
+        <v>183720</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>44253</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1226,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
-  <dimension ref="A1:D1473"/>
+  <dimension ref="A1:D1537"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1448" workbookViewId="0">
-      <selection activeCell="A1474" sqref="A1474"/>
+    <sheetView topLeftCell="A1512" workbookViewId="0">
+      <selection activeCell="A1538" sqref="A1538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21764,6 +21792,902 @@
       </c>
       <c r="D1473">
         <v>549</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1474" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1474">
+        <v>6200.81</v>
+      </c>
+      <c r="D1474">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1475" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1475">
+        <v>1182.42</v>
+      </c>
+      <c r="D1475">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1476" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1476">
+        <v>1270.23</v>
+      </c>
+      <c r="D1476">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1477" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1477">
+        <v>1345.83</v>
+      </c>
+      <c r="D1477">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1478" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1478">
+        <v>1369.1</v>
+      </c>
+      <c r="D1478">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1479" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1479">
+        <v>2057.12</v>
+      </c>
+      <c r="D1479">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1480" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1480">
+        <v>619.85</v>
+      </c>
+      <c r="D1480">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1481" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1481">
+        <v>869.44</v>
+      </c>
+      <c r="D1481">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1482" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1482">
+        <v>2026.73</v>
+      </c>
+      <c r="D1482">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1483" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1483">
+        <v>1572.98</v>
+      </c>
+      <c r="D1483">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1484" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1484">
+        <v>2425.54</v>
+      </c>
+      <c r="D1484">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1485" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1485">
+        <v>2472.88</v>
+      </c>
+      <c r="D1485">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1486" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1486">
+        <v>2306.4</v>
+      </c>
+      <c r="D1486">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1487" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1487">
+        <v>2073.75</v>
+      </c>
+      <c r="D1487">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1488" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1488">
+        <v>850.53</v>
+      </c>
+      <c r="D1488">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1489" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1489">
+        <v>1757.29</v>
+      </c>
+      <c r="D1489">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1490" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1490">
+        <v>937.02</v>
+      </c>
+      <c r="D1490">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1491" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1491">
+        <v>2196.14</v>
+      </c>
+      <c r="D1491">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1492" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1492">
+        <v>2284.37</v>
+      </c>
+      <c r="D1492">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1493" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1493">
+        <v>733.77</v>
+      </c>
+      <c r="D1493">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1494" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1494">
+        <v>1062.24</v>
+      </c>
+      <c r="D1494">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1495" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1495">
+        <v>1515.77</v>
+      </c>
+      <c r="D1495">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1496" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1496">
+        <v>968.63</v>
+      </c>
+      <c r="D1496">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1497" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1497">
+        <v>1944.36</v>
+      </c>
+      <c r="D1497">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1498" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1498" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1498">
+        <v>2485.63</v>
+      </c>
+      <c r="D1498">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1499" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1499">
+        <v>1849.26</v>
+      </c>
+      <c r="D1499">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1500" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1500">
+        <v>1247.74</v>
+      </c>
+      <c r="D1500">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1501" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1501">
+        <v>1918.77</v>
+      </c>
+      <c r="D1501">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1502" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1502" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1502">
+        <v>576.86</v>
+      </c>
+      <c r="D1502">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1503" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1503">
+        <v>769.57</v>
+      </c>
+      <c r="D1503">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1504" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1504">
+        <v>1411.63</v>
+      </c>
+      <c r="D1504">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1505" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1505">
+        <v>1538.92</v>
+      </c>
+      <c r="D1505">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1506" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1506">
+        <v>6370.58</v>
+      </c>
+      <c r="D1506">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1507" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1507">
+        <v>1232.81</v>
+      </c>
+      <c r="D1507">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1508" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1508">
+        <v>1289.05</v>
+      </c>
+      <c r="D1508">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1509" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1509">
+        <v>1359.57</v>
+      </c>
+      <c r="D1509">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1510" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1510">
+        <v>1438.31</v>
+      </c>
+      <c r="D1510">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1511" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1511">
+        <v>2077.86</v>
+      </c>
+      <c r="D1511">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1512" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1512">
+        <v>630.89</v>
+      </c>
+      <c r="D1512">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1513" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1513">
+        <v>909.01</v>
+      </c>
+      <c r="D1513">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1514" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1514">
+        <v>2075.5100000000002</v>
+      </c>
+      <c r="D1514">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1515" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1515">
+        <v>1602.08</v>
+      </c>
+      <c r="D1515">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1516" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1516">
+        <v>2470.25</v>
+      </c>
+      <c r="D1516">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1517" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1517">
+        <v>2554.69</v>
+      </c>
+      <c r="D1517">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1518" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1518">
+        <v>2347.4899999999998</v>
+      </c>
+      <c r="D1518">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1519" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1519">
+        <v>2109.9</v>
+      </c>
+      <c r="D1519">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1520" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1520">
+        <v>878.68</v>
+      </c>
+      <c r="D1520">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1521" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1521">
+        <v>1780.15</v>
+      </c>
+      <c r="D1521">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1522" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1522">
+        <v>968.42</v>
+      </c>
+      <c r="D1522">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1523" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1523">
+        <v>2223.75</v>
+      </c>
+      <c r="D1523">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1524" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1524">
+        <v>2364.67</v>
+      </c>
+      <c r="D1524">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1525" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1525">
+        <v>753.39</v>
+      </c>
+      <c r="D1525">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1526" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1526">
+        <v>1088.28</v>
+      </c>
+      <c r="D1526">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1527" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1527">
+        <v>1567.63</v>
+      </c>
+      <c r="D1527">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1528" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1528">
+        <v>1007.33</v>
+      </c>
+      <c r="D1528">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1529" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1529">
+        <v>1980.55</v>
+      </c>
+      <c r="D1529">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1530" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1530">
+        <v>2535.5700000000002</v>
+      </c>
+      <c r="D1530">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1531" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1531">
+        <v>1885.94</v>
+      </c>
+      <c r="D1531">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1532" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1532">
+        <v>1317.9</v>
+      </c>
+      <c r="D1532">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1533" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1533">
+        <v>1939.43</v>
+      </c>
+      <c r="D1533">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1534" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1534">
+        <v>589.95000000000005</v>
+      </c>
+      <c r="D1534">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1535" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1535">
+        <v>831.37</v>
+      </c>
+      <c r="D1535">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1536" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1536">
+        <v>1439.21</v>
+      </c>
+      <c r="D1536">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1537" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1537">
+        <v>1582.14</v>
+      </c>
+      <c r="D1537">
+        <v>599</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3759724E-039A-4C3C-A0A0-763F4B493A38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4755802A-9B77-4FE5-8FC7-7D7E235CA5CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="450" windowWidth="10170" windowHeight="12435" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
+    <workbookView xWindow="735" yWindow="450" windowWidth="10170" windowHeight="12435" firstSheet="1" activeTab="1" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecido_Recuperado" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="52">
   <si>
     <t>Incidencia Acumulada</t>
   </si>
@@ -542,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93012AD9-A6D4-48C4-AAAA-A2304D189270}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,6 +1246,20 @@
       <c r="A50" s="2">
         <v>44253</v>
       </c>
+      <c r="B50">
+        <v>239009</v>
+      </c>
+      <c r="C50">
+        <v>3093</v>
+      </c>
+      <c r="D50">
+        <v>190295</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>44260</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1254,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
-  <dimension ref="A1:D1537"/>
+  <dimension ref="A1:D1569"/>
   <sheetViews>
-    <sheetView topLeftCell="A1512" workbookViewId="0">
-      <selection activeCell="A1538" sqref="A1538"/>
+    <sheetView tabSelected="1" topLeftCell="A1544" workbookViewId="0">
+      <selection activeCell="A1570" sqref="A1570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22688,6 +22702,454 @@
       </c>
       <c r="D1537">
         <v>599</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1538" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1538">
+        <v>6509.29</v>
+      </c>
+      <c r="D1538">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1539" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1539">
+        <v>1287.25</v>
+      </c>
+      <c r="D1539">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1540" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1540">
+        <v>1308.8499999999999</v>
+      </c>
+      <c r="D1540">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1541" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1541">
+        <v>1370.67</v>
+      </c>
+      <c r="D1541">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1542" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1542">
+        <v>1468.4</v>
+      </c>
+      <c r="D1542">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1543" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1543">
+        <v>2101.2800000000002</v>
+      </c>
+      <c r="D1543">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1544" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1544">
+        <v>634.04999999999995</v>
+      </c>
+      <c r="D1544">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1545" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1545">
+        <v>923.99</v>
+      </c>
+      <c r="D1545">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1546" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1546">
+        <v>2100.94</v>
+      </c>
+      <c r="D1546">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1547" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1547">
+        <v>1626.04</v>
+      </c>
+      <c r="D1547">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1548" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1548">
+        <v>2507.88</v>
+      </c>
+      <c r="D1548">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1549" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1549">
+        <v>2630.99</v>
+      </c>
+      <c r="D1549">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1550" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1550">
+        <v>2379.1</v>
+      </c>
+      <c r="D1550">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1551" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1551">
+        <v>2138.25</v>
+      </c>
+      <c r="D1551">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1552" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1552" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1552">
+        <v>906.83</v>
+      </c>
+      <c r="D1552">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1553" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1553">
+        <v>1785.87</v>
+      </c>
+      <c r="D1553">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1554" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1554">
+        <v>990.71</v>
+      </c>
+      <c r="D1554">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1555" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1555">
+        <v>2239.65</v>
+      </c>
+      <c r="D1555">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1556" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1556">
+        <v>2442.81</v>
+      </c>
+      <c r="D1556">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1557" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1557">
+        <v>767.65</v>
+      </c>
+      <c r="D1557">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1558" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1558">
+        <v>1111.3399999999999</v>
+      </c>
+      <c r="D1558">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1559" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1559">
+        <v>1600.1</v>
+      </c>
+      <c r="D1559">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1560" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1560">
+        <v>1034.21</v>
+      </c>
+      <c r="D1560">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1561" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1561">
+        <v>2012.13</v>
+      </c>
+      <c r="D1561">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1562" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1562">
+        <v>2570.88</v>
+      </c>
+      <c r="D1562">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1563" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1563">
+        <v>1931.34</v>
+      </c>
+      <c r="D1563">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1564" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1564" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1564">
+        <v>1346.2</v>
+      </c>
+      <c r="D1564">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1565" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1565" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1565">
+        <v>1954.92</v>
+      </c>
+      <c r="D1565">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1566" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1566" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1566">
+        <v>604.08000000000004</v>
+      </c>
+      <c r="D1566">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1567" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1567">
+        <v>874.51</v>
+      </c>
+      <c r="D1567">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1568" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1568" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1568">
+        <v>1455.75</v>
+      </c>
+      <c r="D1568">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1569" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B1569" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1569">
+        <v>1619.75</v>
+      </c>
+      <c r="D1569">
+        <v>617</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4755802A-9B77-4FE5-8FC7-7D7E235CA5CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580DC5F9-818F-41D7-BA1A-B3F348B98CED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="450" windowWidth="10170" windowHeight="12435" firstSheet="1" activeTab="1" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="52">
   <si>
     <t>Incidencia Acumulada</t>
   </si>
@@ -542,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93012AD9-A6D4-48C4-AAAA-A2304D189270}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,6 +1260,20 @@
       <c r="A51" s="2">
         <v>44260</v>
       </c>
+      <c r="B51">
+        <v>242660</v>
+      </c>
+      <c r="C51">
+        <v>3162</v>
+      </c>
+      <c r="D51">
+        <v>196484</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>44267</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1268,10 +1282,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
-  <dimension ref="A1:D1569"/>
+  <dimension ref="A1:D1602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1544" workbookViewId="0">
-      <selection activeCell="A1570" sqref="A1570"/>
+    <sheetView tabSelected="1" topLeftCell="A1576" workbookViewId="0">
+      <selection activeCell="B1602" sqref="B1602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23150,6 +23164,459 @@
       </c>
       <c r="D1569">
         <v>617</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1570" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1570" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1570">
+        <v>6626.91</v>
+      </c>
+      <c r="D1570">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1571" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1571" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1571">
+        <v>1318.3</v>
+      </c>
+      <c r="D1571">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1572" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1572" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1572">
+        <v>1330.63</v>
+      </c>
+      <c r="D1572">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1573" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1573" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1573">
+        <v>1377.02</v>
+      </c>
+      <c r="D1573">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1574" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1574" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1574">
+        <v>1501.5</v>
+      </c>
+      <c r="D1574">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1575" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1575" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1575">
+        <v>2113.66</v>
+      </c>
+      <c r="D1575">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1576" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1576" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1576">
+        <v>635.63</v>
+      </c>
+      <c r="D1576">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1577" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1577" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1577">
+        <v>931.47</v>
+      </c>
+      <c r="D1577">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1578" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1578">
+        <v>2118.87</v>
+      </c>
+      <c r="D1578">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1579" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1579">
+        <v>1648.3</v>
+      </c>
+      <c r="D1579">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1580" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1580">
+        <v>2544.9499999999998</v>
+      </c>
+      <c r="D1580">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1581" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1581" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1581">
+        <v>2691.89</v>
+      </c>
+      <c r="D1581">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1582" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1582" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1582">
+        <v>2402.9299999999998</v>
+      </c>
+      <c r="D1582">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1583" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1583" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1583">
+        <v>2153.84</v>
+      </c>
+      <c r="D1583">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1584" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1584" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1584">
+        <v>943.52</v>
+      </c>
+      <c r="D1584">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1585" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1585" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1585">
+        <v>1791.58</v>
+      </c>
+      <c r="D1585">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1586" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1586">
+        <v>1019.07</v>
+      </c>
+      <c r="D1586">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1587" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1587">
+        <v>2255.2600000000002</v>
+      </c>
+      <c r="D1587">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1588" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1588" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1588">
+        <v>2486.2199999999998</v>
+      </c>
+      <c r="D1588">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1589" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1589">
+        <v>778.35</v>
+      </c>
+      <c r="D1589">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1590" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1590" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1590">
+        <v>1126.56</v>
+      </c>
+      <c r="D1590">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1591" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1591">
+        <v>1621.75</v>
+      </c>
+      <c r="D1591">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1592" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1592">
+        <v>1055.8599999999999</v>
+      </c>
+      <c r="D1592">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1593" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1593">
+        <v>2025.95</v>
+      </c>
+      <c r="D1593">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1594" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1594">
+        <v>2600.35</v>
+      </c>
+      <c r="D1594">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1595" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1595">
+        <v>1955.79</v>
+      </c>
+      <c r="D1595">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1596" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1596" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1596">
+        <v>1371.66</v>
+      </c>
+      <c r="D1596">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1597" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1597" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1597">
+        <v>1963.53</v>
+      </c>
+      <c r="D1597">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1598" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1598" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1598">
+        <v>614.54999999999995</v>
+      </c>
+      <c r="D1598">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1599" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1599" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1599">
+        <v>907.16</v>
+      </c>
+      <c r="D1599">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1600" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1600" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1600">
+        <v>1461.26</v>
+      </c>
+      <c r="D1600">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1601" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B1601" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1601">
+        <v>1651.27</v>
+      </c>
+      <c r="D1601">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1602" s="2">
+        <v>44267</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580DC5F9-818F-41D7-BA1A-B3F348B98CED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965EB7A3-3312-4555-9BDB-628013A89DB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="450" windowWidth="10170" windowHeight="12435" firstSheet="1" activeTab="1" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
+    <workbookView xWindow="735" yWindow="450" windowWidth="10170" windowHeight="12435" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecido_Recuperado" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="52">
   <si>
     <t>Incidencia Acumulada</t>
   </si>
@@ -542,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93012AD9-A6D4-48C4-AAAA-A2304D189270}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,6 +1274,20 @@
       <c r="A52" s="2">
         <v>44267</v>
       </c>
+      <c r="B52">
+        <v>245616</v>
+      </c>
+      <c r="C52">
+        <v>3213</v>
+      </c>
+      <c r="D52">
+        <v>201379</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>44274</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1282,10 +1296,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
-  <dimension ref="A1:D1602"/>
+  <dimension ref="A1:D1634"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1576" workbookViewId="0">
-      <selection activeCell="B1602" sqref="B1602"/>
+    <sheetView topLeftCell="A1608" workbookViewId="0">
+      <selection activeCell="A1634" sqref="A1634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23617,6 +23631,454 @@
     <row r="1602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1602" s="2">
         <v>44267</v>
+      </c>
+      <c r="B1602" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1602">
+        <v>6723.54</v>
+      </c>
+      <c r="D1602">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1603" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1603" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1603">
+        <v>1349.79</v>
+      </c>
+      <c r="D1603">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1604" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1604" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1604">
+        <v>1341.52</v>
+      </c>
+      <c r="D1604">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1605" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1605" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1605">
+        <v>1386</v>
+      </c>
+      <c r="D1605">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1606" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1606" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1606">
+        <v>1549.64</v>
+      </c>
+      <c r="D1606">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1607" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1607" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1607">
+        <v>2126.04</v>
+      </c>
+      <c r="D1607">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1608" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1608" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1608">
+        <v>637.20000000000005</v>
+      </c>
+      <c r="D1608">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1609" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1609" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1609">
+        <v>936.82</v>
+      </c>
+      <c r="D1609">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1610" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1610" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1610">
+        <v>2131.79</v>
+      </c>
+      <c r="D1610">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1611" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1611" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1611">
+        <v>1655.14</v>
+      </c>
+      <c r="D1611">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1612" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1612" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1612">
+        <v>2575.23</v>
+      </c>
+      <c r="D1612">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1613" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1613" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1613">
+        <v>2729.3</v>
+      </c>
+      <c r="D1613">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1614" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1614" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1614">
+        <v>2424.08</v>
+      </c>
+      <c r="D1614">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1615" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1615" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1615">
+        <v>2164.86</v>
+      </c>
+      <c r="D1615">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1616" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1616" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1616">
+        <v>961.43</v>
+      </c>
+      <c r="D1616">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1617" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1617" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1617">
+        <v>1814.44</v>
+      </c>
+      <c r="D1617">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1618" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1618" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1618">
+        <v>1043.8900000000001</v>
+      </c>
+      <c r="D1618">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1619" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1619" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1619">
+        <v>2264.86</v>
+      </c>
+      <c r="D1619">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1620" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1620" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1620">
+        <v>2516.6</v>
+      </c>
+      <c r="D1620">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1621" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1621" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1621">
+        <v>783.7</v>
+      </c>
+      <c r="D1621">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1622" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1622" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1622">
+        <v>1145.23</v>
+      </c>
+      <c r="D1622">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1623" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1623" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1623">
+        <v>1641.59</v>
+      </c>
+      <c r="D1623">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1624" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1624" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1624">
+        <v>1074.22</v>
+      </c>
+      <c r="D1624">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1625" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1625" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1625">
+        <v>2040.43</v>
+      </c>
+      <c r="D1625">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1626" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1626" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1626">
+        <v>2620.8200000000002</v>
+      </c>
+      <c r="D1626">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1627" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1627" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1627">
+        <v>1961.02</v>
+      </c>
+      <c r="D1627">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1628" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1628" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1628">
+        <v>1375.06</v>
+      </c>
+      <c r="D1628">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1629" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1629" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1629">
+        <v>1966.97</v>
+      </c>
+      <c r="D1629">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1630" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1630" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1630">
+        <v>626.59</v>
+      </c>
+      <c r="D1630">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1631" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1631" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1631">
+        <v>931.65</v>
+      </c>
+      <c r="D1631">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1632" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1632" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1632">
+        <v>1479.64</v>
+      </c>
+      <c r="D1632">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1633" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B1633" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1633">
+        <v>1676.56</v>
+      </c>
+      <c r="D1633">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1634" s="2">
+        <v>44274</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_Dominican/Dominican_Covid.xlsx
+++ b/Covid_Dominican/Dominican_Covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\UC-Berkeley\Covid_Dominican\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965EB7A3-3312-4555-9BDB-628013A89DB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A712F7AE-9F8A-4CBD-BF33-C6FAACBF6096}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="450" windowWidth="10170" windowHeight="12435" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
+    <workbookView xWindow="735" yWindow="450" windowWidth="10170" windowHeight="12435" firstSheet="1" activeTab="1" xr2:uid="{FCFD829C-D18B-42C2-8A3F-F17054977C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecido_Recuperado" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="52">
   <si>
     <t>Incidencia Acumulada</t>
   </si>
@@ -542,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93012AD9-A6D4-48C4-AAAA-A2304D189270}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,6 +1288,29 @@
       <c r="A53" s="2">
         <v>44274</v>
       </c>
+      <c r="B53">
+        <v>248989</v>
+      </c>
+      <c r="C53">
+        <v>3269</v>
+      </c>
+      <c r="D53">
+        <v>205172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B54">
+        <v>251582</v>
+      </c>
+      <c r="C54">
+        <v>3302</v>
+      </c>
+      <c r="D54">
+        <v>210551</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1296,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954D560-A495-4753-8EDD-C3E9767515C8}">
-  <dimension ref="A1:D1634"/>
+  <dimension ref="A1:D1697"/>
   <sheetViews>
-    <sheetView topLeftCell="A1608" workbookViewId="0">
-      <selection activeCell="A1634" sqref="A1634"/>
+    <sheetView tabSelected="1" topLeftCell="A1672" workbookViewId="0">
+      <selection activeCell="A1698" sqref="A1698"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24079,6 +24102,897 @@
     <row r="1634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1634" s="2">
         <v>44274</v>
+      </c>
+      <c r="B1634" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1634">
+        <v>6846.43</v>
+      </c>
+      <c r="D1634">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1635" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1635" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1635">
+        <v>1388.94</v>
+      </c>
+      <c r="D1635">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1636" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1636" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1636">
+        <v>1346.47</v>
+      </c>
+      <c r="D1636">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1637" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1637" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1637">
+        <v>1392.35</v>
+      </c>
+      <c r="D1637">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1638" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1638" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1638">
+        <v>1570.7</v>
+      </c>
+      <c r="D1638">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1639" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1639" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1639">
+        <v>2138.75</v>
+      </c>
+      <c r="D1639">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1640" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1640" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1640">
+        <v>641.94000000000005</v>
+      </c>
+      <c r="D1640">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1641" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1641" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1641">
+        <v>940.03</v>
+      </c>
+      <c r="D1641">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1642" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1642" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1642">
+        <v>2140.5500000000002</v>
+      </c>
+      <c r="D1642">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1643" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1643" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1643">
+        <v>1665.41</v>
+      </c>
+      <c r="D1643">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1644" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1644" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1644">
+        <v>2596.73</v>
+      </c>
+      <c r="D1644">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1645" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1645" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1645">
+        <v>2777.73</v>
+      </c>
+      <c r="D1645">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1646" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1646" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1646">
+        <v>2440.13</v>
+      </c>
+      <c r="D1646">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1647" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1647" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1647">
+        <v>2177.9299999999998</v>
+      </c>
+      <c r="D1647">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1648" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1648" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1648">
+        <v>969.96</v>
+      </c>
+      <c r="D1648">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1649" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1649" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1649">
+        <v>1828.73</v>
+      </c>
+      <c r="D1649">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1650" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1650" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1650">
+        <v>1068.71</v>
+      </c>
+      <c r="D1650">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1651" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1651" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1651">
+        <v>2271.77</v>
+      </c>
+      <c r="D1651">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1652" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1652" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1652">
+        <v>2533.9699999999998</v>
+      </c>
+      <c r="D1652">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1653" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1653" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1653">
+        <v>791.73</v>
+      </c>
+      <c r="D1653">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1654" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1654" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1654">
+        <v>1165.78</v>
+      </c>
+      <c r="D1654">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1655" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1655" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1655">
+        <v>1670</v>
+      </c>
+      <c r="D1655">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1656" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1656" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1656">
+        <v>1096.52</v>
+      </c>
+      <c r="D1656">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1657" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1657" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1657">
+        <v>2061.48</v>
+      </c>
+      <c r="D1657">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1658" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1658" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1658">
+        <v>2641.39</v>
+      </c>
+      <c r="D1658">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1659" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1659" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1659">
+        <v>1980.23</v>
+      </c>
+      <c r="D1659">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1660" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1660" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1660">
+        <v>1381.85</v>
+      </c>
+      <c r="D1660">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1661" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1661" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1661">
+        <v>1977.87</v>
+      </c>
+      <c r="D1661">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1662" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1662" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1662">
+        <v>640.73</v>
+      </c>
+      <c r="D1662">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1663" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1663" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1663">
+        <v>944.47</v>
+      </c>
+      <c r="D1663">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1664" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1664" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1664">
+        <v>1485.16</v>
+      </c>
+      <c r="D1664">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1665" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B1665" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1665">
+        <v>1707.6</v>
+      </c>
+      <c r="D1665">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1666" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1666" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1666">
+        <v>6937.69</v>
+      </c>
+      <c r="D1666">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1667" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1667" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1667">
+        <v>1412.79</v>
+      </c>
+      <c r="D1667">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1668" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1668" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1668">
+        <v>1351.42</v>
+      </c>
+      <c r="D1668">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1669" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1669" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1669">
+        <v>1402.39</v>
+      </c>
+      <c r="D1669">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1670" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1670" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1670">
+        <v>1579.73</v>
+      </c>
+      <c r="D1670">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1671" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1671" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1671">
+        <v>2151.8000000000002</v>
+      </c>
+      <c r="D1671">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1672" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1672" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1672">
+        <v>641.94000000000005</v>
+      </c>
+      <c r="D1672">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1673" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1673" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1673">
+        <v>943.23</v>
+      </c>
+      <c r="D1673">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1674" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1674" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1674">
+        <v>2150.9699999999998</v>
+      </c>
+      <c r="D1674">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1675" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1675" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1675">
+        <v>1675.68</v>
+      </c>
+      <c r="D1675">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1676" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1676" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1676">
+        <v>2619.08</v>
+      </c>
+      <c r="D1676">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1677" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1677" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1677">
+        <v>2810.01</v>
+      </c>
+      <c r="D1677">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1678" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1678" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1678">
+        <v>2451.31</v>
+      </c>
+      <c r="D1678">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1679" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1679" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1679">
+        <v>2186.44</v>
+      </c>
+      <c r="D1679">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1680" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1680" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1680">
+        <v>974.32</v>
+      </c>
+      <c r="D1680">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1681" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1681" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1681">
+        <v>1837.3</v>
+      </c>
+      <c r="D1681">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1682" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1682" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1682">
+        <v>1082.8900000000001</v>
+      </c>
+      <c r="D1682">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1683" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1683" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1683">
+        <v>2278.0700000000002</v>
+      </c>
+      <c r="D1683">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1684" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1684" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1684">
+        <v>2544.8200000000002</v>
+      </c>
+      <c r="D1684">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1685" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1685" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1685">
+        <v>794.4</v>
+      </c>
+      <c r="D1685">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1686" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1686" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1686">
+        <v>1177.3900000000001</v>
+      </c>
+      <c r="D1686">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1687" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1687" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1687">
+        <v>1689.85</v>
+      </c>
+      <c r="D1687">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1688" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1688" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1688">
+        <v>1114.8800000000001</v>
+      </c>
+      <c r="D1688">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1689" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1689" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1689">
+        <v>2071.35</v>
+      </c>
+      <c r="D1689">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1690" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1690" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1690">
+        <v>2658.13</v>
+      </c>
+      <c r="D1690">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1691" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1691" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1691">
+        <v>2004.68</v>
+      </c>
+      <c r="D1691">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1692" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1692" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1692">
+        <v>1394.3</v>
+      </c>
+      <c r="D1692">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1693" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1693" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1693">
+        <v>1983.61</v>
+      </c>
+      <c r="D1693">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1694" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1694" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1694">
+        <v>647.53</v>
+      </c>
+      <c r="D1694">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1695" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1695" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1695">
+        <v>957.3</v>
+      </c>
+      <c r="D1695">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1696" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1696" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1696">
+        <v>1488.83</v>
+      </c>
+      <c r="D1696">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1697" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B1697" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1697">
+        <v>1733.62</v>
+      </c>
+      <c r="D1697">
+        <v>646</v>
       </c>
     </row>
   </sheetData>
